--- a/기사데이터/토스/엑셀파일/news(토스, 2023.01.01~2023.01.15).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2023.01.01~2023.01.15).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2955,2506 +2955,6 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2023.01.03.</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>새해도 2금융권 '대출 한파' 지속…취약차주 자금난 가중</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006554835?sid=101</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>저축은행 등 2금융권, 새해에도 대출 태도 강화…"조달 비용 높고 부실 우려 크다"중앙은행 금리 인상 기조에 한파 장기화 가능성…당국 "상환 능력 있는 차주엔 대출 공급해야"ⓒ News1 최수아 디자이너(서울=뉴스1) 서상혁 한유주 기자 = 지난 연말 대출문을 걸어 잠갔던 2금융권 금융회사들이 새해에도 대출 문턱을 낮추지 않을 예정이다. 여전히 조달 비용이 부담스러운 수준인데다, 대출 차주의 부실도 점차 확대되고 있어 리스크 관리가 시급하다는 이유에서다. 각국 중앙은행이 올해도 기준금리 인상 기조를 이어갈 방침인데, 제도권 금융의 마지노선인 대부업계도 신용대출 취급을 중단하고 있어 취약차주의 '대출 절벽'이 장기화될 것으로 전망된다.3일 금융권에 따르면 여전사(카드·캐피탈), 저축은행 등 주요 2금융권 금융회사는 새해 들어서도 대출 한도를 줄이거나 대출 심사를 강화하는 등 당분간 대출 문턱을 낮추지 않을 계획이다. SBI·웰컴·페퍼·신한저축·현대캐피탈 등 주요 2금융권 금융회사는 지난 연말 대출 비교 플랫폼을 비롯해 각종 채널을 통한 대출 신청을 받지 않았는데, 일부 금융회사는 연초에도 이같은 방침을 유지할 예정인 것으로 전해졌다. 대출 비교 서비스를 제공하는 토스에 입점한 52개 금융사 중 지난 2일 기준 13개 금융사가 점검을 이유로 신용대출, 햇살론 등의 대출 상품을 신청받지 않고 있다.모 카드사 관계자는 "여신전문금융채 금리가 여전히 높게 형성돼 있어 카드사와 캐피탈사들이 자금을 끌어오는 데 여전히 애로를 겪고 있다"며 "대출 금리가 높아진 상황에서 경기 전망도 어두워 최대한 보수적으로 대출 심사를 진행할 계획"이라고 설명했다. 또 다른 2금융권 관계자는 "새해 들어 각 금융회사별 대출 총량 한도가 다시 복구되면서 지난 연말보다는 사정이 나아지겠지만, 그렇다고 유의미하게 대출 문턱을 낮추긴 어려울 것으로 본다"고 말했다.이들 금융회사가 적극적으로 대출을 낮추지 못하는 건 높아진 '조달 비용' 때문이다. 기준금리가 빠르게 상승하면서 원가가 급격히 불어난 탓에 수익성이 떨어졌다는 것이다. 카드사나 저축은행은 신용 리스크가 큰 저신용자를 주된 타깃으로 하는데, 높아진 조달 비용에 이들에 대한 리스크까지 반영하다 보면 대출 금리가 법정 최고금리인 20%를 넘길 수밖에 없다고 한다.금융투자협회에 따르면 여신전문금융채의 금리는 지난 2일 연 5.536%로 강원도 레고랜드 사태로 연 6%를 넘었던 10월 중순 대비 다소 내려갔지만, 지난해 1월말(연 2.750%)과 비교해보면 여전히 높은 수준에 형성돼 있다. 수신 기능이 없는 카드사와 캐피탈사는 주로 여전채를 발행해 자금을 끌어온다.저축은행의 조달 비용인 수신금리 역시 연 5%를 상회하고 있다. 저축은행중앙회에 따르면 2일 기준 저축은행 업계 정기예금 1년 만기 상품의 평균 금리는 5.36%로 지난해 11월 1일 연 5.42% 대비 소폭 내려갔다. 다만 카드사와 마찬가지로 연초인 1월말(연 2.43%)과 비교하면 크게 높다. 저축은행의 경우 수신을 통해 자금을 끌어오는데 은행권이 한은 기준금리 인상·대출 수요·은행채 발행 제한 등의 요인으로 수신금리를 급격히 올리는 바람에, 저축은행도 예금 금리를 올릴 수밖에 없었다.저축은행 관계자는 "조달비용이 크게 높아져 법정 최고금리 이상으로 받아야 할 금리를 받지 못하고 있다"며 "햇살론의 경우 금리 상단이 연 10.5%로 정해져 있어 역마진을 감수하고 상품을 판매하고 있다"고 설명했다.대출 차주의 부실 리스크도 문턱을 높일 수밖에 없는 요인이다. 조달 비용 상승 영향으로 대출 금리가 크게 높아진 상황에서, 경기도 점차 악화되고 있어 차주들이 점차 대출 상환에 어려움을 겪을 것이라는 관측이 나오고 있다. 박춘성 한국금융연구원 연구위원이 분석한 자료에 따르면 기준금리가 3.5%로 오를 경우 비은행권에서 DSR이 70%를 넘어가는 차주의 비중은 평균 15%가 될 것으로 나타났다. DSR이란 연 소득에서 대출 원리금 상환액이 차지하는 비중을 말한다. DSR이 70%를 넘어갔다는 뜻은 연간 소득에서 70% 이상을 이자 상환에 사용한다는 뜻으로, 향후 채무를 상환하지 못할 가능성이 매우 높다고 볼 수 있다.전문가들은 2금융권 대출 시장 한파가 장기화될 가능성이 높다고 보고 있다. 신용상 한국금융연구원 금융리스크연구센터장은 "현재 2금융권 자금 경색은 부동산 프로젝트파이낸싱(PF)에서 시작됐는데 부동산 시장에 대한 의구심이 여전한 만큼, 당분간 자금 조달에 어려움을 겪을 것"이라며 "2금융권 차주의 대다수는 변동금리로 대출을 받았는데, 중앙은행의 금리 인상 기조가 길어질 가능성이 있어 점차 부실이 현실화될 것으로 본다"고 말했다.2금융권이 대출을 조이는 와중에 제도권 금융의 '보루'인 대부업계도 신용대출 취급 규모를 점차 줄이고 있어 대출 절벽이 현실화될 것이라는 우려가 나온다. 진선미 더불어민주당 의원실이 금융감독원으로부터 제출받은 자료에 따르면 대부업계에서 신용대출을 받은 대출자는 지난해 12월말 106만7005명에서 올 9월말 96만8688명으로 9만8317명 감소했다.상황이 이렇게 되자 금융당국도 대응에 나섰다. 금융당국은 최근 2금융권 금융회사에 무작정 대출 취급을 중단하는 건 바람직하지 않다는 취지의 의견을 전달했다. 대출 취급을 거절하더라도 심사 절차에 따라 이뤄져야 하지, 상환 능력이 있는 차주까지 대출을 거절하는 건 맞지 않다는 것이다.금융당국 관계자는 "금융회사로서 건전성을 관리하는 건 중요하나, 일괄적으로 대출을 중단하는 건 합리적이지 않다"며 "상환 능력이 있다고 판단되는 차주에 대해선 대출을 취급하는 게 맞다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2023.01.04.</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>토스페이, 2월부터 영세·중소사업자 수수료 인하</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003770710?sid=101</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>연 매출 3억원 이하 가맹점 수수료 47%↓모바일 금융 플랫폼 토스의 운영사인 비바리퍼블리카는 영세·중소가맹점을 대상으로 자사의 간편결제 서비스인 ‘토스페이’ 결제 수수료를 다음달부터 인하한다고 3일 밝혔다.      비바리퍼블리카는 오는 2월1일부터 영세·중소가맹점을 대상으로 자사의 간편결제 서비스인 ‘토스페이’ 결제 수수료를 인하한다고 3일 밝혔다. 비바리퍼블리카 제공    비바리퍼블리카에 따르면 연 매출 3억원 이하 영세 가맹점의 토스페이 수수료는 1.60%로 낮아진다. 이는 기존 대비 약 47% 인하된 수치다. 연 매출 3억∼30억원 이내의 중소가맹점도 매출 규모에 따라 1.90∼2.40%로 인하된다. 그동안 토스페이 수수료는 매출 규모 구분 없이 3%로 고정돼 있었다. 해당 수수료에는 간편결제에 연계된 카드사나 결제은행에 토스가 지급하는 수수료, PG(지급결제대행)사 수수료 등이 포함돼 있다.      토스는 “이번 조치는 코로나19 및 정책금리 인상 등으로 영세·중소사업자들의 경영 환경이 녹록지 않은 상황을 감안해 사업자들의 수수료 부담을 최소화하고 영업을 지원하자는 자발적 노력의 일환”이라고 설명했다. 새 수수료 정책은 오는 2월1일부터 적용될 예정이다.      최재호 토스 사업전략총괄은 “토스페이는 토스 애플리케이션(앱)을 통한 간편한 결제 경험과 빠른 연동으로 영세·중소 가맹점과 함께 성장해왔다”며 “이번 간편결제 수수료 인하로 가맹점의 부담은 덜고 많은 고객이 토스페이를 경험할 수 있는 계기가 되기를 바란다”고 밝혔다. 토스페이는 토스 앱에서 결제카드 혹은 은행계좌 등록 후 사용이 가능하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2023.01.11.</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>"전세계 유니콘 25%는 핀테크, 한국은 생각나는 기업 없어"[이코노 인터뷰]</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000037902?sid=101</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>정유신 서강대학교 기술경영대학원장, 미래먹거리로 디지털 금융시장 선점 강조유연 규제로 성장 발판 마련해줘야정유신 서강대학교 기술경영대학원장이 인터뷰에서 답변하고 있다. [신인섭 기자][이코노미스트 김정훈 기자] “반도체처럼 범시장적인 차원에서 우리만의 경쟁력을 가진 히트작이 또 나와야 한다.”‘디지털’이란 말이 익숙해진 21세기, 이제 전세계 국가는 한차원 넘어선 ‘디지털 경쟁력’을 갖추기 위해 혈안이다. 이 시장에서 앞선 자가 미래먹거리를 선점한다는 것을 잘 알고 있어서다.한국의 디지털 경쟁력 현주소는 어디 쯤일까. 정유신 서강대학교 기술경영대학원장(전 한국핀테크지원센터장)은 ‘한국만큼 디지털에 최적화된 나라가 없다’고 강조했다. 특히 반도체 이후 디지털과 3차 산업의 융합, 그 중에서도 ‘금융’과 결합한 디지털금융 서비스가 우리의 미래먹거리인 만큼 더이상 성장을 미룰 수 없다고 목소리를 높였다.창조는 곧 융합서 나와…핀테크 정책 유연성 필요 정 원장은 디지털이 제조 및 건설 분야를 뺀 금융, 유통, 부동산 등 모든 3차 산업과 연결돼 ‘융합 산업’으로 성장해야 한다고 밝혔다. 3차 산업과 디지털이 만나 새로운 혁신이 나올 수 있다는 주장이다. 비즈니스적인 개념에서 ‘창조’의 정의는 기존의 틀을 모두 깨는 ‘파괴적 혁신’이 아니라 기존 것과 새 것의 융합에서 나오는 ‘시너지 혁신’이 돼야한다는 얘기다. 이런 맥락에서 정 원장은 디지털과의 융합 매개체로 3차 산업 중 국민 생활 속에 깊게 스며들어 있는 ‘금융’의 중요성을 강조했다. 정 원장은 “디지털 시대에서는 소비자들이 금융플랫폼에서 금융은 물론, 문화와 예술, 유통, 교육과 부동산 서비스까지 모두 해결이 가능해야 한다”면서도 “전 세계 유니콘기업 25%가 금융과 디지털이 결합된 핀테크지만 우리는 사실상 토스를 빼면 생각나는 기업이 없는 실정”이라고 밝혔다. 소비자들에게 가장 강력한 로열티를 줄 수 있는 분야가 금융인 만큼 이 분야에 대한 정책적 지원이 필요하다는 주장이다. 자연스레 금융과 디지털의 만남인 핀테크로 이야기가 옮겨졌다. 정 교수는 2015년부터 2021년까지 핀테크지원센터 센터장을 맡는 등 이 분야에서는 널리 알려진 전문가다. 그런 그에게도 핀테크사들의 규제 완화 이슈는 ‘풀지 못한 숙제’다. 여전히 빅테크든 스몰테크든 많은 핀테크사들이 지금 이시간에도 금융규제에 막혀 신사업 전개에 애를 먹고 있다.  정 원장은 “핀테크 태동기와 달리 최근에는 규제를 완전히 없애주는 등의 움직임이 많이 약해진 것은 사실”이라며 “워낙 경기가 어렵고 금리 상황도 악화돼 정부 입장에서 완전 규제 완화를 하기엔 리스크가 너무 큰 것”이라고 밝혔다.  그는 정부가 초기 스타트업들이 태동 후 사업이 일찍 좌초되는 부분에 대한 고민이 필요하다고 강조했다. 특히 경험과 역량이 부족한 벤처투자자(VC)가 초기 스타트업에 투자하는 것은 사실상 ‘아기가 아기를 돌보는 것’과 같다는 지적이다. 그는 “정부가 초기 스타트업 투자에 인센티브를 높여준다던지 투자생태계를 기업 단계별로 만들어줄 필요가 있다”고 말했다.또한 그는 핀테크 업계의 특성을 고려한 정부 정책이 필요하다고 강조했다. 정 원장은 “핀테크에게 가장 중요한 세 가지는 자금 조달, 손익분기점(BEP), 그리고 인력 관리인데 자금 조달 부문이 매우 취약한 편”이라며 “정부는 핀테크 지원 예산이 없기 때문에 민간자금이 활성화될 수 있는 정책을 펴야 한다”고 밝혔다.정유신 서강대학교 기술경영대학원장이 인터뷰에서 답변하고 있다. [신인섭 기자]규제 철폐로 신사업 발판 마련해야 그는 현재의 구조에서 핀테크업계를 주시하는 민간 투자자들의 움직임이 더 위축될 수밖에 없다고 진단했다. 자금조달 시 활용되는 기업공개(IPO)에서도 핀테크 투자자들이 수익을 볼 수 있는 구조가 아니라는 얘기다. 정 원장은 “앞으로의 디지털 신사업 영역의 성공과 실패 주기는 갈수록 더 짧아질 것”이라며 “투자자들이 핀테크에 투자해 10~15년이나 기다려 수익을 낼 수 있는 구조가 아니다”라고 지적했다. 그러면서 그는 “미국 실리콘밸리 벤처기업 엑시트(자금회수) 비중을 보면 인수합병(M&amp;A)이 80%고 IPO는 20%에 불과하다”며 “우리도 IPO가 아닌 M&amp;A로 투자자들이 수익을 볼 수 있도록 정부가 정책을 만들어 줘야 한다”고 설명했다.정 원장은 올해도 우리 경제가 쉽지 않을 것으로 전망하며 정부가 하루 빨리 신산업 육성을 위한 발판 마련에 나서야 한다고 강조했다. 정부와 국민들이 보다 유연한 시각으로 핀테크 규제 문제를 바라봐야 한다는 것이다. 그는 특히 개인정보 활용을 예로 들어 과도한 규제가 성장 발목을 잡을 수도 있다고 우려했다.  그는 “디지털금융 사회에서는 개인정보가 쌓여 만들어진 데이터가 곧 경쟁력이고 산업이 성장할 수 있는 원동력”이라면서 “개인정보 활용에 동의한 데이터를 핀테크사들이 이용하는데 문제가 없도록 국민적 공감대가 더 쌓여야 한다”고 밝혔다. ‘사생활 침해’가 없는 선에서의 개인의 동의를 얻은 개인정보 활용은 필요하다는 얘기다. 이어 “이런 규제들 때문에 유럽에서 구글이나 페이스북, 아마존 같은 회사가 나오지 못하는 것”이라며 “이것, 저것 모두를 보호한다는 명분 아래 정부가 시간을 끌다가는 한국이 이러한 신사업 국가 경쟁에서 뒤쳐질 수밖에 없다”고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2023.01.09.</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>토스, FDS 고도화로 보이스피싱 예방</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002777547?sid=101</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>15만건 송금사기 예방 성과도토스가 이상금융거래방지 시스템 고도화를 추진하고 있다. 토스 제공    최근 보이스피싱과 메신저피싱이 기승을 부리면서 금융권의 보안 체계 마련 필요성이 대두된 가운데 토스 등 핀테크 업계가 선제대응에 나서고 있다.9일 통계청에 따르면 2021년 한해동안 3만여건의 보이스피싱과 1만7800여건의 메신저피싱(스미싱)이 발생했다. 고령층이 취약할 것이라는 통념과는 다르게 거의 모든 연령층에서 각종 피싱 사고가 일어나고 있다는 설명이다.최근엔 보이스피싱과 메신저피싱이 결합된 기법도 등장했다. 처음에는 음성 전화로 접근해 안심시키고 대출에 필요한 앱이라며 문자나 SNS로 링크를 보내 악성앱을 깔게 만드는 사례도 증가하고 있다. 악성앱을 이용해 사기범들이 피해자의 스마트폰을 원격조정하게 되면서 피해 규모도 늘어나고 있다. 통계청에 따르면 지난해 보이스피싱 1건당 피해 금액은 2500만원에 달했다.금융권들은 날로 진화하는 사기범들의 창을 막기 위해 FDS(Fraud Detection System, 이상감지시스템)라는 방패를 만들고 있다. FDS는 전자금융거래 접속정보, 거래 내역 등을 종합적으로 분석해 이상금융거래를 탐지·차단하는 시스템이다. 새로운 피싱 방법 등을 막기 위해 기존 탐지 시나리오를 보다 선제적이고 적극적으로 개선해야 한다는 목소리도 나오고 있다. 금융 보안업계 역시 지능화되고 있는 외부 위협에 대해 효과적인 대응하기 위해서는 현행 FDS를 고도화해야 한다는 데 이견이 없다.핀테크업계는 오래 전부터 FDS 고도화에 나서고 있다. 비대면 거래에서 오는 고객의 불안함과, '쉽고 편리하면 보안이 부족하지 않을까' 하는 편견과 맞서야 하기 때문이다.대표적인 핀테크 업체로 토스와 카카오페이가 있다. 토스는 지난 2015년 6월부터 더치트와 제휴해 사기 의심 거래를 꾸준히 잡아냈으며, 지속적으로 FDS룰을 고도화했다. 지난해 하반기에는 15만건의 의심스러운 송금에 '사기 의심 사이렌'을 울리며 고객을 보호했다. 카카오페이 역시 2015년부터 이상거래감지시스템을 구축해 의심거래를 방지해왔다.토스 관계자는 "금융 사고의 특성상 사기범을 잡아도 피해액은 이미 다른 곳으로 빠져나간 경우가 많다. 그만큼 사고를 예방하는 조치가 매우 중요하다"면서 "토스는 날로 진화하는 사기수법에 맞서 수백가지 탐지룰을 찾았고, 머신러닝 등의 첨단 기술을 이용해 각종 피싱 등을 막고 있다"고 밝혔다..</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2023.01.01.</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>공부도 예금도…엉덩이 무거운 사람이 승자다</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004794535?sid=101</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>2023 주식투자 가이드은행 PB들이 말하는 예·적금 전략은단기 자금은 만기 1년여윳돈은 2년 이상금리 정점론 목소리高금리 줄 때장기 상품 GOGO!은행 예금금리가 금융당국의 금리 경쟁 자제 권고와 은행채 발행 재개 등으로 하락하면서 금융 소비자들의 발걸음이 바빠지고 있다. 만기가 짧은 예금에 가입한 뒤 고금리 상품이 나올 때마다 해약과 재계약을 반복하는 ‘갈아타기’ 전략에 대한 수정이 필요하다는 의견도 있다. 은행 프라이빗뱅커(PB)들은 수신 상품별로 예치 기간을 분산하고 장기 상품 비중을 늘려야 한다고 조언했다.그래픽=신택수 기자 “예금 만기 1·2년 등 분산해야”작년 말 최고 연 5%를 넘겼던 국민 신한 하나 우리 농협 등 5대 시중은행의 예금금리는 연 4% 중반에 머무르고 있다. 은행채 발행으로 자금조달 부담을 던 은행들이 예금금리 인상에 소극적인 데다 대출금리 동반 상승 등을 우려한 당국도 수신 경쟁 자제를 권고하면서 당분간 예금금리 상승을 기대하기 어렵다는 전망도 나온다.이에 주요 은행 PB들은 만기 1년 예금과 2년 이상 예금에 분산 투자하라고 당부했다. 단기 운용 자금은 만기를 1년으로 설정해 최고 금리를 얻고 여유자금은 만기를 2년 이상으로 잡아 안정성을 확보하라는 것이다. 5대 시중은행의 1년 만기 주요 예금 금리는 지난달 29일 연 4.27~4.70% 수준으로 다른 만기 때보다 주는 금리가 더 높다. 만기가 2년 이상으로 길어지면 금리 상단이 약 0.2~0.4%포인트 떨어진다.금리만 놓고 보면 1년 만기 상품이 가장 높지만 PB들은 1년짜리 상품에만 투자하면 만기 후 비슷한 고금리로 재예치하기 어려울 수 있다는 점에 주목했다. 박해영 하나은행 방배서래골드클럽 PB 부장은 “장기간 고금리를 유지하고 싶다면 금리 손해를 소폭 감수하고서라도 만기를 2년 이상으로 잡는 것이 안정적”이라며 “동시에 단기 자금을 최대 1년 정도로 굴려 고금리를 가져가면서 예금금리 추이를 살피는 것이 좋다”고 했다. 박 부장이 권한 장기 자금 대 단기 자금 예치 비율은 7 대 3 수준이다.장기간 목돈을 맡기는 게 부담이라면 만기 3~6개월 단기 예금을 통해 예치금과 예치 기간을 조절하는 것도 방법이다. 정성진 국민은행 강남스타PB센터 부센터장은 “유동성을 유지하고 싶다면 3~6개월 단기 예금에 자금을 절반가량 넣고, 나머지는 1년 예금과 2년 이상 예금에 분산하는 것도 방법”이라고 했다. “적금 수익률 떨어져…목돈용으로 이용”당분간 예금금리 인상을 기대하기 어려운 만큼 적금으로 수익을 내긴 쉽지 않다는 관측도 있다. 만기 1년 적금 상품에 매달 새로 가입한 후 다음해에 원금과 이자를 매달 받는 ‘풍차 돌리기’가 대표적이다. 이 방법은 금리 하락기에 사용하면 전달 금리보다 낮은 금리로 새 상품을 들 가능성이 커 효과가 떨어진다.오경석 신한은행 신한PWM 태평로센터 팀장은 “금리 정점론이 나오는 상황에서 풍차 돌리기 등 금리 인상 때 유용한 투자법은 효과가 크지 않을 것”이라며 “차라리 만기가 긴 상품에 가입해 예금에 넣을 목돈을 만드는 것이 적절하다”고 했다.단기간 돈을 넣어두면서 이자를 조금이라도 더 받으려면 하루만 맡겨도 이자를 받을 수 있는 ‘파킹통장’을 눈여겨보는 게 좋다. 인터넷은행 케이뱅크 ‘플러스박스’는 수시입출식 통장이지만 금리가 연 3%에 달한다. 토스뱅크는 파킹통장 금리를 5000만원 초과분에 한해 연 4% 이자를 준다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2023.01.11.</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>연말정산 얼마나?…이곳 클릭하면 궁금증 끝!</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000318169?sid=101</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>'13월의 월급’ 연말정산 간소화 서비스 15일 개통[연말정산 간소화서비스 (사진=연합뉴스)]월급쟁이가 지난해 더 낸 세금을 돌려받거나 덜 낸 세금을 정리할 수 있는 연말정산이 시작됩니다.국세청이 연말정산 증명자료를 영수증 발급기관으로부터 수집해 홈택스로 제공하는 ‘연말정산 간소화 서비스’가 오는 15일부터 개통됩니다. 단, 영수증 발급기관이 15일 이후 추가 제출하거나 수정한 자료가 있는 경우 이를 반영한 최종 확정자료는 20일부터 제공합니다.간소화 자료 일괄제공 서비스 근로자가 일일이 간소화 자료를 내려받는 불편함을 줄이기 위해 국세청이 회사에 자료를 직접 제공하는 '간소화 자료 일괄제공 서비스'도 제공됩니다. 서비스 이용을 희망하는 회사는 14일까지 홈택스에 근로자 명단(성명·주민등록번호)을 등록하면 됩니다. 근로자가 19일까지 일괄 신청 내용을 확인(동의)하면 국세청은 확인 절차를 완료한 근로자의 간소화 자료를 21일부터 회사에 일괄 제공합니다. 자체 연말정산 프로그램이 없는 회사와 근로자를 위한 연말정산 지원 서비스인 ‘편리한 연말정산 서비스’는 18일부터 개통합니다.지난해와 달라진 서비스 개선 내용간소화 서비스를 다양한 방식으로 접속할 수 있도록 간편인증(민간인증서) 4종을 홈택스에 추가 도입했습니다. 기존 카카오톡, 통신사PASS, 삼성패스, 국민은행, 페이코, 네이버, 신한은행에서 올해는 토스, 하나은행, 농협, 뱅크샐러드가 추가됐습니다.또 오는 15일부터 31일까지 한시적으로 회원가입 없이 비회원 접속 방식에 휴대전화･신용카드 본인인증이 추가됐습니다.장애인의 연말정산 편의성 증진을 위해 보건복지부와 국가보훈처에서 수집한 장애인 증명자료를 간소화 자료로 제공합니다. 주택 월세액을 신용카드로 납부하는 경우 카드회사로부터 신용카드로 결제한 월세액 자료(임차인이 임대인에게 월세액을 신용카드로 결제한 금액)를 수집해 간소화 자료로 제공합니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2023.01.02.</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>“토스·카카오페이가 수수료 차별”…저축銀, 플랫폼 ‘철수’ 움직임</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002085349?sid=101</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>은행 0.4~0.5%의 수수료, 저축은행은 1.7~2.5%까지저축은행 업계, 중앙회에 플랫폼 계약 일임하는 방안도 검토지난 27일 기준 대출중개플랫폼 토스 애플리케이션(앱) 캡쳐화면. 2금융권이 대거 플랫폼을 통한 대출 취급을 중단했다. [토스 앱 갈무리][헤럴드경제=홍승희 기자] 대출 중개 플랫폼 토스·카카오페이 등을 서비스하는 빅테크사가 저축은행 등 2금융권에 1금융권보다 과도하게 높은 수수료율을 부과한다는 주장이 제기되고 있다. 최근 조달금리 급등으로 자금 조달에 어려움을 겪은 저축은행은 지난 연말까지 플랫폼을 통한 대출을 일시 중단했는데, 수수료율 문제가 개선되지 않는다면 특정 플랫폼에서는 일제히 철수하겠다는 움직임까지 나온다.2일 금융권에 따르면 대출 중개 플랫폼들이 저축은행에 평균적으로 부과하는 중개 수수료율은 1.7∼1.8%인 반면, 은행권에 대해서는 0.4∼0.5%의 수수료를 받고 있다. 일부 플랫폼사에서 요구하는 선택 수수료까지 포함하면 저축은행에 부과하는 실제 중개 수수료 지금률은 최대 2.5%에 육박하는 것으로 전해졌다.저축은행 업계는 토스, 카카오페이와 같은 빅테크사가 대출금리의 약 10%를 중개수수료율로 부과하는 것으로 추산하고 있다. 이 때문에 고신용자를 대상으로 저금리 대출을 취급하는 은행 등은 상대적으로 적은 수수료를 내는 반면, 중저신용자를 대상으로 중금리 대출을 내주는 저축은행은 많은 수수료를 내야 한다는 것이다.이에 저축은행 업계는 모든 금융권이 동일한 방식으로 플랫폼을 이용하는데도 동일한 시스템 이용 원가를 무시하고 업권간 차별적인 중개수수료를 부과하는 것은 부당하다는 주장을 펼치고 있다. 아울러 중개 수수료가 높아질수록 금융회사의 업무원가(비용)가 상승해 결과적으로 대출 금리가 오르고, 중저신용자는 더 높은 이자 부담을 안게 될 수 있다는 우려다.다만 플랫폼사 측은 수수료 책정은 기본적으로 금리와 연관이 가장 높아 평균 대출 금리가 연 3∼4%인 시중은행과 연 15∼20%인 저축은행에 동일한 수수료를 적용할 수는 없다는 입장이다.저축은행과 플랫폼 간 갈등은 향후 더욱 가시화될 전망이다. 저축은행중앙회는 개별 저축은행의 협상력이 부족하다면 저축은행중앙회에 계약권을 일임해 협상을 진행하는 안도 검토하고 있다. 중앙회가 개별 저축은행의 중개 계약을 위임받아 가장 유리한 조건을 제공하는 대출 중개 플랫폼 몇 곳에만 입점하는 방식 등을 검토 중인 것으로 알려졌다.이처럼 저축은행들이 최근 플랫폼 수수료에 대한 불만을 본격적으로 표출하는 것은 최근 시장 여건 악화로 조달금리가 급등한 상황에서 중개수수료 비용을 감당하기 어려워진 업체가 늘어났기 때문이다. 반면 플랫폼을 통한 대출 취급 비중은 전체 대출의 절반을 넘어설 정도로 영향력이 커진 상황이다.최근 2금융권과 대부업체 등이 조달금리 인상을 감당하지 못해 대출 문을 걸어 잠그자, 금융위는 지난달 27일 조달금리 변동 폭만큼 올해 1∼6월 적용될 민간 중금리 대출 상한을 높이기로 했다고 고시했다. 민간 중금리 대출 제도는 신용 하위 50%인 개인 대출자를 위한 제도로, 업권별 금리 상한 요건을 충족하는 비보증부 신용대출에 대해 인센티브를 부여하는 방식으로 운영된다. 이로써 올해 상반기 민간 중금리 대출의 금리 상한은 상호금융업권이 10.5%, 카드사는 11.88%, 캐피탈은 14.99%, 저축은행은 17.5%로 상향된다.저축은행 업계 관계자는 "유동성 위기를 겪는 캐피탈사들이 대출 취급을 줄이고 있는 만큼 저축은행만큼은 정상적으로 대출을 취급해야 하는데, 금리 인상뿐 아니라 유통 비용의 문제가 발목을 잡고 있다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2023.01.03.</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>엔픽셀, 블록체인 MMORPG '그랑사가: 언리미티드' 티저 영상 공개</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003069998?sid=105</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>그랑사가: 언리미티드엔픽셀이 블록체인 다중접속역할수행게임(MMORPG) '그랑사가: 언리미티드' 티저 영상을 최초 공개했다.'그랑사가: 언리미티드'는 엔픽셀의 첫 프로젝트 '그랑사가' 지식재산권(IP)에 블록체인 기술을 접목한 MMORPG다. 엔픽셀은 웹3.0 기반 게임 생태계 '메타픽셀(METAPIXEL)'을 통해 그랑사가: 언리미티드를 서비스할 예정이다. 대체불가토큰(NFT)와 스마트 컨트랙트 등 블록체인 기술을 활용해 △유저 경험·가치 공유 △투명성 등을 지향한다.아울러 그랑사가: 언리미티드 디스코드 채널 개설을 통해 블록체인 게임 및 생태계에 대한 정보를 순차 공개해 커뮤니티 활성화에 나설 방침이다.엔픽셀은 2017년 설립된 게임 개발사다. 차기작 '크로노 오디세이' 등 다수의 프로젝트를 개발 중으로 지난해 레이어1(Layer1) 블록체인 '앱토스'와 게임 부문 파트너십을 체결했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2023.01.11.</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>홍민택 대표, ‘목돈 굴리기’ 투자상품 소개 1조원 돌파 세레모니</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000037898?sid=101</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>경쟁력 높은 투자상품 자체 선별증권사 발행어음·채권 인기 몰이 11일 서울 여의도 한국투자증권 본사에서 홍민택 토스뱅크 대표(왼쪽)와 김성환 한국투자증권 부사장이 ‘목돈 굴리기’에서 소개한 투자상품 금액 1조원 돌파를 축하하고 있다. [사진 토스뱅크][이코노미스트 김윤주 기자] 토스뱅크가 ‘목돈 굴리기’ 서비스를 통해 소개한 투자상품 금액이 1조원을 돌파했다고 11일 밝혔다.이날 토스뱅크는 서울 여의도 한국투자증권 본사에서 ‘목돈 굴리기’에서 소개한 한국투자증권 금융투자상품 1조원 돌파를 기념한 세레모니도 진행했다. 행사에는 홍민택 토스뱅크 대표와 김성환 한국투자증권 개인고객그룹 부사장 등 관계자들이 참석했다.토스뱅크의 ‘목돈 굴리기’ 서비스는 경쟁력 있는 금융투자 상품들을 모아 광고하고, 고객이 해당 상품 판매사를 통해 가입할 수 있는 서비스다. 작년 8월 출시한 뒤 약 5개월만에 ‘목돈 굴리기’에서 소개한 투자상품의 가입금액이 1조원을 넘어 현재는 1조1360억원에 달한다. ‘목돈 굴리기’ 서비스는 시장의 수많은 금융상품들 중 최고 수준의 상품 경쟁력을 가진 상품들을 토스뱅크가 자체 선별해 소개해 인기를 끌었다. 특히 지난해 8월 ‘목돈 굴리기’ 서비스에 최초로 입점한 한국투자증권의 발행어음 상품은 출시 4일만에 2000억원의 특판 한도가 모두 소진되기도 했다. 토스뱅크는 지난 해 11월부터 ‘목돈 굴리기’ 서비스의 상품 라인업을 강화하고 있다. 주력 광고 중인 한국투자증권의 발행어음 외에도 안정성이 높은 국고채부터 은행채, AA등급 이상의 우량 회사채도 추가했다. 작년 하반기 금리 상승기에 예금보다 수익성이 높은 채권 투자에 대한 고객의 요구가 높았다. 하지만 기존 금융권에서 투자하기에 접근성이 높지 않았고, 토스뱅크는 이 점에 주목했다. 또한 토스뱅크는 고객 편의를 위해 ‘채권 수익계산기’와 같은 서비스도 탑재했다.지난해 11월부터 12월 말까지 ‘목돈 굴리기’를 통한 채권 금액만 2000억원이 넘는다. 토스뱅크는 국고채·은행채·한전채 등 AA 등급 이상의 회사채 중에서도 금리 경쟁력이 높은 채권을 선별해 연 5% 이상 높은 수익률의 상품을 다양하게 마련했다. 토스뱅크 관계자는 “안정성과 수익성 측면 모두에서 고객의 요구를 모두 충족시킬 수 있는 상품을 선별하고 일반 고객들이 편리하게 접근할 수 있도록 고객 경험을 계속 강화해 갈 것”이라며 “앞으로도 더욱 다양한 제휴 금융사와 상품 라인업을 확대해 더욱 풍부한 서비스를 제공할 수 있도록 해나갈 것”이라고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2023.01.12.</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>카카오 화재로 화제된 ‘토스 채팅’의 아쉬운 퇴장[이코노 EYE]</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000037927?sid=101</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>토스 채팅, 낮은 이용률로 다음 달 10일 종료美 송금앱 ‘벤모’ 모델 벤치마킹…소셜 기능 접목‘카카오톡 먹통’ 사태로 대체 메신저로 주목불법 채팅방으로 논란됐지만 現 이용자들은 아쉬움 토로토스가 오는 2월 10일부터 채팅 서비스를 종료하기로 결정했다. 사진은 토스 주제별 채팅방 목록. [토스 앱 캡처][이코노미스트 윤형준 기자] 지난 10일 오후, 여느 때 같이 스마트폰을 보던 중 토스 앱에서 알림이 왔습니다. 바로 토스의 ‘채팅’ 서비스가 종료된다는 안내였죠. 주위에 물어보니 대다수는 토스 채팅의 존재조차 몰랐다고 합니다. 하지만 몇몇 이들은 꽤 ‘유용하게 썼다’면서 서비스 종료에 아쉬움을 표하기도 했습니다.최근 토스는 모바일 앱 공지를 통해 “2023년 2월 10일부터 ‘채팅’ 서비스가 종료될 예정”이라며 “이후부터는 연락처 채팅, 주제별 채팅을 이용할 수 없다”고 알렸습니다. 연락처 채팅은 문자메시지나 카카오톡 일대일 채팅과, 주제별 채팅은 카카오톡 오픈채팅과 비슷한 서비스입니다.우선 주제별 채팅부터 문을 닫을 예정입니다. 1월 12일부터는 ‘방장지원금 지급’이 종료되고, 1월 25일부터는 ‘신규 방 생성’과 ‘신규 방 입장’이 불가능해집니다. 이후 2월 10일부터는 연락처 채팅까지 포함해 채팅 서비스 전체가 종료되는 것이죠. 2021년 9월 서비스를 시작한 지 불과 1년 4개월 만에 작별인사를 하게 된 겁니다.물론 토스가 제2의 카카오톡을 만들겠다는 식의 도전장을 냈던 건 아닙니다. 출시 당시 토스는 카카오처럼 메신저를 별도의 서비스로 제공하기 위한 것은 아니며 ‘금융 슈퍼앱’으로서 토스 서비스를 더 잘 사용할 수 있도록 돕기 위한 차원이라고 설명했습니다. 사실 이 모델은 미국의 대표 간편송금 앱인 ‘벤모(Venmo)’와 매우 비슷했죠.미국 모바일 송금 핀테크 '벤모(Venmo)'. [사진 Venmo]벤모는 토스와 마찬가지로 모바일 송금 서비스를 기본으로 하고 있습니다. 하지만 여기에 소셜 기능을 더한 점이 다르죠. 소셜미디어(SNS)에 사진을 올리듯 결제내역을 올리면 친구들이 댓글을 달며 소통을 할 수 있습니다. 벤모는 2021년 기준 전년 동기 대비 88%나 증가한 8억5000만 달러(약 1조원)의 매출을 올리기도 했습니다. 연간 이용자도 7000만명으로 이제는 미국 젊은 세대 사이에서 ‘필수 앱’으로 자리 잡았습니다.업계에선 토스가 정확히 카카오의 반대 구조로 성공하려는 것 아니냐는 관측이 나왔습니다. 플랫폼 이용자 수를 고려하면 금융에서 소셜 서비스로 확장할 수 있는 건 국내선 토스밖에 없다는 얘기였습니다. 지난해 9월 기준 토스 앱이 설치된 기기 수는 약 1950만대가 넘습니다. 지난해 10월 카카오 데이터 센터 화재 사건 당시 토스 앱의 채팅 서비스 홍보 배너. [온라인 커뮤니티 캡처]실제 토스 채팅은 몇 개월 전부터 이름을 알리고 외연을 확장해나가는 듯했습니다. 지난해 10월 판교 데이터센터 화재 사건으로 카카오톡이 ‘먹통’이 되면서 주목받았기 때문이죠. 당시 네이버는 검색창 주변에 ‘긴급한 연락이 필요할 때 글로벌 메신저 라인 사용하세요’라는 문구를 띄워 자사 메신저를 자랑했습니다. 토스도 ‘토스에도 채팅 기능이 있어요’라는 배너를 앱 상단에 위치시켜 ‘깨알 홍보’를 했죠.하지만 주제별 채팅에서 잡음이 일어나기 시작했습니다. 일부 이용자들이 익명성에 기대 불법적인 채팅방이 횡행한 것이죠. 일례로 주식 종목 추천방이 대표적입니다. 토스의 채팅 운영 정책에는 ‘이용자의 금전적인 피해 발생 가능성이 높은 활동은 금지한다’고 명시돼 있으며, 자본시장법에서도 금융당국에 인가·등록 되지 않은 일대일 자문 및 알선 행위는 금지돼 있습니다.수위를 넘는 음란 채팅방도 문제였습니다. 특히 자신이 10대 여성 청소년이라며 상반신 노출 사진을 걸고 용돈을 요구하는 등 아동·청소년과 연관된 불법적 소지가 있어 논란이 되기도 했습니다.토스 측은 이 같은 문제 때문에 채팅 서비스를 종료하는 것은 아니라고 해명했습니다. 오히려 안전한 운영을 위해 많은 노력을 기울였다는 설명입니다. 토스 관계자는 “당시 불법 채팅방 이슈를 크게 인지하고 촘촘하게 키워드를 필터링했다”며 “특히 동영상 전송 기능을 아예 만들지 않아 불법 촬영물 유통 등은 사전에 차단할 수 있었다”고 말했습니다.토스 측은 그저 서비스 이용률이 높지 않아서 채팅을 종료하게 됐다고 입장을 밝혔습니다. 실제 토스 월간활성이용자수(MAU)가 1400만명인데 반해, 주제별 채팅 기준 MAU는 3만명 수준으로 현저히 낮은 이용률을 보이고 있다고 합니다.그럼에도 토스 채팅을 나름대로 잘 이용하던 이들은 엄연히 있습니다. 특히 이런 이슈가 없는 ‘연락처 채팅’ 애용자들의 경우 불만을 토로합니다. 성남시 분당구에 사는 50대 주부 이모씨는 “토스는 글씨가 커서 우리 세대가 이용하기 좋다”며 “송금하면서 자녀들과 메시지와 이모티콘을 남기는 게 재미였는데 아쉽다”고 말했습니다. 심지어 “캐릭터가 귀엽고, 효과음도 톡톡 튄다”며 아주 ‘사소한 이유’를 밝히기도 했죠.그렇습니다. 이런 사소함과 단순함이 토스의 가장 큰 매력이 아니었을까요. 단순히 낮은 이용률로 서비스를 접은 건 디지털 소외계층을 품겠다는 토스의 가치와 다소 거리가 있어 보여 아쉬움이 남습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2023.01.12.</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>오화경 저축은행중앙회장 "빅테크 수수료 차별, 결국 취약계층 피해"</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001077092?sid=101</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>한국경제TV, 오화경 회장과 단독 인터뷰  오 회장 "대출이자 원가 낮추기 위한 노력 필요해"  "신용도 낮은 취약계층 피해 커질 것"&lt;앵커&gt;최근 빅테크 플랫폼에서 금융사별로 간편하게 대출금리 비교가 가능해졌는데요, 플랫폼사들이 금융사별로 각각 다른 수수료율을 적용하고 있다는 것 알고 계셨나요.특히 은행보다 무려 5배나 높은 수수료를 내고 있는 저축은행업권은 "공정성에 어긋난다"며 반발하고 있습니다.장슬기 기자가 오화경 저축은행중앙회장을 직접 만나 이야기를 들어봤습니다.&lt;기자&gt;대출상품 금리에 따라 수수료율 차등을 두고 있는 빅테크 플랫폼.오화경 저축은행중앙회장은 한국경제TV와의 단독 인터뷰에서 "대출 중개 플랫폼사의 수수료 차별은 결국 취약차주의 피해로 이어질 것"이라고 우려했습니다.[오화경 저축은행중앙회장 : 빅테크가 손님을 소개시켜주는데 따른 원가비용은 차이가 없어요. 제2금융권이 높은 이자를 받는다고 해서 수수료를 더 받는 형식인데, 결국 이 원가는 대출하는 분들에게 전가가 되고 있기 때문에 신용등급이 아주 낮은 손님들에겐 더 높은 이자를 내게 되는 것이고, 그 원가가 포함돼 있는 것이죠. 이번 기회에 조정을 해서 그분들에게 더 낮은 금리를 줄 수 있는 방법을 강구해야…]현재 토스와 카카오페이 등 빅테크사가 운영하고 있는 대출중개 서비스에는 금융사들이 입점해 있는데, 시중은행은 0.5% 이하의 수수료율이 적용되는 반면 저축은행은 이보다 4~5배 높은 1.7~2.0%가 적용되고 있습니다.플랫폼사는 수수료율 차등 이유에 대해 "금리와의 연관성"을 꼽고, "시중은행과 저축은행에 동일한 수수료율을 적용할 수 없다"는 입장을 고수하고 있습니다.하지만 저축은행업계는 은행과 저축은행이 동일한 방식과 프로세스로 플랫폼을 이용하는데도 시스템 이용원가를 무시한 채 차별적인 수수료를 부과하는 것은 불공정하다고 주장합니다.오 회장은 특히 "저축은행의 경우엔 협소한 점포망과 규모의 영세성으로 영업력 확대를 위한 플랫폼과의 제휴는 불가피한 측면이 있다"며 "규제할 근거가 없는 사각지대에서 시장지배력을 무분별하게 확장해 온 플랫폼사의 대한 견제장치 마련이 시급하다"고 말했습니다.최근 금융당국이 추진하고 있는 대환대출 프로그램에서도 원가를 낮추기 위한 노력이 필요하다고 오 회장은 강조합니다.[오화경 저축은행중앙회장 : 금융 정책당국에서 하고 있는 것 중 하나가 대환프로그램이 있습니다. 손님들에게 더 낮은 이자로 갈아탈 수 있게…그런 과정에 빅테크를 이용할 수밖에 없는 상황이 생겼고요. 제조원가를 낮추는 노력들을 서로 가져가야 한다고 생각합니다.]현재 저축은행중앙회는 개별사 대신 중앙회가 직접 중개 계약을 위임받아 여러 플랫폼 중 가장 유리한 조건을 제공하는 업체에 입찰하는 방식도 검토 중입니다.특히 플랫폼사가 입점 저축은행들에 무리한 제휴 압박 등 부당한 영업행위를 이어갈 경우 이는 곧 금융소비자 피해로 직결될 수 있는 만큼, 금융당국에 적극적으로 건의하고 시장질서를 저해하는 행위에 대해 강력하게 대응해 나간다는 계획입니다.한국경제TV 장슬기입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2023.01.03.</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>엔픽셀, 블록체인 MMORPG ‘그랑사가:언리미티드’ 첫 공개</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002140076?sid=105</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>[디지털데일리 왕진화 기자] ‘그랑사가’ 지식재산권(IP)를 기반으로 하는 블록체인 다중접속역할수행게임(MMORPG)가 처음으로 공개됐다.   엔픽셀(공동대표 배봉건, 정현호)은 블록체인 MMORPG ‘그랑사가:언리미티드(Gran Saga: Unlimited)’ 티저 영상을 공개했다고 3일 밝혔다.   그랑사가:언리미티드는 엔픽셀 첫 프로젝트 ‘그랑사가’ IP에 블록체인 기술을 접목한 MMORPG다. 이번 영상에서 타이틀 및 세계관 등 다양한 게임성을 소개한다.   엔픽셀은 웹3.0(Web3.0) 기반 게임 생태계 ‘메타픽셀(METAPIXEL)’을 통해 그랑사가:언리미티드를 서비스할 예정이다. 대체불가능한 토큰(Non-Fungible Token, 이하 NFT) 및 스마트 컨트랙트 등 블록체인 기술을 활용해 ▲유저 경험 및 가치 공유 ▲투명성 등을 지향한다.   또한 엔픽셀은 그랑사가:언리미티드 디스코드 채널 개설을 통해 블록체인 게임 및 생태계에 대한 정보를 순차 공개한다. 이를 통해 커뮤니티 활성화에 나설 계획이다.   한편, 엔픽셀은 2017년 설립된 게임 개발사로 차기작 ‘크로노 오디세이’ 등 다수 프로젝트를 개발 중이다. 지난해 레이어1(Layer1) 블록체인 ‘앱토스’와 첫 게임 부문 파트너십을 체결한 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2023.01.03.</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>토스, 소상공인 간편결제수수료 '반값' 수준으로 낮춘다</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000316949?sid=101</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>[토스 운영사 비바리퍼블리카는 영세·중소가맹점의 토스페이 결제 수수료를 오는 2월부터 인하하겠다고 오늘(3일) 발표했다. (자료=비바리퍼블리카)]모바일 금융 플랫폼 토스 운영사 비바리퍼블리카는 영세·중소가맹점을 대상으로, 자사의 간편 결제 서비스인 ‘토스페이’ 결제 수수료를 대폭 인하한다고 오늘(3일) 밝혔습니다.이번 조치로 연 매출 3억 원 이하 영세 가맹점의 토스페이 수수료는 1.6%로 기존 대비 약 47% 저렴해집니다. 또 연 매출 3억 원~30억 원 이내 중소 가맹점은 매출 규모에 따라 1.9%~2.4%로 인하합니다. 기존 토스페이 수수료는 3%로 고정이었습니다. 새 수수료 정책은 다음달 1일부터 적용됩니다.토스 관계자는 "토스페이는 토스앱을 통한 간편한 결제 경험과 빠른 연동으로 영세·중소 가맹점과 성장을 해왔는데, 이들의 경영 환경이 녹록지 않은 상황을 감안했다"라면서 "간편 결제 수수료 인하로 가맹점의 부담은 덜고, 많은 고객이 토스페이를 경험할 수 있는 계기가 되기를 바란다"라고 말했습니다.한편, 올해부터는 네이버파이낸셜과 카카오페이, 토스 등 간편 결제 서비스를 제공하는 일부 전자금융업자는 1년에 두 번 결제수수료율을 공시해야 합니다. 결제수수료율 공시는 개별 업체 홈페이지를 통해 공개되며, 오는 3월 첫 공시가 나올 예정입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2023.01.04.</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>SK스토아, '설프라이즈' 기획전…최대 40% 할인 판매</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004836402?sid=101</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>SK스토아가 다가오는 설을 맞아 오는 22일까지 '설프라이즈' 행사를 연다고 4일 밝혔다.이번 행사는 SK스토아 온라인몰과 모바일 앱을 중심으로 마련됐다. 최대 명절인 설을 앞두고 선물을 구매하려는 고객들을 겨냥해 할인, 적립금, 참여 이벤트 등 다양한 혜택을 준다. '설맞이 세일' 기획전을 준비해 약 1200종의 설 선물 관련 상품을 최대 40% 할인가에 판매하고 행사 상품 구매 고객에게 최대 10만원의 적립금을 지급한다. 과일과 건강기능식품을 비롯한 먹거리 선물세트부터 뷰티·생활용품, 가전제품 등 상품을 선보인다. 대표 상품으로 △정관장 홍삼진고 데일리스틱(10g*20포*4박스, 10만원)  △설화수 자음 2종 기획세트(자음수 125ml+자음유액 125ml, 6만9520원) △삼성 비스포크 4도어 프리스탠딩 냉장고(RF85B9111APWR, 875L, 202만5810원) 등이 있다. 또 산지직송 전문 브랜드 '더싱싱'과 손잡고 사과·배·황금향 등 각종 과일 선물세트를 비롯해 한우·제주 흑돼지·완도 활 전복·영광 보리굴비 등 신선 선물세트 상품을 판매한다. △햇 나주배 선물세트(5kg, 8~10과, 2만5900원) △양념 LA갈비 세트(미국산·캐나다산, 1kg, 3만2900원) △완도 활 전복 선물세트(1kg, 중 15~16미, 4만9900원) 등이다. 더불어 행사 상품 중 'BEST 선물'과 'PREMIUM 선물'로 지정된 상품을 구매하는 고객에게는 최대 10만원의 적립금을 지급하고 토스페이로 결제하는 고객에게는 최대 7%의 즉시할인 혜택도 준다.매일 오전 11시 '매일 당첨 룰렛 이벤트'도 연다. SK스토아 모바일 앱 행사 페이지에서 1일 1회 참여 가능하며 10~5000원의 적립금 중 당첨 금액을 매일 증정한다. 이 밖에도 오는 24일까지 식품·건강식품·가전·주방용품 등 행사 상품을 구매하는 고객에게 최대 20% 적립금을 지급하는 '다다익설' 기획전도 함께 열기로 했다.신양균 SK스토아 DT그룹장은 "설을 맞아 더 많은 고객에게 합리적인 혜택을 드리기 위해 이번 '설프라이즈' 행사를 마련했다"며 "기획전, 적립금, 참여 이벤트 등 다양한 혜택을 마련한 만큼 설 선물 구매를 앞둔 고객에게는 좋은 쇼핑 기회가 될 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2023.01.03.</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>블록체인 MMORPG '그랑사가: 언리미티드' 티저 영상 공개</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/236/0000230045?sid=105</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>엔픽셀은 연내 출시를 목표로 개발 중인 블록체인 MMORPG '그랑사가: 언리미티드'의 티저 영상을 공개했다.'그랑사가: 언리미티드'는 엔픽셀의 첫 프로젝트 '그랑사가' IP에 블록체인 기술을 접목한 MMORPG다. 이번 영상에서는 타이틀 및 세계관 등을 선보인다. 엔픽셀은 웹 3.0 기반 게임 생태계 메타픽셀을 통해 '그랑사가: 언리미티드'를 서비스할 예정이며, NFT 및 스마트 컨트랙트 등 블록체인 기술을 활용해 유저 경험·가치 공유, 투명성 등을 지향한다.또, '그랑사가: 언리미티드' 디스코드 채널 개설을 통해 블록체인 게임 및 생태계에 대한 정보를 순차 공개해 커뮤니티 활성화에 나설 방침이다.한편, 엔픽셀은 2017년 설립된 게임 개발사로 차기작 '크로노 오디세이' 등 프로젝트를 개발 중에 있으며 지난해 레이어1 블록체인 앱토스와 첫 게임 부문 파트너십을 체결한 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2023.01.03.</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>엔픽셀, 블록체인 MMORPG '그랑사가: 언리미티드' 티저 영상 공개</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000720446?sid=105</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>지난해 앱토스와 파트너십 체결…웹3.0 생태계 메타픽셀로 서비스그랑사가: 언리미티드. [사진=엔픽셀]엔픽셀(공동대표 배봉건, 정현호)이 개발 중인 블록체인 게임 '그랑사가: 언리미티드(Gran Saga: Unlimited)' 티저 영상을 처음 공개했다고 3일 발표했다.그랑사가: 언리미티드는 엔픽셀의 첫 프로젝트 '그랑사가' IP에 블록체인 기술을 접목한 대규모다중접속역할수행게임(MMORPG)이다.엔픽셀은 자사 웹 3.0 기반 게임 생태계 '메타픽셀(METAPIXEL)'을 통해 그랑사가: 언리미티드를 서비스할 예정이며, NFT와 스마트 컨트랙트 등 블록체인 기술로 이용자 경험·가치 공유와 투명성 등을 지향한다.또한 그랑사가: 언리미티드 디스코드 채널 개설을 통해 블록체인 게임 및 생태계에 대한 정보를 순차 공개해 커뮤니티 활성화에 나설 방침이다.한편 엔픽셀은 2017년 설립된 게임 개발사로 차기작 '크로노 오디세이'를 비롯해 다수의 프로젝트를 개발 중에 있으며 지난해 레이어1(Layer1) 블록체인 '앱토스'와 첫 게임 부문 파트너십을 체결한 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2023.01.13.</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>금융권 몰려온다…고객 선점에 분주한 알뜰폰</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005204639?sid=105</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>새해 벽두부터 서비스 확대·마케팅 잰걸음토스모바일 시장 진입 예고…금융권 확대 우려알뜰폰 사업자들이 금융권 신규 사업자 진입에 앞서 요금제를 출시하고, 요금 할인 폭을 확대하는 등 마케팅을 강화하고 있다. 토스모바일이 출범을 앞두고, 4월에는 여러 은행이 알뜰폰 사업에 나설 것으로 예측되는 상황에서 고객 선점에 나섰다는 평가다.주요 알뜰폰 사업자들은 이달 초부터 신규 서비스를 출시하고, 다양한 프로모션을 진행하고 있다.KT엠모바일은 지난 3일 알뜰폰 업계 최초로 20GB 5G 중간요금제 2종을 출시했다. 5G 이용자 평균 데이터 사용량(지난해 11월 말 기준 26.94GB)에 근접한 구간을 추가해 선택권을 강화했다.LG헬로비전 헬로모바일은 평생할인 요금제를 앞세워 고객을 잡는다. 알뜰폰 요금제는 대개 기간 한정으로 할인 혜택을 제공하나, 평생할인 요금제는 회선을 유지하는 동안 요금 할인을 지속 제공한다. 알뜰폰은 통신 3사와 달리 24개월 등 약정이 없어서 고객 이동이 자유롭다. 할인으로 고객을 묶어두는 것이다.미디어로그는 할인 폭을 확대해 지난해 요금제 프로모션 가격에서 한 번 더 끌어내렸다. 예컨대 기본료 3만5200원 5G 10GB요금제의 경우, 지난해까지 1만7500원에 제공하던 것을 1만5900원까지 할인한다.이 외에도 SK텔링크는 LTE 100GB 무제한 요금제와 5G 요금제 3종 요금 인하 프로모션을 진행한다. KT스카이라이프는 지난해 12월 e심(eSIM) 셀프 개통 서비스를 시작하면서 e심 마케팅에 나섰다.또 이르면 이달 비바리퍼블리카는 알뜰폰 '토스모바일'을 출시한다. 비바리퍼블리카는 지난해 7월 중소 알뜰폰 업체 머천드코리아를 인수해 알뜰폰 시장 공략에 나섰다. 기존 서비스로 폭넓은 인지도와 고객을 확보한데다 알뜰폰 업체 인수를 통해 사업 노하우를 그대로 흡수했다. 토스페이 등과 결합한 혁신 서비스 제공도 가능해 빠른 시일 내 주요 사업자 대열에 오를 가능성이 크다는 평가다.여기에 오는 4월 금융권 1호 알뜰폰 KB리브엠의 혁신금융서비스 재인가 획득 가능성도 유력하다. KB리브엠은 비통신 사업자지만 강력한 자본력을 토대로 마케팅에 나서고, 금융 서비스와의 시너지를 발휘해 알뜰폰 시장에서 두각을 드러내고 있다. 지난 10월 기준 가입자 35만명을 돌파하며 알뜰폰 시장의 '메기' 역할을 하고 있다. 컨슈머인사이트 조사에서 3년 연속 통신 3사 등 경쟁사를 앞서며 만족도 1위를 기록했다. KB리브엠의 성과로 알뜰폰에 대한 금융권 관심이 높아져 4월 이후 제2, 제3의 KB리브엠도 등장할 전망이다,알뜰폰 업계 관계자는 "금융권 알뜰폰에 대한 통신 업계의 위기감이 높아진 상황에서 토스모바일이 서비스를 시작하기 전에 먼저 고객을 잡아놓기 위해 나서는 것"이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2023.01.04.</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>토뱅 이어 케뱅도 '즉시 이자 받기'…일복리 효과까지</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/076/0003957175?sid=101</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>케이뱅크가 파킹통장 '플러스박스'의 즉시 이자를 받을 수 있는 서비스를 선보였다. 토스뱅크에 이어 인터넷은행 두 번째 사례다. 토스뱅크는 지난해 3월 토스뱅크 통장에 '지금 이자 받기' 기능을 추가했다. 토스뱅크 통장의 경우 5000만원 초과 금액에 대해 연 4%, 5000만원 이하 금액은 연 2.3% 금리가 적용된다.플러스박스는 3억원까지 금액에 상관없이 연 3% 금리가 적용되는 상품이다. 하루만 맡겨도 이자를 받을 수 있으며 돈을 보관하고 언제든지 빼서 예적금, 투자 등에 활용할 수 있다. 일반 플러스박스와 기분에 따라 저금하고 일기장처럼 기록하는 기분통장 두 종류가 있다. 그동안은 매월 한 달에 한 번 넷째주 토요일에 이자가 지급됐다. 이번 서비스 개편을 통해 플러스박스 화면에서 전날까지 연 3% 금리의 쌓인 이자 금액을 확인하고 '받기' 버튼을 누르면 이자를 바로 받을 수 있다. 누적된 이자 금액이 1원 이상인 경우 고객이 원할 때 매일 1회 이자를 수령할 수 있다. 일복리 효과까지 누릴 수 있다. 기존 입출금통장으로 지급되던 이자가 플러스박스에 곧바로 입금되면서 매일 남은 잔액 기준으로 연 3% 이자가 붙는다. 단 플러스박스의 최대한도인 3억원을 넘기는 경우 초과 금액은 플러스박스에 연결된 입출금통장으로 입금된다.매일 이자를 받아 일복리 효과가 적용되면 5000만원 기준 매일 세후 3400원정도 이자가 지급돼 세후 월 12만2000원의 이자를 받을 수 있다. 매일 이미 받은 이자를 제외한 이자는 기존대로 매월 넷째주 토요일에 일괄 입금된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2023.01.13.</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>더 뜨거워진 파킹통장…'3억까지 무조건 연 4% 이자' 등장</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004799269?sid=101</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>JT저축銀 '플러스입출금' 출시예금금리 하락세에 '틈새' 공략기준금리 추가 인상에도 정기예금 금리는 오를 기미가 보이지 않는 가운데 그 대안으로 ‘고금리 파킹통장’이 부상하고 있다. 저축은행 업계에선 조건 없이 예치금 3억원까지 연 4% 이자를 받을 수 있는 파킹통장도 등장했다. 예금 금리 경쟁 자제령을 내린 금융당국의 압박에 금융회사들이 정기예금 대신 틈새 시장인 파킹통장으로 자금 유치에 나섰다는 분석이다.JT친애저축은행은 13일 우대금리 조건 없이 연 4% 금리를 적용하는 ‘플러스입출금통장’을 출시했다. 돈을 묶어둘 필요 없이 하루만 예치해도 쏠쏠한 이자를 챙길 수 있어 파킹통장으로 활용할 수 있다.이 상품은 가입금액 3억원까지 아무 조건 없이 연 4% 금리를 받을 수 있다. 3억원 초과 금액에는 연 0.1% 금리를 적용한다. 법인용 ‘플러스법인통장’은 가입금액 30억원까지 연 4% 금리를 준다. 시중에 나와 있는 파킹통장 가운데 가장 파격적인 조건이다.  가입금액 상한을 대폭 높이고 금액 구간별 금리 차등을 최소화한 게 특징이다. 5000만원 이상 목돈을 잠깐 맡기고 싶은 사람에게 적합하다. 마찬가지로 최고 연 4% 금리를 주는 ‘토스뱅크 통장’은 예치금 5000만원까지는 연 2.3%, 5000만원 초과분에만 연 4% 금리가 적용된다.현재 파킹통장 상품 가운데 가장 금리가 높은 것은 OK저축은행의 ‘OK읏백만통장Ⅱ’다. 금리가 최고 연 5.5%지만 오픈뱅킹 연결 조건이 붙고 예치금이 100만원을 넘어가면 적용 금리가 낮아진다. 이 통장에 5000만원을 예치한다면 실질 최고 이자율이 연 4.1%, 6000만원을 예치하면 연 3.9%가 된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2023.01.03.</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>토스, 영세·중소 사업자 간편결제 수수료 3%에서 최대 1.6%로 인하</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000866969?sid=101</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>모바일 금융 플랫폼 토스 운영사 비바리퍼블리카는 영세·중소가맹점을 대상으로, 자사의 간편결제 서비스인 ‘토스페이’ 결제 수수료를 인하한다고 3일 밝혔다. 특히 연 매출 3억원 이하의 영세 가맹점의 경우 수수료는 기존 3%에서 절반 수준으로 내려간다./토스 제공        앞으로 연 매출 3억원 이하 영세 가맹점의 토스페이 수수료는 1.60%으로 낮아진다. 기존 대비 약 47% 인하된 수치다. 또한, 연 매출 3억원~30억원 이내의 중소 가맹점도, 매출 규모에 따라 1.90%~ 2.40%로 인하된다.그 동안 토스페이 수수료는 매출 규모 구분 없이 3%로 고정됐었다. 해당 수수료에는 간편결제에 연계된 카드사나 결제은행에 토스가 지급하는 수수료, PG(지급결제대행)사 수수료 등이 포함되어 있다. 새 수수료 정책은 오는 2월 1일부터 적용될 예정이다.토스 관계자는 이번 조치는 코로나 및 정책금리 인상 등으로 영세·중소 사업자들의 어려운 상황을 감안해 사업자들의 수수료 부담을 낮추고 영업을 지원하자는 고민에서 시작됐다고 설명했다.한편 토스페이는, 토스 앱에서 결제카드 혹은 은행계좌 등록 후 사용이 가능하다. 지난해 말 기준 토스페이 도입 가맹점 숫자는 2만5000개 이상이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2023.01.10.</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>티머니GO, UI·UX 개편…네이버페이·토스페이 ‘간편결제’ 추가</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005403264?sid=101</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>'마이'메뉴 통해 내 이용내역 간편하게 확인출석 체크로 마일리지 얻을 수 있는 방법도 늘려31일까지 신규가입자 대상 1만원 택시할인 쿠폰 제공[이데일리 정다슬 기자] 티머니GO가 신년을 맞아 사용자환경(UI)·사용자경험(UX)를 전면 개편했다고 10일 밝혔다. 확 달라진 티머니GO의 특징은 크게 4가지다. 먼저 버스·지하철 도착정보를 터치 한 번에 확인할 수 있고, 택시호출, PM(따릉이, 씽씽 등)대여도 더 간편해졌다. 새롭게 선보이는 ‘마이’ 메뉴를 통해 개인별 모빌리티 이용 빈도를 시각적 효과로 한 눈에 알아 볼 수 있고, ‘나의 이동 거리’를 통해 이용한 대중교통 이동거리와 티머니GO 모빌리티 서비스 총 이용거리를 쉽고 재미있게 확인할 수 있다.두 번째는 ‘하루하루 출석체크’를 새롭게 선보여 하루 최대 500마일리지를 받을 수 있도록 했다. 월 누적 출석을 달성하면 추가 마일리지도 받을 수 있다. 아울러 티머니GO에 ESG경영 요소를 접목해 ‘더 가치있는 티머니GO’를 구현하고자 했다. 고객은 대중교통 이용만으로 자신이 이산화탄소 절감에 얼마나 많은 기여를 할 수 있는지 구체적인 수치와 이미지로 확인할 수 있다. 또 기존 간편결제 영역에 네이버페이와 토스페이를 추가해 고객의 결제 편의성을 높였다. UI · UX 전면 개편을 기념하며 티머니GO는 다양한 이벤트도 마련했다. 31일까지 티머니GO 내 온다택시 신규 가입자를 대상으로 ‘티머니GO 온다택시 1만원 택시할인’ 쿠폰을 제공한다. 해당 가입자는 신규가입일로부터 30일까지 사용할 수 있는 온다택시 2000원, 3000원, 5000원 할인 쿠폰을 한 번에 받을 수 있다.㈜티머니 Mobility사업부장인 조동욱 전무는 “티머니GO가 2023년 새해를 맞아 UI·UX를 전면 개편했다”고 하며 “티머니GO만의 쉽고 재미있는 이동경험과 눈에 보이는 혜택을 직접 체험하시길 바라며, 더 완성도 높은 서비스를 위해 최선을 다하겠다”고 소감을 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2023.01.15.</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>오늘부터 연말정산 간소화 서비스 개통…신용카드·대중교통 공제 확대</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/079/0003727566?sid=101</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>연합뉴스연말정산 증명자료를 수집해 제공하는 연말정산 간소화 서비스가 15일 개통됐다. 올해는 신용카드와 대중교통 공제가 더욱 확대된다. 국세청에 따르면 근로자는 이날부터 홈택스에서 간소화 서비스를 이용해 자료를 내려받고, 2월 안에 자료를 회사에 제출하는 방식으로 연말정산을 하면 된다. 올해부터는 접근 편의성을 높이기 위해 간소화 서비스 접속 가능 간편인증(민간인증서)이 확대됐다. 기존 카카오톡, 통신사PASS, 삼성패스, 국민은행, 페이코, 네이버, 신한은행 등 7종 외에 토스, 하나은행, 농협, 뱅크샐러드 4종이 추가됐다. 신용카드 사용액과 대중교통 지출액 관련 공제도 확대된다. 지난해 대비 5% 이상 더 사용한 신용카드 소비액과 전통시장 사용액 증가분에 대해서는 각각 20%의 소득공제가 가능하며 합계 100만원 한도로 추가 공제를 받을 수 있다. 작년 7월부터 12월까지 대중교통을 이용한 금액에 대해서는 기존 40%에서 2배 높은 80%의 공제율이 적용된다. 무주택 세대주인 근로자가 주택 임차를 위해 차입한 자금의 공제한도는 300만원에서 400만원으로 높아졌다. 총급여 7천만 원 이하인 무주택 근로자의 월세 지출액에 대해서는 기존보다 높아진 15%, 총급여가 5500만 원 이하인 경우에는 17%로 공제율이 상향됐다. 난임 시술비는 기존 20%에서 30%, 미숙아와 선천성이상아를 위한 의료비는 15%에서 20%로 각각 공제율이 상향됐다. 기부금은 1천만원 이하는 20%, 1천만원 초과 금액에는 35%의 공제율이 적용된다.※CBS노컷뉴스는 여러분의 제보로 함께 세상을 바꿉니다. 각종 비리와 부당대우, 사건사고와 미담 등 모든 얘깃거리를 알려주세요.이메일 : jebo@cbs.co.kr카카오톡 : @노컷뉴스사이트 : https://url.kr/b71afn</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2023.01.09.</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>[특징주] 다올인베스트먼트, 10% 넘게 급등… 우리금융 피인수설</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000868327?sid=101</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>장 초반 다올인베스트먼트 주가가 급등하고 있다. 우리금융지주가 다올인베스트먼트를 인수할 수 있다는 소식에 매수세가 몰린 것으로 풀이된다. 다올인베스트먼트는 다올투자증권의 벤처캐피탈(VC) 자회사다.다올인베스트먼트 제공.        9일 오전 9시 4분 다올인베스트먼트 전 거래일 대비 420원(12.59%) 오른 3755원에 거래되고 있다.우리금융지주는 지난해 말 다올투자증권에 다올인베스트먼트 인수의향서를 제출했다. 이와 관련 양측은 ‘긍정적 논의’를 진행 중이라고 밝혔다. 다만 투자의향서(LOI)를 체결하거나 우선인수협상대상자로 선정된 단계는 아닌 것으로 확인됐다.매각 대상은 다올투자증권이 보유한 다올인베스트먼트 지분 전량(52.0%)이다. 다올투자증권은 매각가로 2000억원 이상을 원하는 것으로 알려졌다. 다올인베스트먼트는 지난 1981년 설립된 국내 1세대 VC로 비바리퍼블리카(토스), 우아한형제들(배달의 민족) 등 스타트업에 투자했다.우리금융은 비은행 사업 포트폴리오 확대 차원에서 다올인베스트먼트를 인수하는 것으로 보인다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2023.01.11.</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>남양유업, 조제분유 리뉴얼 출시 이벤트 진행</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002674508?sid=101</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>ⓒ남양유업[데일리안 = 임유정 기자] 남양유업이 조제분유 리뉴얼 출시를 맞이하여 소비자를 대상으로 퀴즈 이벤트를 진행한다.남양유업 공식 쇼핑몰 ‘남양몰’에서 진행되는 이번 이벤트는 리뉴얼된 아이엠마더의 단백질 성분과 단계 통합 제품들의 섭취 기간 등을 맞추는 내용이다.정답 응모자 550명을 추첨해 레트로 밀크컵을 제공한다. 밀크컵은 지난해 8월 남양분유 55주년 레트로 이벤트에서 큰 인기를 끌었던 레트로 분유통과 같은 디자인으로 제작된 제품이다.남양유업 김석윤BM은 “새로워진 남양분유의 좋은 성분을 알리고, 단계 통합된 제품들에 대한 정보를 알리기 위해 핵심 정보를 담아 퀴즈를 기획했다”라며 “새로워진 남양분유가 아이의 건강과 성장에 더욱 큰 도움이 될 수 있도록 노력하겠다”라고 전했다.남양유업은 대표 조제분유 ‘아이엠마더’와 ‘임페리얼드림XO’을 리뉴얼 출시하였고 컴포트케어, 유기농 산양유아식 등의 제품을 단계통합 출시했다.55년 남양유업의 기술력이 집약된 아이엠마더는 초유 단백질의 대표적인 자기방어 성분인 IgA 성분을 배합하고, 41가지 핵심 영양을 담아 국내 최다 영양성분수를 가진 것이 특징이다. 영양 흡수 OPO 설계로 아이의 성장에 필요한 영양이 끝까지 흡수될 수 있도록 개발되었다.임페리얼드림XO는 55년 연구 노하우로 핵심 영양 34가지를 담아 영양은 높이고, 영양 흡수 OPO 설계로 아이의 성장에 필요한 영양이 깊게 흡수될 수 있도록 개발했다. 또한 장 속 유익균을 돕는 갈락토실락토스(HMO)를 배합하여 편안한 소화를 돕는 것이 특징이다.리뉴얼된 아이엠마더와 임페리얼드림XO는 ‘남양몰’과 각종 온라인 몰에서 만나볼 수 있다.이벤트에 관한 자세한 내용은 남양몰에서 확인할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2023.01.06.</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>고금리에 취약계층 신용대출 ‘뚝’....“정책금융 지원방안 강구해야”</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002294509?sid=101</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>5대 시중은행 저신용자 신규 신용대출 전년동기比 25%↓ ◆…사진=클립아트코리아 제공기준금리가 가파르게 인상되면서 대출 가뭄이 심화되고 있다. 저신용자 등 취약계층의 신규 신용대출이 크게 줄어들면서 불법사금융에 노출될 수 있다는 우려의 목소리가 커지고 있다. 금융당국의 적극적인 행보가 필요하다는 지적이다.   국민의힘 소상공인위원회 위원장 최승재 의원이 6일 금융감독원을 통해 시중은행 및 인터넷은행으로부터 제출받은 자료에 의하면 지난해 1월~10월까지의 5대 시중은행(우리･국민･신한･농협･하나은행)의 저신용자(NICE 신용평가 664점 이하) 대상 신규(신용)대출 취급액은 총 1192억원으로 전년동기 1592억 대비 25.1% 감소했고 계좌 수는 1만2931좌에서 9189좌로 28.9%가 각각 줄어들었다.   같은 기간 저신용자들이 보유한 신용대출 잔액도 2021년 1~10월 23조3000억원에서 2022년 1월~10월 19조5000억원으로 16.1%가 감소했고 계좌 수 역시 178만좌에서 147만좌로 17.4%가 감소했다. 고금리 기조와 금융당국의 대출 규제로 인해 저신용자들에 대한 대출이 직격탄을 맞은 것이다.   인터넷은행의 사정도 크게 다르지 않다. 금융당국이 지난 2021년부터 인터넷은행으로 하여금 중·저신용자 중금리 대출을 적극 확대하도록 하면서 케이뱅크와 카카오, 토스 등 인터넷 은행이 중저신용자 대출이 크게 증가했지만 최근 몇 달간은 급격하게 감소하는 모습을 보였다.   세부적으로 들여다보면 지난 2021년 1월부터 10월까지 케이뱅크, 카카오뱅크, 토스뱅크의 저신용자 대상 신규 대출취급액은 260억원이었지만 2022년 동기 취급액은 1062억으로 308%가 증가했고 계좌숫자 역시 2606건에서 7596건으로 191%가 증가한 것으로 나타났다.   하지만 지난해 하반기부터는 저신용자 대상 신규대출이 큰 폭으로 하락했다. 2022년 6월부터 10월까지, 7월을 제외하고는 신규취급액과 계좌수 모두 전월대비 하락한 것으로 분석됐다. 3개 인터넷은행의 신규 대출잔액의 합계를 보면 8월의 경우 전년대비 27.9%가 하락했고 9월에는 31.2%, 10월에는 25.2% 하락했다.   특히 2022년 1월 신규취급액이 117억원이었던 것에 비하면 동년 10월에는 68억으로 거의 반토막 수준으로 감소했다. 신규계좌수 또한 896좌에서 416좌로 절반 이하로 줄어들었다.   최승재 의원은 “무엇보다 저신용자 대상 신규 대출이 중단될 경우 당장 크게 문제가 되는 것은 저신용자들이 불법사금융으로 내몰리게 된다는 점”이라며 “금리가 급격하게 인상되어 저신용자들의 희망인 햇살론조차도 취급을 중단하는 저축은행이 발생하는 상황에서 당장 생계 유지를 위해 급전이 간절함에도 불구하고 기댈 곳이 없는 저신용자 취약계층이 종국에는 불법사금융으로 내몰려 고리사채의 덫에 빠지고 다시 정책금융을 통해 구제를 해야 하는 악순환이 계속될 수 있다”고 우려했다.   이어 “코로나19로 인해 가계부채폭탄이 기하급수적으로 커진 상황에서 저신용자가 뇌관이 되지 않도록 대출을 관리할 필요는 있지만 당장 명재경각의 위기 상황을 극복할 수 있게 하기 위해서라도 대출이 절실한 중저신용자 등 취약계층에게는 활로를 열어주어야 한다”면서 “정책금융의 취지가 소외되고 어려운 취약계층을 위해 촘촘하고 두터운 그물망 역할을 하는 것이고 나중에는 불법사금융 피해를 구제하기 위해 더 큰 비용을 지불해야 할 수도 있는 만큼 금융당국의 적극적인 행보가 필요하다”고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2023.01.10.</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>12년 전 사태 재현되나? 저축은행을 향한 잇단 경고</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/050/0000063640?sid=101</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>대출 규모 축소에 수수료 인하도 요구…업계 “부동산 PF 연착륙이 최우선 과제”[비즈니스 포커스]서울 시내의 한 저축은행 창구의 모습.(사진=한국경제신문)저축은행업계는 지난해 총자산 130조원을 넘어섰다. 하반기부터 지속된 금리 인상으로 시중 은행을 비롯한 저축은행의 예금 잔액이 크게 늘어난 덕분이었다. 저축은행업계는 2022년에 대해 “중금리 대출 활성화, 디지털 혁신 가속화의 노력으로 중소기업과 중·저신용자를 위한 서민 금융회사로서 위상을 더욱 탄탄히 했다”고 자평하기도 했다. 하지만 2022년 연말 저축은행들은 조달 비용 상승으로 연말 대출을 일시적으로 중단하기도 했다. 저축은행이 대출 문을 걸어 잠그자 자칫하면 급전이 필요한 서민들이 사금융으로 향하는 게 아니냐는 우려도 불거지기도 했다. ‘최대치’로 오른 저축은행 중금리 대출 금리 이러한 대출 중단에 대해 금융 당국은 ‘바람직하지 않은 방법’이라며 유연하게 대응해 달라고 당부했다. 서민들의 자금줄이 막힐 수 있다는 우려가 커졌기 때문이다.금융위원회·금융감독원·한국은행·금융협회 등은 지난해 12월 2일 ‘금융 시장 현황 점검 회의’를 열고 금융 시장의 주요 리스크를 점검했다. 이 자리에서 금융 당국은 “금융회사의 건전성·리스크 관리 측면이 있지만 대출 취급 중단은 바람직하지 않다”며 대출 취급 중단보다 여신 정책에 따라 여신 심사 기준을 강화하거나 서민 금융 우수 대부업자의 은행권 차입이 원활이 이뤄질 수 있도록 은행권과 협조하는 방식을 요청했다. 다만 금융위는 업계의 상황을 고려해 조달 금리의 변동 폭 만큼 1월부터 6월 적용될 민간 중금리 대출 상한을 높이기로 했다. 민간 중금리 대출 제도는 신용 하위 50%인 개인 대출자를 위한 제도다. 금융 당국은 중저신용자를 위한 자금 공급을 위해 민간 중금리 대출을 시행하는 금융사엔 인센티브를 부여해 왔다.이에 따라 상반기 저축은행의 민간 중금리 대출의 금리 상한은 17.5%로 올랐다. 이는 금융위가 설정한 최대 금리 상한 한도까지 인상된 수치다. 금리 상한선이 오르면서 저축은행을 비롯한 제2 금융권은 조달 금리의 상승분을 중금리 대출로 반영할 수 있게 됐다. 일시적이지만 저축은행업계의 숨통이 트였다는 반응이 나온다.한편 저축은행업계는 ‘빅테크’ 업체들을 향한 볼멘소리도 꺼냈다. 조달 금리 급등으로 업황이 나빠지면서 플랫폼 수수료가 지나치게 높다는 의견이 나오는 것이다.저축은행은 토스·카카오페이 등 플랫폼을 통해 대출 서비스를 제공하는데 이러한 서비스를 이용하기 위해서는 빅테크사에 일종의 수수료를 내야만 한다. 금융권에 따르면 대출 중개 플랫폼들은 저축은행에 1.7~1.8%의 수수료를 부과한다. 은행권은 0.4~0.5%로 상대적으로 저축은행이 높은 수수료를 내고 있다. 저축은행들은 비용 효율화 등을 고려해 특정 플랫폼에서 철수하는 방안까지 염두에 두고 있다. 저축은행업계는 “모든 금융권이 동일한 방식으로 플랫폼을 이용하는 데도 동일한 시스템 이용 원가를 무시하고 업권 간 차별적인 중개 수수료를 부과하는 것은 부당하다”고 주장한다.저축은행을 비롯한 금융권에서 플랫폼의 영향력이 커지면서 플랫폼을 통한 대출 취급 비율은 전체 대출의 절반을 넘어섰다. 이러한 상황에서 저축은행업계가 ‘작심 발언’을 한 것은 최근 시장의 여건이 악화되고 조달 금리가 급등하면서 중개 수수료 비용조차 감당하기 어려운 업체가 늘어났기 때문이다.  12년 전 ‘저축은행 사태’가 남긴 트라우마  지난해 연말부터 각종 기업 평가 기관들은 올해 저축은행이 조달 비용률 상승에 따른 순이자 마진(NIM) 하락에 의한 리스크에 직면할 수 있다며 경고하는 상황이다. 심지어 약 12년 전 금융권을 얼어붙게 했던 2011년 ‘저축은행 영업 정지 사태’가 반복될 수 있다는 우려도 나온다. ‘저축은행 영업 정지 사태’는 물가를 잡기 위해 12개월간 기준금리가 다섯 차례 인상된 후 부동산 프로젝트 파이낸싱(PF)이 고금리를 견디지 못하고 부실화되면서 시작됐다. 이 사태로 금융 당국은 7개의 저축은행에 영업 정지 처분을 내렸고 이 과정에서 5000만원 이상 예금자와 후순위 채권 투자자들이 원금 손실을 겪는 사태가 발생했다. 당시 저축은행업계는 신뢰성을 크게 잃기도 했다.  12년이 지난 지금, 당시 저축은행 사태를 촉발한 주원인으로 여겨지는 부동산 PF가 부실화될 것이란 염려가 잇따르고 있다.  한국기업평가는 2023년 한국 증권 회사의 사업 환경을 ‘비우호적’, 등급 전망은 ‘부정적’으로 제시했다. 한국신용평가도 2023년 증권업의 산업과 신용 전망을 ‘비우호적’, ‘부정적’으로 평가했다. 나이스신용평가는 금융권에서도 증권·캐피털·저축은행 등 4개 업종의 신용 등급 방향을 ‘부정적’으로 평가했다. 기업 평가 기관들은 한국 부동산 PF와 브리지론의 위험 가능성에 주목하고 있다. 특히 저축은행업계는 PF의 바로 전 단계인 브리지론의 위험성에 즉각적인 영향을 받는다는 설명이다. 나이스신용평가는 “금리 인상에 따른 경기 침체에다 주식과 부동산 등 자산 가격이 하락해 담보 가치가 떨어지면 자금 시장이 경색될 수 있다”고 우려했다. 이러한 국면이 장기화한다면 대출 원리금을 상환하지 못해 부동산 PF 부실이 심화하면서 신용 위험이 커지고 자금력이 약한 금융회사의 자산 건전성이 떨어질 수 있다고 지적했다.이에 따라 올 한 해 저축은행업계는 부동산 PF 대출의 연착륙을 지원하는 것을 최우선적인 목표로 삼았다. 오화경 저축은행중앙회장은 신년사를 통해 “PF 대출의 연착륙을 지원하고 저축은행의 유동성 관리와 리스크 대응 역량 강화를 지원해 변동성이 커져 가는 국내외 금융 시장에 적극 대응하겠다”고 말했다.금융 당국도 PF를 주요 리스크 요인으로 판단하고 선제적으로 관리할 것을 시사했다. 이복현 금융감독원장은 1월 1일 신년사를 통해 “부동산 PF, 해외 대체 투자 등 고위험 자산의 리스크를 집중 점검해 선제적 관리에 만전을 기하겠다”고 밝혔다. 또 “대내외 리스크 요인별 상시 감시와 취약 부문 잠재 리스크 점검을 강화해 금융권의 위기 대응 능력을 확보하겠다”고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2023.01.04.</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>토끼띠가 뛴다…'청춘이 자본' 99년생, '벤처업계 멘토' 75년생</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004795854?sid=101</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>스타트업 이끄는 '토끼띠' 대표오늘의집 이승재·캐시노트 김동호 등87년생 창업자들 유니콘 기업 일궈 쿠캣 이문주, 창업 9년 만에 '엑시트' 대학생 시절부터 벤처 설립 늘어99년생 대표 "창업하기 어리지 않다"이미 회사 매각 성공 사례 등도 나와63·75년생은 든든한 멘토로 활약권도균·임정민 등 투자로 후배 지원토끼는 예민하다. 후각과 청각이 뛰어나고, 경계심이 강하다. 옛 선조들도 그렇게 봤다. 명리학에서 토끼띠는 신중한 성격으로 묘사된다. 임기응변에 강하며 앞길을 가로막는 장애물을 뛰어넘는다. 토끼의 날렵한 움직임은 스타트업을 닮았다. 닥쳐오는 파도를 빠르게 넘어서고, 위기 상황에서 기지를 발휘하는 면모는 창업가에게 요구되는 능력이기도 하다. 한경 긱스(Geeks)가 흑묘년을 맞아 세대별 토끼띠(1963·1975·1987·1999년생) 스타트업 대표들의 이야기를 들어봤다. “시장 전망이 어두워도 반드시 성장하겠다”는 공통적 결의를 보였다. 토끼띠의 핵심, 1987년생그래픽=전희성 기자1987년생은 올해 만 36세가 된다. 스타트업 창업가로선 그리 어린 편이 아니다. 업력도 대부분 5~7년 이상으로 중추 역할을 하고 있다. 유니콘 기업(기업가치 1조원 이상 비상장사) 반열에 오르거나 대기업에 인수합병(M&amp;A)되며 ‘엑시트’ 성과를 낸 창업가도 적지 않다. 올해도 이들의 목표는 ‘성장’에 방점이 찍혀 있다.인테리어 플랫폼 오늘의집 운영사 버킷플레이스는 지난해 5월 2300억원 규모의 시리즈D 투자를 받았다. IMM인베스트먼트, 소프트뱅크벤처스 등으로부터 2조원가량의 몸값을 인정받았다. 1987년생 이승재 대표가 창업 8년 만에 이뤄낸 성과다. 이 대표는 “올해는 글로벌 시장에서 이용자의 공간을 바꿔가겠다”고 밝혔다.작년에 LG유플러스 투자로 유니콘 기업에 오른 김동호 한국신용데이터 대표도 1987년생이다. 그는 “주주와 200만 자영업자에게 느끼는 책임감이 무거워졌다”고 했다. 한국신용데이터는 ‘캐시노트’ 등 소상공인 경영관리 솔루션을 제공한다. 김 대표는 “창업 후 쉬웠던 순간이 하나도 없다”며 “올해는 인플레이션과 금리 인상 압박을 겪는 고객들의 비용 절감책을 마련해주는 것이 과제”라고 말했다.푸드 커머스 업체 쿠캣의 이문주 대표 역시 1987년생이다. 이 대표는 오프라인 채널 최적화, 서브 브랜드 확대 등의 신년 목표를 세웠다. 그는 쿠캣이 지난해 1월 GS리테일에 회사를 매각한 이후에도 회사 경영을 이어가고 있다. 2013년 창업한 뒤 9년 만에 엑시트에 성공했다. 이 대표는 “뒤처지지 않는 의사 결정을 위해선 경영자 스스로 공부하는 치밀함이 중요하다”며 “국내 식품업계의 세대교체 기수가 되겠다”고 강조했다. 1999년생도 ‘창업’ 전선으로1999년생 토끼띠들의 창업도 늘고 있다. 과거 대학을 졸업하고 사회 경험을 쌓은 뒤 아이템이 마련되면 창업에 도전하던 것과 다르다. 아이디어만 있으면 도전한다. 올해 목표를 ‘수익화’에 둔 김민준 어웨이크코퍼레이션 대표는 “창업에 이른 나이는 아니다”며 “이미 유튜브에선 초등학생, 중학생들이 창업하는 콘텐츠나 커머스 플랫폼에서 물건을 파는 경우가 눈에 띄게 많아졌다”고 말했다. 그는 크리에이터 광고 관리 솔루션 ‘크리에이터리’를 운영 중이다. 토스(비바리퍼블리카) 스타트업 서바이벌에 최종 우승하며 이름을 알렸다.김 대표는 이미 회사 매각 경험도 있다. 10대였던 2016년 동탄국제고를 자퇴한 뒤 뷰티 커머스 업체를 창업해 대웅제약 관계사에 팔았다. 그는 “당시 또래들에게 창업은 돈과 재화를 교환하는 행위를 탐구하는 일종의 게임이었다”고 했다. 동갑내기인 파프리카데이터랩의 김유빈 대표는 “온전히 내가 옳다고 믿는 일에 시간과 노력을 들이는 것은 청춘이 아깝지 않은 모험”이라고 말했다. 그는 이화여대 창업 전문 과정인 ‘기업가정신 연계 전공’을 했다. 2019년 창업 후 피버팅(사업 전환)만 열 번을 거치기도 했다. 현재의 데이터 수집·거래 플랫폼이 사업성을 인정받아 한국투자액셀러레이터 등으로부터 투자를 받았다.같은 해 창업에 뛰어든 김희수 테일러타운 대표도 회사 설립 당시 연세대 의류환경학과 2학년이었다. 여러 번의 피버팅을 거치며 성공할 수 있는 사업을 찾아나갔다. 테일러타운이 운영하는 패션 커머스 서비스 ‘댄블’은 직장인 남성을 타깃으로 의류를 추천해준다. 체형과 트렌드 데이터 분석 기술을 기반으로 한다. 최근 퓨처플레이 등으로부터 투자를 유치했다. 그는 “올해 거래액 1000% 성장이 목표”라고 말했다. 든든한 1963·1975년생 토끼띠올해 만 48세와 60세인 토끼띠들은 여러 대기업의 전·현직 경영자 위치까지 올랐다. 정보기술(IT)업계에는 1963년생 홍은택 카카오 대표, 1975년생 정우진 NHN 대표 등이 있다. 이들은 대기업 최고경영자(CEO)로서 다양한 스타트업과 협력하는 등 지원군 역할을 하고 있다.스타트업 창업자에서 투자자로 변신해 창업자들을 돕는 사례도 많다. 1963년생 토끼띠인 권도균 프라이머 대표는 국내 최초로 액셀러레이터(AC·창업 육성기관)를 세웠다. 2010년부터 프라이머를 통해 스타트업 창업을 돕고, 극초기 투자를 하고 있다. 권 대표는 평소 SNS를 통해 후배 창업가에게 많은 당부를 남긴다. 새해 벽두엔 “큰 것, 유명한 것, 돈 버는 것은 의미 추구를 방해하고 길을 잃게 만든다”며 “사회에 깊은 ‘임팩트’를 남기는 것에 몰입해야 한다”고 썼다. 권 대표는 그동안 이니시스, 이니텍 등 5개 회사를 세웠다.신세계그룹의 기업주도형 벤처캐피털(CVC) 시그나이트파트너스의 임정민 투자총괄은 “올해 소비재 스타트업은 보수적 소비자들의 수요를 파악해 사업 모델을 수정해야 하고, 기업 간 거래(B2B) 분야 스타트업은 비용 절감과 함께 자동화 솔루션 수요를 공략해야 한다”고 강조했다.그는 “세상에 없던 것을 출시할 때 피곤과 함께 찾아오는 ‘카타르시스’는 창업가의 특권”이라며 “시장 상황이 어려워 모두가 떠날 때가 세상을 바꿀 기회”라고 했다. 임 총괄은 소셜게임 개발사 로켓오즈 등을 설립했고, 소프트뱅크벤처스와 500스타트업 대표 파트너 등을 거쳤다. 1975년생인 그는 현재 투자를 통해 후배 창업가들과 교류하고 있다. 미국에선 페이팔·아마존 만든 세대서양에는 십이지 같은 것은 없다. 별자리 정도가 있을 뿐이다. 하지만 스타트업 업계에 족적을 남긴 토끼띠 인물들이 적지 않다. 페이팔 공동창업자 출신인 맥스 레브친, 루크 노섹, 켄 하워리 등이 1975년생 동갑내기다. 레브친은 페이팔 매각 후 슬라이드닷컴을 창업해 매각했으며, 핀테크 업체 어펌을 설립해 상장하는 데 성공했다. 하워리는 노섹과 함께 파운더스펀드를 만들어 벤처 투자에 뛰어들었다. 노섹은 이후 스페이스X 투자로 이름을 알린 기가펀드를 차리기도 했다.이전 세대로는 제프 베이조스(1964년 1월생 토끼띠)가 있다. 아마존을 세운 세계 네 번째 부자 베이조스가 최근 주목하는 것은 우주다. 그는 우주 탐사기업 블루오리진을 직접 설립해 유인 우주여행과 로켓 개발에 집중하고 있다. 지난달엔 미 항공우주국(NASA)의 달 착륙선 개발 프로젝트에 출사표를 던지기도 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2023.01.04.</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>웹3 사업 주요 재단 한 자리에 모인다</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002278680?sid=105</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>쟁글, 주간 행사 개최…앱토스·샌드박스·마브렉스 등 파트너사 참여가상자산 데이터 인텔리전스 플랫폼 ‘쟁글’ 운영사 크로스앵글(공동대표 김준우, 이현우)는 ‘쟁글 블록체인 재단 주간’ 행사를 개최한다고 4일 밝혔다.행사는 1월 9일부터 18일까지 8일 간 드림플러스 강남 이벤트홀에서 진행되며, 다양한 글로벌 메인넷과 메타버스, NFT 등 웹3 산업을 선도하는 주요 재단들이 참여한다.해당 행사를 통해 앱토스, 샌드박스, 마브렉스, 솔라나, 아발란체, 니어, 체인링크, BNB 체인과 바이낸스 아카데미 등 다양한 파트너사들이 참여하며 2023년의 로드맵을 공유한다.행사 주요 참석자로는 국내외 블록체인 유관 부서 담당자 및 개발자들이 참석하게 되며, 메타버스, NFT 등 다양한 주제가 논의될 예정이다.김준우 크로스앵글 대표는 “이번 행사를 통해 각 메인넷들에 대해 보다 깊은 이해를 할 수 있는 소통의 장이 되길 바란다”며, “앞으로도 웹3 산업에 이바지 할 수 있도록 다양한 방면으로 노력할 것”이라 소회를 밝혔다.조정연 한화 드림플러스 센터장은 “다양한 글로벌 블록체인 재단과 기업들이 참여하는 이벤트인만큼 참석 대상인 웹3 예비 창업가들과 학생들에게 좋은 계기와 시너지가 생기길 바란다"고 밝혔다.이번 행사는 한화 드림플러스가 공식 스폰서로 참여하며, 참가신청은 무료로 진행된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2023.01.04.</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>크로스앵글, 한화 드림플러스와 ‘블록체인 창립 재단 주간’ 행사 개최</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000867419?sid=101</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>가상자산 전문 분석 업체 ‘쟁글(Xangle)’의 운영사 크로스앵글이 2023년 ‘쟁글 블록체인 재단 주간(Xangle Blockchain Foundation Week)’ 행사를 개최한다고 4일 밝혔다./크로스앵글 제공        행사는 1월 9일부터 18일까지 8일 간 드림플러스 강남 이벤트홀에서 진행되며, 메타버스(가상세계), 대체불가토큰(NFT) 등 웹3 산업의 주요 재단들이 참여한다. 행사에 참여하는 주요 재단으로는 앱토스, 샌드박스, 마브렉스, 솔라나, 아발란체, 니어, 체인링크, BNB 체인과 바이낸스 아카데미 등이다.또한 행사에는 국내외 블록체인 유관 부서 담당자 및 개발자들이 참석할 예정이며, 메타버스, NFT 등 다양한 주제를 논의할 계획이다. 이번 행사는 한화 드림플러스가 공식 스폰서로 참여하며, 참가신청은 무료로 진행하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2023.01.15.</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>'서민금융 한파' 2금융권 긴급 소액대출 출시 '속도'</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002675512?sid=101</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>금리 인상 이미지.ⓒ연합뉴스[데일리안 = 부광우 기자] 금융당국이 저신용층을 대상으로 한 긴급 소액대출 출시에 속도를 내고 있다. 기준금리 인상으로 제2금융권 등의 대출 중단 흐름이 심화할 것이란 우려가 커지고 있어서다.15일 금융권에 따르면 이르면 오는 3월 금융당국은 연체 이력을 따지지 않고 50만~100만원 수준의 긴급 생계비를 즉시 대출해주는 프로그램을 출시할 계획이다. 총 공급 목표는 1000억원, 금리는 연 15.9%를 적용할 것으로 보인다.신용점수 하위 10% 이하인 취약차주를 대상으로 한 특례 보증 상품 공급도 늘릴 방침이다. 지난해 9월 출시된 이 보증 상품은 석 달 만에 1000억원 이상이 취급됐다.이는 기준금리 인상에 따라 2금융권의 대출 중단 흐름이 확산될 수 있다는 염려에 따른 조치로 풀이된다. 한국은행 기준금리는 지난해 4월부터 시작 해 이번 달까지 사상 처음으로 일곱 차례 연속 인상됐다. 현재 한은 기준금리는 3.50%로, 2008년 11월의 4.00% 이후 최고치다.현대 10여개의 캐피탈사와 저축은행 등은 토스나 카카오페이 등 대출 중개 플랫폼을 통한 대출 신청을 막아둔 상태다. DGB캐피탈과 웰컴캐피탈은 이번 달 말까지 신용대출 신청을 받지 않고 있다. 캐피털업계 1위인 현대캐피탈도 지난해 말 외부 플랫폼을 통한 신규 대출 영업을 중단했다. 예가람·대신·고려·DB저축은행 등은 저소득·저신용층을 위한 정책금융상품인 햇살론 신청마저 받지 않고 있다.대부업권 마저도 조달금리 급등으로 마진이 남지 않는다며 대출 취급을 아예 중단한 분위기다. 업계 1위 업체인 아프로파이낸셜대부(러시 앤 캐시)는 지난 달 26일 신규 대출 중단을 선언한 상태다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2023.01.03.</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>토스, 영세·중소 가맹점 결제수수료 절반으로 인하</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005200384?sid=101</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>3%에서 최대 1.6%로 낮춰매출 규모에 따라 차등 할인금융플랫폼 토스가 영세·중소가맹점의 결제 수수료를 절반 가까이 낮춘다.토스 운영사 비바리퍼블리카는 간편결제 서비스 '토스페이'의 결제 수수료를 다음달 1일부터 매출 규모에 따라 인하한다고 3일 밝혔다.기존에는 매출 규모 구분 없이 3%로 고정됐지만 앞으로 연 매출 3억원 이하 영세 가맹점의 토스페이 수수료는 1.60%로 낮아진다. 기존 대비 약 47% 인하된 수치다. 연 매출 3억~30억원 이내의 중소 가맹점도 매출 규모에 따라 1.90%~ 2.40%로 인하된다. 해당 수수료에는 간편결제에 연계된 카드사나 결제은행에 토스가 지급하는 수수료, PG(지급결제대행)사 수수료 등이 포함돼 있다.이번 조치는 코로나19 및 정책금리 인상 등으로 영세·중소 사업자들의 경영 환경이 녹록지 않은 상황을 감안해 사업자들의 수수료 부담을 최소화하고 영업을 지원하자는 취지에서 추진됐다. 한편 이와 함께 토스는 수수료 등 여러 정보를 확인할 수 있는 토스페이 홈페이지도 전면 개편했다.최재호 토스 사업전략총괄은 "토스페이는 토스앱을 통한 간편한 결제 경험과 빠른 연동으로 영·중소 가맹점과 함께 성장을 해왔다"라며 "이번 간편결제 수수료 인하로 가맹점의 부담은 덜고 많은 고객이 토스페이를 경험할 수 있는 계기가 되기를 바란다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2023.01.04.</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>‘신한은행’ 작년 업계 정보량 1위…뉴스 제외시 ‘KB국민은행’ 1위</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002294349?sid=101</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>KB국민·신한은행 관심도 5~10%↑…카카오뱅크 15%↓“일반은행 비대면 업무 강화에 인터넷뱅크 관심도 급감” ◆…자료=데이터앤리서치 제공지난 1년간 인터넷뱅크와 특수은행을 포함 시중 12개 은행을 대상으로 온라인 정보량(관심도=포스팅 수)을 조사한 결과 ‘신한은행’에 대한 관심도가 가장 높은 것으로 나타났다. 은행 본연의 업무와 연관이 낮은 스포츠 뉴스 등을 걸러내기 위해 언론사 ‘뉴스’ 채널을 조사에서 제외할 경우 ‘KB국민은행’의 정보량이 가장 많은 것으로 분석됐다.   4일 여론조사 기관인 데이터앤리서치는 뉴스·커뮤니티·블로그·카페·유튜브·트위터·인스타그램·페이스북·카카오스토리·지식인·기업/조직·정부/공공 등 12개 채널 23만개 사이트를 대상으로 지난 1년간 12개 은행에 대해 빅데이터 분석을 실시했다고 밝혔다.   분석 대상 은행은 지난해 총정보량 순으로 ▲신한은행 ▲KB국민은행 ▲하나은행 ▲우리은행 ▲카카오뱅크 ▲IBK기업은행 ▲NH농협은행 ▲케이뱅크 ▲토스뱅크 ▲SC제일은행 ▲Sh수협은행 ▲한국씨티은행 등이다.   분석 결과 지난 1년간 신한은행을 키워드로 한 총 포스팅 수가 141만6353건으로 1위로 나타났다. 유일하게 밀리언대 관심도를 보였다.   KB국민은행이 86만7147건으로 2위를 차지했으며 하나은행이 84만2316건으로 근소한 차이로 3위를 기록했다.   이어 ▲우리은행 71만9425건 ▲카카오뱅크 62만2060건 ▲IBK기업은행 52만1883건 ▲NH농협은행 48만5648건 ▲케이뱅크 19만6754건 ▲토스뱅크 13만3004건 ▲SC제일은행 8만6790건 ▲Sh수협은행 5만2883건 순으로 나타났다. 소매은행을 접는 ▲한국씨티은행이 4만5926건으로 가장 적은 정보량을 기록했다.    ◆…자료=데이터앤리서치 제공뉴스 채널을 제외한 커뮤니티·블로그·카페·유튜브·트위터·인스타그램·페이스북·카카오스토리·지식인·기업/조직·정부/공공 11개 채널 22만개 사이트를 대상으로 지난 한해 동안 국민 개개인의 관심도를 조사했다.   이 조사에서는 ‘KB국민은행’에 대한 개인들의 관심도가 가장 높았다.   KB국민은행은 64만4326건으로 뉴스포함 1위였던 신한은행을 제치며 1위에 등극했다.   신한은행은 60만8064건으로 2위를 차지했으며 카카오뱅크가 52만1816건으로 3위를 기록했다.   이어 ▲우리은행 49만3289건 ▲하나은행 48건138건 ▲IBK기업은행 35만8626건 ▲NH농협은행 29건2954건 ▲케이뱅크 14만5170건 ▲토스뱅크 10만3216건 ▲SC제일은행 6만7687건 ▲Sh수협은행 3만3117건 순으로 나타났으며 ▲한국씨티은행은 뉴스 제외 조사에서도 2만5365건으로 가장 낮은 관심도를 보였다.   데이터앤리서치 관계자는 “지난해 뉴스를 제외한 정보량의 경우 지난 2021년에 비해 KB국민은행과 신한은행에 대한 관심도는 5~10%가량 높아졌지만 카카오뱅크는 지난 2021년 60만여건에서 지난해 52만여건으로 15% 가량 크게 줄었다”면서 “이는 코로나19 이후 일반은행들이 비대면 업무를 강화하면서 인뱅에 대한 관심도가 줄어들었기 때문”이라고 풀이했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2023.01.02.</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>저축은행 등 “토스·카카오페이 수수료 차별적” 반발</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003329439?sid=101</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>저축銀 평균 수수료 1.7~18%시중은행에는 0.4~0.5% 적용토스 금리비교 화면. 토스 캡처토스·카카오페이 등 모바일 금융 플랫폼이 저축은행 등 2금융권에 부과하는 수수료율이 은행 등 1금융권에 비해 과하다는 불만이 제기됐다. 수수료율 여건을 개선하지 않으면 플랫폼에서 철수하겠다는 목소리까지 나오는 상황이다.2일 금융권에 따르면 금융 플랫폼이 저축은행에 부과하는 평균 중개 수수료율은 1.7∼1.8%이다. 반면 은행권에는 0.4∼0.5%의 수수료를 받는다. 한 저축은행 임원은 “일부 플랫폼사에서 요구하는 선택 수수료(고객의 선택에 대해 부과하는 수수료)까지 포함하면 실제 중개 수수료 지급률은 최대 2.5%에 육박한다”고 밝혔다.저축은행 업계는 금융 플랫폼이 대출금리의 약 10%를 중개수수료율로 부과하는 것으로 추산하고 있다. 때문에 고신용자를 대상으로 저금리 대출을 취급하는 은행 등은 상대적으로 적은 수수료를 내는 반면, 중저신용자를 대상으로 중금리 대출을 내주는 저축은행은 많은 수수료를 내야 한다는 것이다.저축은행 업계는 모든 금융권이 동일한 방식으로 플랫폼을 이용하는데도 동일한 시스템 이용 원가를 무시하고 업권간 차별적인 중개수수료를 부과하는 것은 부당하다는 입장이다. 또 중개 수수료가 높아질수록 금융회사의 업무원가(비용)가 상승해 결과적으로 대출 금리가 오르고 중저신용자는 더 높은 이자 부담을 안게 될 수 있다고도 주장하고 있다.플랫폼사 관계자는 “수수료 책정은 기본적으로 금리와 연관이 가장 높다. 평균 대출 금리가 연 3∼4%인 시중은행과 연 15∼20%인 저축은행에 동일한 수수료를 적용할 수는 없다”면서 “본질적으로 다른 상품에 대해 같은 기준을 적용해 달라는 것으로 받아들이기 어렵다”고 밝혔다.플랫폼사의 입장이 완고한만큼 저축은행과의 갈등은 더 심해질 것으로 보인다. 저축은행들은 플랫폼사에 중개 수수료율을 은행권과 동일한 수준으로 인하해달라고 요청하고 있다. 개별 저축은행의 협상력이 부족하다면 저축은행중앙회에 계약권을 일임해 협상을 진행하는 안도 검토하고 있다.저축은행중앙회 관계자는 “플랫폼사의 관행이 과도하다고 판단될 경우 중앙회가 중개 계약을 위임받아 입찰할 용의가 있다. 중개 서비스를 제공하는 여러 플랫폼 중 가장 유리한 조건을 제공하는 업체 몇 곳에만 입점하는 방식 등을 검토하고 있다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2023.01.11.</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>엔비티 애디슨, 뱅크샐러드와 오퍼월 제휴</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011636994?sid=101</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 김경택 기자 = 코스닥 상장사 엔비티는 회사가 운영하는 오퍼월 네트워크 서비스 애디슨이 마이데이터 기반 핀테크 앱(App) '뱅크샐러드'와 업무 제휴 계약을 체결했다고 11일 밝혔다.이번 제휴 계약으로 엔비티는 뱅크샐러드 플랫폼 내 애디슨 오퍼월 시스템을 구축하고 운영한다. 플랫폼 내 구축된 오퍼월 서비스에서는 사용자들에게 광고 시청 등 다양한 미션을 부여하고, 뱅크샐러드에 연동된 사용자 계좌로 현금처럼 송금이 가능한 포인트 '뱅샐머니'의 적립 기회를 제공한다.엔비티는 앞서 네이버페이, 토스, 페이북 등 국내 주요 핀테크·금융 서비스 기업들과 협업을 이어왔다. 애디슨 오퍼월 서비스만의 노하우를 강점 삼아 이번 뱅크샐러드 제휴 과정에서 핀테크 업종 포인트 사업 경쟁력을 다시 한 번 검증하겠다는 게 회사 측의 목표다.박수근 엔비티 대표이사는 "올해 역시 주력 부문인 포인트 사업의 스케일업을 목표로 커머스, 금융, O2O(온오프라인 연계) 등 각 분야별 대형 기업들과 서비스 제휴 확대에 집중해 갈 계획"이라며 "애디슨 오퍼월 네트워크 서비스가 출시 4년 여가 흐른 현재 국내에서 높은 시장 점유율을 유지하며 성장세를 이어가고 있음에도 국내 포인트 산업 시장은 여전히 잠재 성장 수요가 높다고 판단하고 있는 만큼, 안주하지 않고 공격적인 제휴 확대 전략을 펼쳐갈 예정"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2023.01.05.</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>토스뱅크 ‘매일 이자 받기’, 270만명이 2000억 받아갔다</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005070430?sid=101</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>[사진 제공 = 토스뱅크]토스뱅크가 국내 금융사 최초로 선보인 ‘지금 이자 받기’가 270만명 고객이 사용하는 서비스로 자리매김했다.서비스 이후 9개월 동안 고객들은 총 2000억원의 이자를 받았고 서비스 이용 횟수는 1억1000만회를 넘어섰다.5일 토스뱅크에 따르면 지난해 12월말 기준 고객들의 ‘지금 이자 받기’ 서비스 이용 횟수가 1억1000만회를 돌파했다.이는 지난 3월 서비스 출시 후 9개월 만으로, 토스뱅크의 서비스 가운데 가장 많은 이용 횟수를 기록했다.이 기간 고객들이 받은 이자는 총 2000억원에 달했다. 고객 1인당 평균 이자 수령액은 7만4000원이었다.고객들은 토스뱅크의 여러 서비스 가운데 ‘지금 이자 받기’에서 큰 효용을 누리고 있는 것으로 나타났다.이용 고객 수도 큰 폭으로 증가했다. 이 기간 서비스를 이용한 고객 수는 총 270만명이다. 올해 국내 경제활동 인구 기준(2900만명) 10명 중 1명이 사용하는 서비스로 자리매김했다.토스뱅크는 그동안 공급자인 은행을 중심으로 이뤄졌던 금융 서비스가 고객 중심의 ‘금융 주권’으로 전환된 것이 주요한 것으로 분석했다.‘지금 이자 받기’는 고객이 원할 때 하루에 한 번 이자를 지급하는 서비스로, 국내 금융사 가운데 최초로 토스뱅크가 도입했다.그동안 고객들은 큰 돈을 맡기더라도 은행이 정한 각종 조건을 충족한 뒤 정해진 날짜에만 이자를 받아야 했다.‘지금 이자 받기’ 서비스는 특정 연령층에 국한되지 않고 전 연령대가 이용했다. 가장 많이 이용하는 연령대는 20대(24.7%)였지만, 30대(24.6%) 40대(24%)와의 차이는 근소했다. 그 뒤를 50대(15.2%) 10대(6.1%) 60대(5.4%)가 이었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2023.01.04.</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>홈앤쇼핑, 설 명절 겨냥 '홈앤명가' 특집전</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003070384?sid=101</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>홈앤쇼핑은 민족 대명절 설을 맞아 모바일 애플리케이션(앱)에서 다양한 이벤트를 선보이는 '홈&amp;명가' 특집전을 진행한다고 4일 밝혔다.이번 특집전은 △대량주문 △더드림+ △프리미엄 선물 △가성비 선물 △가격대별 인기상품 △명절음식 등 다채로운 카테고리로 상품을 제공해 고객 편의를 높였다.먼저 이달 19일까지 '적립금 신청하기'를 완료한 고객을 대상으로 주문횟수와 누적 결제금액을 고려해 추가 적립금을 지급하는 이벤트를 진행한다. 이 기간 내 '홈&amp;명가' 플래그 노출 상품 구매고객을 대상으로 신세계상품권 총 3000만원을 추첨 증정한다. 1등은 최대 500만원의 상품권을 받을 수 있으며 2등 25명은 각각 100만원씩 받을 수 있다.또 내달 1일까지 기간 내 홈앤쇼핑 전 구매고객을 대상으로 '토끼 순금 24K 37.5g' 1명과 '토끼 순금 24K 3.75g'을 23명에게 추첨 지급한다. 마지막으로 8일까지 3만원 이상 상품을 '토스페이'로 결제시 7%를 즉시 할인 받을 수 있다.홈앤쇼핑 관계자는 “설을 맞아 고객에게 최대한 많은 혜택을 드리고자 기획한 특집전”이라며“홈앤쇼핑이 준비한 '홈&amp;명가'로 온정을 나눌 수 있는 따뜻한 설 준비하길 바란다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2023.01.05.</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>[단독] 당국, 저축銀·캐피털 플랫폼 대출중단 사유 안내 개선 검토</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002087398?sid=101</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>6일 금감원·저축銀·캐피털사 면담5일 기준 대출 중개 플랫폼 카카오페이 애플리케이션(앱) 캡처화면. 대출 중단에 대해 '금융사 점검'으로 안내하고 있다. [카카오페이 앱 갈무리][헤럴드경제=홍승희 기자] 금융당국이 토스·카카오페이 등 대출 중개 플랫폼에 입점해 있는 저축은행·캐피털사의 대출이 막혔을 때 구체적인 사유를 안내하도록 가이드하는 방안을 검토 중이다. 지금까지는 플랫폼에서 대출이 중단된 금융사들에 대해 ‘시스템 점검’이라고 안내됐다. 당국은 금융소비자의 혼란을 최소화하기 위해 업계와 개선책을 논의할 예정이다.5일 금융권에 따르면 금융당국은 6일 저축은행과 캐피털사 등과의 면담을 통해 대출 중개 플랫폼 수수료, 대출 재개 상황 등에 대해 업계 목소리를 청취하는 자리를 가진다. 면담에선 토스, 카카오페이 등 빅테크 플랫폼 대출 중단 시 ‘시스템 점검’ 등으로 표시할 게 아니라 구체적인 대출 중단 사유를 안내하는 안도 함께 논의할 예정이다.금융감독원 관계자는 “아직 대출 중단 사유를 구체적으로 적시하도록 가이드를 내린 건 아니다”며 “대출 중단임에도 ‘시스템 점검 중’이라고 표시되는 현상을 인지했고, 업계와 간담회를 열어 (대출 중단 사유를 안내하는) 내용을 (논의)해보려고 준비 중”이라고 말했다.그러면서 “대출 중단을 한 건데 ‘시스템 점검’이라고 표현하는 건 사실과 좀 다른 표현 아니겠느냐”며 “실상에 맞는, 제대로 된 안내를 하는 게 맞는 것 같다”고 부연했다.지난 12월 27일 기준 대출 중개 플랫폼 토스 애플리케이션(앱) 캡처화면. 2금융권이 대거 플랫폼을 통한 대출 취급을 ‘점검’이라는 이유로 중단했다. [토스 앱 갈무리]지난 연말 토스·카카오페이·핀다 등 대출 중개 플랫폼에서는 최대 20개가 넘는 금융사들이 ‘점검’을 이유로 대출 조회 결과를 제공하지 않았다. 외부 애플리케이션(앱)을 통한 대출업무를 사실상 중단한 것이다. 해가 바뀌면서 몇몇 곳은 플랫폼을 통한 대출을 재개했지만 여전히 10개가 넘는 금융사들은 대출을 재개하지 못하고 ‘점검 중’이라고 안내하고 있다.금융소비자들의 혼란도 증폭됐다. 조달비용 폭증·건전성 악화에 마주한 2금융권 금융사들이 대출 취급을 줄이며 서민의 자금줄이 막혀버린 가운데 플랫폼을 통한 혼란을 최소화하기 위해 금융당국이 나서는 것으로 풀이된다.다만 대출 중단 사유가 적시되기 위해선 대출 중개 플랫폼의 시스템이 우선적으로 개선돼야 할 것으로 보인다. 대출 중개 서비스를 제공하고 있는 카카오뱅크·카카오페이·핀다·토스·네이버파이낸셜 등 주요 5사 모두 입점 금융사가 대출을 취급하지 않을 때 표출 가능한 옵션이 아직 ‘점검’밖에 없기 때문이다.저축은행 관계자는 “‘점검’이 아니라 ‘대출 중단’이라고 플랫폼에 표출하는 게 과연 더 나을지는 잘 모르겠다”며 “플랫폼사의 개발이 먼저 이뤄져야 할 것으로 보인다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2023.01.05.</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>[단독] 카카오뱅크, 마이데이터 사업 필수 허가 취득</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000867773?sid=101</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>전자서명인증사업자 라이선스, 인터넷진흥원으로부터 받아  네이버·토스에 뒤이어 본인신용정보관리업 시장 진출        인터넷전문은행 카카오뱅크가 전자서명인증사업자 라이선스를 취득했다. 마이데이터로 불리는 본인신용정보관리업 사업을 벌일 수 있게 된 것이다. 네이버, 토스 등 마이데이터 사업을 벌이고 있는 핀테크 회사들과 치열한 경쟁이 예상된다.5일 금융권에 따르면 한국인터넷진흥원은 최근 카카오뱅크에 전자서명인증업무 운영기준 준수사실 인정심사를 실시해 적합 판정을 내렸다. 인정 범위는 카카오뱅크 인증서 서비스다. 유효기간은 지난해 12월 29일부터 오는 12월 28일까지 1년간이다.카카오뱅크 오피스 모습. /뉴스1        이번 전자서명인증사업자 라이선스 취득에 따라 카카오뱅크는 본인신용정보관리업(마이데이터) 인증 시장에 뛰어들 수 있게 됐다. 마이데이터 사업에 전자서명인증서비스를 필수로 진행해야 하기 때문이다. 마이데이터는 은행과 보험사, 카드사 등 금융사별로 흩어진 개인신용정보를 모아 한곳에서 통합 관리할 수 있는 서비스다.카카오뱅크는 향후 마이데이터 서비스에 공동인증서 대신 자사 인증서를 통해 본인 확인을 할 수 있게 된다. 마이데이터는 서비스를 이용하려면 통합인증이 필수적이다. 이 수단으로 전자서명인증사업자 인정을 받은 민간 인증서와 공동인증서만 허용된다. 마이데이터 사업자는 의무적으로 민간 인증서를 최소 1개 이상 적용해야 하기에 미래 잠재고객까지 확보할 수 있는 셈이다.민간 인증서는 간편한 발급이 가능하고, 공공기관이나 금융거래, 간편결제 등 다양한 사업에서 활용할 수 있는 강점이 있다. NHN페이코를 비롯해 네이버(NAVER)·토스·카카오·뱅크샐러드 등도 이미 전자서명인증사업자를 획득했다.카카오뱅크 역시 지난해 11월 3분기 실적발표 콘퍼런스콜에서 인증 사업을 중점적으로 추진한다는 계획을 밝힌 바 있다. 김석 카카오뱅크 최고전략책임자(CSO)는 “인증 프로세스는 모바일 금융에서 필수적인 기능”이라며 “라이선스 시너지를 통해 추가로 진출 가능한 영역이 있다. 실지명의 기반 전자서명과 전자문서 등기 서비스로 확대하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2023.01.12.</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>시중은행 '수수료 무료' 확대…인터넷은행 '무기' 잃나</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/241/0003251369?sid=101</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>카카오·케이·토스뱅크 수수료 무료출범 후부터 혜택 연장하며 제공신한은행 이체 수수료 제로 시작다른 은행들도 '검토 중' 분위기"더 이상 인터넷은행 혜택 아닐 것"서울 종로구에 나란히 설치된 ATM기 모습. 연합뉴스신한은행이 쏘아 올린 '이체 수수료 무료' 정책이 시중은행 전반으로 번질 전망이다. 인터넷전문은행이 혜택처럼 제공하던 '수수료 무료'가 은행권 전반으로 확산하면, 수수료 비용 절감을 위한 유료 전환이 어려울 것이라는 목소리가 나온다.11일 금융업계에 따르면 올해 카카오뱅크와 케이뱅크는 지난해 말까지였던 ATM 수수료 면제 정책을 각각 1년, 6개월 연장했다. 토스뱅크는 출범 이후 수수료를 무료로 제공하며, 변경 시에는 시행 1개월 전에 홈페이지, 앱 등을 통해 안내할 것으로 공지했다.토스뱅크를 제외한 카카오뱅크와 케이뱅크는 출범 이후부터 ATM 수수료 면제 정책을 연장하는 방식으로 유지하고 있다. 오프라인 영업점을 두지 않는 은행들은 현금을 찾으려는 고객들이 타행 ATM기를 이용해야해 수수료를 대신 부담하며 혜택을 이어왔다. 시중은행이 영업시간 외 이용하거나 타행 출금 시 최소 500원에서 1200원의 수수료를 받고 있는 것을 자체 비용으로 처리하고 있는 셈이다.카카오뱅크의 지난해 3분기 재무제표에 따르면 누적 수수료 비용은 1778억6900만원이었다. 같은 기간 케이뱅크의 수수료 비용은 206억9400만원, 토스뱅크는 557억6900만원이었다.수수료 비용에는 ATM 수수료와 함께 거래내역서·금융소득원천징수명세서 등 각종 증명서 발급 수수료와 당행·타행 계좌로의 이체 수수료, 대출 관련 서류 발급 수수료 등이 포함된다.이용자가 늘어날수록 계속해서 더 큰 비용을 지출해가며 인터넷은행은 각종 수수료 무료 혜택을 제공해오고 있다. 이에 사실상 수수료로는 크게 이익을 보지 못하고 있는 상황이다. 카카오뱅크만 봐도 작년 3분기에만 수수료 수익보다 비용이 커 3억원이 넘는 손해를 봤다. 토스뱅크는 3분기 누적 148억7700만원의 수수료 수익을 거두면서 408억9200만원의 순수수료 손실을 봤다.이는 그동안 무료 혜택을 주던 요소들을 유료로 전환하면 해결할 수 있는 문제지만, 분위기상 이마저도 어려워졌다.최근 시중은행 사이에 온라인 한정 '이체 수수료'를 무료화하려는 움직임이 나오면서, 수수료 무료가 혜택 아닌 혜택이 될 기로에 놓였기 때문이다. 신한은행이 총대를 멨다. 한용구 신한은행장이 지난달 30일 취임식 후 기자간담회에서 "사회에 환원하는 차원에서 이체 및 자동이체 수수료 면제를 시행하겠다"고 말한 데 따른 것이다. 이는 진옥동 전 신한은행장 시절부터 고민해오던 것으로 알려졌다.한용구 신한은행장. 신한은행 제공신한은행에 따르면 모바일 앱 및 인터넷뱅킹에서 발생하는 이체 수수료 수익은 연간 약 100억원 수준이다. ATM기를 통한 이체는 무료는 아니지만, 주 이용층인 65세 이상 고객에게는 무료로 제공하고 있다. 기존 신한은행은 고객이 모바일이나 인터넷 뱅킹으로 타행 이체를 할 경우 건당 500원, 자동 이체할 경우 건당 300원을 받았고, 거래 기준을 충족한 고객에 한해 이를 면제해 줬다.신한은행 관계자는 "대부분의 고객이 이체는 모바일이나 인터넷 뱅킹을 통해서 한다"며 "고객의 부담을 줄어주고 모바일 앱으로 유입되는 효과도 기대된다"고 말했다.신년 벽두부터 신한은행이 이체 수수료를 영구 면제하기로 하면서, 다른 시중은행도 너도나도 검토에 들어갔다. 지난 3일 이재근 KB국민은행장은 '2023년 범금융 신년인사회'에 참석해 기자들과 만나 타행 이체 수수료 무료 등을 검토하고 있다고 했다. 우리은행, NH농협은행 등도 이를 검토 중이다.불과 1년 전만 하더라도 인터넷은행과 같은 모바일 뱅킹 수수료 무료화에 난색을 표하던 시중은행들이었다. 한 시중은행 관계자는 "비용이 증가하니 쉽게 내릴 결정이 아니었다"면서도 "대면에서 비대면 거래로 움직이고 있는 것에 대한 인식 변화가 영향을 미친 것으로 보인다"고 말했다. 또 다른 은행 관계자는 "더 이상 인터넷은행만의 혜택이 아니게 될 것"이라며 "가능한 서비스가 많은 시중은행의 모바일 강화로 '혁신'이던 인터넷은행이 더 이상 아니게 됐다"고 했다.이에 대해 인터넷은행 관계자는 "그동안 무료로 제공해온 수수료를 유료화할 계획은 없다"면서도 "이런 분위기에서 갑자기 수수료를 무료에서 유료로 돌리기 쉽지 않아 보인다"고 말했다.  권지예 기자 kwonjiye@edaily.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2023.01.05.</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>삼성·카카오페이 잡을 수 있을까…카드사 오픈페이 2주간 써보니</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005401129?sid=101</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>작년말 신한·KB국민·하나카드, 오픈페이 서비스 개시신한플레이앱, 등록 간단하지만 사실상 오프라인 위주기존 간편결제 격차 있어, 내달 리브랜딩 윤곽 나올 듯[이데일리 유은실 기자] 지난해 말 카드사 앱에서 다른 카드를 결제할 수 있는 이른바 ‘오픈페이(앱 카드 상호연동)’ 서비스가 출시됐다. 생활금융플랫폼과 빅테크 대응이라는 푯말 아래 카드사들이 연합체를 구성하면서 한 플랫폼에서 여러 카드사의 카드를 사용할 수 있는 환경이 조성됐다. 하지만 국내 카드소비자들의 반응은 그리 긍정적이지 못하다. 아직 범용성, 편의성, 차별성에서 보완할 점이 많다는 지적이다. 오픈페이, 등록은 간단하지만 설익은 서비스5일 카드업계에 따르면 오픈페이 서비스는 지난해 12월 22일 출시된 후 약 2주가 지났다. 실제 앱을 통해 오픈페이를 사용해보니 등록 카드사가 제한적이고 오프라인에서만 사용 가능해 오픈페이가 아닌 ‘오프페이’와 같다는 느낌을 지우기 힘들었다.기자가 5일 서울 종로구에 위치한 한 카페에서 신한카드의 오픈페이를 이용해 결제하고 있다. (사진=이데일리 유은실 기자)카드 등록 자체는 간단했다. 신한플레이 앱의 경우 접속창 ‘월렛’에서 ‘카드·계좌관리’에 들어가 하단에 있는 등록 버튼과 다른 카드 추가 버튼을 누르면 이미 등록에 반은 끝난 셈이다. 카드사 선택 창엔 국민카드와 하나카드가 뜨는데 이를 선택한 후 카드번호 등 정보를 입력하면 된다.대부분 카드사 등록이 가능한 삼성페이나 카카오페이 등과 달리  등록 카드사가 제한된다는 점은 오픈페이의 큰 불편함이다. 세분화된 카드 혜택을 때에 따라 활용하는 시대에서 사용할 수 있는 카드가 신한·국민·하나카드로 묶이게 되니 때문이다.편의성을 느끼기도 어려웠다. 계산대 앞에서 신한플레이 앱을 열고 등록된 카드 중 하나카드를 선택해 간편 비밀번호를 입력한 다음 결제 바코드와 QR코드를 생성하면 결제가 가능하다. 여기까지는 기존 서비스와 같다. 신한플레이의 치트키라고 할 수 있는 ‘터치 결제’는 아직 활용이 불가하다. 카드 종류에 이어 결제 방식도 제한이 있다는 얘기다. 신한플레이 내 신한카드는 바코드·QR코드 결제를 비롯해 삼성페이와 같이 휴대폰 뒷면을 리더기에 터치해 결제하는 터치결제까지 가능하다.온라인·모바일에서 ‘신한페이’로 결제할 때 신한카드만 사용할 수 있다는 것은 단점이다. 사실상 오프라인에서만 서비스 이용이 가능한 것이다. 온라인·모바일을 통해 의류나 여행 등 다양한 쇼핑이 이뤄지는 상황에서 온라인 결제를 지원하지 않다 보니 평소 사용하던 카카오·토스페이와 차이가 두드러졌다.기존 페이 서비스와 차별성도 드러나지 않았다. 비슷한 서비스로 여겨지는 오픈뱅킹은 다수의 금융사 계좌 조회, 결제 내용 공유 등이 가능한 반면 오픈페이는 불가하다. 즉 신한플레이 내에서 사용한 내역만 조회가 가능해 전체 카드 이용 내역을 비교할 수 없다는 것이다. 삼성페이 서비스와 ‘결제 서비스’ 측면에서 특별히 다른 점이 없었다.매장 쿠폰이나 카드 관련 혜택, 부가서비스 정보 제공하는 삼성페이가 오히려 혜택 면에선 편리하다고 느껴졌다. 카카오페이가 카카오 지도 서비스를 활용해 내 주변에서 활용 가능한 멤버십과 혜택 한눈에 볼 수 있게 해주는 것과 토스가 이용 내용을 한번에 조회할 수 있게 해주는 것과도 비교됐다.  카드사 추가 합류···업계 “편의성·차별성 개선”현재 카드업계 오픈페이 서비스에 동참한 카드사들은 신한·KB국민·하나카드 등 3개사에 불과하다. 아직까지 ‘범용성’이 부족하다고 느껴지는 대목이다.카드사들도 오픈페이 초기 불편함을 인지하고 있다. 점점 더 커가는 간편결제 시장과 빅테크의 성장에 대응하기 위해 통합 플랫폼이 필요하다는 데 의견을 모았지만 각사 사정이 다른 탓에 설익은 서비스를 내놓을 수밖에 없었다는 설명이다.실제 국내 간편결제 시장은 카카오·네이버·토스 등 빅테크를 중심으로 돌아가고 있다. 한국은행에 따르면 올해 상반기(1~6월) 기준 간편결제 서비스 이용금액은 일평균 7232억원으로 1년 만에 29.4% 늘었다. 작년 기준 간편 전자지급 서비스 이용액을 보면 빅테크를 포함한 전자금융업자가 전체 중 차지하는 비중은 50%에 달한다. 전통 금융기관들의 비중(27.6%)보다 현저히 높은 수치다.오픈페이 출범 시기를 더이상 늦출 수 없었던 카드업계는 지난해말 서비스가 가능한 회사들 먼저 서비스를 개시했다. 올해 2~3월 중으로 롯데·비씨·우리카드가 순차 서비스를 시작하고 하반기 중으로 NH농협카드까지 합류하면 범용성 문제는 어느 정도 해소될 전망이다. 현대카드도 합류 의사를 밝힌 만큼 이르면 내년 초 서비스를 개시할 예정이다. 삼성카드는 아직 참여 의사를 밝히지 않았다. 편의성 개선 의지도 있다. 카드업계는 올 하반기 온라인 서비스 도입 목표로 시스템을 개발 중이다. 한 카드업계 관계자는 “오프라인 쪽은 규격이 통일돼 있어 서비스 개발에 많은 시간이 들어가지는 않는다”며 “온라인은 결제대행사(PG)가 결제 시스템을 제공하거나 자체 결제창을 사용하는 등 다양한 이해관계자들과 논의가 필요해 서비스 개발이 시기가 늦어졌다”고 설명했다.앞으로 결제 소비자를 겨냥한 다양한 서비스가 관건으로 지목된다. 카드업계는 현재 오픈페이 관련 리브랜딩을 준비 중으로 내달 구체적인 윤곽이 나올 예정이다. 다른 카드사 관계자는 “개별사로든 업계 공통적으로든 소비자들의 관심을 돌릴 수 있는 마케팅이 필요하다는 의견에 공감한다”며 “서비스 안정화 이후 관련 논의들이 이어질 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2023.01.14.</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>버티던 토스까지 낮췄다…간편결제 수수료 어디가 쌀까[머니뭐니]</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002090743?sid=101</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>3월 결제수수료 공시빅테크 3사, 수수료 인하 완료당국, 실제 지급수수료 위주로 경쟁유도 수수료율, 카카오페이&gt;토스페이&gt;네이버페이 순[헤럴드경제=서정은 기자] 오는 3월 간편결제 수수료가 베일을 벗는 가운데 토스페이마저 간편결제 수수료 인하를 끝냈다. 빅3 간편결제 업체들이 수수료 인하 조치를 완료한 가운데 당국은 공시를 통해 경쟁을 유도하고, 거래 투명성을 확보하겠다는 구상이다. 표면적으로 드러난 수수료를 살펴보면 카카오페이, 토스페이, 네이버페이 순으로 높았다.토스는 오는 2월 1일부터 토스페이 결제수수료를 인하키로 결정했다. 그간 토스페이 수수료는 매출 규모와 관계없이 3%로 고정됐으나, 이를 구간별로 낮춘 것이다. 해당 수수료에는 간편결제에 연계된 카드사나 결제은행에 토스가 지급하는 수수료, 지급결제대행사(PG) 수수료 등이 포함돼 있다.연 매출 3억원 이하 영세 가맹점의 토스페이 수수료는 1.60%가 적용되며 연 매출 3억원~30억원 이내의 중소 가맹점은 매출 규모에 따라 1.90%~ 2.40%로 인하된다. 토스페이의 경우 지난해 하순부터 일부 영세 가맹점에 한해 계좌결제 수수료를 인하해왔으나 이를 확대적용했다는 설명이다.토스페이가 이번에 수수료 인하를 대대적으로 알린건 중소·영세 사업자들의 부담을 최소화하는 동시에 3월 수수료 공시를 고려한 행보라는 의견이 많다. 네이버페이, 카카오페이의 경우 2022년 1월 결제수수료를 일찌감치 인하한 바 있다. 양사는 이미 수수료 인하가 이뤄진 만큼 당장 추가 인하를 할 계획은 없다고 밝힌 상태다.금융권 관계자는 “토스페이의 경우 영세 가맹점이 나머지 두 개사에 비해 크지 않다보니 수수료를 낮추더라도 내부적으로 판단했을 때 파급효과 등 실익이 크지는 않았을 것”이라며 “그간 가맹점 확보 등을 통해 규모의 경제를 어느정도 이루게 됐으니 지금 인하한 것 아니겠느냐”고 말했다. 토스페이 측은 “지난해에 영·중소 사업자 대상 카드 결제 수수료는 일부 인하한 상태”라며 “계좌결제 수수료를 내리지 않은 1년간 가맹점을 얼마나 늘렸는지 등에 대해서는 언급하기 어렵다”고 설명했다.토스페이의 수수료 인하로 빅테크 3사의 수수료 순위도 바뀌었다. 그간 매출액 3억원 이하 및 영세 사업자에 부과되는 수수료율을 보면 카카오페이, 네이버페이가 각각 1.7%, 0.9%로 토스페이보다 크게 낮았다. 매출액 3억~30억원 사이의 경우 카카오페이는 2.3~2.7%로, 네이버페이는 1.45~1.85%로 형성된 상태다.하지만 이번에 토스페이가 수수료율을 일괄 3%에서 소폭 조정하면서 카카오페이가 가장 높아진 상황이다. 카카오페이 관계자는 “현재 카카오페이의 수수료는 간편결제 서비스를 제공하기 위한 최소한의 운영수준으로 책정된 상태”라며 “영세·중소 가맹점의 경우, 우대수수료율 적용을 위한 차액 정산을 해주기도 하는 등 실제 부과되는 수수료율은 공개된 수수료율과 차이가 발생할 수 있다”고 설명했다.네이버페이의 경우 가장 낮은 수수료를 부과하고 있다. 가맹점 수 등에서 타 업체와 대비해 압도적인 우위를 차지하면서 규모의 경제가 가능한데다 회사 차원에서 전략적으로 소상공인 육성에 나선 영향이다. 신용보증기금이 네이버와 손잡고 3월 중 가칭 ‘이커머스 사업자 보증’을 준비한 것도 이 연장선상이다. 신보 관계자는 네이버와의 협업 배경을 두고 “소상공인 풀이 가장 넓은데다 타 업체에 비해 관련 비즈니스 타진 결과 가장 적극적으로 협업 표현을 했기 때문”이라고 말했다.한편 당국은 수수료 공시의 실효성을 높이기 위해 실질 가맹점들이 간편결제업체에 지급한 수수료를 중심으로 공시를 추진할 계획이다. 금융당국 관계자는 “사후적으로 간편결제사가 수수료를 얼마 수취했는지를 통해 소상공인 및 금융소비자에게 비교, 분석이 되도록 할 예정”이라며 “직접적으로 당국이 개입할 순 없지만, 자연스럽게 수수료 경쟁 효과도 있을 것을 기대한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2023.01.15.</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>오늘부터 연말정산 간소화 서비스 개통…신용카드·대중교통 사용액 공제 확대</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/654/0000030030?sid=101</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>▲ 연말정산 간소화 서비스[연합뉴스 자료사진]'13월의 월급'인 연말정산의 간소화 서비스가 15일 개통됐다.올해 연말정산에서 받을 수 있는 신용카드와 대중교통 공제는 더욱 확대됐으며, 서비스 간편인증(민간인증서)이 작년보다 확대됐다.국세청에 따르면 기존 인증 7종(카카오톡, 통신사PASS, 삼성패스, 국민은행, 페이코, 네이버, 신한은행)에 토스, 하나은행, 농협, 뱅크샐러드 등 4종이 추가되면서 이용자는 총 11종의 간편인증을 활용할 수 있게 됐다.국세청은 "지난해 근로소득이 있는 모든 근로자는 다음달 급여를 지급받기 전까지 연말정산을 마쳐야 한다"며 "지난해 연말정산을 위해 회사는 근로자 명단을 14일까지 홈택스에 등록하고 근로자는 19일까지 홈택스에서 확인 동의해야 한다"고 공지했다.이번 연말정산에서는 생계비 부담이 완화되는 방향으로 세액공제가 적용된다. 지난 7월부터 12월까지 지출한 대중교통 이용금액에 대한 공제율이 기존 40%에서 80%로 한시적으로 상향된다.신용카드 등을 사용한 소비 증가분에 대한 소득공제율 20%도 계속 적용된다. 소비 증가분이란 지난해 사용 금액이 전년 대비 5% 초과 증가한 금액이다.신용카드와 전통시장 소비 증가분은 각각 20% 소득공제가 가능하다. 이 증가분을 합한 금액에 대해서는 100만원 한도로 추가 공제를 받을 수 있다.다만 형제자매는 부양가족으로 등록한 경우 신용카드 등 사용 금액을 공제받을 수 없다. 맞벌이 부부가 자녀의 신용카드 사용액을 중복으로 공제받을 수 없다.주거 부담도 줄어드는 방향으로 소득공제가 적용된다. 무주택 세대주인 근로자가 주택을 임차하기 위해 차입한 자금의 공제한도는 300만원에서 400만원으로 확대됐다. 전세자금대출 원리금 상환액 등에 대한 소득공제가 늘어났다는 의미다.총급여 7000만원 이하 무주택 근로자가 지출하는 월세에 대한 세액공제율은 10∼12%에서 15∼17%로 올라갔다.다만 임대차 계약서의 입주일과 주민등록표 등본의 전입일 중 빠른 날에서 전후 3개월 이내에 차입한 자금이 아닌 경우 공제 받을 수 없다. 국민주택규모에 해당하지 않는 주택을 임차하기 위해 차입한 자금은 공제 대상에 해당하지 않는다.의료비 세액공제도 확대된다. 난임시술비 공제는 기존 20%에서 30%로, 미숙아와 선천성이상아를 위해 지출한 의료비 공제도 기존 15%에서 20%로 상향된다.다만 형제자매가 부모님의 의료비를 나눠 공제 받을 수 없고, 실제 의료비를 부담한 근로자가 의료비 세액 공제는 받을 수 있다. 미용이나 성형수술을 위한 비용, 건강증진을 위한 의약품 구입비, 외국의 의료기관에 지출한 비용 등은 공제받을 수 없다.앞서 한시 상향된 기부금 세액공제율이 올해에도 적용된다. 지난해 지출한 기부금 중 1000만원 이하금액은 20%, 1000만원을 초과하는 금액은 35%의 세액공제를 받을 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2023.01.10.</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>개인사업자 비중 10% 넘은 토스뱅크… 인터넷은행, 기업금융 늘었다</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000868768?sid=101</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>인터넷은행이 개인사업자 대출을 확대하는 가운데 토스뱅크가 가장 선전하고 있는 것으로 나타났다. 하지만 개인사업자 대출 특성상, 금리 인상기에는 부실 위험이 커지는 만큼 인터넷은행의 위험관리 부담 역시 커질 것이란 지적도 나왔다.인터넷은행 로고. /각 사 제공        10일 나이스신용평가에 따르면 토스뱅크의 작년 3분기 말 전체 여신 중 개인사업자 대출 비중은 13.6%를 기록했다. 인터넷은행 중 처음으로 개인사업자 비중이 10%를 넘긴 것이다. 토스뱅크의 개인사업자 대출 잔액은 서비스 시작 9개월 만에 9680억원을 기록했다. 토스뱅크는 지난해 2월 업계 최초로 개인사업자 대출 시장에 진출했다.지난해 5월 개인사업자 대출을 내놓은 케이뱅크의 대출 잔액은 4개월 만에 301억원을 기록했다. 카카오뱅크 역시 지난 11월 개인사업자 대출을 시작한 이후 한 달 동안 500억원 규모의 대출을 실행한다고 밝혔다.인터넷은행들은 개인사업자 대출 비중을 늘리고 있다. 가계대출만으로는 수익 개선이 어렵기 때문이다. 금융당국 역시 금융소비자에게 더 나은 상품을 제공할 수 있도록 규제를 완화해 인터넷은행의 기업금융을 장려하고 있다. 금융위는 지난해 1월 한시로 예대율(예금과 대출의 비율) 규제 완화 조처를 한 바 있다.인터넷은행의 이러한 행보는 최근 개인사업자 대출 비중을 줄이는 시중은행과는 대비된다. 전날 기준으로 KB국민·신한·하나·우리·NH농협 등 5대 은행이 지난달 취급한 개인사업자 총대출 잔액은 314조0840억원이다. 이는 전월(314조7500억원) 대비 6660억원 줄어든 수치다. 개인사업자 대출은 지난 11월 말에도 10월말(314조8080억원)보다 570억원 감소하는 등 세달 연속 줄어들고 있다.시중은행은 경기침체가 지속되자 개인사업자 대출 부실 위힘이 커질 것을 우려해 개인사업자 대출을 줄이고 있다. 지난해 3분기 한국은행이 사상 처음으로 두 차례 기준금리를 0.5%p 인상하면서 개인사업자 대출 금리가 치솟자 부실위험이 커졌다. 채권시장이 경색돼 금융당국이 은행채 발행 축소를 요청하면서 시중은행의 자금조달이 어려워진 것 또한 은행의 대출 축소 요인으로 작용했다.인터넷은행들도 대출 확대에 따른 리스크 확대 가능성을 인지하고 있다. 인터넷은행의 지난해 3분기 고정이하여신(부실채권) 규모는 증가했다. 케이뱅크의 연체율은 0.67%로 1년 새 0.29%포인트(p) 증가했다. 고정이하여신비율도 같은 기간 0.76%로 전년 대비 0.27%p 상승했다. 카카오뱅크 연체율은 0.36%로 전년 대비 0.15%p 증가했다. 토스뱅크의 지난해 3분기 연체율은 0.30%, 고정이하여신비율은 0.23%다.인터넷은행 관계자는 “지난해 인터넷전문은행들이 중저신용자 비율 달성을 위해 개인사업자 대출 등을 늘려왔다”며 “현재 대손충당금으로 늘리고 신용평가모델을 고도화하는 등 리스크 관리를 최우선으로 하고 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2023.01.06.</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>증권플러스 비상장 "2022년 키워드는 'RABBIT'"</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000884617?sid=105</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>증권플러스 비상장은 2022년 트렌드 키워드로 'RABBIT'을 선정했다. /사진제공=증권플러스 비상장 두나무의 비상장 안전 거래 플랫폼 증권플러스 비상장이 2022년 대한민국 비상장 주식시장을 관통한 이슈들을 정리하며 키워드 'RABBIT'을 제시했다.6일 증권플러스 비상장에 따르면 '2023 계묘년 도약'의 의미를 담아 2022년 트렌드 키워드로 'RABBIT'을 선정했다.R(Rule)은 투자자 보호·건전성 강화를 의미한다. 증권플러스 비상장은 2022년 7월 투자자 보호와 건전한 시장 발전을 위해 서비스 정책을 개편했다. 투자자 보호장치도 마련했다. 필수 매물 인증, 매물 중복 등록 금지 등 허위 매물 거래를 원천 차단했고 '바로 주문' 기능을 고도화해 거래 안정성을 강화했다. 종목심사위원회를 신설, 기업 건전성을 면밀히 분석하고 엄격한 기준·절차에 따라 투자자 보호 정책을 수행하고 있다. A(Await)는 '장기 투자' 증가를 의미한다. 증권플러스 비상장에서 비상장 주식을 매수한 투자자 수는 2022년 7월부터 매월 약 11% 증가, 11월에는 7월 대비 약 54% 늘었다. 1인당 평균 거래대금도 꾸준히 증가해 같은 기간 1만8494원에서 2만8995원으로 약 57% 뛰었다. 같은 해 12월 기준 누적 거래 건수는 33만9000건을 기록했다. 누적 거래 대금은 1조를 돌파, 같은 달 14일 기준 1조635억4565만원에 달했다.B·B(Bio Business)는 바이오·제약 테마의 인기를 의미한다. 증권플러스 비상장 2022년 인기 거래 TOP 20에는 한국코러스 등 10개, 인기 검색 TOP 20에는 낙스·큐라티스 등 8개의 바이오·제약 기업이 이름을 올렸다. 신약 개발 기업 지엔티파마는 인기 검색 1위, 인기 거래 2위, 자가면역세포치료제 연구개발회사 노보셀바이오는 각각 3위를 기록했다. 핀테크 테마도 많은 관심을 받았다. 인터넷 전문 은행 케이뱅크는 각각 5위, 6위에 올랐다. 모바일 금융플랫폼 토스를 운영하는 비바리퍼블리카는 각각 15위, 8위, 두나무는 각각 2위, 1위를 차지했다.I·T(Information &amp; Technology)는 정보 접근성 강화, 기술 혁신을 의미한다. 2022년 7월부터 플랫폼에 등록된 기업들에 한해 공시 의무가 부여되면서 정보 격차가 크게 해소됐다. 등록된 기업들은 강화된 투자자 보호 정책에 따라 ▲정기공시 ▲수시공시 ▲조회공시 등 의무를 엄격히 준수하고 있다.증권플러스 비상장은 같은 해 9월 모바일 애플리케이션 홈 화면을 전면 개편했다. 인기 종목들을 홈 화면 최상단에 배치, 시장 트렌드를 한눈에 살펴볼 수 있게 했다. 빠르고 간편한 거래 체결을 위해 '구매하기' 버튼을 연동했고 '테마별 탐색' 기능을 추가했다. 공모주 일정 탭 화면을 추가 개편, 단계에 따른 상장 일정을 바로 확인할 수 있도록 했다. 오전 7시부터 오후 4시30분까지였던 '바로 주문' 거래 시간은 오후 7시까지로 연장했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2023.01.15.</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>핀테크 뒤흔든 토스, 이동통신 시장도 흔들까?</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002623451?sid=105</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>국민은행 이어 알뜰폰 서비스 개시앱서 가입·요금제 탐색·개통 ‘한번에’비바리퍼블리카 제공핀테크 플랫폼 ‘토스’가 이르면 이 달 안에 첫 알뜰폰(MVNO) 서비스를 선보일 것으로 보인다. 케이비(KB)국민은행에 이어 토스까지 알뜰폰 시장에 발을 들여놓으면서 이동통신 3사와 기존 중소 알뜰폰 사업자들이 긴장하는 모양새다.15일 &lt;한겨레&gt; 취재를 종합하면, 토스모바일이 이르면 이달 말 알뜰폰 요금제를 출시할 예정이다. 토스모바일은 핀테크 플랫폼 토스 운영사 비바리퍼블리카가 지분 100 %를 보유한 계열사다 . 구체적인 요금제 구성은 아직 알려지지 않았으나, 다섯 개 안팎의 요금제가 출시될 것으로 보인다. 토스는 지난해 여러 차례에 걸쳐 이용자 수만명을 대상으로 알뜰폰 요금제 선호도를 조사하고, 이를 바탕으로 구체적인 요금제를 설계해온 것으로 알려졌다.업계에선 토스모바일이 편리한 이용자 경험(UX)을 앞세워 엠제트(MZ) 세대 이용자를 주로 공략할 것이라는 예측이 나온다. 앞서 토스는 지난해 7월 토스모바일 전신인 ‘머천드코리아’를 인수하며 알뜰폰 시장 진출을 선언할 당시 “알뜰폰 서비스 이용자들이 온라인 채널을 통해 주로 가입한다는 점을 고려해, 토스 앱 안에서 가입부터 요금제 탐색, 개통 등 모든 과정을 편리하게 이용하도록 하겠다”고 밝힌 바 있다.금융위원회는 지난해 11월 금융회사가 부대 사업으로 알뜰폰 판매를 할 수 있도록 금산분리 규제를 완화하는 방안을 검토하겠다고 밝혔다. 이에 금융 회사들이 대거 알뜰폰 시장에 진출하면서 이동통신 이용자 선택 폭이 넓어질 수 있다는 전망과 함께 ‘출혈경쟁’ 우려도 나온다.한국알뜰통신사업자협회는 지난 11일 성명을 내어 “막대한 자본력을 갖춘 여러 은행이 우후죽순으로 알뜰폰 시장에 진출해 도매대가 이하의 출혈 요금제와 사은품 등 마케팅 경쟁을 주도한다면, 알뜰폰 사업에서 발생한 수익만으로 회사를 유지하는 대다수 중소 사업자가 희생양이 될 것”이라고 비판했다.토스 쪽은 “머천드코리아 인수 때부터 출혈 경쟁을 하지 않겠다고 했다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2023.01.08.</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>작년 20만원, 올해 달랑 10만원…카드사 캐시백 무슨일?</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000317630?sid=101</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>[최근 토스를 통해 신용카드를 발급받은 후 받을 수 있는 캐시백 규모가 10만원 안팎으로 다소 줄었다. (사진=토스 앱 화면 캡쳐)]새해부터 카드사들이 캐시백 혜택을 빠르게 줄이고 있습니다. 가파른 금리 인상으로 자금조달 환경이 나빠진 데다 경기 침체 우려까지 커지면서 비용 축소에 나선 것으로 보입니다.금융권에 따르면 최근 토스와 카카오페이 등 빅테크 플랫폼에서 신용카드를 새로 발급하면 현금성 캐시백 혜택 규모가 크게 줄어들었습니다.최근 토스에서 신용카드를 발급받을 경우 제공되는 현금성 캐시백 규모는 대체로 10만원 안팎입니다. 지난해 3분기까지만 하더라도 20만원대에서 혜택이 제공됐는데, 절반이나 줄어든 겁니다. 토스에서 신용카드를 소개해주고 있는 금융사는 총 10곳입니다. 이 가운데 10만원이 넘는 현금성 혜택을 제공하는 곳은 신한카드, KB국민카드, 삼성카드, 하나카드, NH농협카드 등 절반에 불과합니다. 나머지 5곳은 모든 카드에서 캐시백 혜택이 10만원 미만입니다. 특히 우리카드, 현대카드, 그리고 IBK기업은행은 현금성 혜택을 아예 제공하지 않고 있습니다.또 다른 플랫폼인 네이버페이와 카카오페이에서는 신용카드 신규 발급에 지급되는 혜택이 사실상 자취를 감췄습니다. 카드사들은 지난해까지만 하더라도 빅테크 플랫폼을 통한 카드 영업에 힘써왔습니다. 고객들이 쉽고 편하게 접근할 수 있는 데다가 카드 모집인을 통할 때보다 영업에 들어가는 비용이 1/3가량 저렴했기 때문입니다.하지만 연말께부터 가파른 금리 인상 여파로 조달금리가 빠르게 오르면서 경영환경이 나빠졌습니다. 줄일 수 있는 비용은 최대한 줄이면서 비상경영 체제에 돌입했고 이에 따라 현금성 혜택도 대거 자취를 감추게 된 겁니다.이외에 카드사의 허리띠 졸라매기는 다방면에서 진행되고 있습니다.삼성카드는 올해 초부터 프리미엄 카드 고객을 대상으로 제공하던 무이자 할부 혜택 기간을 기존 최대 6개월에서 4개월로 축소합니다.현대카드는 지난해 말부터 일부 고객을 대상으로 신용카드 한도를 대거 축소하겠다고 통보해 논란을 겪은 바 있습니다. 현대카드 회원 A씨는 "신용등급이 내려간 사실도 없고 7~8년 넘게 카드를 쓰고 있는데 갑자기 한도가 줄어든다고 연락이 왔다"며 "일방적으로 통보해 다소 황당했다"고 밝혔습니다.현대카드 관계자는 "회원의 지불능력이나 신용등급뿐만 아니라 시장상황까지 두루 고려해 결정한 조치"라고 설명했습니다.카드사들의 비용 줄이기는 당분간 이어질 것으로 보입니다. 인플레이션이 완전히 꺾였다는 신호가 나오기 전까지는 금리 인상 흐름이 이어질 가능성이 크기 때문입니다.한 카드사 관계자는 "조달금리 상승은 물론이고 향후 비우호적인 금융시장이 형성될 게 뻔한 상황"이라며 "위기가 지나갈 때까지는 줄일 수 있는 비용은 최대한 줄이자는 방침"이라고 설명했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2023.01.10.</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>대중교통 플랫폼 '티머니GO', UI·UX 전면 개편</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001076441?sid=101</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>티머니의 대중교통 중심 모빌리티 플랫폼 '티머니GO'가 새해를 맞아 UI·UX를 전면 개편했다고 10일 밝혔다.먼저 티머니는 버스·지하철 도착 정보를 터치 한 번으로 확인하고, 택시 호출과 따릉이·씽씽과 같은 PM 대여도 더 간편하게 이용할 수 있도록 UI·UX를 개편했다고 설명했다.또한 이용자가 개인별 모빌리티 이용 빈도를 한 눈에 알아보고, 이용한 대중교통 이동거리를 확인할 수 있는 메뉴도 마련했다.티머니는 주 3일 이상 대중교통 또는 따릉이를 이용하거나 여러 이동수단을 환승하는 경우 마일리지를 제공하고, 매일 출석체크를 통해 일 최대 500마일리지를 제공하는 이벤트도 선보인다.아울러 ESG 요소를 접목해 대중교통 이용만으로 이산화탄소 절감에 얼마나 기여했는지 이용자가 확인할 수 있으며, 간편결제 영역에 네이버페이와 토스페이를 추가하며 편의성을 더한다.이번 개편을 통해 티머니는 티머니GO내 온다택시 신규 가입자를 대상으로 택시 2천 원, 3천 원, 5처 원 쿠폰 등 1만 원 규모의 쿠폰 증정 이벤트도 진행한다.조동욱 티머니 전무는 "티머니GO가 2023년 새해를 맞아 UI·UX를 전면 개편했다"며 "티머니GO만의 쉽고 재미있는 이동경험과 눈에 보이는 혜택을 직접 체험하시길 바라며, 더 완성도 높은 서비스를 위해 최선을 다하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2023.01.06.</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>저신용자 '대출 보릿고개' 시작되나…은행 신용대출 취급액↓</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/055/0001026191?sid=101</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>▲ 위 사진은 기사 내용과 관련이 없습니다.고금리 여파로 저신용자 등 취약 계층에 대한 신규 신용대출이 줄어들면서 저신용자들의 '대출 보릿고개'가 시작되는 게 아니냐는 우려가 나오고 있습니다.금융감독원이 국민의 힘 최승재 의원실에 제출한 자료에 따르면 지난해 1~10월 우리은행 등 5대 시중은행의 저신용자(NICE신용평가 664점 이하) 대상 신규 신용 대출 취급액은 1천192억 원으로 전년 동기의 1천592억 원보다 25.1% 감소했습니다.저신용자의 신규 신용 대출 계좌 수 또한 1만 2천931개에서 9천189개로 28.9%가 줄었습니다.같은 기간 저신용자들이 보유한 신용대출 잔액도 2021년 1~10월 23조 3천억 원에서 지난해 1~10월 19조 5천억 원으로 16.1% 감소했고 계좌 수는 178만 개에서 147만 개로 17.4%가 줄었습니다.이에 대해 최승재 의원실은 고금리 기조와 금융당국의 대출 규제로 인해 저신용자들에 대한 대출이 직격탄을 맞은 결과라고 지적했습니다.케이뱅크, 카카오뱅크, 토스뱅크 등 인터넷은행도 저신용자에 대한 신규 대출이 최근 들어 급격히 감소하는 추세입니다.지난해 6월부터 10월까지 7월을 제외하고는 인터넷은행의 저신용자 대상 신규 대출 취급액과 계좌 수가 모두 전월 대비 감소했습니다.지난해 1월 인터넷은행의 저신용 대상 신규 대출 취급액은 117억 원이었지만 그해 10월에는 68억 원으로 거의 반 토막이 났습니다.이들 인터넷은행의 저신용자 대상 신규 대출잔액의 합계를 보면 지난해 8월의 경우 4천245억 원으로 전년 대비 27.9%, 9월에는 4천334억 원으로 31.2%, 10월에는 4천654억 원으로 25.2%가 각각 줄었습니다.최승재 의원은 "코로나19로 인해 가계부채 폭탄이 커진 상황에서 저신용자가 뇌관이 되지 않도록 대출을 관리할 필요는 있지만 대출이 절실한 저신용자 등 취약계층에게는 활로를 열어주어야 한다"고 지적했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2023.01.04.</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>토스, 개인정보 이용 내역 조회 서비스 출시</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005399781?sid=105</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>“개인정보 흐름 공개, 고객 신뢰 커지는 계기될 것”[이데일리 임유경 기자] 모바일 금융플랫폼 토스를 운영하는 비바리퍼블리카(이하 토스)는 고객이 서비스 이용과정에서 조회되는 개인정보 내역을 언제든 확인할 수 있는 ‘개인정보 안심리포트’ 서비스를 출시했다고 4일 밝혔다.개인정보 안심리포트는 고객이 제공에 동의한 개인정보가 언제, 왜, 누구에게 제공되었는지를 확인할 수 있는 서비스다. 예컨대 송금 과정에는 고객의 이름과 계좌번호가 금융결제원 및 연결 은행에서 출금을 위해 사용되는 것을 조회할 수 있다.토스가 개인정보 안심리포트 서비스를 출시했다.(이미지=토스)토스 측은 서비스 출시 배경에 대해 “다양한 금융 서비스 이용 시, 고객이 ‘필수동의’, ‘선택동의’ 등의 과정을 거치고 있지만 실제 서비스 과정에서 개인정보의 흐름이 어떻게 이루어지고 있는지 구체적으로 보여주는 제품이 그동안 시장에 없었다는 점에 착안했다”고 설명했다.현재 토스의 서비스 중 ‘내 신용점수’, ‘내게 맞는 대출 찾기’를 비롯해 송금, 환전, 토스페이 등 주요 서비스에서의 이용 내역을 확인할 수 있으며, 향후 모든 서비스로 확대될 예정이다. 개인정보 안심리포트는 토스앱 내 ‘전체 탭’에서 확인할 수 있다.이승건 토스 대표는 “토스가 많은 유저에게 사랑받는 서비스로 자리매김하기 위해 더 높은 수준의 신뢰를 얻는 것이 필수적”이라며 “이렇게 투명하게 공개할 수 있는 것까지가 혁신의 영역이라고 생각한다”고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2023.01.08.</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>토스 뛰어들고, 리브엠 숨고르기…알뜰폰 경쟁 더 치열해진다</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002140359?sid=105</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>[디지털데일리 권하영 기자] 통신자회사 중심이던 알뜰폰 시장에 적지 않은 균열이 예상된다. ‘토스’(Toss) 간판을 단 알뜰폰 요금제가 곧 출시되는 데다, KB ‘리브엠’ 역시 가입자들을 끌어모으며 선방하고 있어서다. 기존 통신자회사 알뜰폰 업체들도 5G 중간요금제 출시 등 공세에 나섰다. 새해 벽두부터 알뜰폰 시장 경쟁이 더욱 심화되는 모습이다.   7일 통신업계에 따르면 ‘토스’ 운영사 비바리퍼블리카는 오는 1월말 출시를 목표로 알뜰폰 요금제를 준비하고 있다. 이르면 1월말 늦어도 2월초 중에는 알뜰폰 요금제를 론칭하겠다는 계획이다. 비바리퍼블리카는 지난해 7월 말 중소 알뜰폰 업체인 ‘머천드코리아’를 인수하며 알뜰폰 시장 진출을 차근차근 준비해왔다.    앞서 토스는 5600명의 이용자를 무작위로 선정해 알뜰폰 요금제 선호도 조사를 진행했고, 이에 따라 구체적인 요금제 라인업을 설계하는 중이다. 다만 기존 알뜰폰 업계가 걱정한 원가 이하의 최저가 요금제는 고려하지 않는 것으로 보인다. 비바리퍼블리카가 출혈 마케팅 경쟁을 지양한다는 입장을 명확히 하고 있어서다.   그럼에도 토스 알뜰폰은 시장에 큰 반향을 불러일으킬 것으로 기대되고 있다. 토스는 이용자가 가입요금제에서 제공하는 기본데이터 용량보다 적게 데이터를 사용하면 요금 일부를 적립금으로 돌려주는 페이백 혜택을 검토하는 것으로 전해졌다. 토스페이로 요금 결제시 추가할인을 해주는 혜택도 예상된다. 사실상의 요금 인하가 이뤄지는 셈이다.   토스에 앞서 알뜰폰 시장에 진출한 KB국민은행 알뜰폰 브랜드 ‘리브엠’ 역시 가입자들의 많은 지지를 받고 있다. 리브엠 가입자는 2020년까지만 해도 10만명이 채 안되었지만 지난해 10월 약 35만명으로 4배 가까이 증가했다. 지난 12월 컨슈머인사이트가 실시한 이동통신 기획조사에서는 78%로 고객 만족도 1위를 차지했다.   국민은행의 경우 오는 4월이면 알뜰폰 사업 특례 기간이 만료된다. 하지만 금융위원회는 국민은행 사례와 같이 혁신금융서비스를 지속 제공할 수 있도록 금융 관련 법령을 정비할 계획을 밝혔다. 오히려 4월 이후에는 국민은행 뿐만 아니라 다른 시중은행들도 알뜰폰 사업에 진출할 수 있는 길이 열릴지도 모른다.   이처럼 신흥 알뜰폰의 등장으로 긴장하는 쪽은 통신사 계열 알뜰폰들이다. 통신사 자회사 알뜰폰 업체들은 컨슈머인사이트 조사에서 만족도가 오히려 역성장할 정도로 근래 가입자들의 외면을 받고 있다. 통신사 망을 임대하는 알뜰폰 특성상 자유로운 요금 설계가 어렵다는 점이 진입장벽으로 꼽힌다.   다만 최근에는 이들 업체들도 반격에 나서는 모양새다. KT엠모바일은 지난 2일 월 2만원대 5G 중간요금제 두 종류를 출시했다. 그동안 알뜰폰 업체들은 데이터 10GB 이하의 저용량 또는 100GB 이상 고용량 상품 위주로 요금제를 운영해왔는데, 이번에 KT엠모바일이 내놓은 요금제는 매달 데이터 20GB를 제공한다.   알뜰폰 업계 관계자는 “다양한 사업자들이 알뜰폰 시장에 들어와 규모를 키우면 그만큼 소비자들도 많이 유입되고 시장 자체가 활성화될 수 있을 것”이라면서 “다만 대형 자본을 가진 업체들이 도매가 이하로 요금제를 팔면서 시장을 장악하는 지경까지 가면 안 된다. 이에 대한 대책이 필요하다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2023.01.02.</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>제2금융권 “대출 조회 수수료 불공정”…빅테크 “금리 따라 책정”</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/056/0011403010?sid=101</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>토스·카카오페이 등 대출을 중개하는 빅테크사가 저축은행 등 제2금융권에 부과하는 수수료율이 은행과 비교해 지나치다는 주장이 제기되고 있습니다. 현재 대출 중개 플랫폼들이 저축은행에 평균적으로 부과하는 중개 수수료율은 1.7∼1.8%지만 은행권에 대해서는 0.4∼0.5%의 수수료를 받고 있습니다. 이에 대해 한 저축은행 관계자는 “일부 플랫폼사에서 요구하는 선택 수수료까지 포함하면 실제 중개 수수료 지급률은 최대 2.5%에 육박한다”고 말했습니다. 저축은행 업계는 “모든 금융권이 동일한 방식으로 플랫폼을 이용하는데도 동일한 시스템 이용 원가를 무시하고, 업권간 차별적인 중개수수료를 부과하는 것은 부당하다”고 주장하고 있습니다. 이에 대해 플랫폼사 관계자는 “수수료 책정은 기본적으로 금리와 연관이 가장 높다”면서 “평균 대출 금리가 연 3∼4%인 시중은행과 연 15∼20%인 저축은행에 동일한 수수료를 적용할 수는 없다”는 입장을 밝혔습니다. 저축은행들은 플랫폼사에 중개 수수료율을 은행권과 동일한 수준으로 내려달라고 요청하고 있는데 개별 저축은행의 협상력이 부족하다면 저축은행중앙회에 계약권을 일임해 협상을 진행하는 방안도 검토하고 있습니다. 한편 최근 2금융권=이 조달금리 인상을 감당하지 못해 대출을 줄이자 금융위는 지난달 27일 조달금리 변동 폭만큼 올해 1∼6월 적용될 민간 중금리 대출 상한을 높이기로 했습니다. 민간 중금리 대출 제도는 신용 하위 50%인 개인 대출자를 위한 제도로 업권별 금리 상한 요건을 충족하는 비보증부 신용대출에 대해 인센티브를 부여하는 방식으로 운영됩니다. 따라서 올해 상반기 민간 중금리 대출의 금리 상한은 상호금융업권이 10.5%, 카드사는 11.88%, 캐피탈은 14.99%, 저축은행은 17.5%로 상향됩니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2023.01.07.</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>[핀토크]하루만 맡겨도 이자 연 5.5%…'파킹통장' 지금이 막차?</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004837644?sid=101</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>/사진=머니투데이하루만 맡겨도 많은 이자를 받을 수 있는 '파킹통장' 금리 경쟁이 과열되고 있다. 기준금리 인상 등 영향으로 은행으로의 수신 고객 이탈을 막으려는 저축은행과 인터넷전문은행이 앞다퉈 파킹통장 금리를 올리면서다. 다만 은행채 발행 재개 등으로 은행의 수신금리 인상세가 한풀 꺾이면서 파킹통장 금리 고공행진이 지속되긴 어려울 것이란 전망이 나온다.7일 금융권에 따르면 OK저축은행은 지난 5일부터 파킹통장 상품인 'OK읏백만통장Ⅱ'의 예치금 100만원 이하 금리 구간을 신설했다. 100만원 이하 예치금에 대해선 기본 연 5% 금리를 주고, 오픈뱅킹을 등록하면 추가로 0.5%P(포인트)의 우대금리를 얹어준다.100만원이 넘는 예치금에 대해선 △100만원 초과~500만원 이하 최고 연 5% △500만원 초과~5000만원 이하 최고 연 4% △5000만원 초과 최고 연 3%의 금리를 적용한다.애큐온저축은행도 최근 파킹통장인 '머니쪼개기' 금리를 연 4.3%로 0.3%P 인상했다. 한도도 기존 2000만원에서 3000만원으로 상향했다. 별도의 우대금리 조건 없이 하루만 맡겨도 일할 계산된 이자를 받아볼 수 있다.이밖에 대신저축은행 '더드리고입출금통장'도 연 3.9% 금리를 제공 중이다. 또 다올저축은행 'Fi저축예금'과 하나저축은행 '하이하나보통예금'도 각각 연 3.8% 금리를 준다. 웰컴저축은행 역시 5000만원 한도로 '웰컴 직장인사랑 보통예금'의 금리를 최고 연 3.8%까지 준다. 기본금리 연 2.3%에 우대금리 조건을 충족하면 최대 1.5%P를 얹어준다.파킹통장 금리 인상은 인터넷전문은행이 포문을 열었다. 앞서 토스뱅크는 지난달 초 '토스뱅크통장' 최고금리를 연 4%로 인상했다. 예치금 5000만원까지는 기존과 같이 연 2.3% 금리를 적용하지만, 5000만원이 넘는 금액부터는 연 4% 금리를 준다. 케이뱅크도 최근 파킹통장 '플러스박스' 금리를 연 3%로 0.3%P 올렸다.저축은행과 인터넷은행들이 이처럼 파킹통장 금리 경쟁력을 강화하는 건 최근 금융시장 변동성이 커지면서 투자처를 잃은 돈을 끌어들이기 위해서다. 주식이나 가상자산(암호화폐) 등 투자심리가 얼어붙은 상황에서 여윳돈을 어떻게 운용할지 고민하는 투자자들을 파킹통장 쪽으로 유인하려는 것이다. 여기에 추가 기준금리 인상 전망에 따라 수신금리가 더 오를 때까지 단기간 돈을 맡길 곳을 찾는 수요를 공략하려는 의도도 있다.다만 지금과 같은 파킹통장 금리 경쟁이 지속되기는 힘들 것이란 전망이 우세하다. 은행채 발행이 재개되고, 은행채 금리가 하락하면서다. 실제 지난해 11월 5.279%까지 치솟았던 은행채 AAA등급 5년물 금리는 지난 5일 4.537%까지 낮아졌다. 시중은행이 은행채 발행으로 자금을 끌어오면 수신금리를 올릴 이유가 줄어들고, 이렇게 되면 저축은행 등도 자금조달에 숨통이 트여 파킹통장 금리를 높일 유인이 적어진다.여기에 파킹통장으로 조달한 자금은 정기예금보다 상대적으로 운용상 제약이 크다. 만기가 정해진 정기예금과 달리 파킹통장은 언제든지 빠져나갈 수 있는 돈이기 때문에 대출 등 여신 활동에 적합하지 않아서다. 한 저축은행 관계자는 "최근 금융시장 변동성이 워낙 커 섣불리 금리 추이를 예측할 순 없다"면서도 "금융당국의 수신금리 인상 경쟁 자제 기조가 여전한 데다 시장금리 인상세도 다소 주춤하면서 파킹통장 금리 상승세가 지속되긴 어려워보인다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2023.01.02.</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>SNL 나온 권성동 "비키니 사진 1~2초 봤는데 그때 딱 찍혀"</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004140422?sid=100</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>권성동 국민의힘 의원이 지난해 31일 방송된 쿠팡플레이 SNL코리아 '주기자가 간다'에 코너에 출연해 ‘국정감사장 비키니 사진 논란’ 관련 질문에 답하고 있다. SNL 코리아 캡처[서울경제] 권성동 국민의힘 의원이 쿠팡플레이 SNL코리아 ‘주기자가 간다’에 출연해 ‘국정감사장 비키니 사진 논란’, ‘연찬회 술자리 논란’, ‘윤핵관(윤석열 대통령 핵심 관계자)에 대한 생각’ 등과 관련한 송곳 질문에 진땀을 뺐다.권 의원은 1일 페이스북에 “주현영 기자와 김아영 인턴기자의 날카로운 질문에 많이 당황했다. 이에 방어하기 어렵다고 판단하고, 가감 없이 있는 그대로 내려놓았다”며 출연 소감을 밝혔다. 이어 “몇몇 장면에서는 보좌진이 팔로 ‘X자’를 만들며 만류했으나, 최대한 요구에 부응하고자 노력했다”며 “해당 코너 최고 스타인 홍준표 선배만큼 재밌을 수는 없겠지만, 솔직한 제 모습이니 편하게 봐주셨으면 좋겠다”고 했다.권 의원이 출연한 ‘주기자가 간다’는 이날 오후 8시 공개됐다. 이 코너는 유명인을 초청해 날 것 그대로의 질문을 던져 상대를 곤혹스럽게 만드는 것으로 유명한 시사풍자 코미디 프로그램이다.권 의원에게 던져진 첫 질문은 8년 전 권 의원이 국회 국정감사장에서 스마트폰으로 플레이보이 모델 티파니 토스 사진을 보던 모습이 카메라에 잡힌 장면에 관한 것이었다. “그녀의 어떤 점이 가장 끌리셨나”라는 질문에 권 의원은 “기사 검색하다가 우연찮게 그 화면이 나왔다. 잠시 1~2초 봤는데 찍혔다. 그 여성이 어떤 여성인지 전혀 기억이 안 난다”고 했다. 이상형에 대한 질문이 이어지자 “눈이 커야 된다. 내가 눈이 작다”고 답했다.권 의원이 ‘연찬회 술자리 논란’ 관련 질문에 답하고 있다. 지난해 8월 윤석열 대통령은 을지훈련 기간이면서 수해 피해 상황 등을 고려해 직접 국민의힘 국회의원 연찬회에 금주령을 내렸었다. 이 같은 상황에서 권 의원이 별도로 술자리를 가진 사실이 드러나 파문이 일었다. SNL 코리아 캡처지난해 8월 을지훈련 기간과 수해 피해 상황 등을 고려해 주류 반입을 금지한 국민의힘 국회의원 연찬회 직후, 권 의원이 별도로 술자리를 가진 것에 대한 질문도 나왔다. 술자리 모습을 공개하며 “굉장히 핵인싸이신 것 같다”는 지적이 나오자, 권 의원은 “해명을 하자면 공식 연찬회가 끝난 후 뒤풀이였다”며 “연찬회는 술 반입이 금지됐지만 뒤풀이는 (그렇지 않았다)”고 해명했다. 권 의원은 해당 질문에 당황하는 표정을 지으면서도 크게 웃어 보였다.‘윤핵관’이라는 별명에 대해선 “듣기 거북하다”는 솔직한 입장을 밝혔다. 권 의원은 “윤핵관이라는 별명을 만든 분(이준석 전 대표)은 조금 비아냥거리기 위해 만들었기 때문에, 남들이 우릴 공격할 때 윤핵관이라는 표현을 쓰는 것 자체는 듣기 거북하다”며 “왜냐하면 저는 권성동 국회의원이고 정치인 권성동이기 때문”이라고 했다.이어 주현영이 “그렇다면 윤핵관 4인방으로는 권성동, 장제원, 이철규, 윤한홍 의원 중 누가 일짱이라고 생각하느냐”고 묻자 권 의원은 “제가 일짱이라고 생각한다. 왜냐하면 저는 4선이고 장제원 의원이 3선, 나머지 의원이 재선이다. 국회의원은 선수가 중요하니까 제가 일짱”이라고 답변했다. 주현영이 “완전 대장이시네요”라고 맞장구를 치자 권 의원은 “그 의미는 윤석열 대통령 운명을 같이 하겠다는 것”이라고 했다."수입 농산물을 연말 선물로 보내신 그분(윤 대통령)께 영상 편지 부탁드린다”는 요구에 권 의원이 “수입 농산물을 선물로 보내신 분이 누구냐. 저는 그에 대한 정보가 전혀 없다”며 답변을 피했다. SNL 코리아 캡처윤석열 대통령의 연말 선물에 국산 아닌 수입산 농산물이 포함됐다는 논란에 대해선 말을 아꼈다. 두 선택지 가운데 하나를 선택하는 이른바 ‘밸런스 게임’에서 주현영이 수입 농산물과 국산 농산물 선물 중 무엇이 좋냐고 질문을 던지자 권 의원은 “당연히 우리 농산물이 좋다”고 했다. 이에 주현영은 “수입 농산물을 연말 선물로 보내신 그분(윤 대통령)께 영상 편지를 보내달라”는 주문을 하기도 했다. 하지만 권 의원은 별다른 대답을 내놓지 않고 장면이 전환됐다.이날 권 의원은 당대표 출마 여부에 대한 질문도 받았다. 권 의원은 “아직 결정은 안했는데 많은 사람들의 의견을 듣고 있다”고 했다. “사람들의 의견은 어떻냐”는 주현영의 이어진 질문엔 웃음을 터뜨리며 “출마하라고 하시는 분들도 많고 어떤 분들은 출발이 너무 늦지 않았냐고 우려하는 분들도 있다. 상반된다”고 했다.주현영이 “의원님 마음은 어떻냐”고 묻자 “98%는 출마 쪽에 기울고 있는데 2%가 채워지면 (출마) 선언을 할 것”이라며 “(부족하게 느껴지는 2%는) 당선 가능성이 높아야 출마한다. 무모하게 계란으로 바위치기를 하면 안 되니까 그 부분을 세심하게 살피고 있다”고 답했다.한편 권 의원은 이르면 오는 6일 당대표 출마 선언이 유력한 분위기다. 여의도 중앙보훈회관 8층에 캠프 사무실을 마련한 권 의원은 지난달 29일 과거 국민캠프 관계자들을 초청해 사실상 예비출정식을 가졌다. 새해 첫날엔 충북 보은군을 찾아 지역 당원들과 신년 인사를 갖고 특강을 진행했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2023.01.03.</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>[TF현장] 3년만에 열린 '범금융 신년인사회'…금융권 수장들 "리스크 관리 최우선"(영상)</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000193750?sid=101</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>5대 금융지주 회장 참석률 저조…조용병·손태승 불참3일 서울 소공동 롯데호텔에서 열린 '2023년 범금융 신년인사회'에 참석한 (왼쪽부터 반시계방향) 이석준 NH농협금융지주 회장, 함영주 하나금융지주 회장, 윤종규 KB금융지주 회장. /정소양·이선영 기자2023년 '계묘년'을 맞아 범금융기관 수장들이 신년인사회를 위해 한자리에 모였다. 이날 금융권 수장들은 올해 '리스크 관리'에 힘쓸 것이라고 입을 모았다.3일 오후 2시 서울 소공에 있는 롯데호텔 크리스탈볼룸에서는 '2023 범금융 신년인사회'가 열렸다. 이날 행사에는 금융권 수장들을 비롯해 은행연합회, 금융투자협회, 생명보험협회, 손해보험협회, 여신금융협회, 저축은행중앙회 등 6개 금융업권별 협회가 참석했다.1994년부터 시작된 '범금융 신년인사회'는 한 해 동안 금융권에서 추진해야 할 주요 과제, 경제적 상황에 대해 논의하는 자리로 매년 1월 초에 열려왔다. 그러나 지난 2020년을 마지막으로 코로나19 확산으로 인해 잠시 중단됐다.이번 범금융 신년인사회는 3년 만에 개최되면서 금융권 인사들도 그동안의 회포를 푸는 모습이었다.행사는 2시 시작이었지만 1시 10분께부터 행사장에는 금융권 인사들이 속속 도착했다. 대부분의 인사들은 오랜만에 만나는 반가운 얼굴을 보자 쉽사리 장내에 들어가지 못하고 복도에서 이야기를 나눴으며, 행사장은 금세 혼잡해졌다.다만 이날 5대 금융지주 회장단의 참석률은 저조했다. 이날 행사장엔 윤종규 KB금융지주 회장, 함영주 하나금융지주 회장, 이석준 농협금융지주 회장이 참석했다. 조용병 신한금융 회장, 진옥동 신한금융 회장 내정자, 손태승 우리금융 회장 등의 모습은 보이지 않았다.용퇴를 결정한 조용병 신한금융 회장은 오는 5일(현지 시간)부터 열리는 미국 라스베이거스에서 열리는 CES에 참석하기 위해 미국 출장에 나서면서 이번 신년 참석하지 못했다. 진옥동 신한금융 회장 내정자는 내정자 신분이기 때문에 참석하지 못했다는 전언이다. 거취가 결정되지 않아 기자들의 주목을 한껏 받을 예정이었던 손태승 우리금융 회장은 외부일정이 겹치면서 참석하지 못했다.5대 시중은행장 중에서는 이석용 NH농협은행장을 제외한 (왼쪽부터 시계방향) 이재근 KB국민은행장, 한용구 신한은행장, 이원덕 우리은행장, 이승열 하나은행장 등이 참석했다. /정소양·이선영 기자5대 시중은행장 중에서는 이석용 NH농협은행장을 제외한 이재근 KB국민은행장, 한용구 신한은행장, 이승열 하나은행장, 이원덕 우리은행장 등이 참석했다.인터넷은행 3사 대표도 모두 참석했다. 서호성 케이뱅크 행장, 윤호영 카카오뱅크 대표, 홍민택 토스뱅크 대표 등도 행사장을 찾았다. 이번에 선임된 김성태 기업은행장과 강신숙 Sh수협은행장도 참석해 많은 금융권 관계자들과 인사를 나눴다.증권업계에서는 최현만 미래에셋증권 회장을 비롯해 정일문 한국투자증권 대표, 정영채 NH증권 대표, 김성현 KB증권 대표, 황현순 키움증권 대표 등이 참석했다.3일 서울 소공동 롯데호텔에서 열린 '2023년 범금융 신년인사회'에 참석한 (왼쪽부터 시계방향) 강신숙 수협은행장, 김성태 기업은행장, 윤호영 카카오뱅크 대표, 서호성 케이뱅크 행장. /정소양 기자이날 금융권 수장들은 올해 '리스크 관리'에 힘쓸 것이라고 입을 모았다.이재근 KB국민은행장은 기자들을 만나 "올해 상황이 굉장히 어렵다"라며 "올해의 성과 등은 충당금, 리스크 쪽에 많이 있을 것 같다. 리스크를 어떻게 관리하느냐에 따라서 성과가 갈릴 것으로 보고 있다"고 말했다.다만 이 행장은 "리스크 관리 체계가 예전보다 훨씬 많이 좋아져서 예전만큼 크게 위기가 온다고 하더라도 체력이 좋기 때문에 충분히 극복 가능하지 않을까 생각한다"고도 했다.3일 서울 소공동 롯데호텔에서 열린 '2023년 범금융 신년인사회'에 참석한 금융권 수장들은 올해 '리스크 관리'에 힘쓸 것이라고 입을 모았다. (왼쪽부터 반시계 방향) 이환주 KB라이프생명 대표이사, 정영채 NH투자증권 대표, 최현만 미래에셋회장. /정소양 기자정영채 NH투자증권 대표도 "우크라이나 전쟁과 물가, 금리, 유동성 등 시장에 불확실성이 많다"라며 "돈 버는 것은 나중 문제일 것 같고 시장 시스템을 어떻게 유지하느냐가 중요할 것 같다"고 말했다.이어 정 대표는 "레고랜드, 흥국생명 사태 등을 보면 단순히 금리만이 아니라 실물까지 흔들리게 하는 게 금융"이라며 "자본시장과 실물 부분의 수레 양쪽 바퀴가 동일하다고 느꼈기 때문에 수레바퀴가 빠지는 일을 하지 말자는 것이 기본적인 생각, 완곡히 표현하면 리스크 관리를 하겠단 얘기"라고 설명했다.김성현 KB증권 대표 역시 "올해는 어려운 한 해이기 때문에 리스크 관리를 잘하면서 증권사가 시장에서 해야 할 역할이 있을 것"이라고 전했다.한편, 이번 신년인사회에는 금융회사 대표, 정부 관계자, 국회의원, 금융유관기관 대표 등 400여 명이 참석했다.발로 뛰는 더팩트는 24시간 여러분의 제보를 기다립니다.▶카카오톡: '더팩트제보' 검색▶이메일: jebo@tf.co.kr▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2023.01.04.</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>“설 선물 SK스토어에서 준비하세요”…최대 40% 할인·10만원 적립</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005399718?sid=101</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>1200종 설 선물 관련 상품 준비토스페이 결제시 최대 7% 즉시할인매일 오전 11시 '매일 당첨 룰렛 이벤트' 개최24일까지 식품·건강식품·가전/주방용품 구매시 20% 적립금 지급[이데일리 정다슬 기자] SK(034730)스토아(대표 윤석암)가 다가오는 설을 맞아 ‘설프라이즈’ 행사를 진행한다고 4일 밝혔다.오는 22일까지 진행하는 이번 행사는 SK스토아 온라인몰과 모바일 앱을 중심으로 마련됐다. 최대 명절인 설을 앞두고 선물을 구매하려는 고객들을 겨냥해 할인, 적립금, 참여 이벤트 등 다양한 혜택을 제공한다.먼저 ‘설맞이 세일’ 기획전을 준비해 약 1200종의 설 선물 관련 상품을 최대 40% 할인가에 판매하고, 행사 상품 구매 고객에게 최대 10만원의 적립금을 지급한다. 과일과 건강기능식품을 비롯한 먹거리 선물세트부터 뷰티·생활용품, 가전제품 등 다양한 상품을 선보인다.대표 상품으로 △정관장 홍삼진고 데일리스틱(10g*20포*4박스, 10만원) △설화수 자음 2종 기획세트(자음수 125ml+자음유액 125ml, 6만9520원) △삼성 비스포크 4도어 프리스탠딩 냉장고(RF85B9111APWR, 875L, 202만5810원) 등이 구성됐다.또한 산지직송 전문 브랜드 ‘더싱싱’과 손잡고 사과·배·황금향 등 각종 과일 선물세트를 비롯해 한우·제주 흑돼지·완도 활 전복·영광 보리굴비 등 신선 선물세트 상품을 다채롭게 판매한다.대표 상품으로는 △햇 나주배 선물세트(5kg, 8~10과, 2만5900원) △양념 LA갈비 세트(미국산/캐나다산, 1kg, 3만2900원) △완도 활 전복 선물세트(1kg, 중 15~16미, 4만9900원) 등을 선보인다.더불어 행사 상품 중 ‘BEST 선물’과 ‘PREMIUM 선물’로 지정된 상품을 구매하는 고객에게는 최대 10만원의 적립금을 지급하고, 토스페이로 결제하는 고객에게는 최대 7%의 즉시할인 혜택도 제공한다.여기에 매일 오전 11시 ‘매일 당첨 룰렛 이벤트’도 연다. SK스토아 모바일 앱 행사 페이지에서 1일 1회 참여 가능하며 10~5000원의 적립금 중 당첨 금액을 매일 증정한다.이밖에도 오는 24일까지 식품·건강식품·가전/주방용품 등 행사 상품을 구매하는 고객에게 최대 20% 적립금을 지급하는 ‘다다익설’ 기획전도 함께 진행한다.신양균 SK스토아 DT그룹장은 “설을 맞아 더 많은 고객에게 합리적인 혜택을 드리기 위해 이번 ‘설프라이즈’ 행사를 마련했다“며, “기획전, 적립금, 참여 이벤트 등 다양한 혜택을 마련한 만큼 설 선물 구매를 앞둔 고객에게는 좋은 쇼핑 기회가 될 것”이라고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2023.01.13.</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>무료서비스라도… 구글·카카오 등 경쟁사 방해·자사 우대 땐 제재</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003332035?sid=101</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>공정위, 독과점 심사지침 확정매출액 대신 이용자 수·빈도 고려무료 서비스도 독과점 규제 대상최혜대우 요구·끼워팔기도 금지“경쟁 제한 정도·의도·수단 등 심사”법적 구속력· 위법성 시비는 ‘한계’‘네카쿠배당토’(네이버·카카오·쿠팡·배달의민족·당근마켓·토스)와 구글·페이스북 등 대형 온라인 플랫폼 사업자들의 독점적 행위에 대한 심사 기준이 구체화됐다. 자사 이용자의 다른 경쟁 플랫폼 이용(멀티호밍)을 직간접적으로 방해하거나 자사 상품·서비스를 경쟁 사업자보다 우대(자사 우대)하는 행위가 명시적으로 금지된다.특히 플랫폼 기업이 소셜네트워크서비스(SNS) 등 무료 서비스를 기반으로 광고 노출이나 개인정보 수집을 통한 추가 서비스로 수익을 낼 수 있는 경우가 많은 만큼 무료 서비스를 반영하기 어려운 매출액 대신 이용자 수, 이용 빈도 등을 고려해 플랫폼 기업의 독과점 여부를 판단키로 했다.공정거래위원회는 이러한 내용의 온라인 플랫폼 사업자의 시장지배적지위 남용 행위에 대한 심사지침(온라인 플랫폼 독과점 심사지침)을 제정해 12일부터 시행한다고 밝혔다.심사지침은 플랫폼 기업의 행위가 공정거래법상 시장지배적지위 남용 행위에 해당하는지 여부를 심사하는 데 적용하는 기준이다. 외국 기업이 국외에서 한 행위라도 국내 시장에 영향을 미치는 경우에는 적용된다. 현행 공정거래법과 기존 심사지침이 플랫폼 분야의 특성을 반영하지 못하고 있다는 지적에 따라 공정위는 지난해 1월 플랫폼 분야에 적용하는 별도의 심사지침 초안을 행정예고하고 의견 수렴을 거쳐 지침을 확정했다.공정위는 주요 경쟁제한 우려 행위 유형을 ▲멀티호밍 제한 ▲자사 우대 ▲경쟁 플랫폼 대비 자사 거래조건을 더 유리하게 적용하려는 ‘최혜대우 요구’ ▲다른 상품·서비스를 같이 거래하도록 강제하는 ‘끼워 팔기’로 정했다. 앞서 2021년 공정위는 구글이 삼성 등 스마트폰 제조사에 자사와 경쟁하는 운영체제(OS)의 탑재를 방해한 행위를 제재했는데, 공정위가 이제 지침을 통해 유사 행위들을 ‘멀티호밍 제한’으로 보고 의도·수단·경쟁 제한 정도·소비자 후생 영향력 등을 고려해 심사하겠다는 것이다.아울러 공정위는 플랫폼이 기존 산업과 달리 여러 시장에 걸쳐 있는 다면적 특성, 이용자와 데이터의 집중으로 인한 쏠림 효과 등을 통해 독과점을 심화시킬 수 있다는 점을 고려해 시장을 획정하고 시장지배력과 경쟁제한성을 평가하도록 했다. 플랫폼 기업이 무료 서비스를 제공하더라도 광고 노출, 개인정보 수집 등을 통해 수익을 창출할 수 있으므로 무료 서비스 역시 위법성 판단 시 고려 사항에 포함했다. 공정위는 심사지침이 새로운 규제를 신설하는 것이 아니라 현재까지 누적된 온라인 플랫폼 분야의 법 집행 사례 등을 토대로 현행 공정거래법에서 규정하고 있는 독과점 남용 행위의 심사기준을 구체화한 것이라고 설명했다.이를 두고 심사기준이 법적 구속력이 약하거나 없는 만큼 새로운 법을 통해 대형 플랫폼 기업의 독과점을 규제해야 한다는 목소리가 나온다. 유럽연합(EU)은 플랫폼의 자사 우대, 끼워 팔기 등을 금지하는 디지털시장법(DMA)을 의회에서 통과시켰으며 미국은 대형 플랫폼의 경제력 집중을 견제하기 위한 반독점 패키지 법안을 추진 중이다. 역으로 자사 우대 등은 위법성 시비가 있는데도 공정위가 심사지침에 무리하게 경쟁제한 우려 행위로 규정했다는 지적도 있다. 지난해 11월 한국인터넷기업협회 등이 주최한 토론회에서 오승한 아주대 법학전문대학원 교수는 “온라인 플랫폼의 자사 우대 행위는 그 자체로 위법이라고 볼 수 없고, 객관적인 경쟁제한 효과가 입증된 경우에만 위법성이 인정될 수 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2023.01.03.</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>엔픽셀, 블록체인 게임 '그랑사가: 언리미티드' 티저 영상 공개</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011623911?sid=105</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>기사내용 요약그랑사가 IP에 블록체인 기술 입힌 MMORPG유저 경험·가치 공유 및 투명성 지향엔픽셀은 자사가 개발 중인 블록체인 MMORPG ‘그랑사가: 언리미티드(Gran Saga: Unlimited)’ 티저 영상을 최초 공개했다고 3일 밝혔다.(사진=엔픽셀 제공) *재판매 및 DB 금지[서울=뉴시스]최은수 기자 = 엔픽셀은 자사가 개발 중인 블록체인 게임 ‘그랑사가: 언리미티드(Gran Saga: Unlimited)’ 티저 영상을 최초 공개했다고 3일 밝혔다.‘그랑사가: 언리미티드’는 엔픽셀의 첫 프로젝트 ‘그랑사가’ 지식재산권(IP)에 블록체인 기술을 접목한 다중접속역할수행게임(MMORPG)이다. 이번 영상을 통해 타이틀 및 세계관 등 다양한 게임성을 소개한다.엔픽셀은 자사의 웹 3.0 기반 게임 생태계 ‘메타픽셀(METAPIXEL)’을 통해 ‘그랑사가: 언리미티드’를 서비스할 예정이다. 대체불가토큰(NFT) 및 스마트 컨트랙트 등 블록체인 기술을 활용해 ▲유저 경험·가치 공유 ▲투명성 등을 지향한다.또한 ‘그랑사가: 언리미티드’ 디스코드 채널 개설을 통해 블록체인 게임 및 생태계에 대한 정보를 순차 공개해 커뮤니티 활성화에 나설 방침이다.한편, 엔픽셀은 2017년 설립된 게임 개발사로 차기작 ‘크로노 오디세이’ 등 다수의 프로젝트를 개발 중에 있으며 지난해 레이어1(Layer1) 블록체인 ‘앱토스’와 첫 게임 부문 파트너십을 체결한 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2023.01.06.</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>폭설 다음엔 '폭우'…미국 캘리포니아, 겨울 폭풍우로 피해 잇따라 [TF사진관]</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000194282?sid=102</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>5일(현지시간) 미국 캘리포니아주 앱토스의 씨클리프 비치 해안도로가 대형 폭풍우로 인해 훼손됐다. /앱토스=AP.뉴시스연일 내리는 집중호우와 시속 120km가 넘는 강한 바람으로 17만 4000여 가구에 정전이 발생했고, 마을 건물이 무너지거나 도로가 침수되는 등 재산 피해를 입었다. 샌프란시스코 소노마 카운티 한 마을에선 나무가 쓰러지면서 지나가던 어린이를 덮쳤다. 이 사고로 어린이 1명이 사망했다. /앱토스=AP.뉴시스미국 캘리포니아 등 서부 지역을 중심으로 대형 폭풍우가 몰아치면서 큰 피해가 발생했다.AP 통신 등 주요 외신에 따르면 4일(현지시간) 캘리포니아 등 미국 서부지역에 강풍과 폭우를 동반한 겨울 폭풍이 상륙했다. 연일 내리는 집중호우와 시속 120km가 넘는 강한 바람으로 17만 4000여 가구에 정전이 발생했고, 마을 건물이 무너지거나 도로가 침수되는 등 재산 피해를 입었다.특히 침수와 낙석 피해가 우려되는 1번 고속도로(퍼시픽코스트하이웨이) 72km 구간은 잠정 폐쇄됐다. 앱토스의 씨클리프 비치는 해안 도로가 유실됐고, 해안가의 식당들은 폭풍우가 몰고 온 부두 쓰레기로 엉망이 됐다.샌프란시스코 소노마 카운티 한 마을에선 나무가 쓰러지면서 지나가던 어린이를 덮쳤다. 이 사고로 어린이 1명이 사망했다.항공기 운항도 차질을 빚고 있다. 이날 밤사이 캘리포니아 남부에서 폭풍이 절정에 이를 것이라는 기상청 예보로 인해 샌프란시스코에서 출발하는 항공기 수십편이 취소됐고 여행객들의 발길을 묶었다.캘리포니아주의 개빈 뉴섬 주지사는 비상사태를 선포하고 재난 대응에 나섰다. 특히 몬테시토 등 해안가 위험 지역엔 대피령을 내리고 북부 전역의 주민들에게 도로 밖으로 나오지 말라고 경고했다.사진영상기획부 발로 뛰는 더팩트는 24시간 여러분의 제보를 기다립니다.▶카카오톡: '더팩트제보' 검색▶이메일: jebo@tf.co.kr▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2023.01.07.</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>"이러다 사채도 써야할 판"…새해에도 꽉 막힌 대출</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011631199?sid=101</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>기사내용 요약창구 찾은 시민들 "카드론도 막혔는데…살길 없나"카드업계 "위기 관리 필요…한도 삭감 유지"전문가 "취약계층을 위한 선별적 지원 등 필요"[서울=뉴시스] 정병혁 기자 = 13일 서울시내 은행 대출창구 앞에서 한 시민이 이동하고 있다. 연 8%대 돌파를 눈앞에 뒀던 은행권 주택담보대출(주담대) 금리 상단이 7%대 초반까지 떨어졌다. KB국민·신한·하나·우리·NH농협은행 등 5대 시중은행의 주담대 고정(혼합)형 금리는 연 4.80~7.01%로 나타났다. 지난달 금리 상단이 8%에 육박했던 주요 시중은행의 변동금리 주담대도 7% 초반으로 내려왔다. 이날 기준 변동형 금리는 연 5.24~7.65%로, 최고 연 7.71%까지 올랐던 지난달 11일보다 금리 상단이 0.06%포인트 내렸다. 2022.12.13. jhope@newsis.com[서울=뉴시스]한재혁 기자 = "일자리를 잃어서 생활비가 급한데 대출은 거의 다 막혔어요. 이러다 사채를 써야할지도 모르겠네요"최진호(63·가명)씨는 깁스를 한 왼팔을 들어보이며 말했다. 서울 중구 동자동 쪽방촌에 거주한다는 그는 최근 자택 인근 내리막길에서 넘어져 팔에 골절상을 입었다. 이 때문에 생계유지를 위해 다니던 건설현장에 나가지 못하게 됐다. 이후 생활비를 확보하기 위해 은행 창구를 찾았지만 그마저도 수포로 돌아갔다. 카드론 한도마저 삭감돼 더 이상 대출을 받을 수단이 사라졌다.새해가 됐지만 여전히 꽉 막힌 대출 길이 풀리지 않아 서민들의 고충이 심화되고 있다. 최근엔 카드론 한도마저 삭감되자 더 높은 금리를 물어야 하는 현금서비스나 리볼빙 서비스 이용자도 늘어나고 있다.6일 서울 중구 일대 은행들에는 새해 첫 업무 주간임에도 5명 정도의 고객들만 발걸음한 한산한 분위기였다. 이들 대부분은 굳은 표정으로 순번을 기다리며 화면만 응시하고 있었다. 간혹 한숨을 연달아 쉬는 이도 있었다.인근 상가 골목에서 붕어빵 노점상을 운영한다는 60대 길씨는 "겨울이 왔으니 손님이 많을 줄 알고 이번에 돈을 많이 모아서 새해에는 손자 용돈이라도 쥐어주려고 했다"며 "그런데 손님도 없어서 돈을 벌기는커녕 가스비를 내기 위해 대출을 받아야 하는 신세"라고 토로했다.이날 은행을 방문한 70대 박씨도 "추가 대출은 어렵고 이자 부담을 줄이기 위해 기존 주택담보대출이라도 고정금리로 바꿔야할지 해결책을 찾으려 (은행을) 방문했다"며 "올해도 허리띠를 더 졸라매야 할 것 같다"고 하소연했다.실제 저신용자 등 취약계층의 신규 신용대출이 크게 감소해 저신용자들에 대한 '대출 보릿고개'가 시작될 것이란 우려가 높아지고 있다.국민의힘 소상공인위원회 위원장인 최승재 의원이 금융감독원을 통해 시중은행 및 인터넷은행으로부터 제출받은 자료에 따르면, 지난해 1~10월 5대 시중은행(우리·국민·신한·농협·하나은행)의 저신용자(NICE 신용평가 664점 이하) 대상 신규 (신용)대출 취급액은 총 1192억원으로, 전년 동기 1592억 대비 25.1% 감소했다. 계좌 수는 1만2931좌에서 9189좌로 28.9% 줄어든 것으로 파악됐다.같은 기간 저신용자들이 보유한 신용대출 잔액 역시 23조3000억원에서 19조5000억원으로 16.1% 감소했고, 계좌 수 역시 178만좌에서 147만좌로 17.4%가 감소했다. 고금리 기조와 금융당국의 대출 규제로 인해 저신용자들에 대한 대출이 직격탄을 맞은 것이다.중저신용자 중금리 대출을 적극 확대하려는 목적에서 출범한 인터넷은행도 상황은 마찬가지다. 지난해 하반기부터 저신용자 대상 신규대출이 큰 폭으로 하락했다. 케이뱅크, 카카오뱅크, 토스뱅크 등 3개 인터넷은행의 신규 대출잔액의 합계를 보면 지난해 8월 전년대비 27.9%가 하락했고, 9월에는 31.2%가, 10월에는 25.2%가 하락했다. 특히 지난해 1월 신규취급액이 117억원이었던 것에 비하면 10월에는 68억원으로 거의 반토막 수준으로 감소했으며, 신규계좌수 또한 896좌에서 416좌로 절반 이하로 줄어들었다.상황이 이렇다보니 취약차주들은 현금서비스나 리볼빙 등 더 높은 금리가 적용된 서비스로 몰리는 추세다. 여신업계에 따르면 지난해 11월까지 신한카드·삼성카드·KB국민카드·현대카드·롯데카드·우리카드·하나카드 등 전업카드사 7곳의 현금서비스 이용금액은 47조7797억원으로 집계됐다.7곳을 포함한 전체 카드사의 지난해 현금서비스 사용액도 60조에 육박할 것으로 예상되는 등 2019년(59조1240억원) 이후 3년 만에 가장 큰 폭 증가할 것으로 예상된다. 연간 현금서비스 사용액은 2020년 54조840억원, 2021년 55조1380억원으로 늘고 있는 추세다. 하지만 이마저도 여의치 않아졌다. 최근 연체율이 상승하자 제2금융권이나 카드사 등이 신규 대출 한도를 삭감했기 때문이다. 지난해 11월까지 신한카드·삼성카드·KB국민카드·현대카드·롯데카드·우리카드·하나카드 등 전업카드사 7곳의 카드론 이용금액은 39조7069억원으로 집계됐다. 지난해 연간 카드론 이용금액이 52조1000억원 이었다는 점을 감안하면, 큰 폭 줄어든 수치다. 한 카드사 관계자는 "리스크 매니지먼트 차원에서 카드론 한도를 확대하려는 분위기는 아니다"라며 "지난해 수준에서 한도를 늘릴 계획은 아직 없다"고 설명했다.무엇보다 저신용자 대상 신규 대출이 중단될 경우 당장 크게 문제가 되는 것은 저신용자들이 불법사금융으로 내몰리게 된다는 점이다. 금리가 급격하게 인상돼 저신용자들의 희망인 햇살론조차도 취급을 중단하는 저축은행이 발생하는 상황에서, 당장 생계유지를 위해 급전이 필요한 저신용자 취약계층은 결국 불법사금융으로 내몰려, 다시 정책금융을 통해 구제를 해야 하는 악순환이 계속될 가능성이 크다.최승재 의원은 "추후 불법사금융 피해를 구제하기 위해 더 큰 비용을 지불해야 할 수도 있는만큼, 금융당국의 적극적인 행보가 필요하다"고 말했다.서지용 상명대 경영학과 교수는 "현금서비스나 리볼빙 서비스는 수수료가 높다보니 대출이 부실화될 가능성도 있어 고위험 차주 비중이 더 늘어날 수 있어 우려된다"며 "실수요 대출인 카드론 특성을 감안해 총부채원리금상환비율(DSR) 규제를 풀어주되 취약계층을 위한 선별적 지원 등이 필요하다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2023.01.07.</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>'비은행 사업 확대' 우리금융, 다올인베스트먼트 인수 추진</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013687217?sid=101</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>인수의향서 제출업체 중 조건 등 맞아…'긍정적 논의' 진행우선인수협상자 선정은 아직…인수금액 등 구체화 필요우리금융그룹[우리은행 제공. 재판매 및 DB 금지]    (서울=연합뉴스) 박대한 채새롬 기자 = 비은행 사업포트폴리오 확대를 추진 중인 우리금융지주가 다올금융그룹의 벤처캐피탈(VC)인 다올인베스트먼트 인수를 추진한다.    7일 금융업계에 따르면 우리금융은 지난해 말 다올인베스트 인수의향서를 다올투자증권에 제출했다.    우리금융을 포함해 여러 곳에서 인수의향서를 제출한 가운데, 다올투자증권은 제시 조건, 다올인베스트먼트의 미래 성장성 등을 고려해 우리금융과 긍정적 논의를 진행하고 있다.     다만 법적 구속력이 있는 투자의향서(LOI)를 체결하거나 우선인수협상대상자로 선정된 단계는 아닌 것으로 확인됐다.    이에 따라 향후 인수금액 등 여러 조건을 놓고 양측 간 줄다리기기 이어질 것으로 보인다.    이번 인수 추진은 비은행 사업 포트폴리오 확대를 원하는 우리금융과 자금 수혈이 필요한 다올투자증권 측 이해관계가 맞아떨어진 데 따른 것으로 보인다.    다올투자증권은 부동산 프로젝트파이낸싱(PF) 발 유동성 위기가 불거지자 자금 수혈을 위해 계열사 매각을 진행 중이다. 한국신용평가에 따르면 작년 3분기 다올투자증권의 우발채무는 6천460억원으로, 자기자본 대비 93.0%다.     다올투자증권은 다올인베스트먼트 지분 전량(52.0%)을 매각하는 조건으로, 매각가 2천억원 이상을 원하는 것으로 알려졌다.    다올인베스트먼트는 1981년 설립된 국내 1세대 VC로, 비바리퍼블리카(토스), 우아한형제들(배달의 민족) 등 스타트업에 투자했다.    다올투자증권은 다올인베스트먼트 외에 이달 들어 다올신용정보를 130억원에 메이슨캐피탈, 리드캐피탈매니지먼트에 매각했다. 또 태국법인 매각도 진행 중이다.     앞서 작년 말에는 정규직 직원을 대상으로 희망퇴직을 시행했다.다올인베스트먼트[다올인베스트먼트 제공. 재판매 및 DB 금지]    우리금융은 민영화 과정에서 옛 우리투자증권(현 NH투자증권)과 우리아비바생명(현 DGB생명) 등을 분리 매각하면서 이른바 5대 금융지주 중 비은행 부문이 상대적으로 약한 것으로 평가된다.    이에 그동안 그룹 시너지 효과를 가장 크게 낼 수 있는 증권사 인수를 가장 우선 추진해왔으며, 벤처캐피탈(VC)에도 눈독을 들여왔다.    손태승 우리금융지주 회장은 올해 신년사에서 "시장 환경이 어려울수록 자회사들의 핵심사업 시장 지위를 제고해 수익기반을 강화해야 한다"며 "올해는 증권과 보험, 벤처캐피탈(VC) 등 작년에 시장이 불안정해 보류해 온 비은행 사업 포트폴리오 확대의 속도를 높일 것"이라고 밝혔다.    pdhis959@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2023.01.05.</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>저축銀 ‘5% 파킹통장’에 하루에 수천명씩 '밀물'</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002087213?sid=101</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>애큐온저축銀, 45일만에 40% ↑수시 입출금, 금리 인상기 효용성얼마전까지만 해도 가파른 상승 곡선을 그렸던 예·적금 금리가 주춤해지면서 상대적으로 높은 금리를 주는 파킹통장으로 뭉칫돈이 몰리고 있다. 특히 하루만 돈을 맡겨도 정기예금과 비슷한 수준의 금리를 챙길 수 있다는 점에서 저축은행의 파킹통장이 인기를 끌고 있다.하지만, 파킹통장은 수익성이 떨어지는 데다 자금운용에도 한계가 있어 저축은행에 부메랑으로 돌아올 수 있다는 지적도 나온다.5일 저축은행업계에 따르면 OK저축은행이 지난해 12월 26일 출시한 ‘OK읏백만통장Ⅱ’는 하루에 수천명씩 가입에 나섰다.애큐온저축은행은 지난해 10월 17일 선제적으로 파킹통장 ‘머니쪼개기’를 출시했는데, 이후 연말까지 한 달 반 만에 보통예금 수신 잔액이 40% 이상 증가하는 효과를 거뒀다.두 상품은 토스뱅크, 케이뱅크, 카카오뱅크 등 인터넷은행의 파킹통장보다 높은 금리를 제공해 출시되자마자 소비자의 눈길을 끌었다.OK저축은행의 OK읏백만통장Ⅱ는 500만원까지 하루만 맡겨도 최고 연 5%(세전)의 금리를 제공한다. 이는 입출금통장 중 금융권 최고 수준으로 은행권의 정기 예·적금과 비슷하다. 애큐온저축은행의 머니쪼개기는 애초 4.0%의 높은 금리를 선보였는데 지난 2일 금리를 연 4.3%(세전)로 추가 인상했다. 한도 역시 기존 2000만원에서 3000만원으로 올렸다. OK저축은행보다 최고 금리를 받을 수 있는 한도가 높은 것이 특징이다.이밖에 대신저축은행, 웰컴저축은행, 다올저축은행, 하나저축은행 등도 연 3.8%의 금리를 제공하는 파킹통장을 선보이고 있는데, 보통 은행권의 파킹통장 금리가 연 0.1~1.0% 수준에 불과하다는 점을 감안하면 상대적으로 높은 이자를 주고 있는 셈이다.파킹통장은 수시로 입출금이 가능한 보통예금으로, 정기 예·적금처럼 정해진 기간을 채우지 않아도 일정 금리를 받을 수 있는 상품이다. 자유로운 자금 이동이 가능해 지금같은 금리 인상기에 효용성이 높다.하지만 수신금리를 올릴 수록 예대마진은 줄어들어 법정최고금리(20%)에 묶여 있는 저축은행으로선 파킹통장 규모를 늘릴수록 수익성이 떨어질 수 밖에 없다. 게다가 파킹통장은 정기예금과 달리 단기 예치 자금이어서 자금 운용에도 한계가 있다는 지적이다.저축은행 업계 관계자는 “생각보다 파킹통장에서 자금이 바로 빠져나가진 않고 그래도 조금 있다 나가는 편”이라며 “이자 부담보다 오히려 고객 수 같은 측면을 고려하는 상품”이라고 말했다. 김현경 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2023.01.09.</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>마인드카페, 롯데헬스케어-삼성벤처투자로부터 전략적 투자 유치</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005071905?sid=105</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>롯데, 삼성과 전략적 협력 통해 다양한 사업적 시너지 박차누적 투자 350억 &lt;이미지 제공=마인드카페&gt;멘탈케어 플랫폼 ‘마인드카페’ 운영사인 아토머스(대표 김규태)가 롯데헬스케어와 삼성벤처투자의 ‘전략적 투자(SI) 목적의 펀드’로부터 60억원 규모 브릿지 투자를 유치했다고 밝혔다. 이로써 누적 투자액은 약 350억원으로 국내 멘탈헬스 업계 최대 규모이다.이번 투자 유치는 지난해 초 200억원 규모의 시리즈 B 투자 이후 10개월 만에 이어진 후속 투자다. 아토머스는 경기 침체로 투자 시장이 혹한기를 맞고 있는 가운데, 매출 및 각종 지표에서 지속적인 성장세를 이어 나가고 있는 아토머스의 미래 가치를 인정받은 것이라고 설명했다.150만의 회원 수를 보유한 멘탈케어 플랫폼 ‘마인드카페’는 월간 활성사용자(MAU), 평균 체류 시간, 전문가 보유 수, 매출액, 누적 투자액 및 기업 가치 등 모든 부문에서 국내 1위 정신건강 플랫폼의 입지를 공고히 하고 있다.또한 B2B 및 B2G 시장에서도 괄목할 만한 성과가 이어졌다. 기업을 대상으로 제공되는 마인드카페의 임직원 정신건강 관리 프로그램(EAP)은 삼성전자, 네이버, 현대중공업, 토스, 무신사, 서울시 등 190여 개 기관들을 고객사로 확보했다. 또한 최근 일본 사용자를 위한 커뮤니티 서비스를 출시했으며, 베타 서비스 기간 중에도 하루 평균 100여 건의 상담 게시물이 올라오고 있다.김규태 아토머스의 대표는 “전략적 투자 유치를 통해 온·오프라인 연계 사업 강화, 정신 질환에 특화된 비대면 의료로의 확장, 멘탈 헬스케어 기술 R&amp;D, 해외 진출 등 플랫폼을 기반으로 한 멘탈헬스 생태계 구축에 박차를 가하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2023.01.10.</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>[세상만사] 무시무시한 '대기의 강'에 휩쓸린 미국 캘리포니아</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/052/0001836126?sid=104</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>-폭우로 인한 산사태-화면제공 : CALIFORNIA HIGHWAY PATROL FRESNO-바닥에 기댄 주유소 지붕-철로에 누워버린 거목-이층집을 덮친 나무들-빅토리아 제임스 / 캘리포니아주 오클랜드 주민"부엌에서 저녁 식사 준비를 하고 있었는데 모든 것이 흔들리더니 깜깜해졌습니다. 집이 통째로 흔들리는 느낌이어서 지진인 줄 알았습니다. 그래서 복도에 있는 아이들을 데리고 뒤쪽으로 달려갔어요. 정말 지진인 줄 알고 여진에 대비했죠. 이웃이 나가라고 소리를 질러서 창 밖을 내다보니 딸의 창문 바로 앞에 나무가 있더라고요"-화면제공: Dane Nabal-미국 캘리포니아주 산타크루즈 (2023. 1. 5)-2022년 마지막 날(31일) 시작된 미 캘리포니아 폭우 &amp; 폭풍 피해-미국 캘리포니아주 새크라멘토 (2023. 1. 9)-강풍에 뿌리째 뽑힌 나무들-화면제공 : KION-미국 캘리포니아주 몬터레이 (2023. 1. 4)-일부 지역에서 시속 212km 돌풍 관측-미국 캘리포니아주 새크라멘토 (2023. 1. 9)-곳곳에서 재산 피해 속출-니키 고파드 / 새크라멘토 주민"지붕 일부가 함몰되면서 실제로 후안(남편)이 머리를 맞았습니다. 약간 긁히고 타박상을 입어 머리에 혹이 생겼지만 그는 괜찮습니다. 하지만 보시다시피 우리 집은 괜찮지 않습니다."-미국 캘리포니아주 옥시덴탈 (2023. 1. 5)-2살, 5달 어린이 등 14명 사망-수십만 가구 정전 피해-미국 캘리포니아주 산타크루즈 (2023. 1. 5)-바닷가 지역 큰 피해 발생-미국 캘리포니아주 앱토스 (2023. 1. 5)-100년 넘은 나무 부두도 파도에 휩쓸려-존 크시스티 / 앱토스 주민"실제로 부두가 무너지는 장면을 목격했습니다. 그리고 지금 와서 보니 여기저기에 나무 파편과 통나무 등이 널부러져 있어서 전쟁터처럼 보였습니다"-화면제공 : KXTV-캘리포니아주 자연재해 원인은?-대기의 강 (atmospheric river)-다량의 수증기가 강처럼 좁고 긴 띠 모양으로 움직이며 많은 비를 뿌리는 것을 뜻함최근 몇 년간 미국과 캐나다 서부에서 발생한 수해의 주요 원인으로 꼽힘-화면제공 : KEYT-지난 12월 31일부터 열흘 넘게 계속된 대기의 강 현상-그런데 끝나려면 아직 멀었다고...-화면제공: KGO-미국 국립기상청(NWS) "19일까지 대기의 강으로 인한 폭풍우 이어질 것"-화면제공 : KCRA-"특히 캘리포니아주 중남부 일부 지역에 100년에 한 번 올까 말까 한 폭우 가능성"-구성 방병삼#캘리포니아_기상_이변#대기의_강#atmospheric_river※ '당신의 제보가 뉴스가 됩니다'[카카오톡] YTN 검색해 채널 추가[전화] 02-398-8585[메일] social@ytn.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2023.01.04.</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>문과생도 기업 과외 받고 '네카라쿠배당토' 개발자된다</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005200720?sid=101</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>중요한 것은 대학 전공 아닌 실무 역량기업 직접 프로그램 실무 교육‘네카라쿠배당토’. 네이버, 카카오, 라인, 쿠팡, 배달의민족, 당근마켓, 토스의 첫 글자를 따와 만든 말이다. 프로그래밍을 배우는 이라면 누구나 입사해 일하고 싶은 회사가 바로 네카라쿠배당토다. 이 ‘네카라쿠배당토’에 입사하는 개발자들에게 중요한 것은 이제 더이상 대학 전공이 아니다. 이제는 기업들이 전공보다는 실무 역량을 더 중요하게 보기 때문이다. 그리고 실무역량을 키우는 방법을 가장 잘 아는 조직은 대학이 아니라 개발 기업이다. 요즘 많은 기업들이 프로그램 실무를 직접 가르치기 시작했다. 이런 교육을 받는 사람의 상당수가 문과생, 프로그램 비전공자다. 문과생 ‘네카라쿠배당토’ 개발자가 쏟아져 나오기 시작했다.우아한형제들은 올 2월부터 10개월간 교육하는 ‘우아한테크코스’ 5기 경쟁률이 평균 18대 1을 기록했다고 4일 밝혔다. 웹 백엔드, 웹 프론트엔드, 모바일 등 세 과정에서 175명을 뽑는데 3192명이 몰렸다. 지난해 4기와 비교하면 지원자가 1000명 이상 늘었다. 우아한테크코스는 우아한형제들이 2019년부터 업계 전반에 필요한 우수 개발인력 양성을 위해 시작한 프로그램이다. 강의료는 우아한형제들이 대신 내준다. 주목받는 것은 4기까지 총 286명의 수료생을 배출하면서 낸 성과다. 1, 2기의 취업률은 95% 이상이었고 3기의 웹 프론트엔드 과정은 100%다. 취업한 곳도 우아한형제들을 포함해 삼성전자, 쿠팡, 카카오, 네이버, 라인, 당근마켓, 비바리퍼블리카(토스), 위메프, 야놀자 등 국내 유수 IT 기업이다.◆코딩 배우는 과정에 비전공자가 절반=우아한형제들이 주목한 것은 현업에서 기대하는 실무 역량과 대학교 등에서 배우는 프로그래밍 지식 간 차이가 크다는 점이다. 기업에서 바로 일할 수 있는 실무형 개발 역량을 갖추도록 프로그램을 구성한 이유다. 수강생들의 전공도 컴퓨터공학 등 관련 전공자가 60~70%, 비전공자가 30~40%다.비전공자를 IT 개발자로 키우는 기업 프로그램은 더 있다. 네이버도 네이버커넥트재단을 통해 실무형 IT 인재를 양성하고 있다. 2016년부터 운영한 6기 기준 누적 605명의 소프트웨어(SW) 인재를 발굴했다. 전체 교육생 중 비전공자 비율은 약 50% 내외다. 네이버 관계자는 "교육생 비전공자 비율이 매년 늘고 있다"며 "코딩을 한 번도 접해보지 못한 문과생도 상당수"라고 했다.5년간 5000명의 실무형 개발 인력 양성을 목표로 운영 중인 KT의 ‘에이블스쿨’도 비슷하다. 하루 8시간씩 6개월간 총 840시간에 걸쳐 집중적인 교육을 제공한다. 현재 2기 교육을 진행 중으로 1·2기 교육생 중 비전공자 비율은 약 60%에 달한다. 최근 에이블스쿨 2기 수강생 팀이 고용노동부 주관 ‘K-디지털 트레이닝 해커톤’에서 대상을 받았는데, 팀원 절반이 신문방송학과 등 비전공자여서 주목받기도 했다. KT 관계자는 "비전공자 비중이 높지만 지난 5월 배출한 1기 수료생 취업률은 10월 기준 78%에 달할 만큼 성과를 내고 있다"고 말했다.◆문과 수업받고 진로는 ‘IT’…왜?=비전공자들이 IT ‘과외’를 받고 개발자의 길에 도전하는 까닭은 혹독해진 취업시장 때문이다. 대부분의 대기업이 공채를 폐지했고 은행이나 금융권 역시 디지털 전환에 맞춰 IT 인력을 뽑고 있다. 단순히 인문학적 소양을 갖춰서만은 취업시장의 문을 뚫기가 쉽지 않다는 것은 각종 통계에서도 드러난다. 인문학 전공 취업자는 2021년 1분기 기준 2년 새 2만7700명이 줄었고, 사회과학·언론정보학은 8600명이 줄었다. 경영·행정·법학 역시 1600명 감소했다(통계청 ‘전공계열별 경제활동인구’). 최근 9년간 전국 4년제 대학 인문계열 학과 155개가 사라졌다는 교육부의 통계도 있다.하지만 문과생의 개발자 변신에 대해 우려의 목소리도 있다. 1년 남짓의 교육 기간을 통해서 고급 개발자로 성장하는 데 한계가 있다는 지적이다. IT 업계 개발자가 높은 연봉 등으로 주목을 받았지만 대기업이나 유명 스타트업과 달리 중소기업의 개발자 처우는 아직 갈 길이 멀다는 지적도 있다. 한 IT 업계 관계자는 "기술의 발전 속도가 너무 빠른 탓에 코딩 교육을 책임질 양질의 개발자를 구하기 어려운 것이 현실"이라며 "좋은 개발자들이 모인 회사에 가지 못하면 실력 차이가 계속 벌어지고 취업하더라도 단순 코딩 업무만 해야 하는 상황도 생긴다"고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2023.01.04.</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>까다로워진 비상장주식 평가…벤처캐피탈 실적 관리 '적신호'</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004836390?sid=101</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>/사진=게티이미지뱅크금융당국이 올해부터 비상장주식 등 시장 가격이 없는 비시장성 자산에 대한 평가를 강화하면서 벤처캐피탈(VC)의 실적 관리에도 빨간불이 켜졌다. 특히 벤처투자 혹한기로 비상장 스타트업의 몸값이 크게 꺾인 상태에서 충격은 더욱 클 수 있을 것으로 보인다.4일 투자업계에 따르면 금융당국은 지난 1일부터 '비시장성 자산 공정가액 평가 가이드라인'(이하 가이드라인)를 시행했다. 금융감독원이 금융투자협회와 함께 TF(태스크포스)를 구성해 만든 것으로 △비상장주식 △사모사채 △메자닌 등 비시장성 자산에 대한 가치평가를 보다 투명하게 하기 위해 마련됐다. 가이드라인에 따르면 운용사는 일반 사모펀드와 공모펀드에 편입된 비시장성 자산에 대해 최소 연 1회 이상 주기적으로 평가하고 중요 사건이 발생할  경우 수시 평가를 진행해야 한다.금융당국은 가이드라인의 적용 범위를 일단 일반 사모펀드와 공모펀드로 한정했다. 전문성을 갖춘 기관투자자와 달리 일반 투자자들은 자산에 대한 가치평가가 어렵기 때문이다. 일반 사모펀드와 공모펀드로 한정하긴 했지만 벤처투자조합 등 VC 주요 비히클(투자수단)로 가이드라인이 확대 적용될 가능성을 배제할 수 없다.금융투자업계 관계자는 "TF 논의 과정에서 가이드라인을 벤처투자조합 등으로 확대 적용하자는 의견도 있었다"며 "추후 시장 상황에 따라 확대 적용할지 여부를 검토할 것"이라고 말했다.IRFS(국제회계기준)를 적용 받고 있는 금융지주 계열사 혹은 상장사인 VC는 이미 가이드라인에 걸맞는 평가가치 방식을 이용하고 있다. 문제는 비상장 VC들이다.가이드라인이 확대 적용되면 비상장 VC가 운용하는 벤처투자조합에 편입된 비상장주식에 대해서도 최소 연 1회 이상 주기적으로 평가하고, 중요 사건이 발생할 경우 수시 평가를 진행해야 한다.평가 방식도 부담이다. 비상장 VC는 통상 취득원가를 기준으로 공정가액을 정한다. 투자 당시 지분 취득원가를 자산가치로 인정하는 것. 그러나 가이드라인은 현금흐름할인법(DCF)을 기본으로 △기대현재가치기법 △마일스톤 접근법 등을 이용해 자산을 정기적으로 평가하도록 하고 있다. 변화하는 시장 상황과 기업가치를 펀드 운용기간 내내 계속해서 반영해야 한다는 얘기다.최근 벤처투자 시장 상황을 고려하면 비상장 VC의 실적 부담은 더욱 클 수 밖에 없다. 얼어붙은 투자심리 탓에 크게 하락한 스타트업 몸값을 실적에 고스란히 반영해야 하기 때문이다.비상장주식 거래 플랫폼 서울거래소 비상장에 따르면 지난해 초 20조원이 넘었던 '토스' 운용사인 비바리퍼블리카의 기업가치는 5조7800억원대로 뚝 떨어졌고, 2021년 말 프리 IPO(상장 전 지분투자)에서 4조원대 기업가치를 평가 받았던 컬리도 1조원대로 낮아졌다.또다른 업계관계자는 "피투자사와 투자사 간 협상으로 결정된 자산가치를 금융당국이 공정한 가치로 인정하지 않겠다는거나 다름없다"며 "벤처투자조합을 운영하는 동안 매번 평가로 자산가치가 흔들린다면 제대로 벤처투자를 하기 어려울 것"이라고 말했다.[머니투데이 스타트업 미디어 플랫폼 '유니콘팩토리']</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2023.01.02.</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>토스뱅크, 정보보호관리·개인정보보호관리체계 국제 인증 취득</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000316737?sid=101</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>토스뱅크는 오늘(2일) 정보보호와 개인정보보호 관리체계의 국제표준 인증인 ISO 2종을 모두 취득했다고 밝혔습니다. 토스뱅크는 영국 왕립 표준협회(BSI)로부터 정보보호 관리체계의 국제표준인 'ISO27001'와 개인정보보호 관리체계 국제표준인 'ISO27701'를 동시 취득했습니다. 정보보호 관리체계(ISO 27001) 인증은 정보보호 정책, 관리, 물리적 보안, 기술적 보안 등 정보보호 관리 영역 14개 분야와 114개 세부 항목에 대한 엄격한 심사과정을 모두 통과해야 하며 인증 받을 수 있습니다.또 인증 후에도 지속적으로 유지·관리되고 있는지 평가받습니다. 개인정보보호 관리체계(ISO27701)는 회사가 개인정보보호를 위한 요구사항을 준수하고 있는지 개인정보 관련 31개의 항목을 준수하고 있는지 검증 받습니다. 토스뱅크는 이번 글로벌 기준의 인증을 획득함으로써 정보보호 관리에 대한 대외적 신뢰도가 향상될 것으로 기대하고 있습니다. 한편, 토스뱅크는 지난해 상반기에는 카드 부정 사용과 정보 유출 방지를 위한 산업 표준인 PCI-DSS (지불 카드 산업 정보 보안 표준) 인증을 국내 은행 최초로 획득한 바 있습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2023.01.11.</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>"세상을 바꾸는 금융생활" ESG 경영에 진심인 핀테크</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000885747?sid=101</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>[머니S리포트-"이젠 ESG가 자산이다"③] 소상공인 금융지원으로 사회적 가치 제고에 중점[편집자주]새해 금융권의 ESG(환경·사회·지배구조) 경영 바람이 거세다. 대형 금융지주는 ESG 분야에서 성과를 인정받기 위해 관련 경영체계를 정비하고 고객 수요에 부합하는 금융상품 개발에 적극 나서고 있다. 전통 금융사에 더해 높은 IT 역량을 갖춘 핀테크사들도 ESG 주도권을 잡기 위한 움직임이 활발하다. 2021년 기준 국내 ESG금융 규모는 787조원으로 집계됐다. 611조원인 2020년과 비교해 29% 증가한 수준이다. 금융위원회는 2025년부터 자산 총액 2조원 이상 코스피 상장사의 ESG 공시를 의무화하고 2030년부터 모든 코스피 상장사로 공시 의무를 확대할 계획이다. 비재무적 지속가능경영이 가치 평가의 주요 지표로 자리매김한 지금, 금융사의 ESG 경영은 어디까지 왔을까.그래픽=강지호 기자 ◆기사 게재 순서① 계묘년 금융권 화두 'ESG'… 불황일수록 지속경영 강화② "우리가 ESG 1위" 공들이는 보험사③ "세상을 바꾸는 금융생활" ESG 경영에 진심인 핀테크④ '선진IB' 증권사, 지속가능 경영 모색 가파른 성장 가도를 달린 핀테크 업체들이 ESG(환경·사회·지배구조) 경영 활동에 고삐를 죄고 있다. 그동안 대형 금융지주를 중심으로 이뤄졌던 ESG 경영이 이제는 핀테크 업체까지 확산되는 모습이다.ESG 리더십을 가지면 장기적인 성장 기반을 마련할 수 있다는 판단에 핀테크사들은 단순한 이익 추구를 넘어 ESG 경영 도입을 잇따라 선언하고 있다.사진=카카오페이 ━"소상공인에 맞춤형 금융지원으로 상생"━우선 핀테크사들이 ESG 경영에 방점을 두는 부문은 소상공인의 위기극복을 위한 금융지원이다.신종 코로나바이러스 감염증(코로나19) 확산이 장기화하면서 어려움에 처한 소상공인들이 안정적인 기반을 가질 수 있도록 IT 기술력을 활용한 금융사다리를 마련해 포용금융을 실천하고 사회적 가치를 만들어내는 데 집중하고 있다.지난해 5월 ESG 추진위원회를 설립한 카카오페이는 같은 해 금융 소외계층과 소상공인을 위해 10억원을 지원했다.이 중 3억원을 서울시에 '소상공인의 선진형 재해 예방 및 재난관리 기금'으로 기부한 카카오페이는 지난해 11월 서울시에서 숙박업·음식업·도매업·소매업을 운영하는 3만명의 소상공인에게 '소상공인 풍수해보험' 무료 가입을 제공했다.풍수해보험은 태풍·홍수·강풍·풍랑·대설·지진 등 자연재해로 입은 재산피해를 지원하기 위한 국가정책보험이다.카카오페이는 플랫폼을 통해 풍수해보험 가입 신청을 받고 서울시는 서울시 소재 소상공인이 풍수해보험에 가입할 때 드는 자기부담금(1만~4만원) 전액을 지원하는 방식이다.서울시 소재 소상공인이 풍수해보험에 가입하면 사업장의 시설 및 집기비품, 재고자산을 각각 5000만원 한도로 최대 1억원까지 보상 받을 수 있다.미처 예상하지 못한 자연재해로 재산 피해가 발생했을 경우 보험금으로 사업장의 피해를 복구할 수 있어 소상공인의 금전적인 부담이 줄어드는 효과가 있다.지난해 3월 이사회 산하에 ESG위원회를 신설한 카카오뱅크 역시 소상공인 금융지원을 위해 12월 자활기업 응원 프로젝트에 1억원을 투입했다. 이 프로젝트는 아름다운재단과 함께 시행한다.카카오뱅크가 전달한 기부금 1억원은 올 5월부터 12월까지 8개월 동안 경기도 내 소상공인 자활기업 25곳을 지원하는 데 사용된다.자활기업은 2인 이상의 저소득층이 공동창업해 자활을 이루고 나아가 취약계층에게 일자리를 나누고 지역사회에 필요한 서비스를 제공하며 사회적 가치를 실천하는 기업을 의미한다.심사를 통해 선정되는 긴급 지원 대상 자활기업은 임대료·인건비·물품 구입비 등 기업 활동을 위한 운영비를 지원받는다.사진=토스뱅크 ━사장님 대환대출에 빠른 정산 서비스까지━인터넷전문은행 토스뱅크가 지난해 2월 출시한 비대면·무보증·무담보 사장님 대출 잔액은 1조3000억원을 돌파했다.이 대출의 절반가량은 중·저신용자로 경기침체와 고금리 속에서 소상공인들이 자금경색 등 위기에 내몰리지 않도록 토스뱅크가 안전판 역할을 하고 있다는 평가를 받고 있다.특히 토스뱅크가 코로나19 피해를 입은 소상공인을 대상으로 지난해 9월 출시한 사장님 대환대출 잔액은 360억원을 넘어섰다.토스뱅크가 신용보증기금과 손잡고 선보인 이 서비스로 소상공인들은 평균 180만원의 이자 부담을 덜었다. 이들은 평균 5.95%포인트의 금리 인하 효과를 봤다.제2·3금융권에서 고금리 개인사업자 대출을 받은 소상공인들은 토스뱅크의 사장님 대환대출을 통해 2년간 최대 5.5%의 고정금리를 적용받는다.실제로 토스뱅크에서 실행된 대환 대출 규모의 82.4%는 저축은행·캐피탈사 등에서의 이동이었다.경기 지역에서 한식당을 운영 중인 A씨는 사업자금을 마련하기 위해 저축은행에서 13.9%의 금리로 3000만원을 대출 받았지만 토스뱅크 사장님 대환대출 서비스를 통해 이를 대환했다.A씨는 월 이자비용 21만원(34만7000원→13만7000원)을 절감, 2년간 총 504만원의 부담을 덜었다.네이버파이낸셜 역시 소상공인 금융지원에 팔을 걷어붙이고 있다. 대표적으로 2020년 12월에 출시된 빠른정산서비스가 있다.네이버파이낸셜은 반품률 20% 미만, 3개월 연속 거래건수 월 10건 이상 판매자 중 FDS(위험거래탐지시스템)을 통과한 스마트스토어 사업자 대상으로 집화 완료 다음날인 약 3일만에 정산대금을 지급하는 빠른정산 서비스를 제공하고 있다.대다수 커머스 업체들은 빠르면 10일, 최대 60일 이후에 정산하고 있으며 정산주기도 스마트스토어와 같은 매일 정산이 아닌 주·월간 주기로 정산하는 경우가 대부분이어서 온라인 스마트스토어를 운영하는 소상공인들은 자금회전에 어려움을 겪는다.별도의 담보나 수수료 없이 판매대금 100% 전액을 선정산하는 서비스를 제공하는 플랫폼은 네이버파이낸셜이 처음이다. 빠른정산 대금 지급액은 출시 2년만인 지난해 11월말 기준 17조3000억원을 넘어섰으며 이를 통한 소상공인의 이자비용 절감효과는 약 896억원으로 추정된다.아울러 네이버파이낸셜은 담보가 없고 업력이 짧아 기존 금융권에서 대출이 어려웠던 네이버 스마트스토어 사업자들에게 신용대출 서비스를, 네이버예약·주문을 이용하는 소상공인을 우대하는 스마트플레이스 사업자 대출 서비스를 우리은행과 협업해 제공 중이다.지난해 11월에는 전 업권의 금융사가 입점한 사업자 전용 대출비교 서비스를 출시해 대출 문턱이 높은 소상공인들이 사업자 전용 대출을 받을 수 있도록 했다.네이버페이 대출비교를 통해 대출을 실행한 소상공인과 개인에게 대출안심케어도 무료 제공해 대출자가 고도 후유 장해나 사망 시 가족에게 빚이 대물림 되지 않도록 대출 잔액을 대신 상환해준다.핀다는 2021년 10월부터 BC카드 가맹점 운영 중인 소상공인을 대상으로 대출 서비스를 제공하며 자금공급을 지원하고 있다.BC카드 가맹점 대출은 대출한도 최대 5000만원, 대출기간 최대 60개월이며 대출금리는 최저 연 6.9% 수준이다. 이 상품은 중도상환수수료 등 각종 수수료가 없다.권흥진 한국금융연구원 연구위원은 "핀테크사들이 보유한 비금융 데이터를 통해 소상공인들도 금융의 문턱을 넘을 수 있도록 하는 역할이 중요하다"며 "핀테크사들이 재무적 안정성을 기반으로 질적 성장을 이어가야 할 시기"라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2023.01.12.</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>[르포] 텍사스 닭날개 ‘윙스탑’ 찾아 온 강남 직장인들… “미국 맛 그대로, 싸고 맛있다”</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000869160?sid=101</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>13일 정식 개점 앞둔 윙스탑 1호점 방문해 보니  ‘소스 앤 토스’ 기법... 9가지 양념 버무려 제공  시큼한 레몬 치킨, 이색적인 맛나        11일 오후 12시 지하철 9호선 신논현역에서 150m 거리에 문을 연 미국 치킨 프랜차이즈 ‘윙스탑’의 한국 1호점. 윙스탑의 정식 개점일은 13일부터지만, 9일부터 임시 개점을 시작한 이 매장에 점심시간을 맞이한 근처 직장인들이 12명 정도 앉아 닭 날개 요리를 먹고 있었다.11일 서울 강남구 신논현역 2분 거리에 있는 윙스탑 강남점./이민아 기자        윙스탑은 지난 1994년 미국 텍사스주(州) 댈러스에서 출발해 현재 13개 나라에서 1800여 개 매장을 운영 중인 치킨 프랜차이즈다. 한국은 윙스탑의 동북아시아 진출 첫 국가다. 동남아시아에서는 인도네시아, 싱가포르에 진출해 있는 글로벌 프랜차이즈다.1층 카운터를 이용하거나 키오스크를 통해 요리를 주문을 할 수 있다. 9가지 맛의 양념을 선택할 수 있다. 주문 즉시 직원이 치킨을 튀겨, 양념에 버무려서 제공한다. 주문 후 약 10분을 기다리면 치킨을 받아볼 수 있다.이날 이곳에서 점심식사를 하던 직장인 윤가영(33) 씨와 동료들은 살짝 매우면서도 단맛이 나는 ‘망고 하바네로’ 양념이 된 닭 날개 요리를 먹고 있었다. 윤 씨는 “회사가 바로 앞이어서 한번 와 봤는데, 미국이나 멕시코에서 먹어봤던 소스 맛이 그대로여서 만족스러웠다”며 “부위별로 골라서 먹을 수 있어서 좋다”고 말했다.        강남점에서는 미국 현지에서 인기가 가장 많은 ‘레몬 페퍼’와 ▲루이지애나 럽 ▲갈릭 파마산 ▲망고 하바네로 ▲오리지날 버팔로 ▲히코리 스모크 바베큐 ▲어토믹(매우 매운 맛) 등 미국에서 판매하는 양념에 더해, 인도네시아와 싱가포르 등 아시아 국가에서만 팔고 있는 스윗 스파이시 소이(매운 간장맛)와 인페르노(매운맛) 양념도 고를 수 있다.1층 주방에서는 요리가 한창이었다. 미국 본사에서 파견된 직원이 잘 튀긴 닭고기를 기름에서 건져, 큰 스테인리스 바가지(믹싱볼)에 양념을 넣고 아래위로 흔들며 능숙하게 버무렸다. 양념이 닭고기에 고루 묻어났다. 윙스탑 관계자는 이를 “‘소스 앤 토스(sauced and tossed)’ 기법”이라고 설명했다.조리된 닭 날개 요리를 먹어봤다. 미국에서 가장 인기 많은 레몬 페퍼의 첫맛은 시큼함이었다. ‘시큼한 치킨’의 첫인상은 다소 낯설었지만, 고기를 씹자 금세 고소함이 입 안을 감돌면서 친숙한 맛이 느껴졌다.인도네시아에서 인기가 좋다는 루이지애나 럽은 한국인에게 익숙한 옛날 통닭과 맛이 가까웠다. 붉은 양념을 뒤집어쓴 망고 하바네로 맛은 달달하면서도 매콤했다. 미국식 중식에서 자주 나오는 ‘오렌지 치킨’과 비슷했다. 갈릭 파마산은 치즈의 고소함에 마늘 향이 더해지며 풍미를 냈다.        이날 매장에서 만난 루시야나 나타디프라야 윙스탑 아시아태평양 마케팅 디렉터는 “부두프라이(케이준 소스 등을 더한 감자튀김)와 어니언링, 츄러스뿐 아니라 매장에서 직원들이 직접 만드는 코울슬로도 윙스탑에서 꼭 맛보기를 바란다”고 말했다.윙스탑의 메뉴 가격은 1인용 ‘싱글 패키지(닭 날개 6조각과 감자튀김 등 사이드 메뉴, 탄산음료, 찍어먹는 소스 포함)’ 기준 8900원. 뼈 없는 순살은 9900원이며, 뼈 있는 닭 날개와 순살, 텐더 등 세 가지 부위를 9가지 맛 가운데 원하는 맛으로 고를 수 있다.‘윙스탑’의 한국 매장 정식 개점을 앞두고 서울을 찾은 마이클 스킵워스 윙스탑 최고경영자(CEO)는 이날 “주문 즉시 조리하고, 수제 소스를 사용하고, 저렴한 가격으로 공급해 ‘충성 고객’을 확보할 수 있을 것을 자신한다”며 “멕시코를 제외하면 매장에서 수제 맥주를 파는 나라는 한국뿐이며, 맥주와 함께 윙스탑의 치킨을 즐길 수 있도록 했다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2023.01.12.</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>[단독] 부산 모모스커피, 세계 유명 커피회사 제치고 ‘올해의 로스터’ 선정</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/082/0001193416?sid=101</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>‘2022 스프럿지 어워드’서 1위 커피업계 아카데미상에 맞먹어 전 세계 투표 거쳐 최고 커피로지난해 12월 문을 연 부산 영도구 봉래동 ‘모모스커피 영도 로스터리 앤 커피바’. 부산일보DB부산 커피업계가 또 일을 냈다. 커피업계의 아카데미상으로 비견되는 유명 커피 어워드에서 부산 모모스커피가 ‘올해의 로스터’로 선정됐다. 후보에 오른 전 세계 8개 도시의 유명 커피회사를 제치고 부산 커피회사가 2022년을 빛낸 전 세계 최고의 로스터에 올랐다.12일 커피업계에 따르면 미국 커피 전문 매체 스프럿지가 주관하는 ‘2022 스프럿지 어워드’에서 모모스커피가 당당히 올해의 로스터를 차지했다.후보로는 모모스커피와 함께 영국 런던 ‘다크 아츠 커피’, 스페인 바르셀로나 ‘쓰리 마크 커피’, 네덜란드 로테르담 ‘맨해튼 커피 로스터스’, 아르헨티나 부에노스아이레스 ‘푸에르토 블레스트 토스다도스’, 미국 아칸소주 ‘오닉스 커피 랩’, 일본 도쿄 ‘리브스 커피 로스터스’, 미국 노스캐롤라이나주 ‘블랙＆화이트 커피 로스터스’가 올랐다.대부분 각국 수도에 있는 로스터가 후보에 올랐다. 지난해 연말 수도권이 아닌 부산에 있는 커피회사가 후보에 올랐을 때도 커피업계가 들썩였다. 미국 커피회사 2곳과 모모스커피를 제외하고는 전부 각국 수도에 있는 커피회사가 후보로 이름을 올렸기 때문이다.모모스커피가 ‘2022 스프럿지 어워드’에서 ‘올해의 로스터’로 선정됐다는 사실을 알리는 미국 커피 매체 ‘스프럿지’의 인스타그램.‘스프럿지 어워드’는 2009년에 시작, 올해로 14회째 전 세계 커피회사를 대상으로 ‘올해의 커피 생산자’, ‘베스트 뉴 카페’ 등 총 13개 분야 상을 선정해 왔다. 2009년 미국 ‘스텀프 타운 커피 로스터스’가 ‘올해의 로스터’에 선정된 이후 2012년 미국 ‘블루보틀 커피 로스터스’ 등이 선정되는 등 전 세계 커피업계가 인정하는 상으로 자리잡았다.모모스커피는 이번에 ‘올해의 로스터’와 ‘베스트 디자인 패키징’ 분야 후보에 올랐다. 후보는 세계 커피업계의 의견을 수렴해 스프럿지가 선정한다. 최종 후보에 오르면 그때부터는 일반 투표를 실시하고 투표 결과와 스프럿지의 평가를 더해 최종 선정하는 구조로 알려져 있다. 실제로 스프럿지는 지난달 14일부터 지난 8일까지 약 3주 동안 전 세계를 대상으로 온라인 투표를 실시했다.앞서 2017년과 2019년 어워드에서 ‘올해의 로스터’로 선정된 ‘오닉스 커피 랩’을 넘어섰다는 점에서도 의미가 크다. ‘오닉스’는 지난해 월드 바리스타 챔피언십, 월드 브루잉 챔피언십 등 세계 커피 대회에서도 두각을 나타냈다.한국 커피업계는 모모스커피의 ‘올해의 로스터’ 선정이 한국 커피 산업과 시장, 나아가서는 ‘커피도시 부산’을 높게 평가한 결과라고 의미를 부여했다. 커피 머신 제조, 솔루션 제공 업체인 비다스테크·디자인 커피의 방정호 대표는 “한국 커피산업은 커피 소비량에 비해 세계적으로 주목받은 적이 별로 없다. 모모스커피의 ‘스프럿지 어워드’ 수상은 큰 의미가 있다”면서 “부산시가 ‘커피도시 부산’ 브랜드 구축을 위해 커피 축제 개최를 비롯해 적극적으로 지원하는데다 부산 커피회사들이 개별적으로도 노력한 결과라고 본다”고 설명했다.한국에서는 앞서 2019년 모모스커피 전주연 바리스타가 월드 바리스타 챔피언십에 우승한 직후 ‘올해 최고의 성취를 한 커피인’ 분야에서 수상했다. 2020년 서울의 ‘영앤도터스’가 ‘베스트 뉴 카페’ 부문 후보에 올랐지만 수상에는 실패했고, 같은 해에는 서울의 ‘프릳츠 커피’가 ‘베스트 디자인 패키징’ 분야에서 2위를 차지했다.모모스커피 전주연 대표는 “모모스커피의 성취라기보다 부산의 성취라고 생각한다. 수상을 계기로 부산이 커피도시로 전 세계에 각인된 것 같아 뿌듯하다”고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2023.01.05.</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>중저신용자 목표 달성한 인터넷전문은행, 리스크관리 과제로</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002087394?sid=101</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>케뱅·카뱅, 25% 목표 비중 달성토스뱅크, 40%대 진입하며 최고 비중야금야금 올라간 연체율CSS 고도화, 상환능력 갖춘 중저신용자 발굴 과제최근 금리가 급격히 상승하며 가계대출 이자부담이 증가하고 있다. 임세준 기자[헤럴드경제=서정은 기자] 인터넷 전문은행들이 지난해 중저신용자 목표치를 채우며 취약계층 포용에 적극 나선 것으로 나타났다. 설립 취지에 맞게 포용적 금융을 확대해달라는 금융당국의 주문에 따라 특판 상품 등을 내놓으며 공격적으로 대출을 확대한 영향이다. 다만 금리 인상으로 인한 취약차주의 부실 위험이 커지고 있는만큼 앞으로는 이에 따른 리스크 관리 역량을 키우는 것이 과제로 남은 상태다.5일 금융권에 따르면 카카오뱅크, 케이뱅크는 지난해 말 기준으로 중저신용자 대출 목표치를 달성했다. 두 회사의 목표치는 25%였다. 토스뱅크의 경우 42% 달성에는 실패했으나, 40% 고지를 밟으며 인터넷 전문은행 3사 중 가장 높은 비중을 기록했다. 중저신용자는 신용점수 KCB 기준으로 820점 이하인 차주를 말한다.이들이 중저신용자 대출을 적극적으로 늘린 건 금융당국의 주문 때문이다. 당국은 인터넷 전문은행에 은행업 인가를 내줄 때 포용금융에 기여해야 한다면서 중저신용자 대상 신용대출을 활성화할 것을 요청한 바 있다. 여기에 중저신용자 목표치 달성 여부를 신사업 인허가 기준으로 삼겠다고 했었다.2021년만해도 이들은 목표치 달성에 실패했으나, 지난해 독자적 신용평가 모형을 만들며 상환 능력이 있는 중저신용자 발굴을 시도하며 발빠르게 비중을 늘렸다. 카카오뱅크의 경우 연말 목표치 달성을 위해 고신용자를 대상으로 한 상품 판매를 중단한 대신 중신용자 대출을 적극적으로 내세우기도 했다.금융당국 관계자는 “인터넷 전문은행들이 중저신용자 비중을 늘리긴 했지만 연체율 자체가 낮은 편이라 건전성 문제가 크지는 않다고 보고 있다”며 “시중은행에 비해 중저신용자 비중이 압도적으로 높은만큼 이 부분에 대해서는 긍정적으로 보고 있다”고 말했다.중저신용자 대출 목표치는 달성한 상태지만, 앞으로가 관건이다. 금리 인상에 따라 취약차주의 이자 부담이 날이 갈수록 커지고 있어서다. 주요 시중은행들 또한 올해 사업계획으로 건전성 관리를 내세운 상태다. 미미하긴 하지만, 야금야금 연체율이 올라가고 있어서다. 특히 고신용자 대출을 줄이고, 중저신용자 취급을 통해 목표치를 달성해온 인터넷 전문은행 입장에서는 리스크 관리에 따른 부담이 커질 수 밖에 없다.실제 지난해 3분기 카카오뱅크 연체율은 0.36%로 1년 전보다 0.15%포인트(p) 상승했다. 고정이하 여신 비율도 같은 기간 0.21%에서 0.29%로 올라갔다. 케이뱅크의 연체율 역시 0.67%로 1년 새 0.29%p가 늘었다. 고정이하여신비율도 같은 기간 0.76%로 1년 전에 비해 0.27%p 상승했다. 2021년 하반기 출범한 토스뱅크의 지난해 3분기 연체율은 0.30%, 고정이하여신 비율은 0.23%였다.인터넷 전문은행들은 올해 신용평가모형 고도화 등을 통해 리스크 관리에 주력하겠다는 방침이다. 그간 시중은행과 마찬가지로 손실흡수능력 제고를 위해 대손 충당금을 늘려온 상황이다.카카오뱅크의 경우 중저신용자, 금융이력 부족자를 위해 카카오뱅크 스코어를 개발, 금융이력 부족 고객들을 추가 선별할 수 있도록 이를 적용한 상태다. 여기에 금리 인상기임을 고려해 타행에서 손쉽게 중저신용자들이 대환을 할 수 있는 시스템도 준비 중이다.카카오뱅크 관계자는 “대환 대출 플랫폼을 통해 카카오뱅크의 대출 상품을 제공할 경우 대환 대출 고객을 위한 신용평가 모형을 개발해 중저신용자 고객들의 대환대출 심사도 활용할 수 있다”며 “추후 관련 플랫폼 내에서 카카오뱅크가 대환대출 대상 고객군을 확대하고 보다 우량한 고객을 선별할 것”이라고 말했다.토스뱅크 또한 상환 능력이 있는 건전한 중저신용 고객 발굴을 위해 자체 신용 평가 모형인 TSS(Toss Scoring System)를 운영 중이다. 케이뱅크도 지난해 초부터 중저신용자와 신파일러 등 고객군별 특성을 반영한 CSS를 적용 중이다.인터넷전문은행 관계자는 “지난해 인터넷전문은행들이 본연의 미션을 달성하기 위해 중저신용자 대출을 늘려왔다”며 “올해는 금융시장 상황을 고려해 무리하게 대출 비중을 늘리기 보다 리스크 관리를 병행하는 것이 주 과제가 될 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2023.01.05.</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>[새해 이렇게] '강남3구·용산'도 무주택·1주택자는 'LTV 50%' 적용</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006559633?sid=101</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>청년도약계좌 6월 출시…'부실징후·워크아웃기업'에도 캠코 지원서울의 한 시중은행 대출 창구 모습. 2022.8.1/뉴스1 ⓒ News1 민경석 기자(서울=뉴스1) 한유주 기자 = 집값 급등기 과도하게 묶여있었던 대출 규제가 단계적으로 정상화될 전망이다. '내 집 마련'을 꿈꾸고 있다면 새해엔 좀 더 쉽게 주택을 구매할 수 있을 것으로 보인다. 5일 금융위원회에 따르면 지난달부터 무주택자와 기존 주택을 처분한 1주택자에 대한 부동산 규제지역 내 주택담보대출비율(LTV) 규제 상한이 50%로 단일화됐다. 규제 지역 내 시가 15억원을 넘는 고가 아파트에 대한 주택담보대출도 허용됐다.부동산 규제지역 완화에 따라 이날 0시부터 서울 강남·서초·송파·용산만 규제지역으로 남았다. 이에 따라 해당 지역에서도 집을 사려는 무주택자와 1주택자(기존 주택 처분조건부)는 주택가격과 무관하게 집값의 절반까지 대출을 받을 수 있는 셈이다.다만 LTV 규제는 풀렸지만, 소득기준 대출 규제인 차주별 총부채원리금상환비율(DSR)규제가 유지되는 점은 유의해야 한다. 총 대출액이 1억원을 넘을 경우 연간 원리금 상환액이 총 소득의 40%를 넘기면 추가 대출이 막히게 된다. 서민·실수요자에 대한 대출 한도 또한 기존 4억원에서 6억원으로 늘어난다. 규제지역 내 주택구입목적 LTV 우대폭은 20%p로 단일화한다. 이들에 대해서는 규제지역 내에서라도 주택 구입 시 LTV가 최대 70%까지 허용되는 셈이다.◇ '5년간 최대 5000만원 목돈 마련' 청년도약계좌 6월 출시오는 6월에는 청년들이 5년간 최대 5000만원의 목돈을 마련할 수 있는 '청년도약계좌'가 출시된다. 청년도약계좌는 코로나19 이후 생활·주거 안정에 어려움을 겪는 청년들의 자산형성을 지원하기 위해 마련됐다.만 19~34세 청년 중 개인소득(6000만원 이하) 및 가구소득(중위소득 180% 이하) 기준을 충족하는 청년을 대상으로 한다. 가입자가 납입한 금액에 비례해 정부가 일정 비율의 기여금을 지원하고, 계좌에서 발생한 이자소득에는 비과세혜택이 적용된다. 5년간 한 달에 70만원을 납입할 경우 최대 5000만원 가량의 목돈을 모을 수 있다. 정부는 청년 306만명가량이 혜택을 볼 것으로 보고 있다. ◇ 6개월마다 네이버·쿠팡·카카오 간편결제수수료율 공시올해부터는 네이버·쿠팡·카카오 등 빅테크들이 간편결제 과정에서 가맹점들에게 매기는 수수료가 6개월마다 공시된다. 매년 2월말과 8월말에 공시가 되며, 공시 대상은 △네이버파이낸셜(네이버페이) △쿠팡페이(쿠페이) △카카오페이(카카오페이) △지마켓(스마일페이) △십일번가(에스케이페이) △우아한형제들(배민페이) △엔에이치엔페이코(페이코) △에스에스지닷컴(에스에스지페이) △비바리퍼블리카(토스페이) △롯데멤버스(엘페이) 등 10곳이다.보험료 납입과 지급이 모두 '외화'로 설정된 외화보험을 판매할 때는 판매자가 소비자의 재산상황에 비춰 부적합한 계약을 권유하거나(적합성 원칙), 부적정함을 고지해야(적정성 원칙) 한다. 환율변동으로 손실가능성이 있는 외화보험을 구매하기 전 소비자가 위험성을 인지하도록 한 취지다.금융상품에 가입할 때 설명의무 이행을 위해 거쳤던 소비자 확인법도 간편해진다. 그동안 소비자가 금융상품에 계약할 때 서명, 기명날인, 녹취로만 본인 확인을 할 수 있었지만, 휴대폰인증과 PIN인증이 추가될 전망이다.또 캠코의 자금지원·지급보증이 부실징후기업과 워크아웃기업까지 확대돼 취약 중소기업의 조기 정상화 지원이 활성화되고, 스마트폰을 통한 고액현금거래정보(CTR) 제공사실 통보서비스가 실시돼 소비자 편의성이 향상될 전망이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2023.01.13.</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>M&amp;A '꽁꽁'…사모펀드 쌍두마차 MBK‧한앤코 매각 난항 닮은 꼴</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000195363?sid=101</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>롯데카드‧한온시스템‧케이카 인수자 물색 어려워국내 사모펀드(PEF) 운용사 선두인 MBK파트너스(회장 김병주)와 한앤컴퍼니(대표 한상원)는 최근 인수기업 매각에 어려움을 겪고 있다. /MBK장학재단 홈페이지 및 한앤컴퍼니 홈페이지 갈무리사모펀드(PEF) 운용사 MBK파트너스와 한앤컴퍼니가 보유 기업 매각에 애를 먹고 있다. 인수합병(M&amp;A) 시장 내 거래가 얼어 붙으면서 올해 하반기 돼어서야 매각 작업에 시동이 걸릴 것으로 관측된다.◆ "롯데카드, 사실 분 없나요?" MBK파트너스, 몸값 눈높이 낮출까13일 업계에 따르면 MBK파트너스는 아직 롯데카드 인수 희망자를 찾지 못한 것으로 알려졌다. MBK컨소시엄은 지난해 하반기 롯데카드의 매각을 위한 예비입찰을 진행했지만 인수 후보자로 거론됐던 우리금융그룹과 KT 등이 불참하면서 흥행에 실패했다. 하나금융그룹과 사모펀드 3~4곳이 예비입찰에 참여했지만 본입찰까지는 이어지지 않았다.롯데카드 매각이 지지부진한 까닭은 단연 몸값에 있다는 게 시장의 판단이다. MBK컨소시엄은 2019년 5월 롯데그룹으로부터 1조3810억 원에 롯데카드 지분 79.83%를 인수했다. 현재 MBK컨소시엄이 원하는 롯데카드의 매각가는 약 3조 원 수준으로 알려져 있다. 서지용 상명대학교 경영학부 교수는 "가파른 금리 인상에 따라 카드사 수익성은 악화된데다 M&amp;A 시장에서도 자금 조달의 어려움은 커지고 있다"며 "지난해보다 올해 여건이 더 안 좋은 상황에서 3조 원에 달하는 인수 가격을 낮추지 않으면 올해도 매각은 어려울 것으로 보인다"고 풀이했다.다만, MBK컨소시엄 측은 3조 원의 몸값은 언론의 추측일 뿐이라는 입장이다. MBK파트너스 관계자는 "(원하는 가격이 3조 원 수준이라고 하는 등) 구체적인 수치에 대해서는 이야기한 적 없다. 언론에서 추측한다는 식의 기사가 나온 것으로 알고 있다. (액수는) 결정된 것이 아니다"라고 말했다.매각에 상당시일이 소요될 것으로 관측되는 가운데에도 시장에서는 롯데카드의 매력은 여전하다고 풀이하고 있다. 업계 일각에서는 카드업계 점유율 3위인 KB국민카드가 올해 경영목표를 '1등 카드사'로 설정한 만큼 KB금융그룹이 롯데카드 인수에 나설 것이란 관측도 나온다. 금융감독원 금융통계정보시스템에 따르면, 지난해 3분기 기준 카드사 시장 점유율(신용카드 이용실적 기준)은 △신한카드 20.9% △삼성카드 19.3% △KB국민카드 17.8% △현대카드 17.1% △롯데카드 9.35% △우리카드 8.1% △하나카드 7.5% 등의 순이다기존에 카드사를 보유하지 않은 카카오뱅크나 토스의 롯데카드 인수 가능성도 제기된다. 카카오뱅크는 2021년 상장으로 자본을 모집해 자금 여력은 있다. 다만 카카오가 문어발 식 확장으로 인해 비판을 받아온 것을 고려하면 확률이 높지 않아 보인다. 지난 6월 말 기준 카카오의 계열사 수는 187개(국내 134개)에 달한다. 2013년에는 국내 계열사 수가 16개에 불과했으나 이후 해마다 평균 13.5개 늘었다. 토스의 경우 M&amp;A에 적극적인 곳으로 알려져 있지만, 금리 상승에도 적자가 지속되면서 인수자금 마련을 위한 재무적 투자를 유치하기 쉽지 않은 상황이다.MBK컨소시엄 입장에서는 롯데카드의 매각이 급하지만은 않은 상황으로 풀이된다. 롯데카드의 기업가치가 높아질 가능성이 있기 때문이다. 롯데카드는 앞서 △2019년 286억 원 △2020년 519억 원 △2021년 648억 원의 현금배당을 실시했다. 3년간 거둔 순이익의 37%를 배당한 셈으로, MBK컨소시엄 인수 전 3년간의 배당성향(27.6%)보다 더 많다. MBK컨소시엄이 3년간 가져간 배당은 1162억 원이다. 배당으로만 매년 5% 이상의 수익을 내온 셈이다.MBK파트너스 관계자는 롯데카드에 관심을 보이는 곳이 있냐는 질문에 "언론에 공식적으로 말할 수 있는 부분이 굉장히 제한돼 있다"며 "딜 관련된 사안이나 진행 중인 상황에 대해 말씀드릴 부분은 없다"고 선을 그었다.PEF운용사 한앤컴퍼니는 한온시스템과 케이카 새 주인 찾기에 나선 상태다. /더팩트 DB◆ 한온시스템·케이카 매각 지지부진…한앤컴퍼니 "급한 상황 아냐"PEF 운용사 한앤컴퍼니 역시 한온시스템 매각에 난항을 겪고 있다. 한앤컴퍼니는 지난 2021년 1분기 모건스탠리를 주관사로 선정해 한온시스템 매각 작업을 진행해왔다. 거래 대상은 한앤컴퍼니와 한국타이어가 보유한 지분 70%다. 당시 7조~8조 원 규모 거래가 될 것이란 관측이 나왔다.하지만 한온시스템 주가가 1만 원 아래로 내려앉으며 한앤컴퍼니는 매각가에 대한 눈높이를 낮출 수밖에 없는 처지가 됐다. 12일 한온시스템은 전 거래일(8760원) 대비 0.46%(40원) 하락한 8720원에 거래를 마쳤다. 2021년 1월 8일 2만200원에 거래되던 한온시스템은 최근 2년간 줄곧 우하향 곡선을 그려왔다. 지난해 10월 21일에는 7100원까지도 고꾸라졌다.증권가에서도 한온시스템의 수익성이 떨어지고 있다는 평가가 나온다. 증권가에서 관측하는 한온시스템의 지난해 4분기 매출액은 2조2200억 원, 영업이익은 1021억 원 수준이다. 각각 컨센서스를 2.7%, 4.8%가량 하회하는 수준이다. 한온시스템은 지난해 3분기에는 매출 2조1955억 원, 영업이익 617억 원, 당기순이익 190억 원을 기록한 바 있다. 매출은 전년 동기 대비 28,8% 증가했으나 영업이익과 당기순이익은 각각 12.5%, 63.8% 쪼그라들었다.김진우 한국투자증권 연구원은 "전기차 시대가 도래하고 있음에도 한온시스템의 수익성 수준은 과거 하이 싱글 대비 로우 미드 싱글로 오히려 낮아진 형국"이라면서 "단기적인 외부환경 요인 외 유무형자산 증가에 따른 구조적인 감가상각비 증가 등이 영향을 미치고 있다"고 분석했다.한앤컴퍼니는 중고차 플랫폼 케이카 매각에도 나선 상태다. 지난해 10월 12일부로 1년의 보호예수가 해제되면서 한앤컴퍼니는 최근 골드만삭스를 매각 주간사 회사로 선정하는 등 매각 작업에 본격적으로 돌입했다. 한앤컴퍼니가 보유한 케이카의 지분은 72.0%다. 경영권 프리미엄 등을 고려하면 몸값은 5000억 원이 넘을 것으로 추정된다.한앤컴퍼니는 매각과 관련해서는 철저히 말을 아끼고 있다. 한앤컴퍼니 관계자는 한온시스템 및 케이카에 대한 질문에는 구체적인 답변을 거부했다.한 IB업계 관계자는 "경기침체 기조가 이어지면서 M&amp;A 시장이 얼어붙어 있다. 거액을 턱 하니 내놓을 수 있는 큰 손을 찾기 어려운 상황"이라며 "올해 하반기는 돼야 국내 1, 2위 PEF 운용사들의 엑시트가 속도를 낼 것으로 점쳐진다"고 언급했다.다른 IB업계 관계자는 "한온시스템의 경우에는 워낙 규모가 커서 당분간은 매각을 기대하기 어려워 보인다. 케이카의 경우 반도체 이슈도 있는 데다 아직 매각 초기 단계라 급한 사안은 아닌 것으로 보인다"고 말했다.발로 뛰는 더팩트는 24시간 여러분의 제보를 기다립니다.▶카카오톡: '더팩트제보' 검색▶이메일: jebo@tf.co.kr▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2023.01.12.</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>[단독]토스·카페처럼... 카뱅, 은행권 최초 타사 대출까지 소개한다</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004839718?sid=101</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>카카오뱅크가 은행권 최초로 다른 금융사 대출상품까지 자사 플랫폼에서 소개하는 서비스를 실시한다. 금융당국이 추진 중인 비대면 대환대출 인프라 구축에 참여하는 동시에 대출 중개도 병행한다는 방침이다. 카카오뱅크 대출 중개 서비스 개시가 다른 시중은행들의 행보에 어떤 영향을 미칠지 주목된다. 12일 금융업권에 따르면 최근 카카오뱅크가 은행권 최초로 자사 앱(애플리케이션)에서 다른 금융기관 대출 상품을 중개하기 위한 시스템 구축에 나섰다. 비대면 대환대출 인프라 구축 참여 신청을 하면서 이같은 내용의 의향을 금융당국에 전달한 것으로 알려졌다. 비대면 대환대출 인프라는 '비대면-원스톱'으로 여러 금융사의 대출상품을 확인한 후 갈아탈 수 있도록 돕는 시스템이다. 그동안은 고객이 대환대출을 하려면 오프라인 영업점을 방문해야 하는 등 번거로운 절차를 거쳐야만 했다. 아울러 직접 방문하는 금융기관 외의 대출 금리는 알기 어려웠다. 금융고객들에게 대출을 위해 금융기관을 굳이 방문하지 않아도 되는 편의와 자신의 신용조건에 맞는 대출 금리를 모두 비교할 수 있도록 하기 위해 비대면 대환대출 인프라 구축이 추진되고 있다. 금융당국은 금융결제원을 통해 이 인프라를 오는 5월까지 구축한다는 계획이다.금융당국은 비대면 대환대출 인프라 구축에 참여를 원하는 금융사 53곳과 핀테크사 13곳으로부터 신청서를 받았다. 금융사는 은행 19곳, 저축은행 18곳, 카드사 7곳, 캐피탈사 9곳 등이다.카카오뱅크는 대환대출 인프라 참석에 더해 자사 앱을 통한 대출 중개도 추진하기로 한 것. 지금까지 시중은행 앱에서 타사의 대출상품까지 소개한 경우는 없었다. 경쟁사 상품을 취급해 고객을 뺏길 이유가 없기 때문이다. 이에 따라 다른 금융사의 대출상품 중개 서비스는 직접 대출 상품을 판매하지 않는 핀테크(금융기술기업)를 중심으로 영위돼 왔다.   카카오뱅크의 이 같은 시도는 금융 상품 판매 보단 플랫폼 경쟁력 강화에 포커스가 맞춰져 있기에 가능하다는 것이 업계의 시각이다. 더 다양한 서비스를 제공해 MAU(월간 활성화 이용자수) 확대하겠다는 복안이다. 카카오뱅크 앱은 현재도 MAU 1500만명으로 은행 앱 가운데 가장 높은 이용률을 보인다. 카카오뱅크 관계자는 "비대면 대환대출이 금리 상승기에 금융소비자들을 돕기 위한 제도인 만큼 MAU 1위 뱅킹 앱으로서 적극적인 검토를 하고 있다"며 "다만 구체적인 계획은 정해지지 않았다"고 말했다.카카오뱅크의 출사표는 다른 은행들에도 영향을 미칠 전망이다. 시중은행들도 대출 중개 역할에 관심을 갖고 내부 검토 중이다. 결국은 여러 금융 앱에서 자사·타사 상품 모두 취급하는 본격 플랫폼 시대가 열릴 것으로 금융권은 전망한다. 신한은행이 최근 타사 예금까지 소개하는 예금·비교 추천 서비스를 준비 중이고, 주요 카드사들이 '오픈페이'를 통해 결제의 벽을 허무는 이유도 여기에 있다. 한 금융권 관계자는 "금융권의 디지털화가 가속화하는 만큼 앱 경쟁력이 곧 금융사의 경쟁력"이라며 "타사 상품까지 중개하더라도 고객 편의성을 높여야 앱 경쟁에서 승리할 수 있을 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2023.01.13.</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>“고향사랑기부금, 이런 용도로 기부하고 싶은데…방법이 없네”</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/662/0000012818?sid=102</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>고향사랑e음엔 답례품만 소개지자체 사용처 안내 공간 없어지정기부 가능 플랫폼 구축을고향사랑e음 플랫폼. “물건(고향사랑기부제 활용 프로젝트)은 있는데 팔 수 있는 편의점(플랫폼)이 없어요. 답례품이 마땅하지 않은 소규모 지방자치단체는 매력적인 프로젝트로 승부를 봐야 하는데 지금은 알릴 방법이 없습니다.”최근 한 지자체가 지정기부제 방식으로 고향사랑기부금을 모금하려고 시도했다가 중단했다. 지정기부제 방식으로 모금할 플랫폼이 현재로선 없어서다. 지정기부제란 지자체가 해결할 지역사회 문제를 발굴하면 응원하고 싶은 기부자가 그곳에만 돈이 쓰이게 콕 집어 기부하는 방식이다.일찌감치 지정기부제를 도입한 일본에선 지자체들이 공감대를 살 만한 프로젝트를 찾고 알리는 데 힘을 쏟았다. 우수 사례로 꼽히는 사가현은 2021년 지역에서 활동하는 100여개 단체가 다양한 프로젝트를 발굴해 약 9억엔의 고향납세를 모았다.우리나라도 지정기부가 원칙적으로 불가능하진 않다. 문제는 방법이 없다는 점이다. 현재 고향기부금 플랫폼은 행정안전부가 구축한 ‘고향사랑e음’이 유일하다. 들어가보면 기부 때 받을 수 있는 답례품만 농축수산물·가공식품·생활용품·지역상품권 등으로 구분돼 있고 지자체의 기부금 사용처를 소개하는 공간은 없다.한 지자체 관계자는 “고향사랑e음은 지역을 먼저 누르면 받을 수 있는 답례품만 나열되는 방식이어서 출향인이 적고 (물질적) 답례품도 마땅하지 않은 소규모 지자체는 불리할 수밖에 없다”고 밝혔다.고향사랑e음 플랫폼을 개선하는 동시에 민간 참여를 열어주는 것도 방법이라는 목소리가 나온다. 일본은 사토후루(2014년)·후루나비(2014년)·라쿠텐후루사토납세(2015년) 등 민간 플랫폼이 등장한 시점이 고향납세가 크게 증가한 때와 겹친다. 민간이 개성 있는 플랫폼을 만들어 지자체와 협력해 다양한 답례품과 프로젝트를 발굴하면서 고향납세가 성공 가도에 올랐다는 평이다. 고향납세 모금에서 상위를 차지한 지자체(2021년 기준)를 봐도 1위 미야자키현 미야코노조시가 민간 플랫폼 등 6개를 동시 활용해 135억엔을 모았고, 2위 홋카이도 몬베쓰시는 21개 플랫폼을 통해 134억엔을 모금했다.한 전문가는 “일반 기부금도 정부가 주도한 ‘1365기부포털’에서 네이버의 ‘해피빈’, 카카오의 ‘같이가치’ ‘도너스’로 민간 창구가 확장되며 활성화됐고 (고향기부제와 비슷한 구조인) 정치후원금 역시 정부의 ‘정치후원금 센터’에 더해 토스(toss) 등이 참여하면서 젊은층의 후원 참여가 늘어나는 효과를 거뒀다”면서 “민간의 전문성 등을 적극 활용하면 일본 고향납세처럼 고향기부제도 빠르게 성공할 수 있을 것”이라고 말했다.양석훈 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2023.01.15.</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>오늘부터 연말정산 간소화서비스…신용카드·대중교통 공제 확대</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013700700?sid=101</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>전세대출 원리금 소득공제·월세 세액공제도 늘어나신용카드 공제 확대…두둑한 연말정산 되는 법 (CG)[연합뉴스TV 제공](세종=연합뉴스) 곽민서 기자 = 연말정산 간소화 서비스가 15일 개통됐다.    올해 연말정산에서 받을 수 있는 신용카드와 대중교통 공제는 더욱 확대된다.    국세청에 따르면 근로자들은 이날부터 홈택스에서 간소화 자료를 확인해 내려받을 수 있다.    올해는 간소화 서비스 간편인증(민간인증서)이 작년보다 확대된 점이 특징이다.    기존 인증 7종(카카오톡, 통신사PASS, 삼성패스, 국민은행, 페이코, 네이버, 신한은행)에 토스, 하나은행, 농협, 뱅크샐러드 등 4종이 추가되면서 이용자는 총 11종의 간편인증을 활용할 수 있게 됐다.     보건복지부와 국가보훈처에서 수집한 장애인 증명자료도 간소화 자료로 제공된다.     월세를 신용카드로 납부한 경우에는 국세청이 카드사로부터 신용카드로 결제한 월세액 자료를 수집해 제공하는 간소화 자료를 이용할 수 있다.     신용카드 사용액과 대중교통 지출액에 대한 공제는 더욱 확대된다.    개정 세법에 따르면 작년 신용카드 사용액, 전통시장 사용액이 그 전해인 2021년보다 5% 넘게 증가한 경우 100만원 한도에서 추가 소득공제를 받을 수 있다.     대중교통 이용금액 소득공제는 작년 7∼12월 이용분에 한해 공제율이 40%에서 80%로 올라간다.    무주택 세대주인 근로자가 주택을 임차하기 위해 차입한 자금의 공제 한도도 300만원에서 400만원으로 확대됐다.    작년 12월 31일 기준 무주택 세대의 세대주가 주택법에 따른 국민주택규모 주택(주거용 오피스텔 포함)을 임차하기 위해 대출기관 등에서 주택 임차자금을 차입하고 차입금의 원리금 상환액을 지급하는 경우 상환액의 40%를 400만원 한도로 소득에서 공제하는 식이다.    총급여 7천만원 이하 무주택 근로자가 지출하는 월세에 대한 세액공제율은 10∼12%에서 15∼17%로 올라갔다.     월세 세액공제를 받으려면 작년 12월 31일 현재 무주택 세대 세대주로서 총급여액이 7천만원 이하인 근로자여야 한다.    국민주택규모 이하나 기준시가 3억원 이하인 주택을 임차하고 임대차 계약증서 주소지와 주민등록표 등본 주소지가 같은 경우 월세 세액공제를 받을 수 있다.    세액공제액은 연 750만원 한도 월세 지급액에 15∼17% 공제율을 곱해 계산하면 된다.     이외 난임 시술비는 20%에서 30%로, 미숙아·선천성 이상아를 위해 지출한 의료비는 15%에서 20%로 각각 세액공제율이 상향됐다.     작년 낸 기부금에 대해서는 1천만원 이하 20%, 1천만원 초과 35% 세액공제가 적용된다.     mskwak@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2023.01.06.</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>새해 목표 '돈 모으기' 무조건 성공하는 '저축 꿀팁'은? (손희애 금융 크리에이터)｜머니클라스</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/437/0000327792?sid=101</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>■ 인용보도 시 프로그램명 'JTBC 상암동 클라스'를 밝혀주시기 바랍니다. 저작권은 JTBC에 있습니다.■ 방송 : JTBC 상암동 클라스 / 진행 : 이가혁[앵커]경제를 잘 알지 못하는 사람을 위한 당장 내 돈이 되는 지식 '머니클라스' 오늘(6일)의 키워드 먼저 보시죠. &lt; 새해에 무조건 성공하는 저축 계획 &gt; 새해가 되면 많은 분들이 올해 꼭 이루고 싶은 목표를 세우시죠? '한 달에 책 1권 이상 읽기', '다이어트 하기' 이런 여러 가지가 있지만 꼭 빠지지 않는 목표가 바로 '돈 모으기'일 겁니다. 그런데 이 돈 모으기라는 목표 사실 매년 세웁니다. 그런데 또 연말에 통장잔고 보면 괜히 또 후회합니다. 올해는 머니클라스와 함께 달라질 시간입니다. 지금부터 무조건 성공하는 저축 계획 방법 알려드리겠습니다. 부자 되는 개념 쏙쏙 알려주는 손희애 금융 크리에이터와 얘기 나눠보겠습니다. 안녕하세요.[손희애/금융 크리에이터 : 안녕하세요.][앵커]새해 복 많이 받으십시오.[손희애/금융 크리에이터 : 새해 복 많이 받으세요.][앵커]보통 꾸준하게 돈을 모으려면 목표를 먼저 세우라고 하더라고요. 내가 세 달 뒤에는 큰 가방을 살 거야, 자기가 갖고 싶은 거. 그런데 이 저축 계획을 세우는 구체적인 지침이 있을까요.[손희애/금융 크리에이터 : 일단은 저축, 대체 어떻게 설정해야 될까 궁금하신 분들 것 같아요.][앵커]그냥 돈 모으면 되는 거 아니에요.[손희애/금융 크리에이터 : 어렵잖아요. 우리가 보통은 예를 들어 월세를 한다든가 하는 주거비가 발생할 때는 총급여액을 40%에서 50%는 모아라. 만약에 주거비가 발생하지 않는다면 60% 이상은 모아야 된다. 이런 비율에 대한 얘기도 되게 많은데요. 사실은 '이렇게 모으세요'라고 비율을 단정짓기에는 사바사, 사람 바이 사람. 너무 상황들이 다르잖아요. 그렇기 때문에 비율을 책정하기보다는 내가 만약에 이 정도를 모은다면 그 안에서 저축의 구성을 어떻게 하면 좋다. 이 구성에 대해서 얘기를 해 보도록 하겠습니다. 가령 제가 한 달에 100만 원씩 저축을 한다고 가정을 한번 해 봤어요. 그러면 이 100만 원 중에서 어떻게 구성을 하면 좋을지 얘기를 할 텐데요. 최소 50% 정도는 정기적금으로 저축을 하시는 게 좋겠습니다. 이 정기적금이라는 건 매달 저축하는 날짜도 정해져 있고 금액도 정해져 있잖아요. 그렇기 때문에 강제성을 띠어서 저축습관을 오래 기르시기에 너무 너무 좋은 방법이에요.][앵커]맞아요, 의지가 약할 때는 강제성이 필요합니다.[손희애/금융 크리에이터 : 맞아요. 그리고 이 중에서 40% 정도는 유동지출도 관리를 하기 위해서 우리가 수시적금으로 저축을 하시는 게 좋겠습니다. 그리고 나머지 10%가 남았죠.][앵커]그냥 쓰면 되는 건가요?[손희애/금융 크리에이터 : 아니요. 안 되죠. 이 10%는 우리가 파킹통장을 활용해서 비상금으로 떼어두시는 게 좋으세요. 왜냐하면 우리가 이렇게 따로 떼어두지 않으면 혹시나 급전이 필요할 때에도 앞서서 우리가 힘들게 저축한 적금을 깨야 되는 상황들이 생기잖아요. 그래서 만일의 상황. 우리가 통째로 적금을 깨지 않기 위해서 10% 정도는 비상금으로 떼어둔다라고 보시면 되겠습니다.][앵커]파킹통장 지난번에 배운 거. 매일매일 이자가 붙는 통장이고 수시적금은 뭔가요?[손희애/금융 크리에이터 : 수시적금은 날짜도 정해져 있지 않고, 금액도 정해져 있지 않은 적금이거든요. 그래서 언제든지 내가 여유자금이 생길 때마다 자유롭게 적금을 넣을 수 있는 상품이라고 보시면 되겠습니다.][앵커]알겠습니다. 이렇게 계획을 잘 세워도 저 같은 사람은 실천하기가 쉽지가 않은데 저축을 포기하지 않고 계속 동기부여 받으면서 잘할 수 있는 그런 방법 있을까요.[손희애/금융 크리에이터 : 우리가 바로 저축금액을 달마다 다르게 하는 방법을 추천을 드리고 싶습니다. 일명 저축스킬이라고도 볼 수 있을 것 같은데요. 보통은 혹시 저축해야겠다라고 생각하면 금액부터 정하지 않을까요?][앵커]매달 몇십만원씩 하겠다.[손희애/금융 크리에이터 : 맞아요. 그래서 매달 50만원, 매달 100만원 이런 식으로 했는데 금액이 조금이라도 틀어진다거나 실패하면 바로 사기가 꺾이잖아요.][앵커]맞아요.[손희애/금융 크리에이터 : 나 벌써 새해계획 실패하는 건가 이런 생각이 들잖아요. 그래서 매달 정확하게 금액을 일치시키기보다는 매달 우리가 달마다 지출하는 상황도 다르다 보니까 내가 지출이 좀 많은 달에는 저축액을 줄이고 지출이 좀 적은 달에는 저축액을 늘리는 방식으로 이걸 좀 조율을 하시다 보면 효율성도 올라가고 저축에 대한 목표 달성 가능성도 훨씬 커지게 됩니다. 그래서 이런 것들을 조율을 하시다 보면 저축 실패, 새해계획 실패하실 일이 없으신 거죠.][앵커]그러니까 새해계획 세울 때 항상 매매 얼마씩 딱 고정을 하기 마련인데 발상의 전환이네요.[손희애/금융 크리에이터 : 맞아요.][앵커]유동적으로 어느 달은 금액을 다르게 하고.[손희애/금융 크리에이터 : 맞아요.][앵커]알겠습니다. 그러려면 일단 한 해 지출부터 체크를 해 봐야겠네요. 이건 또 어떻게 하면 좋을까요.[손희애/금융 크리에이터 : 당연한 말씀입니다. 그러니까 1년 동안에 우리가 고정된 이벤트들이 있습니다. 예를 들어서 나를 사랑하는 마음으로 생일도 챙겨야 되고요. 가족들의 생일도 챙겨야 되고 그리고 명절 등의 다양한 고정 이벤트들이 있잖아요. 이런 것을 새해에 1년 동안의 스케줄을 쭉 한번 정리를 한다면 '이달에는 돈이 많이 나가는구나, 이달에는 좀 돈이 적게 나가는구나' 이걸 한눈에 파악을 하실 수 있습니다. 제가 실제로 매년 작성하고 있는 이벤트 플래너를 한번 가져와봤어요. 제가 실제로 작성을 한 건데요. 5월과 6월에 고정적인 이벤트를 한번 보면 가족여행을 계획하고 있어서 한 60만원 정도의 여유자금이 필요하겠다라고 계획을 세웠고요. 그리고 또 어버이날에 30만원 정도의 용돈 드릴 계획이 있고요. 6월에는 동생 생일과 건강검진에 대한 작은 계획을 세웠습니다. 이렇게 1년 동안 내가 고정적으로 혹은 예상되는 지출이 이 정도구나라는 걸 세워두면 내가 5월에는 좀 자금이 많이 필요하네. 6월도 만만치 않구나. 대신에 7월에는 좀 여유가 있구나. 이걸 우리가 파악을 할 수 있다 보니까 보통은 1년 저축하면 1200만원이 목표라면 당연히 100만원씩 이렇게 생각을 하지만 언제가 여유자금이 있는지 이런 것을 파악하면 무조건적으로 100만원씩이 아니라 언제는 200만원, 언제는 50만원 이렇게 조율해 가면서 저축을 할 수 있는 거죠.][앵커]좋네요. 아마 이번 달이 아니라 이번 주말에 이렇게 달력 펴놓고 언제는 엄마 생일, 언제는 어버이날 이렇게 해서 딱 지출을 계획을 세워놓으면 좋을 것 같습니다.[손희애/금융 크리에이터 : 맞습니다.][앵커]꼭 기억해 놓으면 좋을 것 같고요. 그럼 이제 저축계획은 어떻게 세우면 좋을까요.[손희애/금융 크리에이터 : 우리가 이렇게 이벤트 플랜까지 쭉 짰으면 여기에 플러스 내가 올해 갖고 싶은 거나 위시리스트들이 있을 수 있잖아요. 이런 것까지 더해서 나머지 정말 '저축액 목표를 얼마큼 세워야 되는가'라고 해서 저축플래너를 한번 써보면 좋습니다. 이것도 실제로 제가 한번 써봤는데요. 제가 3월에는 저희 어머니 생일을 챙기기 위해서 용돈으로 30만원을 생각하고 있습니다. 그런데 또 갑자기 30만원이라고 하면 작아 보일 수 있지만 가령 300이라고 친다면 한꺼번에 이렇게 탁 마련할 수 있는 건 아니잖아요. 그렇기 때문에 매달 1월에 2월에 3월에 각각 10만원씩 저축을 하고요. 그리고 저의 생일. 나의 위시리스트를 이루기 위해서 20만원 정도가 필요하다고 하면 한꺼번에 또 자금을 마련하기보다는 10만원씩 두 달에 걸쳐서 저축을 해 주고요. 그리고 5월에 가족여행을 위해서 60만원이 필요하다면 이것 역시 한꺼번에 모으기보다는 각각 20만원씩 세 달에 걸쳐서 자금을 마련합니다.][앵커]본인보다 엄마한테 10만원을 더 쓰는 효녀라는 걸 여기서 또 보여주시는 것 같은데.[손희애/금융 크리에이터 : 맞습니다.][앵커]이렇게 플래너를 써야 되는군요.[손희애/금융 크리에이터 : 이렇게 하면 3월에 가장 돈이 많이 필요하구나. 1월이랑 2월에는 좀 여력이 있구나. 이런 것들이 한눈에 보이니까요. 저축액을 매달 똑같이 하기보다는 조금 차등을 두시면 실패할 확률이 적습니다. 특히나 우리가 작년에 출시가 됐던 청년희망적금에서 이탈을 했던 청년들이 굉장히 많았다고 합니다. 그러니까 저축을 하시다 보니까 '나 여력이 안 되는데'라고 느낀 분들이 그만큼 많았다라는 건데요. 만약에 일정 금액을 설정하기보다는 이렇게 금액을 다르게 설정을 하셨다면 이탈하는 수도 좀 적지 않았을까라는 생각이 듭니다.][앵커]그러니까 이탈하는 거 얘기하니까 떠오르는 게 의지가 있어도 이달에 갑자기 지출이 많아지면 깰 수밖에 없는 그런 상황이 생기지 않을까.[손희애/금융 크리에이터 : 맞아요.][앵커]그러니까 이렇게 미리미리 계획을 세우는 게 참 중요한 것 같네요. 또 가끔 저축이 너무 숙제처럼 느껴질 때가 있어요. 너무 계획하에 딱 하면.[손희애/금융 크리에이터 : 맞아요.][앵커]그래서 이 저축을 재미나게 할 수 있는 동기부여를 계속해서 할 수 있는 그런 방법 없을까요?[손희애/금융 크리에이터 : 이게 동기부여 확실하게 느끼는 방법 중의 대표적인 게 재미를 느끼는 '펀세이빙'을 꼽을 수 있을 것 같은데요. 우리가 도전형, 게임형 저축이라고 보통 부릅니다. 그래서 대표적으로 제가 세 가지 상품을 가져와봤습니다. 첫 번째 상품으로는 카카오뱅크의 26주적금이 있습니다. 펀세이빙에서 대표적인 상품이라고 꼽을 수 있을 것 같은데요. 보시는 것처럼 요즘은 금리가 더 많이 올라서 최고 연 7%까지 금리를 적용해 주고 있고요. 매주 적게는 1000원, 많게는 300만원까지 금액이 주차별로 계속 증액이 되고요. 또 우리가 주차별로 이렇게 리워드를 받을 수 있어요. 귀여운 이모티콘도 리워드로 받을 수 있는 등의 보상이 틈틈이 있기 때문에 '내가 좀 질리는 것 같은데, 힘든 것 같은데'라고 느낄 때마다 소소한 보상, 소소한 도전을 통해서 저축을 실패할 확률이 적고요.][앵커]일단 캐릭터부터가 재미있게 할 수 있는 것 같아요.[손희애/금융 크리에이터 : 맞아요. 뭔가 캐릭터가 나를 응원해 주는 느낌이니까요. 그래서 이런 상품을 통해서 또 재미와 도전을 챙길 수 있을 것 같습니다.][앵커]또 다른 K뱅크도 이런 비슷한 게 있죠?[손희애/금융 크리에이터 : 맞아요. K뱅크에서는 챌린지박스라는 상품을 통해서 이렇게 우리에게 재미와 도전의식을 불어넣어주고 있는데요. 이 상품은 50만원을 목표로 100일 동안 모으기 이런 것처럼 내 스스로에게 목표, 그러니까 챌린지를 부여하는 거예요. 그러니까 소확행이라고 하잖아요. 그러니까 작은 목표들을 달성하면서 '내가 달성하고 있다, 저축하고 있다' 이 재미를 부여하게 해 주는 거고요. 이거는 정해진 문구들이 아니라 스스로가 이렇게 문구 목표를 설정할 수 있는 거거든요.][앵커]빵순이와 작별 이런 거.[손희애/금융 크리에이터 : 맞아요, 맞아요. '나 빵 좀 그만 사먹자, 이 돈을 저축하자' 이런 식으로 목표를 설정하는 거죠. 그래서 재미와 저축까지 같이 챙길 수 있는 상품이고요. 그리고 세 번째로는 토스 뱅크의 키워봐요 적금을 꼽아볼 수 있습니다. 혹시 학창시절에 다마고치 많이 하셨나요?][앵커]네.[손희애/금융 크리에이터 : 그런 상품처럼 캐릭터를 저축할 때마다 키울 수 있는 상품이에요. 보이는 것처럼 지금 캐릭터들이 보이는데 처음에는 알의 형태로 제공이 됩니다. 이 상품들을 저축을 할 때마다 캐릭터들이 점점 성장을 하기 때문에 최고금리 또 연 4.5%까지 보장받을 수 있기 때문에 쏠쏠한 이자도 챙기고 이렇게 귀여운 캐릭터들도 챙기면서 우리가 함께 키워가는 그런 저축을 할 수 있겠죠.][앵커]미소가 절로 지어져요. 그러니까 재미있게 할 수 있을 것 같고 게임하듯이 돈을 모으면 기분 좋을 것 같습니다.[손희애/금융 크리에이터 : 맞아요. 캐릭터들 커가는 거 보면서 저축을 하게 되는 거죠.][앵커]마지막으로 아까 저축계획이나 지출계획을 짤 때 스마트폰 앱을 쓰세요? 아니면 종이 수첩에 적으세요? 개인적으로는 어떤 걸 이용하세요?[손희애/금융 크리에이터 : 저는 개인적으로 둘 다 하고 있는데요. 요즘은 불편하게 종이는 힘들다라고 하시는 분들 많으시잖아요. 앱도 너무나도 잘 나와 있기 때문에 앱만 활용하셔도 충분할 것 같고요. 사실은 앱도 활용하지 않으시는 분들이 너무 많으십니다. 그러니까 앱이라도 활용을 해 주시고 혹시 여력이 되신다면 둘 다 활용을 해 주신다면 앱으로는 간편성을 챙기고 수기로는 좀 더 꼼꼼함을 챙기실 수 있지 않을까 생각을 합니다.][앵커]알겠습니다. 이렇게 또 수첩에 적으면서 뭔가 반성하는 그런 시간을 갖게 되고.[손희애/금융 크리에이터 : 맞아요.][앵커]알겠습니다. 계획과 그리고 재미까지 같이 잡아보는 그런 노하우였습니다. 지금까지 머니클라스 손희애 금융크리에이터와 이야기 나눠봤습니다. 고맙습니다.[손희애/금융 크리에이터 : 감사합니다.]</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2023.01.04.</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>수수료율 낮춘 토스…첫 공시 앞두고 눈치보기?</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000317236?sid=101</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>[토스 CI. (자료: 토스)]토스가 소상공인 대상 간편결제 수수료율을 절반 수준으로 낮추기로 한 가운데 일각에선 '눈치보기', '생색내기'라는 지적이 나오고 있습니다. 공시 제도 도입을 불과 두 달 앞두고 나온 발표인 데다, 이미 네이버나 카카오는 수수료율을 더 낮은 수준으로 인하했기 때문입니다.오늘(4일) 업계에 따르면 토스는 다음달 1일부터 영세·중소가맹점을 대상으로 간편결제 서비스 '토스페이' 결제 수수료를 최대 47% 인하키로 했습니다.이번 수수료율 인하 조치로 연 매출 3억 원 이하 영세가맹점의 토스페이 수수료는 기존 3%에서 1.6%로 낮아집니다. 연 매출 3억~30억 원 이내 중소 가맹점은 매출 규모에 따라 1.9~2.4% 수수료율을 적용받게 됩니다. 그동안 토스페이 수수료는 매출 규모 구분없이 일괄 '3%'로 고정돼 있었습니다. 여기에는 간편결제에 연계된 카드사나 결제은행에 토스가 지급하는 수수료, 지급결제대행(PG)사 수수료 등이 포함돼 있습니다.이런 가운데 네이버파이낸셜과 카카오페이는 아직 수수료율 조정 계획은 없다는 입장입니다. 이미 1년 전 영세·중소가맹점 대상 수수료율을 한 차례 인하했기 때문입니다. 네이버파이낸셜은 지난 2021년과 지난해 수수료율을 낮췄습니다. 현재 연 매출 3억 원 이하인 영세사업자의 경우 수수료율은 0.9%입니다. 중소사업자는 매출 규모에 따라 1.45~1.85%를 적용받습니다.지난해 1월 수수료율을 인하한 카카오페이의 현재 수수료율은 연 매출 규모에 따라 0.6~2.2%입니다. 영세사업자는 연 매출 3억 원 이하 가맹점으로 수수료율은 1% 미만입니다.토스가 수수료율을 '최대 절반' 수준으로 낮췄지만 영세가맹점 수수료율은 네이버파이낸셜, 카카오페이에 비해 수수료율이 여전히 높습니다. 더구나 오는 3월 간편결제 수수료율 첫 공시를 앞둔 시점에 나온 조치라는 점에서 금융당국 '눈치보기'가 아니냐는 분석도 나옵니다.김대종 세종대 경영학과 교수는 "네이버나 카카오보다는 늦었지만 이처럼 수수료율을 낮춘 데는 당국 눈치보기 영향도 없지 않을 것"이라며 "절대적인 수수료 수준은 네이버·카카오와 비슷하거나 더 높지만, 앞으로 전반적으로 수수료율이 더 낮아질 가능성이 크다"고 말했습니다.이와 관련해 토스 측은 "수수료율 공시보다 앞서 지난해 8월부터 일부 영세 가맹점을 대상으로 토스페이 계좌 결제 수수료를 인하해왔다"며 "이번 조치는 더 많은 영세·중소가맹점이 혜택을 볼 수 있도록 매출 규모별로 표준 인하 수수료를 마련한 것"이라고 설명했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2023.01.12.</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>'바닐라코딩' 크라우드에듀케이션, '교육 분야' 기업대상</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004839709?sid=101</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>허근행 크라우드에듀케이션 대표가 머니투데이 주최의 '2022 제8회 대한민국 기업대상'에서 코딩 부트캠프 부문으로 '교육' 분야 대상을 비대면 수상한 뒤 기념 촬영 중이다.IT 교육 기업 크라우드에듀케이션은 비전공자를 위한 코딩 부트캠프 '바닐라코딩'으로 두각을 나타내는 업체다. 코딩 부트캠프는 소프트웨어 개발자로 취직하는 데 필요한 지식을 단기간에 전달하는 훈련이다. 특히 코딩 입문자들도 개발자로서의 커리어를 쌓을 수 있도록 지원 중이다. 업체 측은 "개발자로서의 새로운 커리어 전환을 함께하는 회사"라며 "수료생들은 네이버와 카카오, 토스 등 다양한 기업에서 최고의 평을 받으며 성장 중"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2023.01.04.</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>시중은행 앱도 月 사용자 1200만 시대…디지털 경쟁 가속</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002672857?sid=101</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>‘KB스타뱅킹’ 지난달 MAU 1215만명은행 ‘슈퍼앱’ 전략으로 빅테크와 승부시중은행의 대표 모바일 뱅킹 애플리케이션.ⓒ각 사 제공[데일리안 = 이호연 기자] 금융권이 디지털 전환에 주력하는 가운데 시중은행에서도 모바일뱅킹 애플리케이션(앱) 월 이용자가 1200만명을 돌파했다. 통상적으로 업계에서 플랫폼 월간활성사용자수(MAU) 1000만명을 유의미한 지표로 평가하고 있다는 점에서 주목된다.은행권이 올해 디지털 플랫폼 경쟁력을 더욱 높이기 위해 비금융 샐활서비스까지 아우르는 유니버셜 전략을 진행 중인 가운데, 앱 플랫폼으로의 고객 유치전은 더욱 치열해질 것으로 보인다.4일 빅데이터 플랫폼 기업 아이지에이웍스의 모바일인덱스에 따르면 지난 달 기준 5대 은행(KB국민・신한・하나・우리・NH농협)의 뱅킹 앱 MAU는 ‘KB스타뱅킹’이 1215만명3137명으로 가장 많았다. 5대 은행 중 가장 빨리 MAU 1200만명을 돌파했으며, 전년 대비 179만여명이 늘어났다.이어 ▲신한 쏠 945만188명 ▲NH스마트뱅킹 827만3531명 ▲우리 WON뱅킹 713만9662명 ▲하나원큐 562만920명으로 집계됐다. 평소 공격적으로 디지털 금융 사업을 펼쳐왔던 신한은행 뱅킹 앱은 올해 MAU 1000만명을 돌파할 것으로 관측된다.MAU가 가장 많은 곳은 토스뱅크와 카카오뱅크였다. 12월 MAU 기준 토스뱅크는 1년 전보다 32만9476명이 감소한 1364만5286명을 기록했다. 카카오뱅크는 1319만5758명으로 뒤를 바짝 쫒았다. 전년 대비 MAU 증가폭은 2만5604명이다.MAU는 해당 서비스를 얼마나 많은 고객이 이용하는지 디지털 플랫폼 역략을 보여주는 척도이다. 활성 사용자 수준을 파악할 수 있어 누적 가입자보다 중요하게 평가된다. 이를 위해 각 사는 지난해 이어 새해에도 MAU 확대 경쟁에 나선다.KB금융그룹은 KB스타뱅킹을 고도화하고, 계열사 앱을 연결하는 ‘원 앱’ 전략을 구사하고 있다. 올해 조직개편에서 고객경험디자인센터, 디지털콘텐츠센터 등을 신설해 시간이나 장소애 구애받지 않고 일관된 고객 경험을 제공하겠다는 방침이다. 새해 첫 이벤트도 내걸었다. KB스타뱅킹을 통해 입출금통장을 최초 가입하고 이벤트 페이지에 응모한 고객 전원에게 스타벅스 모바일쿠폰, 포인트리, CU 모바일쿠폰 등도 제공한다.신한은행은 대표 앱 신한 쏠에서 배달앱 ‘땡겨요’ 등 다양한 서비스를 편리하게 이용하는데 초점을 맞췄다. 지난해에는 모바일뱅킹 앱 신한 쏠을 전면 개편하는 '뉴 앱(NEW APP)' 프로젝트 추진하기 위해 195억원의 예산을 투입했다. 그 결과물인 ‘뉴 쏠’은 출시 한 달 만에 이용 고객이 700만명을 돌파했다. 최근 한용구 신임 은행장은 시중은행 최초로 비대면 이체 수수료를 면제하겠다고 공표하며, MAU확대에 군풀을 지피고 나섰다.신한금융에서는 올해 여름 은행, 카드, 증권, 생명 등 계열사 서비스를 한데 모은 ‘신한 유니버설 간편 앱’도 내놓는다. 1400여개의 그룹 디지털 금융 서비스 중 47개 서비스만을 선별해 유니버셜 간편앱에서 선보인다.우리금융은 우리WON뱅킹앱에 카드·증권·보험·캐피탈 등 계열사 서비스를 연계하는 ‘유니버셜 뱅킹’ 서비스를 추진하고 있으며, 하나은행도 플랫폼 고도화를 위해 지난해 하나원큐에 맞춤형 금융상품몰을 탑재하는 등 개편 작업을 했다.꾸준히 800만명대의 모바일 뱅킹 이용자를 확보한 NH농협은행은 ‘NH올원뱅크’를 통해 계열사 서비스를 한데 모으고 있다. 지난해 6월 새로 단장한 NH올원뱅크에서 금융 계열사의 핵심 서비스는 물론 다양한 생활금융 서비스를 제공하고 있다. 마이데이터와 연계한 자산관리 서비스도 선보였으며, 1분기 안으로 차세대 시스템을 오픈할 것으로 알려졌다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2023.01.02.</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>[비즈브리핑] 정기예금 못지않은 파킹통장 금리…나도 가입해볼까</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/076/0003956504?sid=101</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>시중은행들의 수신금리 경쟁이 주춤한 사이 저축은행과 인터넷은행이 '파킹통장'의 금리를 인상하며 고객 잡기에 나서고 있다.파킹통장은 하루만 맡겨도 이자가 적용되고 별도 해지나 재가입 없이 예치금에 인상된 금리가 자동 적용돼 이자를 받을 수 있다는 장점이 있다. 저축은행과 인터넷은행은 까다로운 조건없이 시중은행의 예적금 상품과 견줄 만한 금리를 제공하며, 목돈을 굴리려는 금융소비자의 니즈를 제대로 저격하고 있다.OK저축은행은 최근 연 5%까지 이자를 주는 입출금통장 상품인 'OK읏백만통장Ⅱ'를 출시했다.OK읏백만통장Ⅱ의 기본금리는 연 4.5%로, 오픈뱅킹 등록 시 0.5%포인트(p)의 우대금리가 추가된다.500만원까지 최고 연 5% 금리를 적용한다. 500만원 초과 5000만원까지는 연 4%의 금리를 받을 수 있다. 해당 상품은 개인고객이라면 누구나 가입 가능하다. OK저축은행 모바일 앱을 통해 24시간 비대면으로도 가입할 수 있다. 이밖에 페퍼저축은행은 최고 연 3.5% 금리가 작용되는 '페퍼스 파킹통장2'를 판매중이다. 최고 금리를 받기 위해 맞춰야 하는 복잡한 우대 금리 조건도 없다.5000만원이 넘는 자금을 예치한다면 SBI저축은행의 상품을 주목해볼 만하다. SBI저축은행의 '사이다입출금통장'은 우대 조건 없이 1억원까지 최고 3.2%의 금리를 제공한다. 인터넷은행들도 경쟁적으로 파킹통장 금리 인상에 나서고 있다.앞서 토스뱅크는 지난달부터 파킹통장인 '토스뱅크 통장'에 5000만원 초과 금액에 대해선 연 4% 금리를 적용하고 있다. 기존 연 2.3%보다 1.7%p 올렸다. 해당 통장에 1억원을 예치할 경우 5000만원까지는 연 2.3% 금리가, 나머지 5000만원에는 연 4% 금리가 적용되면서 실제 적용 금리는 연 3.15%가 된다. 연간 약 74만원(세후)의 이자 수익을 추가로 받을 수 있게 된 것.케이뱅크도 지난달부터 파킹통장 '플러스박스'의 금리를 연 2.7%에서 연 3%로 인상했다.한편 파킹통장도 기존 예적금과 마찬가지로 예금자보호법에 따라 최고 5000만원까지 보호된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2023.01.02.</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>토스 일주일 평균 9.6번 찾을 때 카카오페이 3.2번 찾는다</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002085402?sid=101</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>오픈서베이 15~59세 1000명 대상 설문조사[헤럴드경제=홍승희 기자] 모바일 금융 애플리케이션(앱) 중 토스를 주 평균 9.6회 사용하는 반면 카카오페이는 약 3.2회 이용하고 있다는 집계가 나왔다.소비자 데이터 플랫폼 오픈서베이는 최근 금융 트렌드리포트를 통해 이같은 조사 결과를 발표했다. 오픈서베이는 국내 15∼59세 1000명을 대상으로 설문 조사를 진행했다.오픈서베이 금융 트렌드 리포트의 일부.[오픈서베이 갈무리]이 리포트에 따르면 토스 이용자들의 일주일 평균 이용 빈도수는 카카오페이보다 약 3배 많았다. 카카오페이의 경우 연령이 낮을수록 이용 빈도가 높았다.토스 이용자들은 하루에 1∼2회 앱을 이용한다는 비율이 30.2%로 가장 높았다. 하루에 3회 이상 쓴다는 비율도 25.9%였다. 카카오페이 이용자 중에서는 한 달에 1∼3회 이용한다는 경우가 31.1%로 가장 많았다. 일주일에 1∼3회(28.1%)가 뒤를 이었고, '하루에 3번 이상' 이용한다는 응답은 2.8%에 그쳤다.토스 이용자는 포인트·송금·계좌 서비스를, 카카오페이 사용자는 간편결제·송금 서비스를 주로 이용했다.토스와 카카오페이 모두 이용 만족도는 높았으나, 토스의 만족도가 78.8%로 카카오페이(68.2%)보다 높았다.한편 이용 빈도가 아닌 이용률로 따졌을 때 금융 서비스는 은해앱, 카카오페이, 네이버페이, 카드사 앱·토스 등의 순으로 높은 이용률을 보였다. 카카오페이는 20~34세에서, 토스는 더 젊은 층인 15~24세에서의 이용률이 상대적으로 높은 편이었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2023.01.11.</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>"카드포인트를 현금으로" 짠테크 열풍</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005073394?sid=101</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>상품권 되파는 '상테크'도 관심최근 재테크 커뮤니티에서는 여신금융협회 홈페이지에서 확인할 수 있는 '카드 포인트 통합 조회·계좌 입금 서비스'가 인기다. 고물가로 한 푼이 아까운 시대에 존재도 모르던 카드 포인트가 복권처럼 다가오기 때문이다. 최근 해당 서비스가 인기를 끌면서 평일에도 접속하기 위해 10여 분을 기다려야 될 때도 있다.이 서비스는 개인회원뿐만 아니라 비회원으로도 로그인이 가능하다. 본인 확인 인증 절차 후 '카드 포인트 통합 조회·계좌 입금 서비스' 이용을 위한 위임 동의를 거치면 개인이 지금까지 신용카드를 쓰면서 적립한 카드 포인트를 한눈에 조회할 수 있다. 카드사별로 잔여 포인트와 소멸 예정 포인트, 소멸 예정 월까지 표시된다. 여기서 현금화 가능 포인트를 조회하면 간편하게 클릭 몇 번으로 계좌 입금 신청을 할 수 있다.최근엔 '상테크'도 입소문을 타고 있다. 상테크는 상품권을 카드로 구매해서 카드 실적만 채우고 되파는 방법이다. 상품권을 전월 실적으로 인정해 2%를 환급해주는 신한 하이포인트 카드 등이 상테크 카드로 인기를 끈다. 무조건 환급이 좋은 카드를 고집할 필요는 없다. 신규 출시 카드는 환급률이 높은 이벤트를 하는 경우가 많다. 금융 애플리케이션(앱)을 활용한 앱테크도 있다. 만보기를 통해 하루 최대 140원을 적립해주는 토스의 만보기 등이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2023.01.15.</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>'13월의 월급' 연말정산 간소화 서비스 시작</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/655/0000007274?sid=102</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>연말정산 간소화 서비스가 오늘(15일)부터 개통돼 근로자들은 홈택스 홈페이지에서 간소화 자료를 확인해 내려받을 수 있습니다. 올해는 간소화 서비스 간편 인증(민간 인증서)이 지난해보다 확대됐는데, 기존 인증 7종(카카오톡, 통신사 PASS, 삼성패스, 국민은행, 페이코, 네이버, 신한은행)에 토스, 하나은행, 농협, 뱅크 샐러드 등 4종이 추가되면서 이용자는 총 11종의 간편 인증을 활용할 수 있게 됐습니다. 또 신용카드 사용액과 대중교통 지출액에 대한 공제가 확대됩니다. 개정 세법에 따르면 지난해 신용카드 사용액, 전통시장 사용액이 그 전해인 2021년보다 5% 넘게 증가한 경우 100만 원 한도에서 추가 소득 공제를 받을 수 있고, 대중교통 이용금액 소득공제는 지난해 7~12월 이용분에 한 해 공제율이 40%에서 80%로 올라갑니다. 무주택 세대주인 근로자가 주택 임차를 위해 빌린 자금의 공제 한도도 300만 원에서 400만 원으로 확대됐으며, 총 급여 7천만 원 이하 무주택 근로자가 내는 월세에 대한 세액공제율은 10∼12%에서 15∼17%로 올라갔습니다. 이와 함께 난임 시술비는 20%에서 30%로, 미숙아·선천성 이상아를 위해 지출한 의료비는 15%에서 20%로 각각 세액공제율이 올랐습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2023.01.03.</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>토스, 간편결제 수수료 인하…소상공인 부담 반으로</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005069417?sid=101</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>비바리퍼블리카(토스)가 간편결제 서비스 ‘토스페이’ 결제 수수료를 인하한다. 연 매출 3억원 이하 영세 가맹점은 절반 가까이 낮아진다.3일 토스는 연 매출 3억원 이하 영세 가맹점의 토스페이 수수료를 1.60%로 낮춘다고 밝혔다. 그간 토스페이 수수료는 매출 규모 불문 3%였다. 간편결제에 연계된 카드사나 은행에 토스가 지급하는 수수료, 결제대행사(PG사) 수수료 등을 합한 수치다. 새 수수료 정책은 오는 2월 1일부터 적용된다. 연 매출 3~30억원 이내의 중소 가맹점도 매출 규모에 따라 1.90~2.40%로 인하된다.토스는 ”정책금리 인상, 코로나19로 영세, 중소 사업자들의 경영 환경이 녹록지 않은 상황을 감안해 사업자들의 수수료 부담을 최소화하고 영업을 지원하고자 한다“고 밝혔다. 앞서 토스는 지난해 8월부터 일부 영세 가맹점을 대상으로 토스페이 계좌 결제 수수료를 인하해왔다.올해부터 토스, 네이버파이낸셜, 쿠팡페이 등 온라인 간편결제 서비스를 제공하는 전자금융업자는 결제 수수료율을 홈페이지에 반기마다 공시해야 한다. 금융감독원 ‘전자금융업자 수수료 구분관리 및 공시 등을 위한 가이드라인’에 따른 것이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2023.01.06.</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>[포착] 4개월 만에 초토화…위성으로 본 격전지 바흐무트의 전과 후</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003330551?sid=104</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>[서울신문 나우뉴스]지난해 8월 1일과 지난 4일 위성으로 촬영된 바흐무트의 전경. 사진=막사 테크놀로지우크라이나 동부 돈바스 지역의 최대 격전지인 도네츠크주 바흐무트의 과거와 현재 모습이 위성 사진으로 공개됐다. 지난 5일(현지시간) AFP 통신 등 외신은 글로벌 위성기업 막사 테크놀로지가 촬영한 바흐무트의 위성 모습을 과거 사진과 비교해 보도했다.최근 러시아와 우크라이나의 최대 격전지가 된 바흐무트는 지난해 8월 1일 촬영된 위성 사진을 보면 큰 피해가 눈에 띄지 않는다. 위성 사진을 보면 주민들이 거주하는 아파트 단지와 각 빌딩 등 구조물들이 멀쩡히 자리잡고 있는 것이 확인된다.지난해 8월 1일(위)과 지난 4일(아래) 위성으로 촬영된 바흐무트의 전경. 사진=막사 테크놀로지그러나 불과 4개월 후 이곳은 지옥같은 전쟁터가 됐다. 지난 4일 촬영된 위성 사진을 보면 성한 건물을 찾기 힘들만큼 도시는 완전히 파괴됐으며 심지어 아직도 폭격으로 인한 연기가 피어오른다. 멀리서 촬영한 위성 사진 만으로도 전쟁 전 신도시였던 바흐무트의 인적, 물적 피해가 쉽게 예측되는 것.특히 새해 첫날인 지난 1일에는 러시아군이 TOS-1A(토스원알파)를 사용해 열압력탄, 일명 진공폭탄을 퍼부은 정황이 포착되기도 했다.지난 1일 러시아군이 도네츠크주 바흐무트에서 TOS-1A(토스원알파)를 사용해 열압력탄, 일명 진공폭탄을 퍼부은 정황이 포착됐다.‘악마의 무기’라 불리는 열압력탄은 주변 산소를 빨아들이면서 열과 충격파를 만들어내는데 초고온 폭발이 사람의 내부 장기까지 손상시키기는 탓에 비윤리적 대량살상무기로 간주된다.보도에 따르면 러시아는 민간군사기업(PMC) 바그너그룹 용병까지 투입해 수개월째 바흐무트 공략에 모든 전력을 쏟아붓고 있다. 이에대해 우크라이나 측은 "전략적 중요성이 없는 지역에 러시아군이 전력을 쏟아붓고 있다"면서 "이 과정에서 수천 명의 병력을 잃었을 것"이라고 주장했다.그래픽 이해영 기자그러나 러시아 측 입장은 다르다. 바흐무트가 도네츠크 주요 도시로 향하는 길목에 있어 전략적 요충지라는 것. 특히 일각에서는 러시아가 지난해 후반 동북부 하르키우주와 남부 헤르손주에서 대패한 것을 만회하기 위해 바흐무트 공략에 집중하고 있다는 주장도 있다. 곧 지난해 9월 하르키우에 이어 11월 헤르손을 우크라이나에 내준 러시아가 전략적 가치와 무관한 자존심 싸움이라는 해석이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2023.01.08.</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>‘좋은 보모찾기 플랫폼’ 투자 의사 밝힌 이승건 토스 대표</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005402221?sid=105</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>페이스북 통해 펀딩 및 고객사될 것 의지 밝혀'한국에서 믿고 맡길 보모 찾기 정말 어려운 일''훌륭한 보모 없이는 회사 일 집중 어려워'창업자들에게 관심 부탁..페메로 연락 달라[이데일리 김현아 기자]이승건 비바리퍼블리카 대표. 사진=토스 제공이승건 비바리퍼블리카 대표 페이스북금융 앱 토스를 운영하는 비바리퍼블리카의 이승건 대표가 좋은 보모를 찾을 수 있는 플랫폼에 투자하고 싶다는 의견을 밝혀 관심이다.이 대표는 최근 페이스북에 ‘좋은 보모를 구할 수 있는 플랫폼을 만드는 아이디어를 실행하실 창업자를 찾는다. 필요한 만큼의 초기 투자를 하겠다. 그리고 토스 커뮤니티가 첫 기업 고객사가 되어 드리겠다’고 적어, 직원 복지 차원에서 직원들의 육아 고민을 해결하기 위해 ‘좋은 보모 찾기’가 절실함을 에둘러 표현했다.그는 ‘한국에서 정말 믿고 맡길 수 있는 보모(nanny)를 찾는 건 정말 어려운일’이라면서 ‘보통 보모를 찾을 때 100명씩 인터뷰 보시는 부모님들도 많다. 근데 훌륭한 보모 없이는 회사 일에 집중할 수 없고, 그로인해 정말 많은 직장인들이 고통받고 있다’고 부연했다.그러면서 ‘믿을 수 있는 보모를 바로 찾을 수 있는 플랫폼을 구축하신다면 첫 고객으로 토스 커뮤니티가 되겠다’며 ‘펀딩, 첫 고객도 안전 기지로 돼 있다.관심 있으신 창업자의 많은 관심을 부탁드린다. 진지하게 실행하실 창업가는 제게 페메(페이스북 메신저)를 달라’고 적었다. 비바리퍼블리카는 2015년 2월, 국내 최초로 간편송금 토스를 시작한 뒤 은행(토스뱅크), 증권(토스증권)을 성공적으로 론칭한 데 이어 알뜰폰(MVNO) 업체 머천드코리아를 인수해 토스를 금융과 통신을 아우르는 생활편의 수퍼앱으로 키우고 있다. 계열사로는 토스뱅크, 토스증권, 토스씨엑스, 토스인슈어런스, 비바리퍼블리카 베트남법인, 브이씨엔씨 등이 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2023.01.11.</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>토스폰 쓰나미?…알뜰폰 업계 "금융권의 알뜰폰 진출 결사 반대"</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011637927?sid=101</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>기사내용 요약한국알뜰통신사업자협회 "알뜰폰 금융기관 부수업무 지정 반대""거대 금융사가 자본력으로 불공정 경쟁 주도…대항 수단 없어""공정경쟁 위한 제도 보완 없이 금융기관 알뜰폰 시장 진입 안돼"[서울=뉴시스]윤현성 기자 = KB리브엠(리브모바일)에 이어 토스 등 금융권의 알뜰폰 시장 진출이 가시화되고 있는 가운데 알뜰폰 업계가 또 한번 거센 반발에 나섰다. 알뜰폰 사업을 금융기관 부수업무로 지정한 규제 특례를 철회해야 한다는 주장이다.한국알뜰통신사업자협회는 금융위원회의 금산분리 제도개선을 앞두고 규제 완화라는 이름으로 알뜰폰을 금융기관의 부수업무로 지정하려는 움직임에 결사 반대한다고 11일 밝혔다. 특히 협회는 금융기관들이 거대 자본력을 경쟁의 수단으로 활용해 기존 업체의 가입자를 빼가는 불공정한 행위를 막을 수 있는 제도적 장치 마련이 선행돼야 한다고 강조했다.지난 2019년 12월 규제 샌드박스를 통해 KB국민은행이 처음으로 금융권의 알뜰폰 서비스 KB리브엠을 출범한 이후 올해에는 '토스'를 운영하는 핀테크 업체 비바리퍼블리카가 '토스모바일'을 선보일 것으로 전망되고 있다. 이같은 금융권의 알뜰폰 자회사는 시장에서 확실한 입지를 다져가고 있다. 시장조사업체 컨슈머인사이트가 지난해 하반기 실시한 이통사별 만족도 조사 결과에 따르면 KB리브엠은 통신 3사와 기존 알뜰폰 사업자를 모두 제치고 압도적인 1위를 기록하기도 했다. 이같은 금융권의 알뜰폰 사업 진출을 두고 협회는 현재의 알뜰폰 관련 제도에는 거대 금융기업이 막강한 자본력을 바탕으로 도매대가 이하의 파격적인 요금제를 출시하고, 과도한 경품과 사은품을 지급하면서 다른 알뜰폰 사업자들의 가입자를 유인해도 막을 수 있는 방법이 없다고 꼬집었다.협회는 "지난 13년간 힘겹게 알뜰폰 시장을 일궈온 기존 사업자들은 속수무책으로 당하기만 할 뿐 대항할 방법이 없는 게 현실"이라고 토로하기도 했다.금융위가 알뜰폰 사업을 금융의 부수업무로 지정하게 되면 막대한 자본력을 갖춘 은행들이 알뜰폰 시장에 대거 진출해 도매대가 이하의 출혈 요금제와 사은품 등 불공정 마케팅 경쟁을 주도할 것이라는 게 협회의 주장이다.이로 인해 알뜰폰 사업에서 발생한 수익 만으로 회사를 유지하는 대다수 중소 사업자들은 거대 금융기관들의 문어발식 사업 확장으로 인한 희생양이 될 수밖에 없다는 것이다.협회는 전기통신사업법 제38조의 개정 및 알뜰폰 사업자의 장기적인 투자와 알뜰폰 시장의 존립 자체를 어렵게 하는 도매제공의무 일몰 규정 폐지와 함께 금융기관들이 자본력을 경쟁의 수단으로 활용해 가입자를 빼가는 불공정한 행위를 막을 수 있는 제도적 장치를 마련해 달라고 촉구했다.협회는 "금융산업 규제 완화라는 이름으로 모든 은행들이 알뜰폰사업을 영위할 수 있도록 금산분리규제를 완화하려는 금융위에 금융기관의 입장만을 대변하는 조직인지, 금융을 통한 국가경제 발전을 위해 노력하는 조직인지 되묻지 않을 수 없다"며 "사업자간 공정경쟁을 위한 제도 보완이 이뤄지지 않은 현 상태에서 금융기관들의 알뜰폰 시장 진입을 불허해야 한다"고 거듭 강조했다.한편 국내 알뜰폰업계와 통신업계는 금융권의 통신시장 진출에 대해 꾸준히 반대 의견을 밝혀왔다. 지난달에는 전국이동통신유통협회(KMDA)가 공식 성명을 내고 알뜰폰 사업의 은행 부수업무 지정을 반대한 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2023.01.09.</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>MZ세대 60%, 은행 안 가고 금융생활 모두 비대면 해결 [마이머니]</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003772095?sid=101</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>우리금융硏 ‘플랫폼 이용행태’ 분석금융채널 중 모바일 뱅킹 이용자 99.8%97.6%는 핀테크 앱 동시 사용 ‘멀티 유저’98% 모바일 간편결제 써… 핀테크 앱 많아금융상품은 예·적금, 청약저축 85% 최다적금회차 따라 혜택 주는 예·적금 인기“MZ세대 겨냥 부가서비스·이벤트 필요”   MZ(밀레니얼+Z)세대 10명 중 6명은 최근 3개월간 은행 영업점을 한 번도 방문하지 않은 것으로 나타났다. 반면 같은 기간 모바일 뱅킹을 사용했다는 응답은 100%에 가까웠다. 1981∼2010년 사이에 태어나 디지털 생태계에 익숙한 MZ세대의 금융 생활에 비대면이 대세로 자리 잡은 셈이다.  8일 우리금융그룹 우리금융연구소의 ‘MZ세대의 금융 플랫폼 이용행태 분석 보고서’에 따르면 응답자의 86.8%는 평소 금융 거래 시 비대면 채널을 이용하는 것으로 조사됐다. 연구소는 소비자조사 전문기관인 컨슈머인사이트에 의뢰해 지난해 10월27일부터 11월7일까지 모바일 금융 플랫폼을 이용하는 만 19∼41세 성인 2000명을 대상으로 설문조사를 진행했다.     조사 결과 MZ세대가 최근 3개월 동안 사용해본 금융 채널 중에서는 모바일 뱅킹 비중이 99.8%로 가장 높았다. 이어 현금자동입출금기(ATM·68.2%), 인터넷 뱅킹(50.2%) 순이었다. 3개월 안에 지점을 이용한 비중은 42.4%에 불과했다. 금융위원회 조사에서 고령층 75.1%가 은행 지점을 이용하고, 비대면 채널 이용 비중은 24.9%에 그친 것과는 대조적이다.    또 응답자의 97.6%는 시중은행 애플리케이션(앱) 외에도 인터넷전문은행이나 핀테크 앱을 동시에 사용하는 ‘멀티 유저’였다. 은행 유형별 사용 앱은 시중은행 95.5%, 인터넷전문은행 75.7%, 기타은행 10.5%, 지방은행 6.2% 순으로 조사됐다.  주 이용 앱으로는 시중은행(65.7%)을 가장 많이 활용하고 있었고, 인터넷 전문은행의 시장 침투율도 31.2%였다. MZ세대를 나눠보면 M세대(27∼41세)의 약 70%는 시중은행 앱을 주로 이용하고 있다고 답했지만, Z세대(19∼26세)는 시중은행(50.0%)과 인터넷전문은행(47.2%)을 절반 정도씩 사용해 세대별 차이가 드러났다.  MZ세대 98.2%는 네이버·카카오·삼성페이 등 모바일 간편결제를 이용하고 있다고 답했다. 모바일 간편결제 시에는 카드사(39.8%)보다 핀테크 앱(58.4%)을 주로 사용한다는 응답의 비중이 높아 모바일 결제시장에서 핀테크의 높은 점유율이 확인됐다. 반면 베이비부머 중 인터넷전문은행·핀테크(모바일 간편결제 포함)를 정기적으로 이용한다는 응답률은 평균 11.0%에 불과했다.      MZ세대가 경험해 본 금융상품은 예·적금과 청약저축이 84.6%로 가장 많았다. 이어 △주식(직접투자) 63.5% △보험(연금 포함) 44.3% △가상자산 30.8% △펀드(간접투자) 28.4% 순이었다. 연구소는 “주요 은행이 MZ세대를 공략하기 위해 다양한 이색 상품을 출시한 것이 예·적금에 대한 이들의 관심을 높인 것으로 보인다”고 했다. 그러면서 적금 회차에 따라 캐릭터가 변화하거나 추가되는 상품(우리은행 200일 적금, 카카오뱅크 26주 적금, 토스뱅크 키워봐요 적금), 미니게임(신한 메타버스 시나몬) 등에 따라 우대금리가 적용되는 적금 등을 예로 들었다.  기본 금융상품인 예·적금과 보험을 제외한 투자상품 중에서는 주식, 가상자산 등 전문가를 거치지 않고 직접 투자하는 방식에 MZ세대의 선호도가 높았다. 컨슈머인사이트에 따르면 50대는 34.1%, 60대는 31.9%가 펀드 투자 경험이 있었지만 20대는 그 절반인 15.0%에 불과했다. 반면 전 세대별 가상자산 투자 조사에서 베이비부머는 10.6%만 가상자산 투자 경험이 있었지만, MZ세대는 30%가 넘어 적극적인 모습을 보였다.    MZ세대도 베이비부머나 X세대와 동일하게 일반적인 금융소비자로서 앱 사용과 선택에서 수익성·보안성·편리성 등을 중요시하기도 했다. MZ세대가 금융 앱 선택 시 가장 중요하게 생각하는 요소는 △수수료 조건(46.8%) △금리·포인트(금전적) 혜택(45.5%) △앱 보안성·안정성(23.0%) △간편한 절차(14.3%) 순이었는데, 이는 X세대나 베이비붐 세대와 유사한 것으로 나타났다.  또 MZ세대도 기성세대와 동일하게 계좌 조회, 이체·송금, 예·적금 가입 등 은행의 가장 기본적인 핵심 기능 중심으로 앱을 활용하는 것으로 조사됐다. 평소 은행 앱에서 자동이체(95.1%)와 조회·송금(97.8%)을 이용한 비율이 100%에 육박했으며, 예·적금 가입 경험도 90.3%로 높은 수준을 보였다.  MZ세대에게 혁신적인 신기술을 바로 사용하기 좋아하는 ‘얼리 어답터’ 이미지가 있는 것과 달리 ‘새로운 서비스가 출시되면 바로 이용한다’고 응답한 비중은 24.9%에 그쳤다. 이는 베이비부머(23.9%), X세대(24.0%)와 유사한 수준이다.  연구소는 “MZ세대는 ‘모티즌’(모바일과 네티즌의 합성어)답게 경제 활동 대부분을 디지털 플랫폼 내에서 영위하고 있기 때문에 향후 금융시장은 MZ 고객을 잘 이해하고 이들에게 우수한 평가를 받는 플랫폼이 주도할 전망”이라고 분석했다. 이어 “플랫폼 경쟁력 강화를 위해서는 우선적으로 금융 본연의 가치에 가장 잘 부합하는 앱 개발에 주력하고, MZ세대의 흥미와 재미를 이끌어낼 수 있는 다양한 게임형 부가서비스와 이벤트를 제공할 필요가 있다”고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2023.01.02.</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>권성동 “8년 전 국감 비키니 그분? 1~2초 봤는데…”</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005398061?sid=100</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>SNL코리아 '주 기자 간다' 코너 출연[이데일리 송혜수 기자] 국민의힘 전당대회에서 출마 선언을 앞둔 권성동 의원이 8년 전 국회 국정감사장에서 플레이보이 모델 티파니 토스를 검색하던 장면이 카메라에 포착된 데 대해 다시 입을 열었다.국민의힘 전당대회에서 출마 선언을 앞둔 권성동 의원이 지난 31일 쿠팡플레이 ‘SNL코리아 주 기자 간다’ 코너에 출연했다. (사진=SNL)2일 정치권 등에 따르면 권 의원은 지난 31일 쿠팡플레이 ‘SNL코리아 주 기자 간다’ 코너에 출연했다. 해당 코너는 유명인을 초청해 날 것 그대로의 질문을 던져 상대를 곤혹스럽게 만드는 것으로 큰 호응은 얻은 시사 풍자 코미디 프로그램이다. 이날 방송에서는 배우 주현영과 김아영이 각각 기자와 인턴기자로 나서 권 의원에게 질문을 이어갔다. 먼저 김아영은 8년 전 권 의원이 국회 국정감사장에서 휴대전화로 비키니를 입은 플레이보이 모델 티파니 토스 사진을 보다가 언론 카메라에 포착된 점을 소환했다. 이에 주현영은 “아 티파니 토스 그녀의 어떤 점이 가장 끌리셨나”라고 질문했다.권 의원은 난처한 듯 웃으며 “그게 아니고 기사 검색하다가 우연히 그 화면이 나왔다”라며 “1~2초 봤는데 그때 탁 찍힌 거다. 그 여성이 어떤 여성인지 전혀 기억나지 않는다”라고 해명했다. 권 의원은 ‘좋아하는 여성상’에 대해선 “제가 눈이 작아 눈 큰 여성을 좋아한다”라고 답했다.김아영은 또 2022년 8월 을지훈련 기간 중 천안에서 열렸던 국민의힘 연찬회 당시 술자리 논란을 언급하기도 했다. 그는 “술 반입이 금지됐던 연찬회 후 기자들과 가지신 술자리 영상인데 굉장히 ‘핵인싸’이신 것 같다”라고 물었고, 권 의원은 “해명을 좀 하자면 공식 연찬회가 다 끝난 후 뒤풀이였다”라며 “연찬회는 술 반입이 금지됐지만 뒤풀이는 (달랐다)”라고 해명했다.(사진=SNL)권 의원은 ‘윤핵관’(윤석열 대통령 핵심 관계자)이라는 별명에 대해선 “듣기 거북하다”는 입장을 전했다. 권 의원은 “윤핵관이라는 별명을 만든 분(이준석 전 대표)은 조금 비아냥거리기 위해 만들었기 때문에 남들이 우릴 공격할 때 윤핵관이라는 표현을 쓰는 거 자체가 듣기 조금 거북하다”라고 말했다. 이어 “왜냐하면 저는 권성동 국회의원이고 정치인 권성동이기 때문”이라고도 덧붙였다.주현영은 “그렇다면 윤핵관 4인방으로는 권성동, 장제원, 이철규, 윤한홍 의원 중 누가 일짱이라고 생각하느냐”라고 다시 물었다. 권 의원은 “제가 일짱이라고 생각한다. 왜냐하면 저는 4선이고 장제원 의원이 3선, 나머지 의원이 재선이다”라며 “국회의원은 선수가 중요하니까 그러니까 제가 일짱”이라고 했다. 이에 주현영이 “완전 대장이시네요”라고 맞장구를 치자 권 의원은 “그 의미는 윤석열 정부와 운명을 같이 하겠다는 것”이라고 강조했다.권 의원은 윤 대통령의 연말 선물에 국산이 아닌 수입 농산물이 포함됐다는 논란에 대해선 말을 아끼는 모습도 보였다. 주현영이 “우리 농산물과 수입 농산물 중 더 받고 싶은 선물은 무엇이냐”고 묻자 권 의원은 “당연히 우리 농산물”이라고 했다. 수입 농산물을 연말 선물로 보내신 그분(윤 대통령)께 영상 편지 부탁드린다는 요구에 권 의원은 “수입 농산물을 선물로 보내신 분이 누구냐. 저는 그에 대한 정보가 전혀 없다”라고 답변을 피했다.(사진=권 의원 페이스북)아울러 당 대표 출마 당 대표 출마 여부에 대해서는 “지금 한 98%는 출마 쪽에 마음이 기울고 있는데 2%를 채워주면 선언하려고 한다”고 밝혔다. 2023년 보고 싶은 엔딩을 고르라는 질문(내가 당 대표가 되는 엔딩 vs 이재명 각본, 연출, 주연의 범죄 스릴러 엔딩)에는 “당 대표에 만약 출마하게 된다면 당 대표가 돼서 국민들에 희망을 드리고 싶어서 전자를 선택하겠다”라고 답했다.방송 이후 권 의원은 자신의 페이스북을 통해 출연 소감을 전했다. 그는 “다른 분들처럼 저 역시 주현영 기자와 김아영 인턴기자의 날카로운 질문에 많이 당황했다”라며 “이에 방어하기 어렵다고 판단하고, 가감 없이 있는 그대로 내려놓았다”라고 말했다.이어 “몇몇 장면에서는 보좌진이 팔로 ‘X자’를 만들며 만류했으나, 최대한 요구에 부응하고자 노력했다”라며 “해당 코너 최고 스타인 홍준표 선배만큼 재밌을 수는 없겠지만, 솔직한 제 모습이니 편하게 봐주셨으면 좋겠다”라고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2023.01.04.</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>멋쟁이사자처럼, DDC 2023 개최…“개발자·디자이너 성장 이끈다”</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005069986?sid=105</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>이달 18일부터 양일간 코엑스서 열려현백·무신사·뱅샐 등 전문가 세션멋쟁이사자처럼의 교육 브랜드 ‘테킷(TECHIT)’과 테크 디자인 커뮤니티 ‘디자인 스펙트럼’이 이달 28일부터 이틀간 코엑스에서 ‘DDC(Development Design &amp; Conference) 2023’을 개최한다고 4일 밝혔다.DDC 2023은 도전을 앞두거나 방향성을 고민하는 현직 개발자와 디자이너들에게 영감을 주기 위한 취지의 컨퍼런스다. 2018년 디자인 위주의 ‘스펙트럼콘’으로 시작했다. 개발 부문을 추가해 DDC라는 명칭으로는 올해 처음 개최된다.28일 ‘데브 데이(DEV DAY)’에는 김난 뱅크샐러드 프론트엔드 개발자를 비롯해 이원지 무신사 데이터 프로덕트 리더, 이호준 제주코딩베이스캠프 CEO, 유동균 강남언니 데이터베이스 엔지니어, 유희열 애자일 코치 등이 세션을 갖는다.29일 ‘디자인 데이(DESIGN DAY)’에는 송호성(무신사), 김리연(롱블랙), 홍성준(뱅크샐러드) 디자이너가 세션을 진행한다. 노민성(뤼이드), 김지윤·최민수(토스) 등의 연사들도 강연한다.행사를 총괄하는 김지홍 멋쟁이사자처럼 디자인 헤드는 “디자인과 개발 영역을 아울러 균형 있게 다루는 컨퍼런스 자체가 흔치 않은 상황”이라며 “이번 컨퍼런스를 통해 밤낮 없이 최선을 다하는 개발자와 디자이너, 학생들에게 성장을 위한 유의미한 시간이 되리라 확신한다”고 전했다.한편 행사 참가는 이달 16일까지 테킷 홈페이지를 통해 신청 가능하다. 신청자 중 추첨을 통해 데브 데이와 디자인 데이 각각 1000명에게 티켓 구매 링크가 제공된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2023.01.12.</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>인터넷전문은행 1위 자부심, 윤호영 주가로 보여주나</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002279419?sid=105</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>[2023 금융업 전망] ⑩카카오뱅크세 개의 인터넷전문은행 중 가장 빨리 흑자 전환에 성공하면서 당기순이익을 조금씩 늘려나가고 있는 카카오뱅크가 새해엔 경쟁 은행들과 '초격차'를 벌릴 수 있을지 업계 관심이 쏠린다.지난해 3분기 카카오뱅크는 2017년 설립 이후 가장 많은 영업이익을 내면서, 모바일 채널을 통한 리테일(소매금융)의 강한 면모를 드러내기도 했다. 3분기 카카오뱅크의 영업이익은 1천46억원으로 전 분기 대비 40.6% 증가했다.그렇지만 인터넷전문은행 1위라는 타이틀은 주주들에게 큰 어필을 하고 있지 못한 모양새다. 한 때 9만2천원까지 올랐던 카카오뱅크 주가는 2만7천800원(11일 종가)까지 하락했다. 퍼센트로 환산하면 무려 697.8%가 하락했다. 그대로 카카오뱅크 주식을 들도 있는 주주 입장에선 기가 찰 노릇이다.카카오뱅크 윤호영 대표.이 때문에 카카오뱅크 내부 잡음도 컸었다. 우리 사주 조합들이 카카오뱅크의 미래를 향해 걸었는데 주가가 떨어지니 미래보다는 빚만 남은 격이 됐기 때문이다. 윤호영 대표는 주가 부양에 크게 드라이브를 걸었지만 보여지는 주가는 그렇지 못하다.카카오뱅크의 주가는 추후 기업공개상장(IPO)을 위한 케이뱅크와 토스뱅크에 영향을 준다. 가장 먼저 성장했고 상장했기에 카카오뱅크의 기업 가치는 인터넷전문은행 업황을 보여주는 바로미터가 되고 있어서다.윤호영 대표는 카카오뱅크 설립부터 현재까지 6년 째 이끌고 있다. 시중은행장으로 치면 2연임한 셈이다. 6년 간 카카오뱅크는 수익을 꾸준히 끌어올렸지만 주가 부양을 위한 분위기 전환은 하지 못했다. 6년 째 카카오뱅크를 이끌어 온 윤호영 대표가 주주의 맘을 돌릴 어떤 카드를 내놓을지, 분위기 쇄신을 위한 강력한 '한 방'을 꺼낼지 귀추가 주목된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2023.01.04.</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>SK스토아, 설 선물 고객 겨냥 '설프라이즈' 연다</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006557071?sid=101</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>22일까지 온라인몰·모바일 앱서 행사 개최각종 설 선물 관련 상품 1200종 모아 판매SK스토아 설프라이즈 행사 포스터(SK스토아 제공).(서울=뉴스1) 배지윤 기자 = SK스토아는 다가오는 설을 맞아 '설프라이즈' 행사를 진행한다고 4일 밝혔다.이달 22일까지 진행하는 이번 행사는 SK스토아 온라인몰과 모바일 앱을 중심으로 마련됐다. 최대 명절인 설을 앞두고 선물을 구매하려는 고객들을 겨냥해 할인·적립금·참여 이벤트 등 다양한 혜택을 제공한다.먼저 '설맞이 세일' 기획전을 준비해 약 1200종의 설 선물 관련 상품을 최대 40% 할인가에 판매하고 행사 상품 구매 고객에게 최대 10만원의 적립금을 지급한다. 과일과 건강기능식품을 비롯한 먹거리 선물세트부터 뷰티·생활용품, 가전제품 등 다양한 상품을 선보인다.대표 상품으로 △정관장 홍삼진고 데일리스틱(10g*20포*4박스) △설화수 자음 2종 기획세트(자음수 125㎖+자음유액 125㎖) △삼성 비스포크 4도어 프리스탠딩 냉장고(RF85B9111APWR, 875ℓ) 등이 있다.산지직송 전문 브랜드 '더싱싱'과 손잡고 사과·배·황금향 등 각종 과일 선물세트를 비롯해 한우·제주 흑돼지·완도 활 전복·영광 보리굴비 등 신선 선물세트 상품을 다채롭게 판매한다.대표 상품으로는 ㎖햇 나주배 선물세트(5㎏, 8~10과) △양념 LA갈비 세트(미국산·캐나다산, 1㎏) △완도 활 전복 선물세트(1㎏, 중 15~16미) 등을 선보인다.아울러 행사 상품 중 '베스트 선물'과 '프리미엄 선물'로 지정된 상품을 구매하는 고객에게는 최대 10만원의 적립금을 지급하고 토스페이로 결제하는 고객에게는 최대 7%의 즉시할인 혜택도 제공한다.여기에 매일 오전 11시 '매일 당첨 룰렛 이벤트'도 연다. SK스토아 모바일 앱 행사 페이지에서 1일 1회 참여 가능하며 10~5000원의 적립금 중 당첨 금액을 매일 증정한다.이 밖에 이달 24일까지 식품·건강식품·가전·주방용품 등 행사 상품을 구매하는 고객에게 최대 20% 적립금을 지급하는 '다다익설' 기획전도 함께 진행한다.신양균 SK스토아 DT그룹장은 "설을 맞아 더 많은 고객에게 합리적인 혜택을 드리기 위해 이번 설프라이즈 행사를 마련했다"며 "기획전·적립금·참여 이벤트 등 다양한 혜택을 마련한 만큼 설 선물 구매를 앞둔 고객에게는 좋은 쇼핑 기회가 될 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2023.01.02.</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>토스뱅크, ISO 국제표준 인증…정보보호 체계 우수성 입증</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000037368?sid=101</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>ISO27001·ISO27701 동시 취득정보보호 관리 대외 신뢰도 ↑     [사진 토스뱅크]    토스뱅크는 정보보호와 개인정보보호 관리체계의 국제표준 인증인 ISO 2종을 모두 취득했다고 2일 밝혔다.     토스뱅크는 세계적 권위를 자랑하는 인증 기관인 영국 왕립 표준협회(BSI)에서 정보보호 관리체계의 국제표준인 ‘ISO27001’, 개인정보보호 관리체계 국제표준인 ‘ISO27701’를 동시 취득했다.    정보보호 관리체계(ISO 27001) 인증은 정보보호 정책, 관리 및 물리적 보안, 기술적 보안 등 정보보호 관리 영역 14개 분야와 114개 세부 항목에 대한 엄격한 심사과정을 모두 통과해야 한다. 또한 인증 후에도 지속적으로 유지 및 관리되고 있는지 평가 받는다.    개인정보보호 관리체계(ISO27701)는 회사가 개인정보보호를 위한 요구사항을 준수하고 있는지 개인정보 관련 31개의 항목을 준수하고 있는지 검증 받는다.    토스뱅크는 전자금융거래법, 신용정보법, 정보통신망법, 개인정보보호법 등의 법규를 준수하기 위해 정보보호 규정, 개인정보 내부관리계획 등 정보보호 관리체계를 체계적으로 수립해 이행 중이다. 특히 이번에는 글로벌 기준의 인증을 획득하면서, 정보보호 관리에 대한 대외 신뢰도가 향상될 것이라는 게 토스뱅크 측의 설명이다.    앞서 토스뱅크는 2022년 상반기에는 카드 부정 사용과 정보 유출 방지를 위한 산업 표준인 지불 카드 산업 정보 보안 표준(PCI-DSS) 인증을 국내 은행 최초로 획득한 바 있다.    토스뱅크 관계자는 “고객들이 보다 안전하게 토스뱅크를 이용하실 수 있도록 글로벌 수준의 개인정보보호 관리체계 인증을 취득하게 됐다”며 “외부 컨설팅 없이 자체적으로 획득한 이번 인증을 통해 토스뱅크의 정보보호 체계가 국제적으로도 우수한 수준임을 입증하게 됐다”고 설명했다.     이어 그는 “고객의 개인정보 보호를 최우선으로 하는 것을 국제적으로 인정받은 만큼 혁신과 편의성은 물론 신뢰할 수 있는 은행이 되도록 지속 노력하겠다”고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2023.01.03.</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>토스, 간편결제 수수료 인하…공시 의무 선제조치?</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002278452?sid=105</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>예고없이 소상공인 수수료율 인하...네이버·카카오 등 빅테크 행보 관심토스가 영세·중소가맹점을 대상으로 간편결제 수수료를 기존 대비 절반 수준으로 인하한다. 금융권 일각에선 토스가 간편결제 공시 의무를 앞두고 수수료율을 낮춘 게 아니겠냐는 목소리가 있다. 토스처럼 간편결제 수수료 서비스를 지원하는 네이버와 카카오의 행보에 귀추가 주목된다.3일 토스 측은 2월 1일부터 연 매출 3억원 이하 영세가맹점을 대상으로 3%였던 토스페이 결제 수수료를 1.6%로 내린다고 밝혔다. 연 매출 3억~30억원 이내 중소 가맹점은 매출 규모에 따라 1.9%~2.4%로 인하한다.금융권에선 토스의 소상공인 간편결제 수수료 인하가 수수료율 공시 의무를 앞둔 선제적 조치라고 분석하고 있다. 간편결제 거래 규모가 월평균 1천억원 이상인 회사들은 오는 3월까지 페이 서비스 수수료율을 의무적으로 공시해야 한다.(사진=토스)금융권 관계자는 “여신전문금융업법을 적용받지 않는 핀테크사들이 인프라 설치 비용 등을 이유로 가맹점들에게 간편결제 수수료를 비싸게 받아왔다”며 “반면 레거시 카드사들은 정치적 이슈가 있을 때 마다 정부로부터 수수료 인하 압박을 받은 게 사실”이라고 설명했다.그는 이어 “토스가 소상공인을 대상으로 간편결제 수수료를 인하한 건 공시 의무를 앞둔 선제적 조치로 해석된다”며 “향후 핀테크사가 간편결제 수수료를 공시할 떄 카드사 수수료와 직접 비교하게 되는데, 현재 수수료를 그대로 공시할 경우 여론의 질타를 면치 못할 것”이라고 말했다.핀테크사가 온오프라인 가맹점으로부터 받는 수수료는 결제 수수료 외에도 다양한 수수료가 포함된다. 여기서 결제수수료는 카드사 수수료와 결제대행(PG) 및 선불결제 수수료 등을, 기타수수료는 호스팅 수수료, 오픈마켓 입점 및 프로모션 수수료 등을 말한다.금융당국이 핀테크사들을 대상으로 간편결제 수수료율 공시를 요구하는 이유도 소상공인이 체감하는 간편결제 수수료 비용 부담이 커지고 있기 때문이다. 한국은행에 따르면, 간편결제 서비스 1일 평균 이용액은 2020년 4천9억원에서 2021년 5천590억원으로, 지난해 상반기에는 7천232억원을 기록하는 등 꾸준히 증가 추세를 나타내고 있다.금융감독원 전자금융팀장은 “빅테크 등은 수수료를 항목별로 구분관리 하지 않고 있는 데다, 가맹점과도 이를 통합해 계약을 체결하고 있어 소상공인 입장에서는 서비스 항목별 수수료율에 대한 정보가 없었다”고 말했다.한편 토스의 수수료 인하에 따른 네이버와 카카오의 행보도 귀추가 주목된다.지난해 1월말, 카카오페이는 영세사업자를 상대로 간편결제 수수료를 0.3%p 내렸다. 중소사업자는 0.1~0.2%p씩 수수료율을 인하했다.네이버파이낸셜의 경우, 영세사업자를 대상으로 네이버페이 수수료를 0.2%포인트(p), 규모에 따라 0.15~0.05%p 내렸다.네이버파이낸셜 관계자는 “지난해 초 카드를 비롯한 전체 결제 수단에 대한 수수료를 선제적으로 낮췄다”며 “정부가 영세·중소 가맹점 카드 수수료율을 인하한 취지에 공감한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2023.01.05.</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>토스뱅크, 270만 고객 9달간 이자 2000억 받아</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011628217?sid=101</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>기사내용 요약1인당 평균 7만4000원 수령[서울=뉴시스] 이정필 기자 = 토스뱅크는 '지금 이자 받기'를 통해 270만 명의 고객이 9개월간 2000억원의 이자를 받았다고 5일 밝혔다.사측에 따르면 지난해 말 기준 지금 이자 받기 서비스 이용 횟수는 1억1000만 회를 넘어섰다. 지난해 3월 서비스 출시 이후 9개월 만이다.이 기간 서비스를 이용한 고객 수는 총 270만 명이다. 국내 경제활동 인구(2900만 명) 기준 10명 중 1명꼴이다.지금 이자 받기 서비스는 20대(24.7%)와 30대(24.6%), 40대(24%) 순으로 많이 이용했다. 다음으로 50대(15.2%), 10대(6.1%), 60대(5.4%) 순이었다.고객들이 받은 이자는 총 2000억원 규모다. 고객 1인당 평균 이자 수령액은 7만4000원이다. 일복리 효과로 가장 많은 이자를 받은 고객은 총 170만원을 수령했다. 서비스 출시 이후 가장 이용 빈도가 높은 고객은 283일 가운데 273일을 투자했다. 상시 이용 고객들의 월 평균 이용횟수는 9회로 나타났다.1억원을 예치한 고객은 지금 이자 받기를 통해 연간 271만원(세후)의 이자를 받는다. 토스뱅크 통장은 연 2.3%(세전) 기본금리에, 5000만원 초과 금액에 대해서는 4% 금리를 제공하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2023.01.11.</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>올해 연말정산 시즌 시작, 홈택스 간소화 서비스 15일 개통</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/658/0000030151?sid=102</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>간소화 서비스 이용 회사 14일까지 등록서비스 이용 회사 근로자는 19일까지 동의해야연말정산 시즌이 돌아왔다.홈택스 홈페이지 캡처.국세청은 오는 14일까지 올해 연말 정산에서 간소화자료 일괄제공 서비스를 이용하려는 회사가 연말정산 대상 근로자명단(이름·주민등록번호)을 홈택스에 등록해야 한다고 11일 밝혔다.이는 홈택스에서 연말정산 간소화자료를 일일이 내려받아 회사에 제출하는 번거로움을 줄여주기 위해 국세청이 회사에 자료를 직접 제공하는 서비스다. 간소화자료 일괄제공 서비스를 이용하는 회사의 근로자는 오는 19일까지 홈택스에 접속해 제공자료 범위를 확인하고 ‘동의’해야 한다. 회사에 제공하고 싶지 않은 자료는 삭제하면 된다.회사는 동의 절차를 완료한 근로자와 그 부양가족의 자료를 21일부터 PDF 압축파일 형식으로 순차적으로 내려받을 수 있다. 간소화 자료를 직접 보고 싶은 근로자는 예년처럼 서비스에 접속해 자료를 확인하면 된다. 기부금 월세납부 자료 등 연말정산에 필요한 다른 서류가 있으면 추가로 회사에 제출해야 한다.홈택스 연말정산 간소화 서비스는 15일 개통한다. 간소화자료 일괄제공 서비스를 이용하지 않는 회사의 근로자는 예년과 마찬가지로 간소화 서비스를 이용해 연말정산을 하면 된다. 영수증 발급기관이 15일 이후 추가하거나 수정한 내용을 반영한 최종 확정자료는 20일부터 제공된다.올해는 간소화 서비스 간편인증(민간인증서) 4종(토스, 하나은행, 농협, 뱅크샐러드)이 추가돼 기존 7종(카카오톡, 통신사PASS, 삼성패스, 국민은행, 페이코, 네이버, 신한은행) 등 총 11종의 간편인증을 활용할 수 있다.자체 연말정산 프로그램이 없는 회사와 근로자를 위한 ‘편리한 연말정산 서비스’는 18일부터 개통한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2023.01.09.</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>당국, 2금융권 대출 재개 압박 본격화..효과 있을까</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004953185?sid=101</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>근본적인 해결책은 법정최고금리연동제 도입 9일 기준 대출 중개 플랫폼 토스 앱 ‘대출받기’ 서비스 캡쳐화면. 여러 저축은행, 캐피탈 등 2금융권이 ‘점검'을 이유로 대출을 중단하고 있다./사진=김동찬 기자 [파이낸셜뉴스]  #. 사업자금 확보를 위해 급전이 필요한 A씨는 매일 토스, 카카오페이 등 대출 중개 플랫폼에 접속하고 있으나 마땅한 대출 상품을 찾을 수가 없었다. 대다수 저축은행, 캐피탈 업체들이 '점검'을 이유로 대출 상품 판매를 제한해서다. A씨는 "이전에는 많은 저축은행 상품들이 나열됐는데 현재는 '점검' 이라는 불분명한 이유로 선택지가 좁아졌다"면서 "한정된 상품 내에서 대출을 선택할 수밖에 없어 저금리 상품을 찾기 힘들다"고 토로했다.  지난 연말부터 대출 중개 플랫폼에서 대출 빗장을 걸어잠근 2금융권의 움직임이 장기화되자 중저신용자의 대출 문턱이 높아졌다는 비판이 나오고 있다. 금융당국은 2금융권의 대출 재개를 위해 간담회를 열고 수수료 등 주요 쟁점과 관련한 후속 조치 논의에 들어갔다. 다만 법정최고금리를 시장금리에 연동시키는 법정최고금리연동제 같은 근본적인 대책이 나오지 않고서는 2금융권의 대출 활성화가 쉽지 않을 것이라는 지적이다.   ■  대출 조회는 늘었는데 선택지는 오히려↓ 9일 업계에 따르면 대출 중개 플랫폼에서 대출 상품을 조회하는 건수는 급증했다. 대출 중개 플랫폼 토스는 지난해 총 1280만건의 대출 조회 건수를 기록했다. 전년 대비 75.34%(550만건) 증가한 수치다. 분기별로 살펴봐도 2021년 1·4분기 약 270만건, 2·4분기 320만건, 3·4분기 350만건, 4·4분기 340만건으로 증가 추세를 보였다.   그러나 정작 조회 건수 대비 대출 승인 건수는 줄고 있다. 대출 중개 플랫폼 핀다에 따르면 지난해 1·4분기 대출 승인율은 전년 동기 대비 160% 증가했으나 금리가 가파르게 오른 4월 이후 급격히 떨어졌다. 2·4분기 96%, 3·4분기 94%로 50%p 넘게 급락했다. 이에 지난해 하반기 대출 한도 조회 건수가 전년 동기 대비 63.8% 늘어난 것에 비해 승인 건수는 37% 늘어나는데 그쳤다. 조회하는 사람은 늘어났는데 정작 실제 대출을 받는 사람은 줄어든 것이다.   이는 최근 들어 제2금융권들이 대출 중개 플랫폼 상에서 줄줄이 대출 상품 취급을 줄였기 때문이다. 현대캐피탈은 지난달 말부터 토스, 카카오뱅크 등 플랫폼에서의 신규대출 영업을 중단했다. 같은 기간 업계 1위인 SBI저축은행은 신용대출을, 웰컴저축은행은 중금리대출을, 신한저축은행은 햇살론을 중단했다.   한때 최대 20개가 넘는 금융사들이 '점검'을 이유로 대출 조회 결과를 제공하고 대출 업무를 사실상 중단했다. 올해 들어 몇몇 곳은 플랫폼을 통한 대출을 재개했지만 여전히 10개가 넘는 금융사들은 대출을 재개하지 못하고 '점검중'이라고 안내하고 있다.   ■  근본적 해결책은 법정최고금리연동제  이에 금융당국은 저축은행, 캐피탈사와 대출중단 사유를 명확히 한다는 명목으로 간담회를 열고 대출 재개 압박에 나섰다. 저축은행들은 간담회에서 조달금리 상승과 법정최고금리 제한에 묶여 역마진을 겪고 있다고 토로한 것으로 알려졌다.   저축은행 관계자는 "대출 재원을 예적금에만 의존하는 저축은행 입장에서 기준금리 상승으로 조달금리가 오르고 법정최고금리 20% 제한해 걸려 경영이 악화돼 불가피하게 대출을 조정했다는 점을 설명했다"고 말했다.   대출 중개 수수료와 관련한 논의도 이뤄졌다. 저축은행은 대출 중개 플랫폼이 2금융권에 부과하는 수수료율이 1금융권의 은행들에 비해 과도하고 높다고 주장하고 있다. 금융권에 따르면 대출 중개 플랫폼들이 저축은행에 평균적으로 부과하는 중개 수수료율은 1.7~1.8%인 반면, 은행권에 대해서는 0.4~0.5%의 수수료를 받고 있는 것으로 알려졌다.   이에 따라 수수료율 조정 등 2금융권 대출 활성화를 위한 당국의 움직임이 본격화될 것으로 예상된다. 다만 2금융권 업계에서는 대출 활성화를 위해서는 법정최고금리연동제 같은 근본적인 해결책이 필요하다고 입을 모은다.   한 저축은행 관계자는 "사실 급격히 오른 금리가 대출을 어렵게 하는 주요 원인인데 금리가 당장 낮춰지긴 힘든 상황인 만큼 최소한 법정최고금리가 시장금리에 연동될 수 있게 해 역마진 상황에서 벗어날 수 있게 해주는 게 가장 필요한 해결책"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2023.01.09.</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>다올인베스트먼트, 우리금융 피인수설에 '급등'</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001076157?sid=101</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>우리금융그룹이 다올인베스트먼트 인수할 수 있다는 소식에 다올인베스트먼트의 주가가 급등세다.9일 오전 9시 6분 현재 다올인베스트먼트는 전 거래일보다 435원(13.04%) 오른 3,770원에 거래되고 있다.8일 금융권에 따르면 우리금융은 지난해 말 다올인베스트 인수의향서를 다올투자증권에 제출한 것으로 전해졌다. 이와 관련 양측은 '긍정적 논의'를 진행 중이라고 밝혔다.다올투자증권은 다올인베스트먼트 지분 전량(52.0%)을 매각하는 조건으로, 매각가 2000억원 이상을 원하는 것으로 알려졌다. 다올인베스트먼트는 1981년 설립된 국내 1세대 밴처캐피탈로, 비바리퍼블리카(토스), 우아한형제들(배달의 민족) 등 스타트업에 투자했다.한편 한국거래소는 다올투자증권에 다올자산운용 매각 추진 보도와 관련해 조회공시를 요구했다. 답변시한은 이날 오후 6시까지다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2023.01.02.</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>“토스·카카오페이 수수료 불공정”...저축은행, 빅테크 플랫폼 이탈 움직임</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000079224?sid=101</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>저축은행, 1금융권과 비교해 수수료 과도해빅테크, 금리에 따라 수수료 부과하는 것 (출처=연합뉴스)대출 중개 플랫폼 토스·카카오페이 등을 서비스하는 빅테크사가 저축은행 등 2금융권에 부과하는 수수료율이 은행 등 1금융권과 비교해 과도하게 높다는 주장이 제기되고 있다.최근 조달 금리 급등으로 자금 조달에 어려움을 겪은 저축은행은 비용 효율화 등을 고려해 지난 연말까지 플랫폼을 통한 대출을 일시 중단했다. 이와 관련 수수료율 문제가 개선되지 않는다면 특정 플랫폼에서는 일제히 철수하겠다는 움직임까지 나온다.금융권에 따르면 대출 중개 플랫폼들이 저축은행에 평균적으로 부과하는 중개 수수료율은 1.7~1.8%인 반면, 은행권에 대해서는 0.4~0.5%의 수수료를 받고 있다. 일부 플랫폼에서 요구하는 선택 수수료(고객의 선택에 대해 부과하는 수수료)까지 포함하면 저축은행에 부과하는 실제 중개 수수료 지급률은 최대 2.5%에 육박하는 것으로 전해졌다.저축은행 업계는 토스·카카오페이와 같은 빅테크사 등이 대출 금리의 약 10%를 중개 수수료율로 부과하는 것으로 추산한다. 이 때문에 고신용자를 대상으로 저금리 대출을 취급하는 은행 등은 상대적으로 적은 수수료를 내는 반면, 중저신용자를 대상으로 중금리 대출을 취급하는 저축은행은 많은 수수료를 내야 한다는 것이다.저축은행 업계는 “모든 금융권이 동일한 방식으로 플랫폼을 이용하는데도 동일한 시스템 이용 원가를 무시하고 업권 간 차별적인 중개 수수료를 부과하는 것은 부당하다”고 주장하고 있다. 아울러 중개 수수료가 높아질수록 금융 회사 업무원가(비용)가 상승해 결과적으로 대출 금리가 오르고, 중저신용자는 더 높은 이자 부담을 안게 될 수 있다고 강조한다.플랫폼사 측은 수수료 책정은 기본적으로 금리와 연관이 가장 높다고 주장한다. “평균 대출 금리가 연 3~4%인 시중은행과 연 15~20%인 저축은행에 동일한 수수료를 적용할 수 없다”는 입장이다.한편 저축은행들은 플랫폼사에 중개 수수료율을 은행권과 동일한 수준으로 인하해달라고 요청하고 있는데, 개별 저축은행의 협상력이 부족하다면 저축은행중앙회에 계약권을 일임해 협상을 진행하는 방안도 검토하고 있다. 저축은행중앙회 관계자는 “중앙회가 개별 저축은행의 중개 계약을 위임받아 가장 유리한 조건을 제공하는 업체 몇 곳에만 입점하는 방식 등을 검토하고 있다”고 밝혔다.이처럼 저축은행들이 플랫폼 수수료에 대한 불만을 본격적으로 표출하는 것은 최근 시장 여건 악화로 조달 금리가 급등한 상황에서 중개 수수료 비용을 감당하기 어려워진 업체가 늘어났기 때문이다. 반면 플랫폼을 통한 대출 취급 비중은 전체 대출의 절반을 넘어설 정도로 영향력이 커진 상황이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2023.01.02.</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>SNL 출연 권성동 “윤핵관 일짱은 나…비키니 사진은 1초 봤다”</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/449/0000241081?sid=100</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>권성동 국민의힘 의원(왼쪽). 사진=뉴시스 권성동 국민의힘 의원이 전당대회 출마 선언을 앞두고 쿠팡플레이 SNL코리아 '주기자가 간다'에 출연해 진땀을 흘렸습니다. 권 의원은 어제(1일) 페이스북을 통해 "주현영 기자와 김아영 인턴기자의 날카로운 질문에 많이 당황했다. 이에 방어하기 어렵다고 판단하고, 가감 없이 있는 그대로 내려놓았다"며 출연 소감을 밝혔습니다. 이어 "몇몇 장면에서는 보좌진이 팔로 'X자'를 만들며 만류했으나, 최대한 요구에 부응하고자 노력했다"며 "해당 코너 최고 스타인 홍준표 선배만큼 재밌을 수는 없겠지만, 솔직한 제 모습이니 편하게 봐주셨으면 좋겠다"고 언급했습니다. 권 의원이 출연한 '주기자가 간다'는 유명인에게 질문을 던지는 시사풍자 코미디 프로그램입니다. 권 의원을 향한 첫 질문은 8년 전 권 의원이 국회 국정감사장에서 스마트폰으로 플레이보이 모델 티파니 토스 사진을 보던 장면이 카메라에 잡힌 상황과 관련됐습니다. 인턴기자로 분한 개그우먼 김아영이 권 의원을 소개하던 도중 해당 상황을 언급하자 권 의원은 웃었고, '주기자'로 분한 주현영은 "그녀의 어떤 점이 가장 끌리셨나"고 물었습니다. 권 의원은 "기사를 검색하다가 우연찮게 그 화면이 나왔다. 잠시 1~2초 봤는데 찍혔다. 그 여성이 어떤 여성인지 전혀 기억이 안난다"고 답했습니다. 지난해 8월 을지훈련 기간 중 천안에서 열렸던 국민의힘 연찬회 때 빚어진 이른바 '음주 파문'에 대한 질문도 나왔습니다. 김아영은 당시 순간이 담긴 영상을 태블릿PC로 보여주면서 "술 반입이 금지되었던 연찬회 후, 기자들과 가지신 술자리 영상"이라며 "굉장히 핵인싸이신 것 같다"고 말했습니다. 권 의원은 웃으면서 "해명을 하자면 공식 연찬회가 끝난 후 뒤풀이였다"며 "연찬회는 술 반입이 금지됐지만 연찬회가 종료된 이후에 뒤풀이 장소였다"고 설명했습니다. 또 주현영은 "대표적인 별명 윤핵관(윤석열 대통령 핵심 관계자)에 대해서 '자랑스럽다'고 말씀하셨다는데 맞느냐"고 물었습니다. 권 의원은 "윤핵관이라는 별명을 만든 분(이준석 전 대표)은 조금 비아냥거리기 위해 만들었기에 윤핵관 표현 자체는 듣기 거북하다. 왜냐면 저는 권성동 국회의원이고 정치인 권성동이기 때문"이라고 답했습니다. 주현영은 다시 "그렇다면 윤핵관 4인방으로는 권성동, 장제원, 이철규, 윤한홍 의원 중 누가 일짱이라고 생각하느냐"고 물었습니다.이에 권 의원은 "제가 일짱이라고 생각한다. 왜냐하면 저는 4선이고 장제원 의원이 3선, 나머지 의원이 재선이다"라며 "국회의원은 선수가 중요하니까 그러니까 제가 일짱"이라고 답했습니다. 주현영이 "완전 대장이시네요"라고 말하자 권 의원은 "그 의미는 윤석열 운명을 같이 하겠다는 것"이라고 말했습니다. 이날 권 의원은 당대표 출마 여부에 대한 질문도 받았습니다.권 의원은 "98%는 출마 쪽에 기울고 있는데 2%가 채워지면 (출마) 선언을 할 것"이라며 "(부족하게 느껴지는 2%는) 당선 가능성이 높아야 출마한다. 무모하게 계란으로 바위치기를 하면 안 되니까 그 부분을 세심하게 살피고 있다"고 언급했습니다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/기사데이터/토스/엑셀파일/news(토스, 2023.01.01~2023.01.15).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2023.01.01~2023.01.15).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1705,1256 +1705,6 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2023.01.11.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>美 캘리포니아 3주째 물난리…작년 기상이변 피해 200조원</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/448/0000390727?sid=104</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>[앵커]지난 여름  최악의 가뭄에  시달렸던, 미 캘리포니아주가 이번엔  겨울폭풍에 시달리고 있습니다. 3주째 강풍과 폭우를  계속돼 피해가  커지고 있는데요. 이같은  기상재난으로 인한 피해액이 지난 한해 미국에서만  200조원에  이르는 것으로  집계됐습니다.   변재영 기자입니다. [리포트]해안가  부두가 무너져  내렸고,  마을 전체는 물에 잠겼습니다. 차가 떠내려 가고,  토사가  쏟아져 내립니다.  이브 카머 / 앱토스 주민"산타크루즈 카운티에서 25년을 살았지만  극심한 폭우와 강풍을 동반한  겨울 폭풍은  처음입니다."  지난해 말, 캘리포니아를  강타한 겨울 폭풍이 3주째 이어지면서  18만 8천 가구  전력이 끊겼고,  인명 피해도  발생했습니다.  개빈 뉴섬 / 캘리포니아 주지사 "보수적으로 추산해도 숨진 사람은  최소 17명입니다.   벼락 사고와 교통사고로  2명이 더  숨졌습니다." 캘리포니아 주민  90%에 달하는  3400만 명에게  홍수주의보가  발령됐습니다. 지난 여름 극심한 가뭄과 산불로 지반이 약해진 상태인데, 겨울철 때아닌 폭우가 한동안 이어질 것으로 보여 피해액만 1조 2000억 원에  달할 것으로 보입니다.  산불, 홍수 등 기상이변으로 미국에서는  지난 한해에만 약 206조 원의 피해가 발생했습니다. 릭 스핀래드 / 미 국립해양대기국 국장"앞으로 미국인들은 기후변화가 주는 영향을  일상 생활에서 더 자주 체감하게  될 것입니다"  전문가들은  기상 이변이  심각한 수준이라며  앞으로도  더 집중적이고 극단적인 재난 상황이 반복될 것으로  전망하고 있습니다.  TV조선 변재영입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2023.01.02.</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>“비키니 그분은? 술자리 핵인싸?”…권성동 SNL서 진땀</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001577097?sid=100</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>권성동 국민의힘 의원이 지난해 31일 방송된 쿠팡플레이 SNL코리아 '주 기자가 간다'에 출연해 다소 민감한 질문에 답변하고 있다. 쿠팡플레이 영상 캡처권성동 국민의힘 의원이 쿠팡플레이 SNL코리아에 출연해 ‘연찬회 술자리 논란’ ‘윤핵관(윤석열 대통령 핵심 관계자)에 대한 생각’ ‘국정감사장 비키니 사진 논란’ 등과 관련한 송곳 질문에 진땀을 뺐다.2일 정치권과 방송계에 따르면 권 의원은 지난 31일 SNL코리아 ‘주 기자가 간다’ 코너에 출연했다. 이 코너는 유명인을 초청해 날것 그대로의 질문을 던져 큰 호응을 얻은 시사풍자 코미디 프로그램이다. 방송에서는 개그우먼 주현영과 김아영이 각각 기자와 인턴기자로 나서 질문을 던졌다.먼저 김아영이 “술 반입이 금지됐던 연찬회 후 기자들과 가지신 술자리 영상인데, 굉장히 ‘핵인싸’이신 것 같다”면서 지난해 여름 연찬회 술자리 논란을 언급했다. 이에 권 의원은 “해명을 좀 하자면 공식 연찬회가 다 끝난 후 그 뒤풀이였다”며 “연찬회는 술 반입이 금지됐지만 뒤풀이는 (그렇지 않았다)”고 해명했다. 권 의원은 해당 질문에 당황하는 표정을 지으며 크게 웃어 보였다. 주현영이 노래를 주문하자 짤막한 노래로 화답하기도 했다.권성동 국민의힘 의원이 지난해 31일 방송된 쿠팡플레이 SNL코리아 '주 기자가 간다'에 출연해 다소 민감한 질문에 답변하고 있다. 쿠팡플레이 영상 캡처또 8년 전인 2014년 국회 국정감사장에서 휴대전화로 비키니를 입은 플레이보이 모델 티파니 토스 사진을 보다가 언론 카메라에 포착된 일도 소환됐다. 김아영이 이를 언급하자 권 의원은 난처한 듯 “하하하”라고 웃었다. 이어 김아영이 “티파니 토스의 어떤 점이 가장 끌리셨냐”고 묻자 권 의원은 “그게 아니고 기사 검색하다가 우연히 그 화면이 나왔다. 잠시 한 1~2초 봤는데 그때 딱 찍힌 거다. 그 여성이 어떤 여성인지 전혀 기억나지 않는다”고 답했다.‘윤핵관’이라는 별명에 대해선 “듣기 거북하다”는 솔직한 입장을 밝혔다. 권 의원은 “윤핵관이라는 별명을 만든 분(이준석 전 대표)은 좀 비아냥거리기 위해 (그런 말을) 만들었기 때문에, 남들이 우릴 공격할 때 윤핵관이라는 표현을 쓰는 거 자체는 듣기 조금 거북하다”며 “왜냐하면 저는 권성동 국회의원이고 정치인 권성동이기 때문”이라고 말했다.이어 주현영이 “그렇다면 윤핵관 4인방으로는 권성동 장제원 이철규 윤한홍 의원 중 누가 일짱이라고 생각하느냐”고 묻자 권 의원은 “제가 일짱이라고 생각한다. 왜냐하면 저는 4선이고 장제원 의원이 3선, 나머지 의원이 재선이다. 국회의원은 선수가 중요하니까 그러니까 제가 일짱”이라고 답변했다. 주현영이 “완전 대장이시네요”라고 맞장구를 치자 권 의원은 “그 의미는 윤석열정부와 운명을 같이하겠다는 것”이라고 강조했다.권성동 국민의힘 의원이 지난해 31일 방송된 쿠팡플레이 SNL코리아 '주 기자가 간다'에 출연해 다소 민감한 질문에 답변하고 있다. 쿠팡플레이 영상 캡처윤석열 대통령의 연말 선물에 국산 아닌 수입산 농산물이 포함됐다는 논란에 대해선 말을 아꼈다. 두 선택지 가운데 하나를 선택하는 이른바 ‘밸런스 게임’에서 주현영이 “우리 농산물과 수입 농산물 중 더 받고 싶은 선물은 무엇이냐”고 질문하자 권 의원은 “당연히 우리 농산물”이라고 했다. 이어 “그렇다면 수입 농산물을 연말 선물로 보내신 그분(윤 대통령)께 영상 편지 부탁드린다”는 요구에 권 의원은 “수입 농산물을 선물로 보내신 분이 누구냐. 저는 그에 대한 정보가 전혀 없다”며 답변을 피했다.당대표 출마 여부에 대해서는 “아직까지 결정은 안 했는데 많은 사람의 의견을 듣고 있다. 지금 한 98%는 출마 쪽에 마음이 기울고 있는데 2%를 채워주면 선언하려고 한다”고 말했다. 2023년 보고 싶은 엔딩을 고르라는 질문(내가 당대표가 되는 해피엔딩 vs 이재명 각본·연출·주연의 범죄 스릴러의 배드엔딩)에는 “당대표에 만약 출마하게 된다면 당대표가 돼서 국민에 희망을 드리고 싶어서 전자를 선택하겠다”고 대답했다.한편 권 의원은 이날 페이스북을 통해 SNL코리아 출연 소감을 전했다. 그는 “다른 분들처럼 저 역시 주현영 기자와 김아영 인턴기자의 날카로운 질문에 많이 당황했다”며 “이에 방어하기 어렵다고 판단하고, 가감 없이 있는 그대로 내려놓았다”고 했다. 이어 “몇몇 장면에서는 보좌진이 팔로 ‘X자’를 만들며 만류했으나 최대한 요구에 부응하고자 노력했다”며 “해당 코너 최고 스타인 홍준표 선배만큼 재미있을 수는 없겠지만 솔직한 제 모습이니 편하게 봐주셨으면 좋겠다”고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2023.01.15.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>은행권 4대 인증서, 연말정산서 첫 격돌</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003072654?sid=101</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>연말정산 시즌을 맞아 은행권 4대 사설인증서가 처음으로 격돌한다. 연말정산이 인증서 신규 가입자를 빠르게 확대하기 좋은 기회인 데다 자사 플랫폼 유입 효과까지 누릴 수 있어 일찌감치 사용자 확보에 나섰다.이번 국세청 연말정산에 사용할 수 있는 사설인증서에 KB국민은행과 신한은행에 이어 하나은행과 NH농협은행 인증서가 새롭게 추가됐다. 빅테크 인증서로는 토스와 뱅크샐러드가 새롭게 진입했다.은행권 인증서로는 처음 국세청 연말정산 용도로 적용된 하나은행과 농협은행은 신규 사용자 확보에 속도를 낸다.하나은행은 본격적인 연말정산을 앞두고 '하나원사인' 인증서 발급 확대에 나섰다. 라이브 방송으로 하나원사인 인증서의 편리함과 장점을 설명하면서 인증서 신규 발급을 안내할 계획이다.17일 하나원큐 애플리케이션(앱) 내 라이브 방송에서 이벤트에 참여하고 국세청 홈택스에 하나원사인 인증서로 로그인하면 참가자 전원에게 CU편의점 1000원 상품권을 증정한다.ⓒ게티이미지뱅크농협은행은 홈택스에서 'NH모바일인증서'로 간편로그인을 한 사용자에게 추첨으로 골드바 10돈(1명), NH포인트 10만원(5명), NH포인트 3만원(10명)을 제공한다. 농협은행은 1분기 중 80여개 공공기관에 인증서 서비스를 적용할 계획이다. 연말정산을 시작으로 인증서 가입자를 빠르게 확대해 나갈 방침이다.앞서 홈택스에 자체 인증서를 공급해온 KB국민은행과 신한은행은 일찌감치 사용자 확대에 뛰어들었다.국민은행은 'KB국민인증서'로 홈택스에 로그인하고 이벤트에 응모하면 경품을 제공한다. KB국민인증서는 작년 11월 기준 1200만명 가입자를 돌파했다. 국세청 홈택스에 로그인한 후 KB스타뱅킹 앱 내 이벤트에 응모하면 추첨으로 골드바 10돈(1명), LG 스탠바이미(3명), LG 디오스 오브제컬렉션 와인셀러(5명), 신세계 이마트 상품권(1000명)을 제공한다.신한은행은 내달 24일까지 '신한인증서'로 연말정산 미리보기와 연말정산을 수행하는 고객에게 추첨으로 경품을 증정한다. 홈택스에 들어가지 않아도 뉴 쏠 앱에서 연말정산 미리보기 서비스를 제공해 플랫폼 유입 효과도 노렸다. 이벤트에 참여하면 추첨으로 시그니엘 호텔 숙박권(2명), 아이폰14 프로(5명), 삼성 비스포크 제트(5명), 스타벅스 아메리카노 교환권(4만명), 마이신한포인트 최고 5만포인트를 제공한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2023.01.02.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>2금융 중저신용자 대출 줄이자… 당국, 대출금리 상한 올렸다</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004950404?sid=101</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>저축은행 중금리 최대 17.5%상호금융 10.5%로 이미 근접업계선 "법정 최고금리 손봐야"  금융당국이 올해 상반기에 적용되는 제2금융권의 민간 중금리 대출 상한을 최대 17.5%(저축은행)로 높였다. 조달금리가 올라 부담이 커진 저축은행, 캐피탈, 상호금융 등 2금융권이 중·저신용자 대출을 중단하거나 줄이고 있기 때문이다. 저축은행, 상호금융은 현재 금리 한도가 금융위원회가 정한 최고 상한선까지 올라간 상태다.   2일 금융업계에 따르면 지난해 말 금융위는 올해 상반기에 적용되는 민간 중금리 대출의 금리 상한선을 새롭게 고시했다.   민간 중금리 대출은 금리상한 요건을 충족하고 신용 하위 50% 차주에 실행되는 비보증부 신용대출이다. 금융당국은 중·저신용자의 원활한 자급 공급을 위해 지난 2016년부터 중금리 대출 제도를 운용했다. 당국은 민간 중금리 대출을 시행하는 금융사에 인센티브를 주고 있다.   업권별로 살펴보면 카드는 지난해 상반기 11%에서 11.88%로, 캐피탈은 14%에서 14.99%로 인상됐다. 저축은행과 상호금융의 경우 각각 17.5%, 10.5%로 올라 금융위가 설정한 최대 금리 상한 한도까지 금리 상한이 인상됐다. 이는 최근 제2금융권이 신용대출을 중단하고 중금리 대출을 축소하자 민간 중금리 제도의 취지가 무색해졌다는 비판에 따른 조치다.   지난달 업계 1위인 SBI저축은행은 대출 비교 서비스를 제공하는 토스에서 신용대출 취급을 중단했다. 이후 웰컴저축은행이 중금리대출을, 신한저축은행이 햇살론 신청을 연말까지 중단했다. 기준금리 상승에 조달금리가 늘었지만 법정 최고금리가 20%로 제한돼 대출 금리를 올리지 못하면서 이윤 확보가 어렵기 때문이다.   중금리 대출 입지도 좁아졌다. 저축은행중앙회에 따르면 지난달 34개 저축은행이 신규 취급한 가계신용대출 가운데 금리가 연 16%를 초과하는 대출 비중이 절반을 넘은 저축은행은 6개월 만에 5곳이 늘어난 14곳에 달했다.   통상 저축은행에서는 금리가 연 16%를 넘는 대출을 고금리 대출로 간주했다. 기존 금융당국이 정한 저축은행의 민간 중금리대출 금리 상한이 연 16.3%였기 때문이다. SBI·OK·한국투자·웰컴·페퍼저축은행 등 자산규모 상위 5개 은행이 지난달 신규 취급한 가계신용대출 가운데 금리가 연 16%를 초과하는 대출 비중도 평균 56%에 달했다.   2금융권은 이번 규제 완화로 조달금리 상승분을 중금리대출로 일부분 반영할 수 있어 숨통이 트였다는 분위기다.   한 저축은행 관계자는 "업계 전체가 조달금리로 어려운 상황에서 중저신용자 문제까지 겹쳤는데 이렇게 규제를 풀어준다면 저축은행 입장에서는 한숨 놓였다"면서도 "다만 법정 최고금리 한도에 막혀 더 완화될 가능성이 없어 내년 기준금리나 가계대출 총량규제 등이 어떻게 흘러갈지가 중·저신용자 대출 금리에 있어 더 직접적인 요소일 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2023.01.11.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>토스뱅크 ‘목돈 굴리기’ 서비스 투자상품 소개 1조원 넘어서</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002089416?sid=101</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>토스뱅크는 ‘목돈 굴리기’ 서비스를 통해 소개한 투자상품 금액이 1조원을 넘었다고 11일 밝혔다.이 서비스는 경쟁력 있는 금융투자 상품들을 모아 광고하고 고객이 해당 상품 판매사를 통해 가입할 수 있는 것으로 지난해 8월 출시했다. 출시 이후 약 5개월 여만에 ‘목돈 굴리기’에서 소개한 투자상품의 가입금액이 1조원을 넘어 현재 1조 136억 원에 달한다.‘목돈 굴리기’ 서비스는 시장의 많은 금융상품들 중 최고 수준의 상품 경쟁력을 가진 상품들을 토스뱅크가 자체 선별해 소개하기 때문에 출시부터 인기를 끌었다. 특히, 지난해 8월 ‘목돈 굴리기’ 서비스에 최초로 입점한 한국투자증권의 발행어음 상품은 출시 4일만에 2000억원의 특판 한도가 모두 소진되기도 했다.토스뱅크는 지난 해 11월부터 ‘목돈 굴리기’ 서비스의 상품 라인업을 강화해 오고 있다. 주력 광고 중인 한국투자증권의 발행어음 외에도 안정성이 높은 국고채부터 은행채, AA등급 이상의 우량 회사채도 추가했다. 지난해 하반기 금리 상승기에 예금보다 수익성이 높은 채권 투자에 대한 고객의 요구가 높았지만 기존 금융권에서 투자하기에 접근성이 높지 않았던 점에 주목한 것이다.지난해 11월부터 12월 말까지 약 2개월 동안 ‘목돈 굴리기’를 통한 채권 금액만 2000억원이 넘는다. 국고채, 은행채, 한전채 등 AA 등급 이상의 회사채 중에서도 금리 경쟁력이 높은 채권들을 선별했고, 연 5% 이상을 제공하는 높은 수익률의 상품을 다양하게 마련해 두고 있다. 홍승희 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2023.01.11.</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>토스뱅크, 목돈 굴리기 투자상품 소개 1조원 돌파</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000868971?sid=101</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>토스뱅크가 목돈 굴리기 서비스를 통해 소개한 투자상품 금액이 1조원을 돌파했다고 밝혔다. /토스뱅크 제공        토스뱅크가 11일 ‘목돈 굴리기’ 서비스를 통해 소개한 투자상품 금액이 1조원을 돌파했다고 밝혔다.토스뱅크의 목돈 굴리기 서비스는 경쟁력 있는 금융투자 상품들을 모아 광고하고, 고객이 해당 상품 판매사를 통해 가입할 수 있는 서비스로 작년 8월 출시했다. 출시 이후 약 5개월 여만에 목돈 굴리기에서 소개한 투자상품의 가입 금액이 1조원을 넘어 현재 1조136억원에 달한다.목돈 굴리기 서비스는 시장의 많은 금융상품 중 최고 수준의 상품 경쟁력을 가진 상품들을 토스 뱅크가 자체 선별해 소개하기 때문에 출시부터 인기를 끌었다. 특히, 지난해 8월 목돈 굴리기 서비스에 최초로 입점한 한국투자증권의 발행어음 상품은 출시 4일만에 2천억 원의 특판 한도가 모두 소진되기도 했다.토스뱅크는 지난 해 11월부터 목돈 굴리기 서비스의 상품 라인업을 강화해 오고 있다. 주력 광고 중인 한국투자증권의 발행어음 외에도 안정성이 높은 국고채부터 은행채, AA등급 이상의 우량 회사채도 추가했다. 작년 하반기 금리 상승기에 예금보다 수익성이 높은 채권 투자에 대한 고객의 요구가 높았지만 기존 금융권에서 투자하기에 접근성이 높지 않았던 점에 주목한 것이다.지난해 11월부터 12월 말까지 약 2개월 동안 목돈 굴리기를 통한 채권 금액만 2천억원이 넘는다. 국고채, 은행채, 한전채 등 AA 등급 이상의 회사채 중에서도 금리 경쟁력이 높은 채권들을 선별했고, 연 5% 이상을 제공하는 높은 수익률의 상품을 다양하게 마련해 두고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2023.01.09.</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>디지털 전환 급한데…딜레마 빠진 은행권</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001076341?sid=101</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>은행권, 디지털 전환 '딜레마'&lt;앵커&gt;금융당국이 은행 영업시간 정상화를 주문하고 나섰지만 은행들의 움직임은 더딥니다.비대면으로 금융시장의 트렌드가 바뀌고 있는 상황에서 대면 영업을 강화하는 것이 은행들로서도 쉽지 않은 선택이기 때문인데요.인터넷 은행에 비해 뒤늦게 디지털 전환에 뛰어든 시중 은행들의 고민도 깊어지고 있습니다.박승완 기자입니다.&lt;기자&gt;KB국민, 신한, 하나, 우리은행 등 주요 시중 은행들은 이번 주 중 `영업시간 복원` 논의에 들어갑니다.당초 지난주 열릴 계획에서 다소 늦어진 건데, 구체적 일정은 정해지지 않았습니다.노사 모두 `적극적으로 논의할 것`이란 입장인데, 다만 회의 결과에 대해선 예단하기 어렵습니다.[금융노조 관계자 : 아직 첫 TF(태스크포스) 회의가 시작하기도 전이고, 지금 사용자 측에서 어떤 이야기를 할지 모르기 때문에… 사실은 이 내용에 대해서 진작에 협의를 하겠다는 의지는 서로가 내비쳤었거든요.]대면 영업 정상화는 `디지털 전환`이 화두인 은행들로선 달갑지 않은 과제입니다.오프라인 중심의 영업 구조를 바꾸기 위해 은행원 수를 줄이는 등 체질개선에 한창이었기 때문입니다.실제로 지난해 농협은행을 시작으로 국민, 신한, 하나, 우리은행은 희망퇴직을 진행했습니다,`IT 전문가 충원을 위한 구조조정`이 그 이유였습니다.시중 은행에선 올해만 최대 3천 명가량의 직원이 떠날 것으로 예상되고 있습니다.인력의 축소가 불가피한 상황에서 대면 점포 운영을 확대한다는 것은 기존 은행의 디지털 전환에 걸림돌이 될 것이란 우려가 나옵니다.전체 임직원 중 전통은행의 IT 인력 비중은 7.7%로 토스뱅크(58.9%), 카카오뱅크(38.7%) 등 인터넷은행에 비해 낮아 가뜩이나 인재 확보가 시급한 점도 부담을 더합니다.전문가들은 시중 은행들의 IT 인력 확보에 한계가 있다고 분석합니다.[서지용 / 상명대학교 경영학부 교수 : 아무래도 시중은행은 오프라인 영업 인력도 확보하면서, IT 인력에도 주력하는 측면이 있기 때문에 IT 인력에 집중하는 것은 제한이 있거든요.]코로나19 상황을 틈타 영업점포와 운영시간을 줄여 비대면 경쟁력을 키우던 은행들로선 오프라인 정상화에 더해 장기적 성장 과제를 동시에 해결해야 하는 상황입니다.한국경제TV 박승완입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2023.01.11.</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>토스 채팅 서비스 종료…“이용자 수 적어 종료 결정”</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005073089?sid=102</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>불법 리딩방과 음란방도 삭제 토스 채팅 서비스가 2월 10일 종료될 예정이다. &lt;자료=토스 공지 갈무리&gt;금융 플랫폼 토스의 채팅 서비스가 종료된다. 카카오톡 먹통 대란 당시 대체제로 주목받기도 했지만 일일 이용자 수가 적어 서비스 종료가 결정됐다.11일 토스에 따르면 2월 10일부터 ‘채팅’ 서비스가 종료된다. 토스는 모바일 앱 공지를 통해 “2023년 2월 10일 채팅 서비스(연락처 채팅, 주제별 채팅)가 종료된다”고 알렸다.토스는 1월 12일 ‘방장지원금’ 지급 종료를 시작으로 서비스를 순차적으로 종료한다.1월 25일부터는 ‘신규 방 생성’과 ‘신규 방 입장’이 불가하다. 토스는 돈 같이 모으기와 더치페이 서비스는 종료되지 않으나 해당 서비스와 연결된 채팅방 서비스는 종료된다고 밝혔다.2021년 9월 서비스를 시작한 토스 오픈채팅은 작년 10월 ‘카카오톡 먹통 대란’ 당시 대체 메신저로 주목 받았다. 지난해 5월부터는 주제별 채팅방을 만든 방장에게 매일 최대 1만5000원을 지원하는 이벤트도 진행해 메신저 활성화에 노력했다.다만 익명 채팅의 특성상 불법 주식 리딩방과 음란물 공유방이 존재해 논란이 일기도 했다. 현행 자본시장법에 따라 금융당국에 인가·등록이 돼 있지 않으면 일대일 자문 및 알선 행위는 금지된다.토스 관계자는 “리딩방은 단속 키워드를 촘촘하게 관리했고 음란방을 막기 위해 동영상 전송 기능을 아예 넣지 않는 방식으로 관리했다”며 “활성화 방법을 모색했지만 다른 메신저에 비해 이용자 수가 적어 다른 서비스를 선보이기 위해 종료하게 됐다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2023.01.04.</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>케이뱅크·토스뱅크 등 인뱅, 예대율 완화 앞두고 수신 늘리기 나서</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002776753?sid=101</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>5월부터 예대율 정상화, 수신 많을수록 대출 여력 늘어나파킹통장 차별화 전략 주목인터넷전문은행 3사의 수신금리 경쟁이 올해에도 치열할 전망이다. 각사 제공    새해 벽두부터 인터넷 전문은행 간 수신 경쟁이 이어지고 있다. 금융당국이 오는 5월 예대율 규제 정상화에 나서는 것을 겨냥해 파킹통장, 예·적금 금리 차별화를 통해 예금을 끌여들여 대출 여력을 확보해나가겠다는 전략이다.4일 금융권에 따르면 인터넷 전문은행들의 수신은 정체 모습을 보이고 있다. 카카오뱅크의 12월 말 기준 수신 잔액은 전달보다 1686억원 줄어든 33조558억원에 달했다. 지난 11월(1조5759억원)에 이은 2개월 연속 감소세다. 카카오뱅크 관계자는 "최근 은행권에서 수신 금리 경쟁이 벌어지고 있지만 꾸준히 33조 규모를 유지하고 있다"고 말했다.같은 기간 케이뱅크 수신 잔액은 14조6300억원으로 전달보다 1800억원 증가했다. 토스뱅크도 예·적금 잔액이 완만한 증가세를 보이는 것으로 전해졌다.인터넷 은행들은 이같은 수신 정체가 지난해 말 예·적금을 비롯한 수시입출금(파킹통장) 금리 경쟁이 치열해진 데다  금리 상승에 따른 이자 부담 가중으로 빚 상환 수요가 늘어난 영향으로 보고 있다.앞서 5대 주요 은행(국민·신한·하나·우리·농협)의 정기예금 잔액도 지난해 말 기준 818조4366억원으로 전달말보다 8조8620억원 감소했다. 월말 기준 정기예금 잔액 감소는 지난해 3월 말 이후 9개월만이다.인터넷 전문은행들은 예대율 정상화에 대비해 수신 늘리기에 적극 나설 계획이다. 금융위원회는 오는 5월부터 인터넷은행이 새롭게 취급하는 가계대출에 대해 115%의 예대율 가중치를 적용할 계획이다. 현재 예대율 가중치는 100%다. 예대율은 예금 잔액에 대한 대출금 잔액 비율로, 예대율이 높을수록 은행은 같은 예금으로 더 많은 대출이 가능하다.케이뱅크는 지난 2일부터 연3% 금리의 파킹통장인 '플러스박스'의 즉시 이자 받기 서비스를 시작했다. 일복리 효과가 적용돼 5000만원 예치시 매일 세후 3400원의 이자를 받아 월 12만2000원을 얻을 수 있다. 토스뱅크는 지난해 12월 수시입출금 통장 예치금 5000만원 초과분에 대해 연 4.0%의 금리를 적용한다고 발표한 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2023.01.04.</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>"내 개인정보 어디 쓰였지?"…토스, '개인정보 안심 리포트' 제공</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004836397?sid=101</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>사진제공=토스모바일 금융플랫폼 토스를 운영하는 비바리퍼블리카(이하 토스)가 새해 첫 서비스로 '개인정보 안심 리포트'를 출시한다고 4일 밝혔다.개인정보 안심 리포트는 고객이 제공에 동의한 개인정보가 언제, 왜, 누구에게 제공됐는지 확인할 수 있는 서비스다. 예컨대 송금 과정에서 금융결제원과 연결 은행이 출금을 위해 고객의 이름과 계좌번호 정보를 사용했다는 것을 조회할 수 있다.현재 토스 서비스 중 △내 신용점수 △내게 맞는 대출 찾기 △송금 △환전 △토스페이 등 주요 서비스에서의 개인정보 이용 내역을 확인할 수 있고, 향후 모든 서비스로 적용 범위를 확대할 예정이다.국내는 물론 해외에서도 사용자의 개인정보 이용 내역을 별도 서비스로 제공하는 경우는 드물다는 게 토스 측 설명이다.이승건 토스 대표는 "많은 유저에게 사랑받는 서비스로 자리매김하기 위해 더 높은 수준의 신뢰를 얻는 것이 필수적이며, 이렇게 투명하게 공개할 수 있는 것까지가 혁신의 영역이라고 생각한다"며 "무엇보다 사용자가 개인정보 이용 내역을 직접 확인함으로써 얻을 수 있는 신뢰의 가치가 크다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2023.01.12.</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>보험 약관대출도 문턱 높인다…줄줄이 막히는 서민 '급전창구'</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004798878?sid=101</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>한도 줄이거나 대출 일시중단저축銀·캐피털·카드사 이어 '빗장'저축은행과 카드사에 이어 보험사도 대출 문턱을 높이고 있다. 2금융권이 일제히 대출을 죄면서 서민들의 급전 조달이 더 어려워지고 있다는 지적이다.12일 금융권에 따르면 교보생명은 오는 3월까지 대출중개 플랫폼을 통한 약관대출 판매를 한시 중단하기로 했다. 약관대출은 보험사가 보험계약의 해지환급금 범위 내에서 돈을 빌려주는 상품이다. 현대해상은 최근 일부 보장성 상품의 약관대출 한도를 줄였다. 원래는 보장 해지환급금의 60%까지 대출이 가능했는데, 잔존 만기에 따라 0~60% 범위에서 차등 적용하기로 했다. 신한라이프도 지난달 일부 상품의 약관대출 한도를 해지환급금의 95%에서 90%로 낮췄다.다른 2금융권이나 대부업계가 대출 문턱을 높이는 상황에서 총부채원리금상환비율(DSR) 규제가 적용되지 않고 대출 절차도 간단한 약관대출마저 줄어드는 데 대한 우려가 적지 않다.지난달 리스크 관리 차원에서 토스 카카오페이 등 플랫폼을 통한 대출 취급을 중단했던 SBI저축은행과 웰컴저축은행 등은 새해 들어 판매를 재개하긴 했다. 캐피털업계 1위인 현대캐피탈은 아직 플랫폼 영업을 재개하지 않았다. 카드론(장기카드대출) 상황도 마찬가지다. 카드론 평균금리는 연 15%에 육박할 정도로 높아졌다. 대부업계 1위인 아프로파이낸셜대부는 지난달 말 신규 영업 중단을 선언했다.2금융권이 대출 빗장을 잠그는 이유는 금리 상승기 조달 비용이 커졌기 때문이다. 법정 최고금리 연 20% 규제를 지켜야 하는 상황에서 역마진을 내지 않으려면 저신용자 대출 취급부터 중단할 수밖에 없다는 설명이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2023.01.11.</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>“하루 맡겨도 최고 年5%대 이자”… 저축銀, 파킹통장 경쟁</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003473225?sid=101</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>시중은행 정기예금 금리 낮추자저축銀 등 3~5.5% 상품 잇달아이자 높고 언제든 입출금 가능“금리변동 쉬워 장기투자 부적합”전업주부 최모 씨(38)는 최근 저축은행에 파킹통장을 만들어 여윳돈 1000만 원을 넣어뒀다. 정기예금 못지않은 4%대의 금리를 제공했기 때문이다. 최 씨는 “고금리 특판 예·적금 상품이 언제 출시될지 몰라 일단 파킹통장에 돈을 넣어뒀다”며 “언제든 돈을 인출할 수 있어 조금이라도 금리를 더 많이 주는 곳을 찾고 있다”고 말했다. 파킹통장은 하루만 맡겨도 일반 통장보다 높은 이자를 주는 금융 상품이다. 해지가 자유롭지 못한 기존 예·적금과 달리 필요할 때마다 돈을 인출해 갈 수 있다. 최근 정기예금 금리가 하락하면서 미처 투자처를 찾지 못한 고객들이 저축은행과 인터넷전문은행의 파킹통장으로 눈을 돌리고 있다. ○ 하루만 맡겨도 3∼5%대 금리10일 금융권에 따르면 OK저축은행의 파킹통장 상품인 ‘OK읏백만통장Ⅱ’는 예치금 100만 원 이하에 대해 연 최고 5.5%의 금리를 준다. 기본 연 5% 금리에, 오픈뱅킹을 등록하면 추가로 0.5%포인트의 우대금리를 받을 수 있다.  애큐온저축은행의 ‘머니모으기’ 상품 금리는 최고 연 5%다. 계좌를 5개까지 개설할 수 있고 계좌 합산으로 최대 1000만 원까지 최고 금리가 적용된다. 웰컴저축은행도 최고 연 3.8%의 금리를 제공한다. 언제든 인출할 수 있다는 특징 때문에 더 높은 금리를 찾아 이동하는 고객도 늘고 있다. 직장인 김모 씨(33)는 인터넷은행 파킹통장에서 저축은행 상품으로 갈아탔다. 김 씨는 “저축은행 금리가 5%대까지 올랐고, 5000만 원까지는 예금자 보호가 되기 때문에 새로 계좌를 만들었다”며 “예치 기간만큼 이자를 받을 수 있어 돈을 옮기는 데 큰 부담이 없다”고 말했다. ○ 언제든 인출 가능, 장기 투자엔 부적합파킹통장 인기가 높아진 데는 정기예금 금리의 하락이 영향을 미쳤다. KB국민·신한·하나·우리 등 4대 시중은행의 대표 정기예금 상품의 최고 금리는 연 3.98∼4.30%로 불과 한 달여 만에 1%포인트 이상 하락했다. 당국이 시중은행들에 수신금리 인상을 자제하라고 권고한 데다, 은행채 발행으로 자금 조달에도 여유가 생겼기 때문이다. 정기예금 금리가 내려오고 주식이나 부동산 투자도 쉽지 않은 상황이라 투자자들은 당분간 파킹통장을 임시 재테크 수단으로 활용할 것으로 보인다. 원할 때마다 별도의 손실 없이 자금을 인출할 수 있어 돈을 묶어두는 부담도 덜하다. 특히 케이뱅크와 토스뱅크는 매일 이자를 지급하는 상품들도 있어 가입자들은 하루만 맡겨도 이자를 바로 받을 수 있다. 다만 정해진 이자를 일정 기간 보장하는 예·적금과 달리 파킹통장의 금리는 시중금리의 추이에 따라 언제든지 도로 낮아질 수 있어 장기적인 관점에서 투자하기에는 부적합하다. 또 정기예금보다는 금리가 다소 낮은 점도 감안해야 한다. 서지용 상명대 경영학과 교수는 “저축은행들은 고객을 유인해야 하기 때문에 예대마진 축소 등의 손해를 감수하고서라도 기준금리 인상이 계속되는 올해 상반기까지는 파킹통장 금리 경쟁을 이어갈 것으로 보인다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2023.01.12.</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>쏘카 박재욱, 첫 주식 매수에 담은 '성장 시그널'</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000042121?sid=105</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>박재욱 쏘카 대표가 상장 후 처음으로 자사 주식을 매수한 것으로 확인됐다. 더불어 개인 홈페이지에 게시한 2022년 회고문에서도 '흑자 기업 쏘카'로의 전환을 암시했다.쏘카는 지난 9일 '임원·주요 주주 특정 증권 등 소유 상황 보고서'를 통해 박 대표가 4937주를 장내매수했다고 공시했다. 2022년 8월 쏘카가 유가증권 시장에 상장한 후 대표 개인으로서 첫 쏘카 주식 매수다. 규모는 당일 종가(1만9650원) 기준으로 환산 시 약 9700만원이다.박재욱 쏘카 대표. (사진=쏘카)업계는 이를 '박 대표의 자신감'으로 보고 있다. 10년 간 적자를 냈던 쏘카는 2022년 창사 이래 첫 연간흑자 달성이 거의 확실시되고 있기 때문이다. 주요 적자 요인인 자회사 VCNC를 비바리퍼블리카(토스)에 매각하고 쏘카가 비축해온 카셰어링 플랫폼 운영 노하우와 데이터 기반 사업 효율화를 통해 차량별 수익을 극대화한 덕분이다. '어닝 서프라이즈'였던 2022년 3분기 실적 공개 당시에도 쏘카는 "4분기 흑자 달성이 무난할 것"이라고 공언했다. 또 일반적으로 회사 임원의 자사 주식 매입은 주식 저평가 시기 '주가 부양' 혹은 '책임 경영 의지'를 드러내기 위한 수단인 경우가 많다. 박 대표의 주식 매수도 이 같은 맥락의 연장선상으로 볼 수 있다. 12일 쏘카 주식은 냉랭한 주식시장 분위기 속에 2022년 연말 대비 약 11% 하락한 1만9200원을 기록했다. 이처럼 주가 하락의 시기, 판도를 뒤바꿀 사업적 '한방'이 없다면 대표이사의 주식 매수가 주주들에게는 미래에 대한 긍정적 시그널(signal, 신호·암시)로 작용할 수 있다.아울러 박 대표는 공시일과 같은 9일 오후 개인 홈페이지에 게시한 '쏘카의 2022년을 보내며 정리한 10가지 배움'이란 글에서 수익을 내는 기업에 대한 강한 의지를 피력했다. 그는 "3개월마다 실적을 발표해야 하는 상장사가 된 후 적응에 어려움을 겪었지만, 꾸준히 좋은 실적을 숫자로 시장에 전달하는 것이 시장의 신뢰를 구축하는 중요한 단계", (경제 급변) 위기를 맞아 2022년부터 모든 사업계획은 영업이익을 내는 기업의 모습을 갖추는 데 초점을 맞췄다" 등 글 전반에 걸쳐 회사의 성장, 시장 기대에 부응하기 위해 경영자로서 고민했던 시간들을 회고했다.자료=(박 대표가 개인 홈페이지에 올린 2022년 회고문 갈무리)실제로 쏘카의 성장성을 가늠해볼 수 있는 핵심 지표인 '월평균 차량당 수익'은 최근 3년간 크게 늘었다. 쏘카 분기보고서에 따르면 2019년 102만원에서 2020년 118만7000원, 2022년 3분기에는 158만3000원을 기록했다. 이는 '아반떼' 1대로 2019년에는 한 달에 102만원을 벌었다면, 3년만에 158만원을 버는 수익 모델이 갖춰졌단 의미다. 이는 쏘카의 사업 모델이 보유차량 수를 늘려 렌탈 수익을 극대화하는 기성 렌터카와 달리, 인공지능(AI)과 데이터 기반 차량 가동률 향상과 관리비용 절감에 초점을 둔 '모빌리티 플랫폼'에 집중했기 때문이다. 예컨대 △차량 1대를 '쏘카존'에 손님이 올 때까지 방치하는 대신 고객 이용 패턴을 바탕으로 미리 수요가 예측되는 곳으로 이동시키는 것 △초단기 렌트를 위해 기존 렌터카에 없었던 편도 운행 지원 △고객이 쏘카 차량의 배송을 돕고 수익을 공유하는 '핸들러' 서비스 출시 등이 차량 수익 극대화를 위해 쏘카가 해온 노력들의 일환으로 꼽힌다. 이 같은 노하우에 자신감이 붙은 쏘카는 2023년에 보유 차량 수를 줄이면서도 매출은 더욱 끌어올리는 도전에 나설 계획이다. 차량별 수익을 지금보다 극대화할 수 있다면 불필요한 보유 차량은 매각해 현금화하고 평시 관리 비용은 더욱 줄이면서 수요에 모자라지 않는 모빌리티 서비스 제공이 가능해지기 때문이다. 또 인당 공헌이익이 비구독 회원보다 최대 4.7배 높은 구독 서비스 '패스포트' 가입자가 지속해서 증가하고 있다는 점도 쏘카 입장에선 긍정적이다. 더불어 2023년 쏘카의 사업을 관전해볼 핵심 포인트는 '모빌리티 슈퍼앱'으로의 진화 여부다. 슈퍼앱은 하나의 플랫폼에서 다수의 서비스를 동시 제공, 사용자의 편익을 극대화한 앱이다. 쏘카는 상장 당시에도 전기자전거 서비스 '일레클', '모두의 주차장' 등 일상 내 모빌리티 서비스를 쏘카 앱에 하나로 모을 계획임을 드러낸 바 있다. 4일에는 쏘카-KTX 묶음 예약 서비스를 출시하는 등 새해에도 슈퍼앱 저변 확대를 위한 행보도 지속 중이다.쏘카 관계자는 "쏘카의 슈퍼앱이 다른 중개형 플랫폼 경쟁사들과 다른 점은 '자체 보유 차량'을 활용하고 있다는 것"이라고 설명했다. 소유권을 온전히 보유한 자체 차량을 서비스에 더욱 유연하게 투입하고 최적화할 수 있다는 점, 사고 대응이나 운행 데이터 확보가 더 용이하다는 것 등이 자체 차량 보유의 장점이다.쏘카는 이 같은 자산을 토대로 2023년 어느 때보다 다양한 변화, 수익성이 개선된 사업들을 선보일 전망이다. 박 대표는 회고문 말미에 "2023년은 누구나 어려울 것이라 예상하는 시장 환경이 될 것"이라며 "불가능을 가능으로 만들고, 포기 대신 대응책을 만들어 나가는 기업가들의 열정이 어느 때보다 필요한 시기"라고 말했다. 또 동료 기업가들을 향해선 "회사가 사회를 위해 왜 존재해야 하는지에 대한 미션과 반드시 풀고 싶은 문제를 깊게 들여다보라"며 "2022년을 강타한 유행어 '중요한 건 꺾이지 않는 마음'처럼 마음이 꺾이지 않으면 언제든 재도전해 다음을 기약할 수 있을 것"이라고 전했다.한편 박 대표는 서울대학교 전기공학부·경영학과를 졸업하고 2011년 VCNC를 창업한 인물이다. VCNC의 커플 간 폐쇄형 SNS '비트윈'이 성공하며 업계의 주목을 받았다. 이후 2018년 쏘카가 VCNC를 인수한 뒤 차량공유 플랫폼 '타다' 개발에 일조했으며, 타다가 규제 문제로 초기 서비스를 중단한 2020년 회사를 떠난 이재웅 쏘카 전 대표의 뒤를 이어 쏘카 대표직에 올랐다. 2022년부터는 코리아스타트업포럼(코스포)의 의장도 겸하고 있다. 코스포는 약 1800개의 국내 스타트업이 참여 중인 국내 최대 스타트업 단체다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2023.01.15.</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>오늘부터 연말정산 간소화서비스…신용카드 · 대중교통 공제 확대</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/055/0001028332?sid=101</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>연말정산 간소화 서비스가 오늘(15일) 개통됐습니다.올해 연말정산에서 받을 수 있는 신용카드와 대중교통 공제는 더욱 확대됩니다.국세청에 따르면 근로자들은 이날부터 홈택스에서 간소화 자료를 확인해 내려받을 수 있습니다.올해는 간소화 서비스 간편인증이 지난해보다 확대된 점이 특징입니다.기존 인증 7종(카카오톡, 통신사PASS, 삼성패스, 국민은행, 페이코, 네이버, 신한은행)에 토스, 하나은행, 농협, 뱅크샐러드 등 4종이 추가되면서 이용자는 총 11종의 간편인증을 활용할 수 있게 됐습니다.보건복지부와 국가보훈처에서 수집한 장애인 증명자료도 간소화 자료로 제공됩니다.월세를 신용카드로 납부한 경우에는 국세청이 카드사로부터 신용카드로 결제한 월세액 자료를 수집해 제공하는 간소화 자료를 이용할 수 있습니다.신용카드 사용액과 대중교통 지출액에 대한 공제는 더욱 확대됩니다.개정 세법에 따르면 지난해 신용카드 사용액, 전통시장 사용액이 그 전해인 2021년보다 5% 넘게 증가한 경우 100만 원 한도에서 추가 소득공제를 받을 수 있습니다.대중교통 이용금액 소득공제는 지난해 7∼12월 이용분에 한해 공제율이 40%에서 80%로 올라갑니다.무주택 세대주인 근로자가 주택을 임차하기 위해 차입한 자금의 공제 한도도 300만 원에서 400만 원으로 확대됐습니다.지난해 12월 31일 기준 무주택 세대의 세대주가 주택법에 따른 국민주택규모 주택을 임차하기 위해 대출기관 등에서 주택 임차자금을 차입하고 차입금의 원리금 상환액을 지급하는 경우 상환액의 40%를 400만 원 한도로 소득에서 공제하는 식입니다.총 급여 7천만 원 이하 무주택 근로자가 지출하는 월세에 대한 세액공제율은 10∼12%에서 15∼17%로 올라갔습니다.월세 세액공제를 받으려면 작년 12월 31일 현재 무주택 세대 세대주로서 총급여액이 7천만 원 이하인 근로자여야 합니다.국민주택규모 이하나 기준시가 3억 원 이하인 주택을 임차하고 임대차 계약증서 주소지와 주민등록표 등본 주소지가 같은 경우 월세 세액공제를 받을 수 있습니다.세액공제액은 연 750만 원 한도 월세 지급액에 15∼17% 공제율을 곱해 계산하면 됩니다.이외 난임 시술비는 20%에서 30%로, 미숙아·선천성 이상아를 위해 지출한 의료비는 15%에서 20%로 각각 세액공제율이 상향됐습니다.지난해 낸 기부금에 대해서는 1천만 원 이하 20%, 1천만 원 초과 35% 세액공제가 적용됩니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2023.01.11.</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>2006년 등장한 토익스피킹, 여전히 스펙의 한자리 차지</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000885923?sid=102</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>/사진=이미지투데이 다변화하는 글로벌 시장 속 영어 독해와 쓰기 능력은 물론 말하기 능력이 중요시되면서 2006년 12월 국내에 토익스피킹이 처음 등장했다. 그리고 그동안 취업시장은 대외활동, 인턴 경험, 중국어 자격증 등 구직자들의 다양한 스펙 변천사가 있었지만, 토익스피킹은 토익과 더불어 영향력을 계속 펼치고 있다. 실제로 지난해 다수의 기업이 직원 채용 시 토익스피킹과 토익 등을 필수 어학 자격증으로 요구했다. 이처럼 채용시장에서 토익스피킹 활용도가 높아지면서 교육업계도 취업 준비생들을 위한 다양한 토익스피킹 강의들을 선보이고 있다.교육업계 관계자는 "최근 채용시장에서 지원자가 실제로 영어회화를 소화할 수 있는지에 대한 판단을 제시하면서 토익스피킹에 대한 기업의 수요가 높아졌다"며 "스피킹 시험에 대한 중요성은 앞으로도 계속될 것이고 구직자들의 견고한 필수 스펙으로 남을 것"이라고 전망했다. YBM인강의 'ETS 토익® 스피킹 기출단기공략'은 공식 주관사의 특성을 살려 ETS 기출문제로 기초부터 실전까지 적용 가능한 효율적인 학습을 내세운다. 토익스피킹 스킬을 빠르게 습득할 수 있고, 특히 현장 강의로 학습 효과가 입증된 YBM 토익스피킹 대표 강사 임한빈의 현장 수업방식 그대로 진행되는 것이 특징이다. 또 단순 암기를 통한 문장 나열을 벗어나 실제 면접과 업무 현장에서 실질적인 사용이 가능하도록 스피킹 능력 향상을 돕는다.YBM인강 관계자는 "ETS 토익® 스피킹 기출단기공략은 바쁜 취업 준비생들이 단기간에 토익스피킹 목표 레벨을 만들 수 있도록 구성된 강의다"라며 "신유형의 테스트 방식과 문제를 적용한 최신 강의로 학습자들의 선택을 받고 있다"고 말했다.모의연습을 통해 답변 시간을 체크하고 연습해 볼 수 있는 토익스피킹 학습 프로그램도 있다. 민병철유폰의 'TOEIC Speaking 1(중급)' 과정은 파트별 실전 모의고사와 최신 기출문제를 무제한으로 학습이 가능하여 토익 스피킹 필수 구문 발음을 반복 연습할 수 있다.또한 영단기는 모든 강좌 무제한 수강이 가능한 '영단기 토스 FREE PASS'를 운영 중이다. 영단기 토익스피킹 1타 강사진으로 구성돼 있으며, 최신 경향을 반영한 강의가 무제한 업데이트되는 것이 특징이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2023.01.10.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>두나무·컬리·토스 ‘IPO길’ 막막 … 속 타는 재무적 투자자</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005203033?sid=101</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>대다수 FI 투자 시점보다 기업가치 떨어져증시 침체로 IPO 시장 한파 이어져 사면초가 두나무·컬리·토스 등 국내 주요 유니콘(기업가치 1조원 이상 비상장 기업)의 밸류에이션(기업가치) 하락세가 심상찮다. 재무적 투자자(FI)들이 투자를 단행했던 당시의 밸류에이션보다 더 떨어지고 있어 현재로선 엑시트(투자금 회수) 길이 요원하다.10일 비상장 주식 거래 플랫폼 ‘서울거래 비상장’에 따르면 두나무의 전날 기준가는 11만5990원을 기록했다. 1년 전인 지난해 1월10일 주당 46만9000원에 거래된 것과 대조적이다. 시가총액도 14조원대에서 2조4590억원으로 급감했다. 거래량이 적어 등락률도 미미한 상태다. 가장 최근 체결 내역은 지난 6일 11만8000원에 6주가 거래된 게 전부다.FI들의 구주 거래도 좀처럼 이뤄지지 않고 있다. IMM인베스트먼트와 코오롱인베스트먼트는 지난해 두나무 구주를 내놨지만 매수자가 선뜻 나서지 않고 있다. 다른 FI들도 구주를 처분하길 바라고 있지만, 시장 상황이 나빠 이러지도 저러지도 못하고 고민을 거듭하고 있다. 앞서 두나무 주요 주주인 에이티넘인베스트먼트가 구주 일부를 매각해 100배에 이르는 멀티플을 기록한 것과 대조적이다.기업공개(IPO) 시장에서 대어로 손꼽히던 컬리에 투자한 FI들도 고민이 깊기는 마찬가지다. 지난해 8월 상장예비심사를 통과한 지 4개월여 만인 지난 4일 상장 철회를 선언했다. 시장 상황이 나아지면 다시 상장을 시도하겠다고 했다. 그러나 이마저도 쉽지 않을 전망이다. 한때 4조원에 이르렀던 컬리의 기업가치는 9일 기준 장외 시장에서 9034억원으로, 1조원마저 밑돌았다. 업계에선 이 정도 기업가치로는 올해 안에는 IPO가 불가능하다고 보고 있다. SK네트웍스 등 컬리의 FI는 여전히 구주를 처분하지 못하고 있다.IB 업계 관계자는 “두나무의 경우 업비트 거래량 급감으로 거래 수수료 수입이 큰 폭 줄었지만, 그간의 호황 덕에 상당한 현금을 보유하고 있어 수년간 버틸 체력은 있다”며 “다만 컬리는 창업자인 김슬아 대표의 지분이 5.75%로 낮다는 점과 함께 영업적자가 이어지고 있다는 점이 리스크로 부각된다”고 말했다.지난해 8월 상장예비심사를 통과한 컬리는 4개월여 만인 지난 4일 상장 철회를 선언했다. 사진은 김슬아 컬리 대표.토스 역시 밸류에이션 하락을 피하지 못하고 있다. 1년 전 주당 12만5100원에 거래됐지만, 현재는 3만7000원 수준이다. 지난해 시리즈G에 참여한 L&amp;S벤처캐피탈·페블즈자산운용을 비롯해 미국 벤처캐피탈(VC) 하베스트그로스캐피탈, 굿워터캐피탈, 제스퍼릿지파트너스 등은 손실이 불가피한 상태다. 업계에선 토스가 무리하게 사업을 확장한 게 부메랑이 되어 돌아오고 있다고 지적한다.증시 분위기도 우호적이지 않다. 올해 IPO 첫 주자인 한주라이트메탈과 티이엠씨의 9일 수요예측 결과는 엇갈렸다. 한주라이트메탈은 기관 대상 수요예측에서 흥행을 기록했지만 최대어로 꼽혔던 티이엠씨는 기대에 미치지 못했다. 다만 상장 완주 의지를 밝히며 일반청약에서의 흥행을 기대하는 모습이다.이런 가운데, 네이버가 그동안 투자한 스타트업의 지분 매각을 적극 추진하고 있다는 점도 두나무·컬리·토스 등에 투자한 벤처캐피탈(VC)들에 부담이다. 네이버는 ‘오늘의집’ 운영사 버킷플레이스를 비롯해 주요 스타트업 지분을 시장에 내놨다. 평균 50% 할인된 밸류에이션을 제시했지만, 추가 할인 요구가 빗발치고 있다. 일각에선 스타트업 간 인수합병(M&amp;A)을 기대하는 목소리도 나온다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2023.01.05.</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>콧대높은 금융사가 스타트업 '핀다'와 상생관계 맺는 이유는?</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000042042?sid=105</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>이혜민(왼쪽), 박홍민(오른쪽) 핀다 공동대표.'금융사와 스타트업은 일종의 갑을관계'라는 시쳇말이 있지만 대출 중개 및 관리 서비스를 제공하는 핀테크 기업 핀다에는 예외다. 단순히 대출 모집을 외주 맡기는 것이 아닌 금융사의 핵심인 신용평가시스템(CSS)을 핀다에 개방하는 파트너 관계로 자리잡고 있다. 이는 금융사가 핀다와의 협력으로 비용을 절감하고 영업 효율성을 높이는 실익을 봤기 때문으로 해석된다.5일 핀다에 따르면 2022년 한 해 동안 핀다에서 가장 많은 대출을 일으킨 저축은행 상위 5개사는 오프라인 대출모집인과 비교했을 때 1개 저축은행당 월평균 1억1779만원의 수수료를 아낀 것으로 나타났다. 고객을 모으기 위해서 오프라인 지점과 모집인 운영 비용 및 마케팅에 쓰이는 각종 판관비용 등을 상당부분 아낄 수 있던 것이다.다른 대출비교 플랫폼의 수수료와 비교했을 경우에도 핀다가 가장 저렴한 수수료를 수취했다. 고정 수수료율 구조를 갖춘 타 플랫폼과 핀다 수수료를 비교했을 때, 해당 5개 저축은행사의 월평균 수수료는 약 2548만원의 차이가 났다. 핀다는 업계 최초·유일하게 금리 연동형 수수료 체계를 갖추고 있어, 금융회사가 고객에 제공하는 금리를 낮추면 자동적으로 대출모집 수수료가 내려가기 때문이다.핀다 수수료 체계를 통해 비용을 아낀 금융사들은 고객을 위한 상품 설계에 매진했다. 핀다와 제휴한 63개 금융회사 중 매월 5곳 이상이 우대금리 이벤트에 참여했으며, 이렇게 만들어낸 우대금리는 월평균 1.69%포인트에 달했다. 통상 우대금리를 받기 위해 신용카드의 실적을 충족하거나 자동이체를 설정해야 하는 등의 번거로운 절차를 거치지 않고, 핀다 앱 서비스만 쓰면 우대금리 혜택을 받을 수 있도록 하면서다.특히 고객 유치가 어려웠던 중소저축은행들의 핀다 앱 서비스를 통한 대출 취급액 규모가 지난 한 해 동안에만 64% 늘어났다. 이는 10대 대형 저축은행의 규모 성장세인 41%보다 높은 수치다. 자본과 인력이 상대적으로 부족한 중소저축은행들이 상품성만으로 고객에게 선택을 받을 수 있었던 결과로 해석된다.핀다와 제휴하고 있는 H저축은행 관계자는 "핀다는 대출비교 플랫폼 중 가장 합리적인 수수료 체계를 갖추고 있다"며 "작년 10월만 수수료 비용을 계산해보니 고정 수수료를 받는 타 플랫폼 보다 약 45%나 절감할 수 있었다"고 말했다.핀다와 제휴 중인 한 캐피털 업체 관계자 또한 "금리와 연동되는 핀다의 수수료 구조 덕분에 고객을 위한 우대금리 설계를 더욱 많이 할 수 있어 긍정적"이라며 "실제로 핀다와 손잡은 이후 고객이 늘고 매출 또한 22% 정도 늘어나 앞으로도 핀다와 꾸준히 파트너십을 이어갈 예정"이라고 설명했다.핀다와 금융사 파트너십에 고객 '호평' 릴레이구글 플레이스토어에서 '핀다' 앱 이용자들의 리뷰를 보면 다른 대출비교 플랫폼에서는 실패했지만 핀다를 통해서는 대출에 성공했다는 호평이 많다. 업계에 따르면 대출비교 서비스를 제공하는 스타트업을 '광고 채널'로 여기는 금융사들의 보수적인 기류가 있다. 속칭 '대출 하청업체'로 보는 셈이다.이런 금융사들은 신용평가사 KCB(코리아크레딧뷰로) 신용평점으로만 금리와 한도를 산정해 대출비교 플랫폼에 예상 결과값을 준다. 이 가결과값으로 대출을 기대하고 해당 금융사 채널로 이동한 고객은 소득과 재직상태 등의 최종 심사를 받고 승인이 거절되는 경우가 허다하다. 이렇게 유쾌하지 않은 경험을 한 고객은 대출비교 플랫폼에 불만을 가지는 결과로 이어진다.핀다는 자사 조회결과와 금융사 심사결과를 일치시키는 것을 핵심 목표로 설정했다. 이를 위해 핀다는 고객 인증서를 바탕으로 건강보험공단 보험료 납부 데이터를 스크래핑해 소득을 산출, 금융사의 신용평가시스템(CSS)에 접속해 최종적인 가심사 결과를 고객에게 보여준다. 이렇게 정합성 높은 데이터에 기반해 대출에 성공했다는 고객들의 후기가 많은 것으로 분석된다.2022년 핀다는 업계 최다인 62개 제휴 금융사에 2억8500만번 상품 조회를 요청, 기존 대출 과정에서 고객이 필요로 했던 1750만 시간을 절약했다. 핀다와 2020년 3월부터 제휴해 대출 비교 서비스를 제공하고 있는 BNK저축은행 관계자는 "핀다에서 보내주는 고객의 인증서 기반 서류제출 과정을 완전 비대면으로 당행 신용평가모델에 적용, 정확한 대출 심사 결과를 제공하면서 실적 개선에도 큰 도움이 됐다"고 전했다.다만 핀다라고 해서 금융사들의 대출시스템 개방을 100% 이끌어내진 못하고 있다. 회사에 따르면 제휴를 맺은 금융사의 절반가량이 핀다와 협력해 건강보험공단 스크래핑 데이터를 활용한다. 개방을 하지 않은 금융사를 통해서는 핀다를 이용해도 대출에 실패하는 경우도 존재한다.핀다 관계자는 &lt;블로터&gt;에 "인증서 사용 금융사라는 태그도 도입하는 등 자꾸 자극을 하면 금융사가 스크래핑 데이터를 쓸 수밖에 없을 것이다"라며 "인증서를 쓰지 않는 금융사가 이제는 소수가 될 것"이라고 자신했다.중견기업 수준의 핀테크 기업인 비바리퍼블리카(토스)를 비롯해 카카오페이, 네이버파이낸셜 등 빅테크까지 대출비교 시장에 진입하고 있지만 핀다는 자사가 쌓아온 '트랙레코드'에 기반해 이러한 비교우위가 유지될 것으로 보고 있다.이혜민 핀다 공동대표는 "핀다는 수많은 금융사의 다양한 대출상품 중 고객에게 가장 유리한 상품을 추천해주는 빅데이터 플랫폼으로서의 역할을 수행하면서도 제휴 금융사와의 동반성장을 꾀할 수 있는 가장 합리적인 수수료 체계를 설계해 운영하고 있다"라며 "앞으로도 금융사와 핀다가 고객을 위해서 함께 만들어낼 수 있는 상생경영 시스템을 다각도로 구축하고 선도할 수 있도록 노력하겠다"고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2023.01.06.</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>인터넷은행 '벼랑 끝' 자영업자 대출 외면…포용금융 '무색'</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002673335?sid=101</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>저신용 신용대출 사실상 전무"이자 부담에 수요 줄었을 뿐"케이뱅크, 카카오뱅크, 토스뱅크. ⓒ각 사[데일리안 = 김효숙 기자] 인터넷전문은행들이 벼랑 끝에 놓인 저신용 자영업자를 상대로 사실상 대출을 내주지 않고 있는 것으로 나타났다. 겉으로는 본격적으로 개인사업자 대출 시장에 뛰어들겠다고 선언하면서도, 상대적으로 신용도가 낮은 취약 고객은 외면하고 있는 실정이다. 금융시장에서 소외된 소비자를 품겠다며 출범한 인터넷은행의 두 얼굴을 둘러싸고 지적이 나온다.6일 은행연합회에 따르면 카카오뱅크와 케이뱅크, 토스뱅크 등 인터넷은행 3사는 지난해 9월부터 11월까지 신용 7등급 이하 개인사업자를 대상으로는 신규 신용대출을 취급하지 않았다.해당 신용등급은 은행연합회 비교 공시를 위해 마련된 것으로, 신용점수제 도입 이전에 쓰이던 신용등급과는 다른 수치다. 은행별 부도율을 기준 삼아 10등급 체계로 변환해 매긴 값이다.회사별로 보면 케이뱅크는 1~4등급의 개인사업자에게만 대출을 내줬다.카카오뱅크는 1~5등급까지, 토스뱅크는 1~6등급까지 자영업자에게 대출이 나갔다.공시 대상 19곳 국내 은행들 중 인터넷은행을 제외하면, 조사 대상 기간 7~10등급 개인사업자 신용대출 실적이 없는 곳은 KDB산업은행과 SC제일은행, 한국씨티은행 뿐이다. 이중 산업은행과 씨티은행은 현재 개인사업자 신규대출을 취급하지 않고 기존에 받았던 대출 중 만기연장 되는 대출만 지표에 잡힌다.인터넷은행은 지난해부터 본격적으로 자영업자, 소상공인 대출 시장에 뛰어들었다. 여신 포트폴리오를 다양화해 수익성을 높이는 동시에 혁신과 포용금융을 통한 '금융권 메기' 역할까지 약속했다.토스뱅크는 지난해 2월 인터넷은행 중에서는 처음으로 개인사업자 대출을 출시했다. 그해 5월에는 개인사업자대출 노하우를 쌓아 한도 5000만원의 '사장님 마이너스 통장'을 선보였다. 케이뱅크도 같은해 9월 최대 1억원 한도의 개인사업자 전용 신용대출 '사장님 대출'을 출시했다.카카오뱅크까지 같은 해 11월 개인사업자 신용대출을 출시했다. 당시 카카오뱅크는 "대안평가모델을 위해 금융 이력 부족 고객에게 합리적인 평가 체계를 제공해 금융포용을 강화할 것"이라고 말했다.인터넷은행이 저신용 자영업자 대출을 외면하고 있는 것은 포용금융과 혁신금융의 역할, 설립 취지에 충돌한다는 지적이 나온다.이들은 기존 시중은행이 포용하지 못하는 신용점수가 낮은 사람들이 사채 시장으로 빠지는 것을 막고 제도권 금융을 이용하게 하자는 취지로 탄생했다. 중저신용 대출 비중 목표도 각각 부여받아 매년 이를 달성해야하는 과제도 있다.인터넷은행 관계자는 "개인사업자 대출 사업이 출시된지 오래되지 않았고 최근 기준금리 인상으로 이자 부담이 많아지면서 수요가 다소 적었던 측면도 있다"며 "시중은행에서 받지 못한 중저신용자까지 대출이 나가고 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2023.01.09.</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>“증권업계도 자구책 마련하라” PF 위기·금감원 눈총에 중소형 증권사 울상</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/037/0000031844?sid=101</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>브리지론 장기화에 증권사 부담↑… 중소형 증권사 후순위채 비율 최고이복현 금융감독원장이 1월 2일 서울 여의도 한국거래소에서 열린 증권·파생상품시장 개장식에 참석해 축사를 하고 있다. [뉴스1]“자기 책임 원칙하에 유동성 리스크 관리를 잘한 기관과 그렇지 않은 기관에 차이를 둘 수밖에 없다. KDB산업은행 등을 통해 유동성을 공급하는 것은 대주주와 금융사의 자체적인 자구 노력을 전제로 한 것이다. 특정 금융사를 말씀드리지는 못하지만 대원칙을 갖고 진행 중이다.”이복현 금융감독원장이 지난해 12월 21일 ‘사전지정운용제도 현장 안착을 위한 퇴직연금사업자 간담회’에서 한 이 발언의 후폭풍이 거세다. 증권가는 금융감독원이 무리하게 부동산 프로젝트파이낸싱(PF)을 추진해 자금시장 불안을 촉발한 증권사들에 사실상 책임을 묻겠다는 입장을 밝힌 것이라면서 신년부터 긴장감이 높아지고 있다. 이 원장은 1월 1일 신년사에서도 “부동산 PF, 해외 대체투자 등 고위험자산 리스크를 집중 점검해 손실흡수 능력을 확충하는 등 선제적 관리에 만전을 기하겠다”고 거듭 강조했다. 자기자본 대비 PF 비중이 높은 일부 중소형 증권사에 대해서는 신년부터 각종 조치를 예고한 상태다.“업계 전반에 불안감 있어”중소형 증권사들이 올해 그 어느 때보다 힘든 시기를 보낼 것이라는 전망이 많다. 부동산 PF가 경제위기의 최대 뇌관으로 부상하면서 증권사는 건설사와 불편한 동거를 이어가고 있다. 레고랜드 사태, 흥국생명 콜옵션 미행사 사태 등은 금융당국의 도움으로 위기를 넘겼지만 1월 17조 원 규모의 부동산 PF 자산유동화 기업어음 만기가 예정돼 있어 PF 위기는 끝나지 않았다.최근 금융당국이 “증권업계도 자구책을 마련하라”고 주문한 만큼 자체 수술이 불가피하다는 지적도 나온다. 금융투자업계 한 고위 관계자는 “우려했던 것보다 금융당국이 금융투자업계의 생존에 신경 쓰고 있다고 느꼈다”면서도 “업계 전반에 불안감이 있는 것은 사실”이라고 말했다.부동산 PF 사업은 자금을 얼마나 원활하게 충당하느냐에 따라 성공 여부가 갈린다. 증권사 역할은 마중물 붓기다. 증권사는 PF 사업 초기 시행사에 일시적으로 ‘브리지론(bridge loan)’을 제공하며 사업에 참여한다. 증권사가 마련한 브리지론은 토지 매입 등 부동산개발사업 인허가 단계에서 필요한 비용을 충당하는 데 사용된다. 이후 기관투자자가 사업에 참여해 본 PF 자금이 충당되면 증권사는 단기 대출을 청산할 수 있다. 업계에서는 이를 두고 “브리지론을 턴다”고 표현한다.문제는 지난해 부동산시장이 얼어붙으면서 기관투자자가 부동산 PF에 나서지 않고 있다는 점이다. PF 사업이 미뤄지면서 증권사가 부담한 단기 대출이 장기화되고 있는데, 지난해 기준금리가 급격히 인상된 만큼 관련 비용도 커지고 있다. 신용조사 전문업체 나이스신용평가에 따르면 지난해 상반기 부동산 PF 유동화증권의 23%가 착공 전 사업장에서 발행된 것으로 나타났다.신용평가업계 역시 이 같은 실태를 경고하고 나섰다. 한국기업평가는 “PF 우발채무 중 브리지론 비중이 크거나 비금융그룹 증권사의 경우 유동성 대응력 유지에 어려움이 있을 것으로 예상된다”고 전망했다. 특히 “조정유동성비율(유동성 부채와 우발채무를 합한 금액 대비 기존 유동성 자산의 비율)이 100%를 밑돌거나 근접한 일부 증권사는 모니터링이 필요하다”고 강조했는데, 상대적으로 규모가 크지 않은 증권사에서 이 같은 양상이 드러났다. 한국기업평가에 따르면 지난해 9월 기준 국내 23개 주요 증권사 중 유진투자증권이 90.7%로 조정유동성비율이 가장 낮았고 대신투자증권(92.9%)이 뒤를 이었다. 다올투자증권과 교보증권은 조정유동성비율이 100.2%로 기준치에 근접한 모습을 보였다. 다올투자증권은 자기자본 대비 PF 비중도 84%로 증권사 중 가장 높았다(그래프1 참조). 중소형 증권사를 중심으로 유동성 위기 적신호가 켜진 셈이다.다올투자증권, PF 비중 가장 높아본 PF에 들어섰더라도 안심할 수 없는 상황이다. 국내 주요 금융기관인 A 사는 지난해 참여한 PF 사업이 다수 무산될 뻔했다. 시행사가 당초 약정한 인출 후행 조건을 충족하지 못하면서 기한이익상실(EOD) 선언 목전까지 간 것이다. A 사 관계자는 “당초 자사는 인출 후행 조건을 내건 부동산 PF에는 참여하지 않았는데, 최근 완화적으로 PF에 참여하다 이 같은 일이 벌어졌다”고 말했다.그간 금융기관은 주로 시행사가 개발인허가·토지 확보 등 인출 선행 조건을 충족해야 PF 자금을 조달해줬다. 코로나19 사태 이후 유동성 장세가 펼쳐져 추세가 바뀌었다. ‘PF 붐’이 일면서 금융기관이 투자 기준을 느슨하게 푼 것이다. 시행사가 “일정 기간까지 특정 요건들을 충족하겠다”고 약정하면 PF 자금을 조달해주는 등 인출 후행 조건을 대거 수용한 것이 대표적이다. 문제는 이 과정에서 사업성이 제대로 검증되지 않은 PF가 무리하게 추진되는 일이 발생했다는 것이다.인출 후행 조건이 충족되지 않아 PF 사업이 무산되더라도 선순위 채권자의 경우 피해가 적다. 문제는 후순위로 PF에 참여한 경우다. 한국기업평가는 “일반 증권사 사이에서 중·후순위 비중이 큰 현상이 나타나고 있다”고 경고했는데, 특히 중소형 증권사에서 이 같은 현상이 두드러졌다. 한국기업평가가 지난해 3분기를 기준으로 국내 주요 증권사의 변제순위별 익스포저(위험노출액) 비중을 조사한 결과 소형사＞중소형사＞중대형사＞대형사 순으로 후순위채 비중이 컸다(그래프2 참조). 중소형 증권사가 부동산 PF의 약한 고리로 작용하는 셈이다. 최근 서울 강동구 둔촌주공아파트의 청약 흥행이 실패하면서 부동산 PF 시장의 위기감이 다시금 커지고 있다.“제 살 깎는 고통 감내하겠다”부동산시장의 바로미터로 관심이 집중된 서울 강동구 ‘올림픽파크포레온’(둔촌주공 재건축)이 1월 3일부터 일반분양 정당계약을 시작했다. [뉴스1]금융투자업계는 ‘자금 확보’에 총력을 기울이며 PF발(發) 위기에 대응하겠다는 입장이다. 업계에서는 자회사를 매각하거나 인력을 줄이는 식으로 유동성 위기에 대응하고 있다. 이창근 다올투자증권 사장은 1월 2일 신년사에서 “지난해 상반기 사상 최대 이익을 기록했지만 하반기 자금시장 불안으로 갑작스러운 위기를 맞이해 제 살을 깎아내는 고통을 감내했다”고 말했다. 다올투자증권은 지난해 12월 6일 배달의민족(우아한 형제들), 토스(비바리퍼블리카) 투자로 유명한 1세대 벤처캐피털(VC)인 다올인베스트먼트 매각에 나선 바 있다. 자사가 보유한 지분 전량(52%)을 매각하는 조건이다. 현재 우리금융지주가 다올인베스트먼트의 경영권 인수에 나선 것으로 알려졌다.금융감독원 전자공시시스템에 따르면 다올투자증권은 지난해 12월 22일 이사회 의결을 통해 단기 차입 한도를 2조8000억 원에서 3조 원으로 늘리기도 했다. 혹시 모를 상황에 대비해 유동성 확보 통로를 확장해둔 것이다. 유진투자증권(3000억 원), 현대차증권(3000억 원), BNK금융증권(800억 원) 등도 레고랜드 사태 이후 단기 차입금 한도를 늘리겠다고 공시한 바 있다. 이 밖에 다올투자증권, 케이프투자증권, 하이투자증권, 이베스트투자증권은 지난해 희망퇴직을 신청받는 등 감원에 나섰다.금융위원회는 올해 금융계·건설계·연구기관 등이 참여하는 협의체를 구성해 부동산 PF가 연착륙하도록 돕겠다는 계획이다. 김소영 금융위원회 부위원장은 1월 4일 국민의힘과 여의도연구원 공동 주최로 국회에서 열린 ‘힘내라 우리 경제 도약하는 한국금융’ 토론회에 참석해 “금융시장 불안 요인에 선제적으로 대응할 계획이며, 관계기관과 긴밀히 협의하는 가운데 기존 시장 조치를 보완·확대할 것”이라고 밝혔다. 정부는 지난해 레고랜드 사태로 자금시장이 얼어붙자 채권시장안정화펀드를 조성하는 등 긴급하게 유동성을 공급했다. 당시 한국은행, IBK기업은행 등이 기업어음과 회사채를 매입해 50조 원 상당의 시장안정화 조치를 취했다.*유튜브와 포털에서 각각 ‘매거진동아’와 ‘투벤저스’를 검색해 팔로잉하시면 기사 외에도 동영상 등 다채로운 투자 정보를 만나보실 수 있습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2023.01.03.</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>토스, 영세·중소 사업자 간편결제 수수료 최대 1.6%로 인하</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000037449?sid=101</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>기존 대비 최대 47% 인하오는 2월 1일부터 적용     토스페이 결제수수료 인하. [사진 토스]    비바리퍼블리카(토스)가 영세·중소가맹점을 대상으로, 자사의 간편결제 서비스인 ‘토스페이’ 결제 수수료를 대폭 인하한다고 3일 밝혔다.    앞으로 연 매출 3억원 이하 영세 가맹점의 토스페이 수수료는 1.60%로 낮아진다. 이는 기존 대비 약 47% 인하된 수치다. 또 연 매출 3억~30억원 이내의 중소 가맹점도, 매출 규모에 따라 1.90~2.40%로 인하된다.    토스페이는 토스 앱에서 결제카드 혹은 은행계좌 등록 후 사용이 가능한 간편결제 서비스다. 지난해 말 기준 토스페이 도입 가맹점 숫자는 2만5000개를 넘어섰다. 같은 기간 거래액 증가율은 85%에 달하는 것으로 집계됐다.    그동안 토스페이 수수료는 매출 규모 구분 없이 3%로 고정됐다. 해당 수수료에는 간편결제에 연계된 카드사나 결제은행에 토스가 지급하는 수수료, 지급결제대행(PG)사 수수료 등이 포함돼 있다. 새 수수료 정책은 오는 2월 1일부터 적용될 예정이다.      이번 조치는 코로나19 및 정책금리 인상 등으로 영세·중소 사업자들의 경영 환경이 어려운 상황을 감안해 사업자들의 수수료 부담을 최소화하고 영업을 지원하자는 자발적 노력의 일환으로 결정됐다는 게 토스 측의 설명이다.    토스는 2022년 8월부터 일부 영세 가맹점을 대상으로 토스페이 계좌 결제 수수료를 인하해왔다. 토스 관계자는 “이번 정책 도입은 보다 많은 영세·중소 가맹점이 혜택을 볼 수 있도록 매출 규모 별로 표준 인하 수수료를 마련했다는 데 의의가 있다”고 설명했다.      최재호 토스 사업전략총괄(Business Strategy Lead)은 “토스페이는 토스앱을 통한 간편한 결제 경험과 빠른 연동으로 영·중소 가맹점과 함께 성장을 해왔다”며 “이번 간편결제 수수료 인하로 가맹점의 부담은 덜고, 많은 고객이 토스페이를 경험할 수 있는 계기가 되기를 바란다"고 말했다.    한편, 토스는 모든 사업자가 편리하게 토스페이 가맹점 신청을 할 수 있도록 토스페이 홈페이지도 전면 개편했다. 토스페이 홈페이지에서는 수수료 등 다양한 정보를 확인할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2023.01.09.</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>[단독] 씨티은행 신용대출 잔액 3조원, 타행으로 이동… KB·토스가 2조원 흡수</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000868490?sid=101</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>한국씨티은행 본점 앞을 한 여성이 지나가고 있다. /한국씨티은행        한국씨티은행이 국내에서 소매금융 사업을 철수한 이후 개인신용대출 잔액 중 3조원이 다른 은행으로 옮겨간 것으로 확인됐다. KB국민은행과 토스뱅크가 신용대출 갈아타기(대환) 물량 중 2조원을 확보, 씨티은행이 소매금융에서 손을 뗀 데 따른 이득을 가장 크게 본 것으로 나타났다.9일 금융감독원에 따르면 씨티은행의 신용대출 잔액은 대환 작업 전인 지난해 7월 7조6000억원에서 올 초 4조6000억원으로 감소했다. 씨티은행이 다른 은행으로 신용대출을 갈아타려는 고객에 대한 대환 작업을 진행한 지 6개월 만에 3조원의 자금이 다른 은행으로 이동한 것이다.씨티은행은 지난해 1월 소매금융 사업 철수에 따른 이용자 보호 계획을 발표하고 개인대출 등 소매금융 상품에 관한 정리 방안을 내놨다. 계획안에 따르면 씨티은행은 대출 고객이 영업점 축소로 인한 불편 등을 이유로 다른 금융사로 대출 대환을 희망하는 경우 대출을 쉽게 옮길 수 있도록 했다.씨티은행은 대환 제휴 은행으로 KB국민은행과 토스뱅크를 선정했다. 대환 대출 작업은 전산 개발 등의 준비를 마치고 지난해 7월부터 시작했다.씨티은행에서 빠져나온 개인신용대출을 가장 많이 확보한 곳은 KB국민은행과 토스뱅크였다. 두 은행은 각각 1조원가량의 씨티은행 대출 자산을 이어받았다. 이들 은행은 씨티은행과 대환 대출 제휴를 맺어 다른 은행보다 대환 고객 확보에 유리한 고지를 점한 것으로 파악됐다.나머지 1조원의 씨티은행의 신용대출 자산은 다른 은행들이 골고루 나눠 확보한 것으로 전해졌다. 금융 당국 관계자는 “나머지 대출 자산은 다른 은행들이 고르게 대환 물량을 가져갔다”며 “각각 1조원씩 대환 물량을 확보한 KB국민은행과 토스뱅크를 제외하고는 눈에 띄는 쏠림 현상은 없었다”고 말했다.은행들은 지난해 하반기 씨티은행의 개인신용대출 자산을 확보하기 위해 치열한 경쟁을 벌였다. 일부 은행은 대출 대환에 필요한 수수료를 면제하거나 최대 3%의 우대 금리를 제공하는 등 씨티은행 고객을 유치하는 데 공을 들였다. 씨티은행의 대환 대출 물량은 금융 당국이 제한하는 은행별 가계대출 총량에 포함되지 않고, 차주별 총부채원리금상환비율(DSR) 규제 대상에서 제외되기 때문이다.단순히 가계대출의 총량을 늘리는 것에 그치지 않고 가계대출의 질도 높일 수 있는 기회라는 점도 은행들이 씨티은행 대환 물량 확보에 나선 이유로 꼽힌다. 씨티은행의 개인신용대출은 전문직 등 고신용자 위주로 실행돼 우량 자산으로 분류되고 있다.씨티은행에 아직 남아있는 4조원의 개인신용대출은 다른 은행으로 이동하거나 대출 만기까지 유지할 수 있다. 씨티은행은 신용대출의 만기를 오는 2026년 말까지 연장했다. 이후에는 분할상환 방식으로 전환하고 상환 기간을 최대 7년 부여한다. 대출 고객은 원리금분할상환 또는 원금균등분할상환 등 상환 방식을 선택할 수 있다.한편 금융 당국은 씨티은행이 제출한 소매금융 철수 이용자 보호 계획을 정기 점검하고 있다. 씨티은행은 신규 계약 중단 관련 고객 안내, 대출상품 만기연장 및 중도상환수수료 면제, 신용카드 유효기간 연장, 현금자동입출금기(ATM) 운영과 정보보호 등 이용자 보호 계획 관련 상시 업무를 진행하고 있다.금융위원회는 지난해 1분기 점검에서 “씨티은행은 이용자 보호 계획의 체계 있는 관리를 위한 체크리스트 마련 등 내부 점검 프로세스를 구축하고, 상시 이행이 필요한 업무를 지속해 수행하고 있는 것으로 판단된다”고 평가했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2023.01.07.</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>우리금융, 다올인베스트먼트 인수 3000억 베팅?</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002087940?sid=101</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>다올, PF발 유동성 위기…자금 조달 속도손태승 "비은행 포트폴리오 확대"[헤럴드경제=김성미 기자] 우리금융그룹이 비은행 사업 포트폴리오 확대를 위해 다올금융그룹의 벤처캐피탈(VC) 다올인베스트먼트 인수를 추진한다.7일 금융업계에 따르면 우리금융그룹은 다올인베스트먼트 지분 52%를 약 3000억원 수준에 인수하는 방안을 추진 중이다. 다올인베스트먼트의 시가총액은 약 3335억원으로 지분가치(1734억원)에 경영권 프리미엄이 반영된 가격이다. 다만 인수조건에 금융부채 정리가 포함되면서 우리금융 측의 실질적 매입가는 더 낮은 수준으로 분석된다.이번 인수전에는 미래에셋그룹, 신영증권, 유진그룹 등이 유력한 인수후보로 떠올랐으나, 우리금융이 시장에서 거론되는 인수가(2000억원대)보다 더 높은 금액을 제시하면서 논의에 속도가 났다는 게 업계 전언이다. 우리금융은 지난해 말 다올인베스트먼트 인수를 위한 투자의향서(LOI)를 제출한 이후 가격 협상을 진행 중인 상황이다.이번 인수합병(M&amp;A)은 비은행 사업 포트폴리오 확대를 원하는 우리금융과 자금 수혈이 필요한 다올투자증권 측의 이해관계가 맞아떨어지며 본격화된 모습이다. 다올투자증권은 부동산 프로젝트파이낸싱(PF) 발 유동성 위기가 불거지자 자금 조달을 위해 계열사 매각을 진행하고 있다.한국신용평가에 따르면 지난해 3분기 다올투자증권의 우발채무는 6460억원으로, 자기자본 대비 93.0%다. 다올인베스트먼트는 1981년 설립된 국내 1세대 VC로, 비바리퍼블리카(토스), 우아한형제들(배달의민족) 등에 투자한 바 있다. 다올투자증권은 이외에도 다올신용정보를 130억원에 메이슨캐피탈, 리드캐피탈매니지먼트에 매각했다. 또 태국법인 매각도 진행 중이다.우리금융은 민영화 과정에서 옛 우리투자증권(현 NH투자증권)과 우리아비바생명(현 DGB생명) 등을 분리 매각하면서 이른바 5대 금융지주 중 비은행 부문이 상대적으로 약한 것으로 평가된다. 이에 그동안 그룹 시너지 효과를 가장 크게 낼 수 있는 증권사 인수를 가장 우선 추진해왔으며, VC에도 눈독을 들여왔다.손태승 우리금융지주 회장은 올해 신년사에서 "시장 환경이 어려울수록 자회사들의 핵심사업 시장 지위를 제고해 수익기반을 강화해야 한다"며 "올해는 증권과 보험, VC 등 지난해 시장이 불안정해 보류한 비은행 사업 포트폴리오 확대의 속도를 높일 것"이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2023.01.10.</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>티머니고, UI·UX 개편…네이버·토스페이 간편결제 추가</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002279211?sid=105</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>버스·지하철 도착정보 터치 한 번에 확인 가능티머니고(GO)가 사용자환경·경험(UI·UX)를 개편했다고 10일 밝혔다. 대중교통과 연결된 이동이 주는 혜택과 가치를 고객이 직접 체감하도록 서비스를 제공하겠다는 전략이다.먼저 버스, 지하철 도착정보를 터치 한 번에 확인할 수 있으며, 택시호출이나 따릉이, 씽씽 등 공유 킥보드 대여가 간편해졌다. 새롭게 선보인 ‘마이’ 메뉴를 통해 개인별 모빌리티 이용 빈도를 시각적 효과로 한눈에 알아볼 수 있다. ‘나의 이동 거리’를 통해 이용한 대중교통 이동거리와 티머니고 서비스 총 이용거리를 쉽게 확인할 수도 있다.‘하루하루 출석체크’ 기능도 새롭게 선보였다. 출석룰렛을 통해 하루 최대 500마일리지를 받을 수 있으며, 월 누적 출석을 달성하면 추가로 획득이 가능하다. 또 티머니고에 환경·사회·지배구조(ESG) 경영 요소를 접목해 대중교통 이용만으로 이산화탄소 절감에 얼마나 기여를 할 수 있는지 구체적인 수치와 이미지로 접할 수 있다.(사진=티머니)티머니고는 간편 결제 영역에 네이버페이와 토스페이를 추가하며, 고객 편의성을 제고하기도 했다. 회사는 UI·UX 개편을 기념해 31일까지 온다택시 신규 가입자를 대상으로 1만원 할인 쿠폰을 제공한다.조동욱 티머니 모빌리티 사업부장 전무는 “쉽고 재밌는 이동 경험과 눈에 보이는 혜택을 직접 체험하길 바란다”면서 “더 완성도 높은 서비스를 위해 최선을 다할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2023.01.02.</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>일주일에 토스 9.6번 쓸 때 카카오페이 3.2번 쓴다</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000316762?sid=101</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>[소비자 데이터 플랫폼 '오픈서베이'가 국내 15~59세 1천명 대상으로 조사한 '금융 트렌드 리포트 2022'를 공개했다. 사진은 리포트 내용의 일부. (자료=오픈서베이)]모바일 금융 서비스 가운데 토스 이용 빈도가 카카오페이보다 3배 가량 더 높은 것으로 나타났습니다.오늘(2일) 소비자 데이터 플랫폼 '오픈서베이'는 이같은 내용을 담은 '금융 트렌드 리포트 2022'를 공개했습니다. 국내 15~59세 1천명을 조사한 결과 일주일 평균 토스는 9.6번, 카카오페이는 3.2번 이용하는 것으로 집계됐습니다.토스 이용자들은 "하루에 1~2번 앱을 이용한다"는 비율이 30.2%로 가장 높았습니다. "하루에 3번 이상 쓴다"는 비율도 25.9%였습니다. 반면 카카오페이 이용자 중에서는 "한 달에 1~3번 이용한다"는 응답이 31.1%로 가장 많았고, "일주일에 1~3번 쓴다"는 비율이 28.1%였습니다. "하루에 3번 이상 이용한다"는 2.8%에 그쳤습니다.토스에서는 포인트 서비스와 송금·계좌 서비스를, 카카오페이에서는 간편결제·송금 서비스를 주로 이용하는 것으로 나타났습니다.토스와 카카오페이 모두 이용 만족도는 높았지만, 토스 만족도가 78.8%로 카카오페이(68.2%)보다 높았습니다. 보완이 필요한 부분에 대해 토스 이용자들은 ▲앱 안전성 ▲보안 ▲브랜드 신뢰도를 꼽았고, 카카오페이 이용자들은 ▲이벤트·혜택 ▲안전성·보안 ▲서비스 다양성을 꼽았습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2023.01.02.</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>"'비키니 그녀' 어떤 점 가장 끌려?"…권성동, SNL 출연해 '솔직입담' 과시</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/448/0000389193?sid=100</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>국민의힘 전당대회 출마 선언을 앞둔 권성동 의원이 쿠팡플레이 SNL코리아의 '주 기자가 간다'에 출연했다.'주 기자가 간다'는 유명인을 초청해 직설적인 질문을 던져 상대를 곤혹스럽게 만드는 것으로 유명한 시사풍자 코미디 프로그램으로, 권 의원이 대중과 스킨쉽을 늘리기 위해 체면을 내려놓고 과감한 행보를 보였다는 평가가 나온다. 권 의원을 가장 난처하게 만든 건 2014년 국정감사장에서 플레이보이 모델의 '비키니 사진'을 휴대전화로 본 이유를 묻는 질문이었다.김아영 인턴기자가 "비키니 입은 사진을 보다가 기자의 카메라에 잡혀서 곤욕을 치르신 적이 있다"고 하자 권 의원은 난처함에 "하하하"라고 웃어넘겼다.김 기자가 "아~ 티파니 토스(플레이보이 모델)~ 그녀의 어떤 점이 가장 끌리셨나"고 재차 물었고, 권 의원은 "기사 검색하다가 우연찮게 그 화면이 나왔는데, 잠시 뭐 한 1,2초 봤나? 그때 탁 찍혀가지고"라고 한 뒤 "그 여성이 어떤 여성인지 전혀 지금 기억이 안 난다"고 답했다.권 의원은 '좋아하는 여성상'에 대해서는 "제가 눈이 작기에 눈 큰 여성을 좋아한다고"고 답하기도 했다.또, 지난해 8월 25일 을지훈련 기간 중 천안에서 열렸던 국민의힘 연찬회 때 뒷풀이 술자리를 가졌던 일화를 언급하며 노래를 주문하자 짤막한 노래로 화답하기도 했다. 권 의원은 송년 특집 '주기자가 간다'에 출연 후 자신의 SNS를 통해 "다른 분들처럼 저 역시 주현영 기자와 김아영 인턴기자의 날카로운 질문에 많이 당황했다"며 "방어하기 어렵다고 판단하고, 가감 없이 있는 그대로 내려놓았다"면서 "보좌진이 팔로 'X자'를 만들며 만류했으나, 최대한 요구에 부응하고자 노력했다"고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2023.01.15.</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>'13월의 월급' 연말정산 간소화 오늘 개통…대중교통 공제 등 확대</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011643416?sid=101</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>기사내용 요약국세청, 홈택스 간소화 자료 일괄 제공 서비스근로자 19일까지 제공 동의…작년 했다면 생략간편인증 방식 4종 추가…31일까지 비회원 이용작년 7~12월 대중교통 이용 공제 40→80% 확대신용카드 소비증가분 공제 및 전통시장도 포함주택 대출자금 공제 한도 300만→400만원 상향난임시술 30%·미숙아 20%로…의료비 공제 늘려[서울=뉴시스] [세종=뉴시스] 오종택 기자 = '13월의 월급'이라 불리는 직장인 근로소득 연말정산을 위한 간소화 서비스가 15일부터 개통했다. 작년과 마찬가지로 근로자는 회사에 간소화 자료를 제출하지 않아도 된다. 올해는 대중교통 이용료 공제범위가 2배로 확대되고, 주택 임차를 위해 차입한 자금 공제한도도 늘어난다.국세청은 연말정산 증명자료를 수집해 홈텍스를 통해 제공하는 연말정산 간소화 서비스를 15일 개통했다고 밝혔다.지난해와 마찬가지로 근로자는 PDF 파일을 출력해 회사에 직접 제출해야 하는 번거로움이 사라지는 등 연말정산 절차가 비교적 간단해진다.근로자는 홈텍스에서 일괄제공하는 회사와 제공자료 범위 등을 19일까지 확인해 동의해야 한다. 회사는 동의 절차를 마친 근로자(부양가족 포함)의 간소화 자료를 21일부터 순차적으로 내려받는다.의료비 자료가 조회되지 않으면 17일까지 홈택스 '조회되지 않는 의료비 신고센터'에서 신고할 수 있다. 의료기관 등 영수증 발급기관이 추가·수정해 제출한 내용을 반영한 최종 확정자료는 20일부터 제공한다.올해는 간소화서비스를 다양한 방식으로 접속해 이용할 수 있도록 간편인증(민간인증서) 방식을 기존 7종(카카오톡, 통신사PASS, 삼성패스, 국민은행, 페이코, 네이버, 신한은행)에 더해 4종(토스, 하나은행, 농협, 뱅크샐러드)을 추가했다.장애인 연말정산 자료는 보건복지부와 국가보훈처에서 수집한 장애인 증명자료를 간소화 자료로 제공한다.다만, 상시적으로 치료가 필요한 중증환자는 간소화 자료를 제공하지 않아 의료기관에서 발행하는 장애인 증명서를 제출해야 한다.올해부터는 신용카드로 결제한 주택 월세액에 대한 자료도 카드사로부터 결제 내역을 수집해 간소화 자료로 제공한다.연말정산 간소화 서비스 기간(1월15~31일)에는 별도 회원가입 없이 휴대전화나 신용카드로 본인인증을 거쳐 비회원 상태로 홈택스를 이용할 수 있다.자체 연말정산 프로그램이 없는 회사와 근로자를 위한 연말정산 지원 서비스인 편리한 연말정산 서비스는 18일 개통한다. 총급여, 주민등록번호, 기납부세액 등 기초자료 등록은 지난 3일부터 시작했다.[서울=뉴시스] 국세청이 홈텍스를 통해 제공하는 연말정산 간소화 서비스를 15일부터 개통한다. 근로자는 홈텍스에서 일괄제공하는 회사와 제공자료 범위 등을 19일까지 확인해 동의해야 한다. (그래픽=안지혜 기자)  hokma@newsis.com올해는 생계비와 주거 부담을 경감하고 임신출산을 지원하는 방향으로 세액공제 항목이 추가된다.지난해 7월부터 12월까지 지출한 대중교통 이용금액에 대한 공제율이 기존 40%에서 80%로 두 배 확대된다. 신용카드 소비증가분에 대한 소득공제에 전통시장 사용금액 소비증가분도 포함된다.지난해 사용금액이 전년 대비 5%를 초과해 증가한 금액에 대해서는 20%의 소득공제가 가능하다. 전통시장 소비증가분 역시 20%의 소득공제 등 이를 합한 금액에 대해서는 100만원 한도로 추가 공제한다.무주택 세대주가 전월세로 거주하기 위해 대출받은 주택자금에 대해서도 대출 원리금 상환액의 40%가 공제된다. 이는 근로소득 금액에서 공제된다. 공제 한도는 주택마련 저축의 소득공제 금액을 포함 기존 300만원에서 400만원으로 상향한다.단 과세기간 종료일에 무주택 조건을 유지해야한다. 거주 중인 주거용 오피스텔을 포함해 국민주택 규모에 한해 가능하며, 대부업자를 제외, 총급여액이 5000만원 이하여야 하는 조건이 붙는다.월세도 세액공제된다. 총급여 7000만원 이하 무주택 근로자가 지출하는 월세액에 대한 세액공제율이 높아진다. 기존에는 총급여 5500만원 이하 기준 10% 또는 12% 공제했지만 앞으로 15% 또는 17% 받는 것으로 상향됐다.난임시술비 세액 공제도 기존 20%에서 30%로 상향해 미숙아와 선천성이상아 의료비도 기존 15%에서 20%로 공제율이 늘어난다. 다만 미용이나 성형수술 비용, 건강 증진을 위한 의약품 구입비용은 포함하지 않는다. 사내근로복지기금이나 실손의료보험금을 지급받은 의료비, 외국 의료기관에 지출한 의료비도 대상에서 제외된다.[서울=뉴시스] 오는 15일부터 '연말정산 간소화자료 서비스'가 시작된다. 올해 연말정산에서는 작년 7월부터 12월까지 지출한 대중교통 이용금액에 대한 공제율이 기존 40%에서 80%로 확대된다. 신용카드 소비 증가분에 대한 소득공제에 전통시장 사용금액 소비증가분도 포함된다. (그래픽=안지혜 기자) hokma@newsis.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2023.01.06.</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>고금리 기조에 은행 저신용 대출 25% 감소</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003197518?sid=101</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>금융위원회가 2021년5월 발표한 중금리대출 개선방안. 금융위원회 제공지난해 한국은행 기준금리가 급등하면서 저신용자 등 취약계층의 신규 대출이 급감한 것으로 나타났다. 취약계층을 위한 정책금융 지원을 확대해야 한다는 지적이 나온다.국회 정무위원회 소속 최승재 국민의힘 의원은 6일 금융감독원이 제출한 자료를 분석한 결과 5대 시중은행(국민·신한·하나·우리·농협)의 저신용자(나이스신용평가 기준 664점 이하) 대상 신용대출 신규취급액은 지난해 1월부터 10월까지 1192억원으로 전년도 같은 기간(1592억원)보다 25.1% 감소한 것으로 나타났다고 밝혔다. 계좌 수도 1만2931좌에서 9189좌로 28.9% 줄었다.같은 기간 신용대출 잔액도 23조3000억원에서 19조5000억원으로 16.1% 감소했고, 계좌 수도 178만좌에서 147만좌로 17.4% 줄었다.인터넷전문은행(케이, 카카오, 토스)은 중저신용자를 대상으로 한 중금리 대출이 급증한 것으로 나타났다. 케이뱅크 등이 지난해 1월부터 10월까지 실행한 신규대출액은 1062억원으로 전년도 같은 기간(260억원)보다 308%, 계좌 수는 7596건으로 전년 대비 191% 각각 증가했다.다만 증가분은 대부분 상반기에 집행된 것으로 보인다. 인터넷은행 3곳의 지난해 6·8·9·10월 신규대출액과 계좌수는 1년 전보다 감소했다. 지난해 1월에는 117억원이 집행됐지만 10월에는 절반이 조금 넘는 68억원이 취급됐고 계좌 수도 896좌에서 416좌로 줄었다.잔액 기준으로도 지난해 8월에는 전년 대비 27.9%, 9월과 10월에는 각각 31.2%와 25.2% 감소했다.최 의원은 “코로나19로 인해 가계부채가 급등했고 저신용자가 뇌관이 되지 않도록 대출을 관리할 필요는 있지만, 급전이 필요한 취약계층이 자금을 융통할 수 있도록 지원하는 것도 필요하다”면서 “(제도권을 벗어난 취약차주가) 불법사금융 피해를 보고 이를 구제하는 데 더 큰 비용이 들지 않도록 금융당국이 정책금융을 적극적으로 공급해야 한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2023.01.02.</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>월급날 ‘술술’ 빠져나가는 내 통장 어쩌나…‘통장 쪼개기’ 아시나요?</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005068943?sid=101</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>[사진 이미지 = 하나은행]재테크 초보자들은 월급을 받으면 술술 빠져 나가는 바람에 종잣돈을 모으기가 쉽지 않다는 하소연을 많이 한다. 똑같은 월급을 받아도 어떤 사람은 자산을 증식해 나가는 반면 어떤 사람은 제자리 걸음만 하는 이유는 뭘까. 다양한 요인들이 복합적으로 작용하겠지만 소위 재테크의 첫 걸음으로 꼽히는 ‘통장 쪼개기’를 하지 않은 것도 하나의 이유가 된다. 투자 기간과 목적에 맞는 통장들을 만들어 제대로 관리하는 사람과 통장시스템 없이 대충대충 관리하는 사람과의 부(富) 차이는 시간이 흐를수록 더 커진다.통장 쪼개기는 보통 월급이 들어오는 ▲수시입출식 통장 ▲저축 통장 ▲투자 통장 ▲비상 통장 등으로 나누는 것을 말한다. 이렇게 통장을 나눠서 관리하다 보면 단기(1~2년), 중기(3~5년), 장기(5년 이상)간의 목적과 용도에 맞게 계획적인 관리가 가능해 효율적인 자산 증식은 물론 새나가는 돈을 차단할 수도 있다.수시입출식 통장도 ‘高금리’로 챙기자그동안 수시입출식 통장의 이자는 0.1%에 불과해 의미가 없었는데 최근에 나오는 상품들은 수시입출식임에도 비교적 높은 금리를 준다.SC제일은행은 오는 31일까지 일복리저축예금(MMDA)에 3000만 이상(최대 20억원 이내) 가입하는 첫 거래 고객에게 가입일로부터 최장 60일간 매일 잔액에 대해 최고 3.0%(세전)의 특별금리 주는 이벤트를 진행하고 있다. 은행권 수시입출식 통장이면서도 정기예금 못지않은 이자를 주는 셈이다.OK저축은행은 최근 연 5% 금리의 파킹통장인 ‘OK읏백만통장Ⅱ’를 선보였다. 기본금리 4.5%에 오픈뱅킹 등록 시 우대금리 0.5%포인트를 추가 적용해 500만원까지 최고 연 5% 금리를 제공한다. 애큐온저축은행의 ‘머니쪼개기’와 대신저축은행의 ‘더드리고입출금통장’은 각각 4%, 3.9% 금리를 적용한다.인터넷전문은행인 토스뱅크의 ‘토스뱅크통장’은 이달부터 5000만원 이상 금액에 대해 연 4% 금리를 적용하고 있고, 케이뱅크도 ‘플러스박스’ 금리를 연 3%로 올렸다.수시입출식 통장을 제대로 선택했다면 활용법도 잘 알아두자.수시입출식 통장은 2개를 만들어 1개는 각종 자동이체를 걸어놓고, 나머지는 체크카드(외상성격인 신용카드는 자제) 기능을 탑재해 용돈이나 여가 생활비와 같은 소비 전용 통장으로 사용하면 관리가 효율적이다. 또 수시입출금통장은 ‘주거래은행’을 지정하면 각종 수수료 비용을 낮출 수 있다.저축통장 목표는 목돈 마련…적금 ‘풍차돌리기’ 유용저축통장의 목적은 안정적인 종잣돈 마련이다. 지금처럼 글로벌 금리 상승기에는 만기를 짧게 가입하는 게 유리하다. 또 이자에 대한 세금도 따져봐야 하는데 요즘은 비과세 상품은 거의 찾아볼 수 없다. 1만~2만원의 조합비만 내면 가입이 가능한 저율과세(1.4%) 예·적금상품(1인당 3000만 원 한도)을 취급하는 단위농협, 새마을금고 등에 관심을 가져볼 만 하다.최근 저축은행 업계에서 내놓은 5%대 고금리 적금상품을 골라 ‘풍차돌리기 방식’으로 활용하는 것도 추천한다.가령, 연초부터 1년 만기로 20만원 단위로 풍차돌리기 적금을 가입하면 1월에는 A적금에 20만원을 예치한다. 2월에는 A적금에 20만원을 추가 예치하고 B적금을 새로 가입해 20만원을 예치한다. 3월에는 A적금 20만원, B적금 20만원을 각각 추가 예치하고 C적금에 새로 가입해 20만원을 예치한다. 이 같은 방법으로 12월에는 A~L적금에 각각 20만원씩 총 240만원을 예치한다. 다음해 1월부터 12월까지는 A~L적금 만기가 차례대로 돌아오면서 총 예치금 2880만원과 이자수익을 얻을 수 있다. 만일 만기가 돌아온 적금을 다시 풍차돌리기 방식으로 하면 원금 뿐 아니라 이자에 이자가 붙는 ‘복리효과’도 누릴 수 있다.월평균 생활비 2~3개월치는 비상통장으로재테크 초보자들은 자산증식 의욕이 앞선 나머지 월 평균수입에서 너무 과할 정도의 금액을 저축통장이나 투자통장에 배분하다가, 부득이 하게 적금을 깨거나 펀드 등의 투자상품을 원금손실에도 환매를 하는 경우가 있다.따라서 수시입출식 통장에 비상통장을 추가해서 월 평균 생활비의 2~3배정도 되는 자금을 넣어두고 운용하는 것이 현명하다. 매월 잉여자금을 넣어주면서 이 비율을 유지하고, 갑자기 필요한 긴급자금이나 경조사 등에 지출하면 유용하게 사용할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2023.01.06.</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>1등 카드사도 대출한도 축소</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002087716?sid=101</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>#. 세전 연봉이 5000만원 넘는 직장인 A씨는 지난해 말 현금서비스 한도를 1000만원에서 100만원으로 줄인다는 연락을 받았다. 다른 카드 역시 현금서비스 한도가 300만원에서 40만원으로 줄었다. 대출을 성실히 갚고 있는데도 한도가 대폭 줄어 당황스러웠다. 온라인 커뮤니티에 사정을 적었더니 너도 나도 같은 상황이었다고 한다.제 2금융권 대출창구가 새해에도 ‘꽉’ 막혔다. 국내 1위 카드사까지 대출 한도를 대폭 낮추고, 저축은행·캐피털 등 일부 금융사가 여전히 대출중개플랫폼에 ‘시스템 점검’을 이유로 대출을 재개하지 않고 있다. 사실상 서민의 자금줄이 완전히 막힌 것이다. 이는 금리인상에 따라 조달비용이 치솟고 다중채무자의 연체 위험이 커졌기 때문이다. 한도를 줄이고 대출 심사 강화를 통해 리스크 관리를 강화하고 있다는 얘기다. 금융당국은 동맥경화에 빠진 서민금융을 풀기 위해 저축은행·캐피털 사들을 만나 대출 현황을 살피고, 관련 지도에 나서는 등 개별관리에 들어갔다.6일 금융권에 따르면 국내 거의 모든 카드사가 현금서비스 한도를 대폭 줄였다. 특히 국내 1위 카드사인 신한카드까지 한도를 줄이면서 카드 업계에 대대적인 ‘문턱 높이기’가 진행되고 있다.한 금융소비자는 “신한카드로부터 현금서비스 한도가 400만원에서 200만원으로 변동된다고 통보가 왔다”며 “콜센터에 전화해서 유지해달라고 했지만 그럴 수 없다는 답변을 받았다”고 했다. 카드 연체율이 높거나 사용률이 낮은 소비자들을 중심으로 한도조정이 이뤄지고 있는 것으로 풀이된다. 신한카드 관계자는 “소비자별로 한도조정 사유가 모두 다르고 시기도 달라 구체적으로 언제부터 대출 한도가 얼마나 줄었는지 파악하기 어렵다”고 설명했다.카드사가 이같이 한도 줄이기에 나선 건 건전성을 선제적으로 관리하기 위해서다. 최근 현금서비스·카드론 잔액이 늘어나고 있을 뿐 아니라 여러 곳에서 돈을 빌린 다중채무자를 중심으로 연체 위험이 높아지고 있어서다.금융감독원에 따르면 지난해 말 국내 8개 카드사의 총 연체액계(1개월 이상)는 1조2710억원이었지만 지난 9월 말에는 1조4076억원을 기록하며 3분기만에 10% 넘게 증가했다. 8개 카드사의 연체액계는 지난해 1분기 말 1조3212억원, 2분기 말 1조3241억원으로 꾸준히 늘었다.서민들이 비교적 쉽게 대출에 접근할 수 있었던 대출중개 플랫폼에서도 여전히 많은 금융사들이 대출 재개를 하지 못하고 있다. 대출재개 플랫폼 토스를 통해 조회해본 결과 SBI 저축은행, OK저축은행 등 대형 저축은행들은 해가 바뀌며 신용대출을 다시 취급하기 시작했지만, 6일 기준 총 13개의 금융사(신용점수 971점 기준)가 ‘점검중’이라는 이유로 대출 한도 정보를 제공하지 않았다.금융당국도 서민 자금 창구가 경색됐다는 문제인식을 가지고 지도에 나서기로 했다. 금융감독원은 이날 저축은행과 캐피털사 등과의 면담을 통해 대출중개플랫폼 수수료, 대출 재개 상황 등에 대해 업계 목소리를 청취하는 자리를 가진다.아울러 2금융권이 리스크 관리를 위해 여신 심사를 강화하고, 상환 능력이 좋은 차주들에 대해서는 대출 취급을 승인하는 쪽으로 개별 관리를 진행하도록 가이드를 내린 것으로 전해진다.금융감독원 관계자는 “신용대출을 전면 중단하는 것에 대해 우려를 나타냈다”며 “건전성 관리도 매우 중요하지만 대출을 일괄적으로 전면 중단하는 건 금융의 역할이라고 보기 어렵다. (금감원의) 가이드에 따라 곧 플랫폼에서도 대출 재개가 많이 나타날 것”이라고 말했다.이어 “카드사의 경우 건전성 관리도 중요한 부분이기 때문에 어려운 숙제지만 너무 과도하게 한도를 줄이는 건 바람직하지 않다는 생각을 가지고 있다”며 “한도 인하의 구체적 사유를 파악해보고 적절한 조치가 필요하다면 (취할 계획)”이라고 말했다. 홍승희 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2023.01.03.</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>엔픽셀, 블록체인 MMORPG '그랑사가: 언리미티드' 티저 공개</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002278489?sid=105</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>블록체인 기술 활용, 이용자 경험·가치 공유 및 투명성 지향엔픽셀(공동대표 배봉건, 정현호)은 3일 자사가 개발 중인 블록체인 MMORPG '그랑사가: 언리미티드' 티저 영상을 최초 공개했다고 밝혔다.'그랑사가: 언리미티드'는 엔픽셀의 첫 프로젝트 그랑사가 지식재산권(IP)에 블록체인 기술을 접목한 MMORPG로 이번 영상을 통해 타이틀 및 세계관 등 다양한 게임성을 담고 있다.엔픽셀은 자사의 웹 3 기반 게임 생태계 메타픽셀(METAPIXEL)을 통해 '그랑사가: 언리미티드'를 서비스할 예정이며, NFT 및 스마트 컨트랙트 등 블록체인 기술을 활용해 ▲이용자 경험·가치 공유 ▲투명성 등을 지향한다.엔픽셀 '그랑사가: 언리미티드'.회사 측은 '그랑사가: 언리미티드’ 디스코드 채널 개설을 통해 블록체인 게임 및 생태계에 대한 정보를 순차 공개해 커뮤니티 활성화에 나설 방침이라고 설명했다.엔픽셀은 2017년 설립된 게임 개발사로 차기작 크로노오디세이 등 다수의 프로젝트를 개발 중에 있으며 지난해 레이어1(Layer1) 블록체인 앱토스와 첫 게임 부문 파트너십을 체결한 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2023.01.15.</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>중기부, 청년창업사관학교 확대…내달까지 입교생 모집</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004145104?sid=101</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>2011년부터 6700여명 창업가 및 유니콘 기업 배출지난해 11월 대전 유성구 대전청년창업사관학교에서 열린 '민간주도형 청년창업사관학교 간담회'에서 청년 창업자들과 기념 촬영하고 있다. 사진 제공=중소벤처기업부[서울경제] 중소벤처기업부는 지난해 대전 청년창업사관학고에 시범 도입한 민간주도형 청년창업사관학교를 올해 경기북부·부산·제주까지 4곳으로 확대한다고 15일 밝혔다.기존 청년창업사관학교는 보육생 선발 권한이 중소벤처기업진흥공단에 있다. 하지만 민간주도형은 투자 재원과 사업화 지원 역량을 갖춘 민간운영사가 우수한 청년 창업자를 직접 선발하고 교육·코칭·투자유치 과정까지 도와준다.지난 2011년부터 운영되기 시작한 청년창업사관학교는 전국 18개 지역에서 그간 6741명의 청년창업가와 토스·직방 등의 유니콘 기업을 배출했다.중기부는 올해 청년창업사관학교 입교생 915명을 오는 16일부터 다음달 6일까지 모집한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2023.01.04.</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>100억 수익 포기? 은행권 타행이체 수수료 ‘0원’움직임</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003250961?sid=101</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>신한은행이 올해 1월 1일부터 모바일과 인터넷에서 타행 이체 수수료를 영구 면제하기로 하면서 은행권의 이체 수수료 ‘제로(0)’화 움직임이 본격화할 전망이다. 연 100억원에 육박하는 수수료 수익을 포기해야 하지만, 치열한 온라인 뱅킹 시장에서 고객을 확대하기 위해선 수수료 면제가 예정된 수순이란 분석이 나온다.      3일 은행권에 따르면 신한은행 외 다른 은행들도 수수료 면제 확대 관련해 검토에 들어갔다. 앞서 한용구 신한은행장은 취임 기자간담회에서 “이익을 사회에 환원하는 차원에서 이체 수수료 면제를 시행하겠다”며 “모든 은행이 동참했으면 한다”고 밝혔다. 기존 신한은행의 온라인 타행 이체 수수료는 건당 500원(자동이체의 경우 300원) 수준으로, 거래 기준 등을 충족한 고객만 수수료 면제 혜택을 받았다.      은행권은 신한은행의 새 방침에 대해 대외적으로는 “이미 많은 고객이 온라인 이체 수수료를 면제받고 있어서 큰 효과를 기대하기는 어려울 것”이라고 평가하고 있다. 하지만 KB국민·하나·우리·NH농협은행 등 주요 경쟁 은행은 향후 수수료 면제 확대 방안에 대해 내부 검토에 착수한 상황이다.      5대 은행 중 하나인 A은행 관계자는 “수수료를 면제하면 은행 실적에 얼마나 영향을 미칠지 살펴보고 있다”면서 “비대면 거래 시장이 빠르게 커지고 있는데, 모든 상황을 준비해두는 차원”이라고 밝혔다. 또 다른 5대 은행인 B은행 관계자도 “현재는 신한은행 한 곳만 시행하고 있지만 결국 동참하는 은행이 늘어날 수밖에 없다”며 “우리도 적극적이고 심도 있게 (모바일·인터넷 이체 수수료 면제를) 검토하는 단계”라고 전했다.      주요 은행 대부분은 기존에 ▶급여를 해당 은행 통장으로 받거나 연금을 수령하는 경우 ▶거래실적이 일정 수준 이상인 경우 ▶사회적 약자 등에 대해 이체 수수료를 면제해 왔다. 그러나 신한은행 관계자는 “이번 조치는 급여 이체 등의 조건을 충족하지 못하는 20대 초·중반 취업준비생, 50·60대 이상 퇴직자에 혜택이 돌아갈 것”이라며 “경제가 어려운 시기에 고객이 수수료 때문에 디지털 뱅킹에 쉽게 접근하지 못하는 사례를 방지하기 위해 고통을 분담하려는 취지”라고 설명했다. 업계는 모바일·인터넷에서 타행 이체 수수료를 완전히 면제하면 100억원에 가까운 수십억 원대 수익을 포기해야 할 것으로 추산한다.      은행권에서는 이번 수수료 면제가 마케팅 효과를 기대한 측면도 있다고 본다. 은행 점포 수가 줄어들며 모바일·인터넷이 주요 거래 창구가 된 지 오래고, 각종 수수료는 토스·카카오·케이뱅크 등 인터넷은행과의 경쟁 요소가 됐기 때문이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2023.01.09.</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>남양유업, 조제분유 '아이엠마더·임페리얼드림XO' 리뉴얼 출시</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003071301?sid=101</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>남양유업은 조제분유 '아이엠마더'와 '임페리얼드림XO'를 리뉴얼 출시한다고 9일 밝혔다.아이엠마더는 초유 단백질의 대표적인 자기방어 성분인 IgA 성분을 배합하고 41가지 핵심영양을 담은 것이 특징이다. 영양 흡수 OPO 설계로 아이의 성장에 필요한 영양이 끝까지 흡수될 수 있도록 개발했다.임페리얼드림XO는 핵심 영양 34가지를 담아 영양은 높이고 영양흡수 OPO 설계로 아이의 성장에 필요한 영양이 깊게 흡수될 수 있도록 개발했다. 또한 장 속 유익균을 돕는 갈락토실락토스(HMO)를 배합해 편안한 소화를 돕는 것이 특징이다.리뉴얼 아이엠마더와 임페리얼드림XO는 남양유업 공식 쇼핑몰 '남양몰'과 각종 온라인 몰에서 판매한다.아울러 분유 제품 리뉴얼 출시 기념 퀴즈가 오는 19일까지 진행된다. 분유 제품과 관련된 퀴즈의 정답을 댓글로 입력하면 참여할 수 있다. 이벤트에 관한 자세한 내용은 남양몰에서 확인할 수 있다.김석윤 남양유업 BM은 “아기 건강을 위해 달려온 남양유업의 55년 노하우를 담아 품질과 성분의 내실을 다지는 리뉴얼을 기획했다”며 “아이와 부모님이 모두 만족할 수 있는 남양분유가 될 수 있도록 더욱 노력하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2023.01.06.</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>은행권, 저신용자 신용대출 취급액 1년새 25% 감소</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000194329?sid=101</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>최승재 의원 "취약계층에 대출 활로 열어줘야"고금리 여파 등으로 지난해 은행권의 저신용자에 대한 신규 신용대출이 크게 감소했다. /더팩트 DB저신용자에 대한 은행권의 신규 신용대출이 크게 줄어들면서 저신용자들의 '대출 보릿고개'가 시작되는 게 아니냐는 우려가 나온다.6일 금융감독원이 최승재 국민의힘 의원실에 제출한 자료에 따르면 지난해 1~10월까지 KB국민·신한·하나·우리·농협 등 5대 시중은행의 저신용자(NICE신용평가 664점 이하 기준) 대상 신규 신용 대출 취급액은 1192억 원으로, 전년 동기(1592억 원)보다 25.1% 감소했다. 저신용자의 신규 신용 대출 계좌 수도 1만2931좌에서 9189좌로, 28.9% 줄어들었다.같은 기간 저신용자들이 보유한 전체 신용대출 잔액은 23조3000억 원에서 19조5000억 원으로 16.1% 감소했으며, 계좌 수 역시 178만 좌에서 147만 좌로 17.4% 줄었다.케이뱅크, 카카오뱅크, 토스뱅크 등 인터넷은행도 사정은 마찬가지다. 인터넷은행의 저신용자 대상 신규 대출 취급액은 지난해 1월 117억 원에서 10월 68억 원으로 거의 반토막이 수준으로 감소했으며, 10월 기준 저신용자 대상 신규 대출잔액 합계(4654억 원) 역시 전년 대비 25.2% 감소했다.최승재 국민의힘 의원은 "코로나19로 인해 가계부채 폭탄이 커진 상황에서 저신용자가 뇌관이 되지 않도록 관리할 필요는 있지만 대출이 절실한 취약계층에는 활로를 열어주어야 한다"며 "추후 불법사금융 피해를 구제하기 위해 더 큰 비용을 지불해야 할 수도 있는 만큼, 금융당국의 적극적인 행보가 필요하다"고 말했다.발로 뛰는 더팩트는 24시간 여러분의 제보를 기다립니다.▶카카오톡: '더팩트제보' 검색▶이메일: jebo@tf.co.kr▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2023.01.06.</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>대출문 좁혀지자 답답한 서민들…'눈팅'만 늘어</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005201786?sid=101</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>대출, 조회 증가율이 승인 증가율 웃돌아수익성 악화에 빗장건 여전사·저축銀금리 올리고 대출상품도 줄여[이미지출처=연합뉴스] #개인사업을 하고 있는 고형범씨(39)는 최근 매일 대출중개 플랫폼에 접속하고 있다. 조만간 목돈이 필요한데 조금이라도 더 낮은 금리의 상품이 있는지 확인하기 위해서다. 고씨는 "과거에는 여러 저축은행 상품들이 등장했는데 최근엔 금리도 고금리지만 아예 조회되는 상품 자체가 줄었다"라며 "거래처 수금도 잘 안되는데 자금이 묶여 무척 답답하다"고 털어놨다.고금리 시대 속 저축은행과 카드사, 캐피탈 등 기업들이 대출 빗장을 걸어잠그면서 소비자들의 불안감이 커지고 있다. 대출 상품 자체가 줄어든데다 금리도 높아 조금이라도 더 낮은 금리를 찾아 매일같이 검색만 하는 처지다.대출상품 줄고 금리는 오르고…초조하게 조회만6일 업계에 따르면 지난해 하반기 대출 중개 플랫폼 핀다의 대출 한도 조회 건수는 약 300만건으로 집계됐다. 전년 동기 대비 63.8% 늘어난 규모다. 금리가 가파르게 오른 연말로 갈수록 대출 한도를 조회한 이들이 늘어났다. 3분기에 한 달 이내 대출 금리와 한도를 다시 조회한 이용자는 1분기 대비 82% 급증한 것이다.하지만 실제 대출로 이어진 승인 건수의 증가세는 이에 못미쳤다. 승인 건수는 2022년 하반기에 전년동기대비 37% 늘어나며 조회 건수 증가율의 절반 수준에 그친 것이다. 애타게 조회하지만 원하는 상품도 없어 대출 신청까지 이어지지 못하고 주저하는 이들이 늘어난 셈이다.최근 들어 캐피탈, 저축은행들은 줄줄이 대출 빗장을 걸어잠그고 있다. 현대캐피탈은 지난달 토스, 카카오뱅크, 카카오페이, 핀다 등 플랫폼에서의 신규대출 영업을 중단했다. 저축은행도 마찬가지다. 업계 1위인 SBI저축은행은 신용대출을, 웰컴저축은행은 중금리대출을, 신한저축은행은 햇살론을 지난달 중단했다. 대부업체들도 신규 대출을 기존 대비 줄이거나 신용대출보다 담보대출 비중을 늘리고 있다.수익성 악화 우려에 움츠러든 여전업계이처럼 빗장을 걸어잠그는 것은 수익성 악화, 나아가 '역마진'까지 우려되는 상황에 처했기 때문이다. 신용카드사와 캐피털사 등 여신전문금융사(여전사)가 더욱 그렇다. 이들은 수신 영업을 할 수 없어 대출 사업 자금의 70%가량을 여신전문금융채(여전채)를 통해 자금을 조달한다. 하지만 경기 침체 우려로 채권시장이 얼어붙으면서 여전채 금리가 여전히 고공행진하고 있다. 금융투자협회 채권정보센터에 따르면, 지난 4일 기준 여전채(AA+) 3년물 금리는 5.336%다. 지난해 11월7일 기록한 연고점 6.088% 대비 0.652%포인트 내려왔지만 여전히 지난해 초 2.4%대를 두 배 이상 웃도는 수준이다. 특히 카드사의 경우 올해에만 33조원 규모의 카드채 만기가 돌아오는 만큼 평균 2%대로 발행한 채권을 5~6%대로 차환해야 하는 위기에 처했다. 각종 수수료율과 대출금리를 올리면서 수익성을 확보하려는 이유다.저축은행도 상황이 녹록지 않다. 시중은행들이 수신금리를 올리면서 시중자금을 대거 흡수하자 더욱 가파르게 수신금리를 올리며 조달비용을 늘릴 수밖에 없는 상황이다. 이 때문에 속속 수익성이 낮은 햇살론 등 정책금융상품 취급을 멈추고 저신용자 대출을 줄이고 있을 정도다. 업계 관계자는 "당분간 한파가 지속될 것"이라며 "소비자들도 업체들도 모두 허리띠를 졸라매는 수밖에 없을 것 같다"라고 털어놨다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2023.01.02.</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>토스, 카카오페이보다 3배 많이 쓴다</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001074802?sid=101</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>모바일 금융 서비스 중 토스 이용 빈도가 카카오페이보다 3배가량 높은 것으로 나타났다.2일 소비자 데이터 플랫폼 오픈서베이가 국내 15∼59세 1천 명을 설문 조사해 펴낸 '금융 트렌드 리포트 2022'에 따르면 토스는 일주일 평균 9.6번, 카카오페이는 3.2번 이용됐다.토스 이용자들은 하루에 1∼2번 앱을 이용한다는 비율이 30.2%로 가장 높았다. 하루에 3번 이상 쓴다는 비율도 25.9%였다.카카오페이 이용자 중에서는 한 달에 1∼3번 이용한다는 경우가 31.1%로 가장 많았다. 일주일에 1∼3번(28.1%)이 뒤를 이었고, '하루에 3번 이상'은 2.8%에 그쳤다.토스에서는 포인트 서비스와 송금, 계좌 서비스를, 카카오페이에서는 간편결제·송금을 주로 이용하는 것으로 나타났다.아울러 토스 이용자 중 78.8%, 카카오페이 이용자 68.2%가 각 앱에 만족한다고 답했다.다만 토스 이용자는 송금·거래 수수료 등에 만족했지만, 앱 안전성과 보안, 브랜드 신뢰도는 개선이 필요하다는 의견을 냈다.카카오페이 이용자 역시 송금 수수료 등에 만족하면서도 이벤트·혜택과 안전성·보안, 서비스 다양성은 보완이 필요하다고 봤다.만일 토스를 이용할 수 없는 상황이라면 이용자의 37.6%는 은행 앱을, 26.6%는 카카오페이를 우선 찾겠다고 했다. 카카오페이의 대체 서비스로는 토스(27.8%)와 은행 앱(27%), 네이버페이(21.1%)가 꼽혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2023.01.09.</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>저신용자 사채 쓸 판… 2금융은 "법정최고금리연동제 도입을" [2금융 대출중단 조준한 당국]</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004953307?sid=101</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>대출중개 플랫폼 조회 늘어나는데 ‘점검’ 장기화에 대출 문턱 높아져2금융 "법정최고금리 묶여 역마진"1금융보다 높은 수수료율도 불만금융당국 대출 재개 압박 본격화  #. 사업자금 확보를 위해 급전이 필요한 A씨는 매일 토스, 카카오페이 등 대출 중개 플랫폼에 접속하고 있으나 마땅한 대출상품을 찾을 수가 없었다. 대다수 저축은행, 캐피털 업체들이 '점검'을 이유로 대출상품 판매를 제한해서다. A씨는 "이전에는 많은 저축은행 상품들이 나열됐는데 현재는 '점검'이라는 불분명한 이유로 선택지가 좁아졌다"면서 "한정된 상품 내에서 대출을 선택할 수밖에 없어 저금리 상품을 찾기 힘들다"고 토로했다.   지난해 말부터 대출 중개 플랫폼에서 대출 빗장을 걸어 잠근 2금융권의 움직임이 장기화되자 중저신용자의 대출 문턱이 높아졌다는 비판이 나오고 있다. 금융당국은 2금융권의 대출재개를 위해 간담회를 열고 수수료 등 주요 쟁점과 관련한 후속 조치 논의에 들어갔다. 다만 법정 최고금리를 시장금리에 연동시키는 법정최고금리연동제 같은 근본적 대책이 나오지 않고서는 2금융권의 대출 활성화가 쉽지 않을 것이라는 지적이다.   ■대출조회 늘었는데 선택지는 오히려↓   9일 업계에 따르면 대출 중개 플랫폼에서 대출상품을 조회하는 건수는 급증했다. 대출 중개 플랫폼 토스는 지난해 총 1280만건의 대출조회 건수를 기록했다. 전년 대비 75.34%(550만건) 증가한 수치다. 분기별로 살펴봐도 2021년 1·4분기 약 270만건, 2·4분기 320만건, 3·4분기 350만건, 4·4분기 340만건으로 증가 추세를 보였다.   그러나 정작 조회 건수 대비 대출승인 건수는 줄고 있다. 대출 중개 플랫폼 핀다에 따르면 지난해 1·4분기 대출승인율은 전년동기 대비 160%에 달했으나 금리가 가파르게 오른 4월 이후 급격히 떨어졌다. 2·4분기 96%, 3·4분기 94%로 50% 넘게 승인율이 떨어졌다. 이에 지난해 하반기 대출한도 조회 건수가 전년동기 대비 63.8% 늘어난 것에 비해 승인 건수는 37% 늘어나는 데 그쳤다. 조회하는 사람은 늘어났는데 정작 실제 대출을 받은 사람은 줄어든 것이다.   이는 최근 들어 제2금융권들이 대출 중개 플랫폼상에서 줄줄이 대출상품 취급을 줄였기 때문이다. 현대캐피탈은 지난달 말부터 토스, 카카오뱅크 등 플랫폼에서의 신규대출 영업을 중단했다. 같은 기간 업계 1위인 SBI저축은행은 신용대출을, 웰컴저축은행은 중금리대출을, 신한저축은행은 햇살론을 중단했다.   한때 최대 20개가 넘는 금융사들이 '점검'을 이유로 대출조회 결과를 제공하고 대출업무를 사실상 중단했다. 올 들어 몇몇 곳은 플랫폼을 통한 대출을 재개했지만 여전히 10개 넘는 금융사들은 대출을 재개하지 못하고 '점검 중'이라고 안내하고 있다.   ■근본 해결책은 법정최고금리연동제   이에 금융당국은 저축은행, 캐피털사와 대출중단 사유를 명확히 한다는 명목으로 간담회를 열고 대출재개 압박에 나섰다. 저축은행들은 간담회에서 조달금리 상승과 법정 최고금리 제한에 묶여 역마진을 겪고 있다고 토로한 것으로 알려졌다.   저축은행 관계자는 "대출재원을 예적금에만 의존하는 저축은행 입장에서 기준금리 상승으로 조달금리가 오르고 법정 최고금리 20% 제한에 걸려 경영이 악화돼 불가피하게 대출을 조정했다는 점을 설명했다"고 말했다.   대출 중개 수수료와 관련한 논의도 이뤄졌다. 저축은행은 대출 중개 플랫폼이 2금융권에 부과하는 수수료율이 1금융권의 은행에 비해 과도하고 높다고 주장하고 있다. 금융권에 따르면 대출 중개 플랫폼들이 저축은행에 평균적으로 부과하는 중개수수료율은 1.7~1.8%인 반면 은행권에 대해서는 0.4~0.5%의 수수료를 받고 있는 것으로 알려졌다.   이에 따라 수수료율 조정 등 2금융권 대출 활성화를 위한 당국의 움직임이 본격화될 것으로 예상된다. 다만 2금융권 업계에서는 대출 활성화를 위해서는 법정최고금리연동제 같은 근본적 해결책이 필요하다고 입을 모은다.   한 저축은행 관계자는 "사실 급격히 오른 금리가 대출을 어렵게 하는 주요 원인인데 금리가 당장 낮춰지긴 힘든 상황인 만큼 최소한 법정 최고금리가 시장금리에 연동될 수 있게 해 역마진 상황에서 벗어날 수 있게 해주는 게 가장 필요한 해결책"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2023.01.03.</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>이체 수수료 ‘0’ 시대 열리나? 신한 이어 다른 은행도 “검토”</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003250857?sid=101</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>신한은행이 올해 1월1일부터 모바일과 인터넷에서 타행 이체 수수료를 영구 면제하기로 하면서, 은행권의 이체 수수료 ‘제로(0)’화 움직임이 본격화할 전망이다. 연 100억원에 육박하는 수수료 수익을 포기해야 하지만, 치열한 온라인 뱅킹 시장에서 고객을 확대하기 위해선 수수료 면제가 예정된 수순이라는 분석이 나온다.     서울 종로구 시중은행 현금자동입출금기(ATM). 연합뉴스           3일 은행권에 따르면 신한은행 외 다른 은행들도 수수료 면제를 확대하는 것에 대한 검토에 들어갔다. 앞서 한용구 신한은행장은 취임 기자간담회에서 “이익을 낸 부분을 사회에 환원하는 차원에서 이체 수수료 면제를 시행하겠다”며 “모든 은행이 동참했으면 한다”고 밝혔다. 기존 신한은행의 온라인 타행 이체 수수료는 건당 500원(자동이체의 경우 300원) 수준으로, 거래 기준 등을 충족한 고객만 수수료 면제 혜택을 받았다.      은행권은 신한은행의 새 방침에 대해 대외적으로는 “이미 많은 고객이 온라인 이체 수수료를 면제받고 있어서 큰 효과를 기대하기는 어려울 것”이라고 평가하고 있다. 하지만 KB국민·하나·우리·NH농협은행 등 주요 경쟁 은행은 향후 수수료 면제 확대 방안에 대해 내부 검토에 착수한 상황이다.      5대 은행 중 하나인 A은행 관계자는 “수수료를 면제하면 은행 실적에 얼마나 영향을 미칠 지 살펴보고 있다”며 “비대면 거래 시장이 빠르게 커지고 있는데, 모든 상황에 미리 준비해두는 차원”이라고 밝혔다. 또 다른 5대 은행인 B은행 관계자도 “현재는 신한은행 한 곳만 시행하고 있지만 고객들이 신한은행과 비교를 할 것이고, 결국 동참하는 은행이 늘어날 수밖에 없다”며 “아직 확정되진 않았지만, 적극적이고 심도 있게 (모바일·인터넷 이체 수수료 면제를) 검토하는 단계”라고 전했다.     그래픽=김영옥 기자 yesok@joongang.co.kr           주요 은행 대부분은 이미 ▶급여를 해당 은행 통장으로 받거나 연금을 수령하는 경우 ▶거래 실적이 일정 수준 이상인 경우 ▶사회적 약자 등에 대해 이체 수수료를 면제해 왔다. 그러나 신한은행 관계자는 “이번 조치는 급여 이체 등의 조건을 충족하지 못하는 20대 초·중반 취업준비생, 50·60대 이상 퇴직자에 혜택이 돌아갈 것”이라며 “경제가 어려운 시기에 고객이 수수료 때문에 디지털 뱅킹에 쉽게 접근하지 못하는 사례를 방지하기 위해 고통을 분담하려는 취지”라고 설명했다. 업계는 모바일·인터넷에서 타행 이체 수수료를 완전히 면제하면 100억원에 가까운 수십억원대 수익을 포기해야 할 것으로 추산한다.      은행권에서는 이번 수수료 면제가 단순한 수익 환원 차원을 넘어 마케팅 효과를 기대한 것이라고 보고 있다. 은행 점포 수가 줄어들며 모바일·인터넷이 주요 거래 창구가 된 지 오래고, 각종 수수료는 토스·카카오·케이뱅크 등 인터넷은행과의 경쟁 요소가 됐기 때문이다.      과거 2011년 카카오톡이 등장한 이후 3대 이동통신사가 줄줄이 문자메시지 등을 사실상 무료화한 것처럼, 은행권의 이체 수수료도 향후 전면 무료화하는 흐름으로 갈 것이란 관측이 나온다. 당시 카카오톡 이용자가 늘면서 이통사는 문자메시지 요금을 결국 포기할 수밖에 없었다.      서지용 상명대 경제학부 교수는 “은행의 수수료 감면이나 영구 면제가 금융 거래에 어려움을 겪는 소비자에는 도움이 될 수 있기 때문에 긍정적으로 평가한다”며 “고객을 확보하는 효과를 기대하고 은행들이 수수료 관련 전략을 펼치고 있다”고 분석했다. 다만 서 교수는 “지금과 같은 금리 상승기에 은행이 수수료 수익을 포기하고, 이를 예금·대출 수익으로 만회하려는 시도가 발생한다면 중장기적으로는 소비자에게 비용이 전가될 우려도 있다”고 지적했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2023.01.15.</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>[데일리안 오늘뉴스 종합] 尹대통령 UAE 이틀째 공식 일정 돌입, 외교부 "네팔 추락 항공기 한국인 2명 탑승…대사관직원 급파" 등</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002675604?sid=101</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>윤석열 대통령과 김건희 여사가 14일 오후(현지시간) 대통령 전용기인 공군 1호기 편으로 새해 첫 순방지인 아랍에미리트(UAE)에 도착했다. ⓒ연합뉴스[데일리안 = 원나래 기자] 尹대통령, UAE 현충원·그랜드 모스크 방문…이틀째 공식 일정 돌입윤석열 대통령은 아랍에미리트(UAE) 방문 이틀째인 15일(현지시간) 현충원과 그랜드 모스크를 찾아 참배하며 공식 일정을 시작했다. 윤 대통령과 김건희 여사는 이날 오전 UAE의 순직한 공무원과 군인들의 넋을 기리기 위해 건립된 '와하트 알 카라마'를 찾아 참배했다. 윤 대통령은 현충비 계단 위로 올라가 의장대 사열을 받은 뒤 묵념 및 헌화했다. 윤 대통령은 방명록에 "국가를 위해, 그리고 세계 평화를 위해 헌신하신 영웅들에게 경의를 표합니다. 아랍에미리트 연방이 바로 여기에서 시작합니다"라고 적었다.외교부 "네팔 추락 항공기 한국인 2명 탑승…대사관직원 급파"외교부는 네팔에서 추락한 항공기에 한국인 2명이 탑승한 것으로 확인돼 대사관직원을 현지로 급파했다고 15일 밝혔다. 이날 외교부 당국자는 "네팔 예티항공 소속 항공기에 한국인 2명이 탑승한 것으로 확인됐다"며 "구체적인 탑승 여부나 신원은 네팔 한국대사관 측이 확인 중"이라고 전했다. 앞서 네팔에서 72명이 탑승한 항공기가 추락해 최소 40명이 사망했다고 로이터 통신이 전했다. 보도에 따르면 이날 네팔 카트만두에서 서부 포카라로 향하던 네팔 예티항공 소속 ATR72기가 네팔 카스키 지구에서 추락했다.경기·강원 등 '대설주의보'…중대본 1단계 가동기상청은 15일 오전 10시20분을 기해 경기 용인, 이천, 안성, 광주 및 강원 등에 대설주의보를 발효했다고 밝혔다. 이날 경기·강원 등 일부 지역에 대설주의보가 발효됨에 따라 중앙재난안전대책본부(중대본)가 비상 대응 체제에 돌입했다. 행정안전부는 이날 낮 12시를 기해 중대본 비상 1단계를 가동하고 위기경보 수준을 '관심'에서 '주의'로 상향했다. 대설주의보는 24시간 동안 눈이 5㎝ 이상 쌓일 것으로 예측될 때 내려진다.尹대통령, 오늘 韓·UAE 정상회담…원전·방산 등 다수 MOU 체결 기대윤석열 대통령은 아랍에미리트(UAE) 국빈 방문 이틀째인 15일(현지시간) 모하메드 빈 자이드 알 나하얀 UAE 대통령과 정상회담을 갖는다. 윤 대통령은 이날 아부다비에서 모하메드 대통령과 확대회담과 단독회담을 갖고 양국 관계를 최고 수준인 '특별 전략적 동반자 관계'로 격상하는 방안을 논의한다. 이번 정상회담을 계기로 원전과 방위산업, 인프라 건설 협력, 투자 분야 등에서 다수의 양해각서(MOU) 체결이 이뤄질지 주목된다.'연말정산 간소화 서비스' 오늘 개통…세액공제 확대직장인의 근로소득 연말정산 시즌이 도래하면서 오늘부터 간소화 서비스가 제공된다. 국세청은 의료비와 교육비, 신용카드 사용액 등 소득공제 항목을 집계해 번거로운 연말정산을 간소화한 서비스를 2000만명 직장인을 대상으로 15일 개통했다고 밝혔다. 기존 카카오톡 등 7종을 통해 접속이 가능했던 데서 올해부터는 토스·하나은행·농협·뱅크샐러드가 추가돼 총 11종의 간편인증을 이용할 수 있다. 연말정산 결과는 간소화 서비스가 개시되는 이날부터 확인할 수 있다. 근로자가 19일까지 홈택스에서 '일괄제공 신청 확인' 동의만 하면 국세청이 회사로 연말정산 자료를 직접 제공하기 때문에 이전처럼 회사에 일일이 자료를 내지 않아도 된다. 이번 연말정산에선 신용카드 사용액과 대중교통비, 월세, 기부금 등 세액공제가 확대된다.장제원 발언에 역풍?…나경원 "제2의 진박감별사 났다"장제원 국민의힘 의원의 나경원 전 원내대표 측을 겨냥한 "자기정치" "정치낭인들에 둘러싸여 헛발질" 발언들이 거센 반작용을 초래하고 있다. 나 전 원내대표는 장 의원을 맞겨냥해 "제2의 진박감별사"라고 반격했으며, 나 전 원내대표 측도 "아스팔트에서 함께 싸우고 윤석열 대통령 당선을 위해 함께 노력한 사람들이 정치낭인으로 한순간에 전락했다"고 반발했다. 나경원 국민의힘 전 원내대표는 15일 페이스북에서 "제2의 진박감별사가 쥐락펴락하는 당이 과연 총선을 이기고 윤석열정부를 지킬 수 있겠느냐"며 "2016년의 악몽이 떠오른다"고 우려했다.'일시적 2주택자' 처분 기한 3년 연장…"文정부 이전 수준"2020년 조정대상지역에서 주택을 매입한 일시적 2주택자도 3년 이내 기존 주택을 팔면 1가구1주택자로 세금 혜택을 받게 된다. 정부가 일시적 2주택자 주택 처분기한이 2년에서 3년으로 늘어나는 개정 시행령안에 따라 소급 적용하기로 하면서 주택 처분 기한이 3년으로 늘어난다. 15일 기획재정부에 따르면 일시적 2주택자의 주택 처분기한을 2년에서 3년으로 늘리는 개정 시행령안을 과거까지 소급 적용하기로 했다. 추경호 부총리 겸 기획재정부 장관은 지난 12일 비상경제장관회의에서 소득세법·지방세법·종합부동산세법 시행령 개정안을 발표하면서 이같은 조치를 취한바 있다. 이에 2021년 주택을 매입해 올해 주택을 처분해야 했던 2주택자와 2020년에 집을 한 채 더 구입한 2주택자도 내년까지 주택을 처분해도 과세특례를 적용받을 수 있게 된다.'서해 피격 은폐' 박지원·서욱·서훈, 오는 20일 첫 재판'서해 공무원 피격 사건' 당시 관련 첩보 삭제를 지시한 혐의를 받는 박지원 전 국가정보원장과 서훈 전 국가안보실장, 서욱 전 국방부 장관의 첫 재판이 오는 20일 열린다. 15일 연합뉴스에 따르면 서울중앙지법 형사합의25-2부(부장판사 박정제 박사랑 박정길)는 오는 20일 박 전 원장과 서 전 장관, 서 전 실장의 국가정보원법 위반 등 혐의에 대한 첫 공판준비기일을 연다. 김홍희 전 해양경찰청장과 노은채 전 국정원장 비서실장의 재판도 함께 이뤄진다. 공판준비기일은 본격적인 재판에 앞서 쟁점과 증거관계를 정리하기 위한 준비 절차로 피고인의 출석 의무가 없다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2023.01.09.</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>'한국 상륙' 앱토스, 게임 분야 집중 공략…"다이내믹 NFT 지원한다"</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006566994?sid=105</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>"올해 NFT 시장, 다이내믹·컴포저블 NFT 흥행할 것…게임 분야서 유용"'한국 시장 공략' 앱토스, 기술적 장점 내세워…"NFT 민팅 쉽고 싸다"캐시 썬(Cathy Sun) 앱토스 프로덕트매니저가 9일 서울 강남구 드림플러스에서 열린 '쟁글 블록체인 파운데이션 위크' 행사에서 발표하고 있다.(서울=뉴스1) 박현영 김지현 기자 = 레이어1 블록체인 플랫폼 앱토스(Aptos)가 올해 대체불가능토큰(NFT) 생태계를 집중 공략한다. 특히 게임 분야에서 주로 활용되는 '다이내믹 NFT(동적 NFT)'와 '컴포저블 NFT'가 올해 흥행할 것으로 보고, 해당 분야 NFT 프로젝트들을 지원하겠다는 방침이다. 앱토스는 메타(구 페이스북)의 가상자산 프로젝트였던 '디엠(구 리브라)' 출신 개발진이 개발한 플랫폼이다. 스마트컨트랙트 언어 ‘무브’를 비롯해 디엠 준비 과정에서 개발했던 기술적 장점들을 다수 끌어온 것으로 유명하다. 이를 통해 앱토스는 앤드리슨 호로위츠, 멀티코인 캐피탈 등 유명 벤처캐피탈(VC)로부터 누적 투자 규모 3억5000만달러(약 4749억원)에 달하는 투자를 유치하기도 했다. 최근에는 한국 팀을 꾸릴 목표를 가지고, 엔픽셀을 비롯한 국내 기업들과의 협업을 도모하고 있다.◇NFT 시장 '핫 키워드'는 '다이내믹 NFT'…지원사격 나선다9일 가상자산 공시 플랫폼 쟁글이 개최한 '쟁글 블록체인 파운데이션 위크' 행사에서 캐시 썬(Cathy Sun) 프로덕트 매니저는 "앱토스는 다이내믹 NFT와 컴포저블 NFT가 미래에 더 흥행할 것으로 보고 있다"며 "특히 게임 분야에서 크게 유행할 것"이라고 말했다. 다이내믹(동적) NFT란 아바타, 이미지 등 NFT화한 데이터를 바꿀 수 없는 '정적 NFT'와 달리, 데이터를 바꿀 수 있는 NFT를 의미한다. 예를 들어 캐릭터 NFT가 다이내믹 NFT로 민팅(발행)될 경우, 캐릭터의 액세서리 등을 바꾸거나 새로 조합할 수 있다. 썬 매니저는 이 같은 다이내믹 NFT가 게임에서 특히 잘 활용될 수 있다고 강조했다.컴포저블 NFT는 본래 NFT와 일반 유틸리티토큰(Fungible Token)을 함께 소유할 수 있는 NFT를 뜻한다. 다만 썬 매니저는 컴포저블 NFT를 '다른 NFT로 구성된 NFT(NFTs comprised of other NFTs)'로 묘사했다. 즉, NFT 여러 개를 조합해 만들어낸 NFT를 통칭하는 용어다. 컴포저블 NFT 역시 게임 분야에서 유용하게 쓰일 수 있다. 아이템 여러 개를 조합해 새로운 아이템을 만들어내는 식이다. 캐시 썬(Cathy Sun) 앱토스 프로덕트 매니저가 9일 서울 강남구 드림플러스에서 열린 '쟁글 블록체인 파운데이션 위크' 행사에서 여러 NFT를 조합해 만드는 '컴포저블 NFT'에 대해 소개하고 있다. 사진 속 이미지처럼 타이어 NFT, 액세서리 NFT 등을 조합해 자동차 NFT를 만드는 식이다.앱토스는 올해 '웹3 게임' 분야 공략을 가장 우선순위로 두고, 게임의 핵심이 될 다이내믹‧컴포저블 NFT를 지원하는 데 초점을 두겠다는 방침이다.썬 매니저는 "웹3 게임의 다음 스테이지가 될 다이내믹, 컴포저블 NFT를 지원하는 게 앱토스의 가장 중요한 목표"라며 "(다이내믹 NFT를 지원할 경우) 게임 유저가 레벨 업할 때마다 NFT도 함께 레벨 업할 수 있고, 여러 게임 아이템을 조합해 새로운 아이템을 만들어낼 수도 있다"고 설명했다.또 그는 크리에이터들이 이 같은 NFT를 자유롭게 선보일 수 있도록 크리에이터를 위한 지원책도 준비하고 있다고 밝혔다.썬 매니저는 "앱토스는 크리에이터들이 우리 플랫폼에서 안전하게 NFT 작업을 할 수 있도록 환경을 마련해주고 싶다"며 "로열티 정책도 매우 중요하게 생각하고 있다. 크리에이터들에게 지속 가능한 수입원을 제공하기 위한 취지"라고 강조했다. 게임 분야를 집중 공략하는 만큼, 국내 게임사 엔픽셀과의 협업이 기대된다고 밝히기도 했다. 앱토스와 파트너십을 체결한 엔픽셀은 최근 NFT를 적용한 블록체인 기반 게임 '그랑사가: 언리미티드'의 티저 영상을 공개했다. 썬 매니저는 "엔픽셀과의 협업을 아주 기대하고 있다. 그랑사가가 앱토스 기반으로 출시되는 것에 대한 기대가 크다"고 강조했다. 이어 "앱토스는 한국에서 새로운 업체들을 만나 협력을 논의하고 있다"고 덧붙였다.◇"민팅도 전송도 쉽고 싸다"…기술적 장점 내세운 앱토스맥스 카플란(Max Kaplan) 앱토스랩스 엔지니어가 9일 서울 강남구 드림플러스에서 열린 '쟁글 블록체인 파운데이션 위크'에서 발표하고 있다.앱토스는 이미 NFT를 쉽게 민팅(발행)하고 전송할 수 있는 표준을 제공하고 있기도 하다. 이날 행사에서 맥스 카플란(Max Kaplan) 앱토스랩스 엔지니어는 앱토스의 NFT 표준이 다른 블록체인 플랫폼이 제공하는 표준에 비해 효율적이고 유연하다고 강조했다. 우선 그는 앱토스의 표준이 거래속도 면에서 효율적이라고 밝혔다. 이더리움을 비롯한 다른 블록체인 플랫폼의 경우, NFT가 민팅되는 속도는 물론 전송되는 속도 역시 느리다는 점이 단점으로 꼽힌다. 지난해 10월 메인넷을 출시한 앱토스는 당초 초당거래량(TPS)이 16만에 달할 것으로 예상했으나, 메인넷 출시 직후 나타난 TPS는 목표치에 미달한 상태다. 그럼에도 앱토스는 다른 플랫폼에 비해 NFT 민팅 및 거래 속도를 크게 개선할 수 있을 것으로 봤다. 거래 확정에 걸리는 시간이 짧은 점도 앱토스 NFT 표준의 장점이다. 카플란 엔지니어는 "거래 확정을 바로 할 수 있다는 점에서도 앱토스의 표준이 효율적"이라고 강조했다. 이더리움의 경우 거래 확정까지 약 1분이 소요되지만, 앱토스는 1초가 채 안 되는 시간에 거래를 확정하는 것으로 알려졌다. 아울러 그는 저렴한 거래 수수료(가스비)도 장점으로 내세웠다. 앱토스는 이달 중 NFT 전송에 들이는 가스비를 10배 이상 줄이겠다는 계획을 내놓기도 했다. 카플란 엔지니어는 "이더리움은 NFT를 민팅하기에 너무 비싸지만 앱토스는 그렇지 않다"고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2023.01.02.</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>토스뱅크, 정보보호체계 국제표준인증 획득</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003069572?sid=101</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>토스뱅크(대표 홍민택)는 정보보호와 개인정보보호 관리체계의 국제표준 인증인 ISO 2종을 모두 취득했다고 2일 밝혔다. 외부 컨설팅 없이 토스뱅크 자체적으로 획득한 이번 인증을 통해 토스뱅크의 정보보호 체계가 국제적으로도 우수한 수준임을 입증하게 됐다.토스뱅크는 긴 역사와 세계적 권위를 자랑하는 인증 기관인 BSI(영국 왕립 표준협회)로 부터 정보보호 관리체계 국제표준 'ISO27001' 및 개인정보보호 관리체계 국제표준 'ISO27701'를 동시 취득했다.정보보호 관리체계(ISO 27001) 인증은 정보보호 정책, 관리 및 물리적 보안, 기술적 보안 등 정보보호 관리 영역 14개 분야와 114개 세부 항목에 대한 엄격한 심사과정을 모두 통과해야 하며 인증 후에도 지속 유지 및 관리되고 있는지 평가받는다. 한편 개인정보보호 관리체계(ISO27701)는 회사가 개인정보보호를 위한 요구사항을 준수하고 있는지 개인정보 관련 31개의 항목을 준수하고 있는지 검증받는다.토스뱅크는 지난해 10월 출범한 인터넷전문은행으로 전자금융거래법, 신용정보법, 정보통신망법, 개인정보보호법 등의 법규를 준수하기 위해 정보보호 규정, 개인정보 내부관리계획 등 정보보호 관리체계를 체계적으로 수립하여 이행하고 있다. 여기에 글로벌 기준의 인증을 획득함으로써 정보보호 관리에 대한 대외적 신뢰도는 향상될 것으로 전망된다.한편 토스뱅크는 2022년 상반기에는 카드 부정 사용과 정보 유출 방지를 위한 산업 표준인 PCI-DSS (지불 카드 산업 정보 보안 표준) 인증을 국내 은행 최초로 획득한 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2023.01.04.</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>SK스토아 "1200종 설 선물 상품, 최대 40% 할인"</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011625717?sid=101</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>SK스토아 설프라이즈(사진=SK스토아 제공) *재판매 및 DB 금지[서울=뉴시스]박미선 기자 = SK스토아가 설을 맞아 ‘설프라이즈’ 행사를 진행한다고 4일 밝혔다.22일까지 진행하는 이번 행사는 SK스토아 온라인몰과 모바일 앱을 중심으로 마련됐다. 먼저 ‘설맞이 세일’ 기획전을 준비해 약 1200종의 설 선물 관련 상품을 최대 40% 할인가에 판매하고, 행사 상품 구매 고객에게 최대 10만원의 적립금을 지급한다. 과일과 건강기능식품을 비롯한 먹거리 선물세트부터 뷰티·생활용품, 가전제품 등 다양한 상품을 선보인다.대표 상품으로 ▲정관장 홍삼진고 데일리스틱(10g*20포*4박스, 10만원)  ▲설화수 자음 2종 기획세트(자음수 125㎖+자음유액 125㎖, 6만9520원) ▲삼성 비스포크 4도어 프리스탠딩 냉장고(RF85B9111APWR, 875L, 202만5810원) 등이 있다.산지직송 전문 브랜드 ‘더싱싱’과 손잡고 사과·배·황금향 등 각종 과일 선물세트를 비롯해 한우·제주 흑돼지·완도 활 전복·영광 보리굴비 등 신선 선물세트도 다채롭게 판매한다.더불어 행사 상품 중 ‘BEST(베스트) 선물’과 ‘PREMIUM(프리미엄) 선물’로 지정된 상품을 구매하는 고객에게는 최대 10만원의 적립금을 지급하고, 토스페이로 결제하는 고객에게는 최대 7%의 즉시할인 혜택도 제공한다.매일 오전 11시 ‘매일 당첨 룰렛 이벤트’도 연다. SK스토아 모바일 앱 행사 페이지에서 1일 1회 참여 가능하며 10~5000원의 적립금 중 당첨 금액을 매일 증정한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2023.01.04.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>토스 “개인정보 이용 내역, 언제나 투명하게 조회하세요”</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000037528?sid=004</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>‘개인정보 안심리포트’ 서비스 출시토스 앱 내 전체탭에서 확인 가능토스, 개인정보 안심리포트 출시. [사진 토스]비바리퍼블리카는(토스)가 고객이 서비스 이용과정에서 조회되는 개인정보 내역을 언제든 확인할 수 있는 ‘개인정보 안심리포트' 서비스를 출시했다고 4일 밝혔다.‘개인정보 안심리포트’는 고객이 제공에 동의한 개인정보가 언제, 왜, 누구에게 제공됐는지를 한눈에 확인할 수 있는 서비스다. 예를 들어, ‘송금’ 과정에는 고객의 이름과 계좌번호가, 금융결제원 및 연결 은행에서 출금을 위해 사용되는 것을 조회할 수 있다. 토스 관계자는 “다양한 금융 서비스 이용 시 고객이 ‘필수동의’, ‘선택동의’ 등의 과정을 거치고 있지만 실제 서비스 과정에서 개인정보의 흐름이 어떻게 이루어지고 있는지 구체적으로 보여주는 제품이 그동안 시장에 없었다”며 는 “모든 개인정보 이용 내역을 투명하게 공개하고 사용자의 동의하에 꼭 필요한 정보만 활용하겠다는 토스의 의지가 반영됐다”며 서비스 출시 취지를 밝혔다. 현재 토스의 서비스 중 ‘내 신용점수’, ‘내게 맞는 대출 찾기'를 비롯해 송금, 환전, 토스페이 등 주요 서비스에서의 이용 내역을 확인할 수 있다. 앞으로 모든 서비스로 확대될 예정이다. 개인정보 안심리포트는 토스앱 내 ‘전체 탭’에서 확인할 수 있다.토스는 이번 서비스 출시를 위해 2022년 9월 ‘프라이버시 사일로(Privacy-Silo)’ 팀을 신설했다. 이 팀은 향후 개인정보 안심리포트를 비롯한 사용자의 신뢰를 얻을 수 있는 제품들을 고도화해 나갈 예정이다.이승건 토스 대표는 “토스가 많은 유저에게 사랑받는 서비스로 자리매김하기 위해 더 높은 수준의 신뢰를 얻는 것이 필수적”이라며 “무엇보다 사용자가 개인정보 이용 내역을 직접 확인함으로 얻을 수 있는 신뢰의 가치가 크다”고 강조했다.한편, 토스는 개인정보의 보호와 투명성 제고를 위한 다양한 활동을 전개하고 있다. 토스는 지난해 11월 외부 전문가로 구성된 ‘데이터 보호 준법 자문위원회'를 출범했다. 자문위는 고객 데이터에 대한 처리가 법령을 준수하고 있는지 독립적으로 확인하고 감시하며 안전한 데이터 관리 체계 구축을 위한 조언도 하고 있다. 이 외에도 토스는 2017년 국제표준 정보보호 대표 인증인 ‘ISO/IEC 27001’ 및 ‘ISO/IEC 27701’ 인증을 자발적으로 취득하기도 했다. 이 두 인증은 현장 실사를 거쳐 높은 글로벌 기준에 부합하는 회사에게만 주어지는 것으로 알려졌다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2023.01.11.</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>연말정산 간소화 서비스 15일 개통…일괄제공 이용 14일까지 신청</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006570392?sid=101</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>간편인증에 토스 등 추가…월세 카드납부분도 간소화자료 제공안뜨는 의료비 신고센터서 신고가능…확정자료는 20일부터'연말정산 간소화자료 일괄제공 서비스' 개요(국세청 제공)(세종=뉴스1) 서미선 기자 = '13월의 월급'으로 불리는 연말정산 시즌이 돌아왔다.국세청은 오는 15일부터 근로자가 각종 공제증명 자료를 조회할 수 있는 홈택스 연말정산 간소화 서비스를 개통한다고 11일 밝혔다.연말정산 간소화자료 일괄제공 서비스를 이용하려는 회사는 14일까지 연말정산 대상 근로자 명단을 홈택스에 등록하면 신청이 완료된다.근로자는 홈택스에서 일괄제공되는 회사와 제공자료 범위 등을 19일까지 확인, 동의해야 한다.지난해 시범운용 중 이미 동의를 한 근로자는 다시 동의절차를 밟지 않아도 된다. 이는 근로자가 홈택스나 손택스에 접속하면 알림창을 통해 자동 안내된다.부양가족이 19일까지 간소화자료 제공에 사전동의한 경우 부양가족의 간소화 자료도 함께 제공된다.의료비 자료가 조회되지 않는 경우 15~17일 홈택스의 '조회되지 않는 의료비 신고센터'에서 신고할 수 있다.의료기관 등 영수증 발급기관이 15일 이후 추가하거나 수정한 내용을 반영한 최종 확정자료는 20일부터 제공된다.2004년 1월1일 이후 태어난 미성년 자녀의 간소화자료는 자녀 동의 없이 부모가 미성년 자녀 자료신청만으로 조회할 수 있고, 올해 성년이 되는 2003년도 출생 자녀는 해당 자녀의 동의가 있어야 조회가 가능하다.회사는 동의 절차를 마친 근로자(부양가족 포함)의 간소화자료를 PDF 압축파일 형식으로 21일부터 순차적으로 내려받을 수 있다.국세청은 간소화 서비스를 다양한 방식으로 접속해 더 편리하게 이용할 수 있도록 간편인증 4종을 홈택스에 추가 도입했다.기존에 카카오톡 등 7종을 통해 접속이 가능했던 데서 올해부터는 토스, 하나은행, 농협, 뱅크샐러드를 추가해 총 11종의 간편인증을 이용할 수 있게 됐다.주택 월세액을 신용카드로 납부하는 경우 카드회사로부터 신용카드로 결제한 월세액 자료를 수집해 간소화 자료로 제공한다.장애인의 연말정산 편의를 높이기 위해 보건복지부와 국가보훈처에서 수집한 관련 증명자료도 간소화 자료로 제공한다.편의를 위해 이달 15~31일 한시적으로 비회원 접속 방식에 휴대전화·신용카드 본인인증을 추가 제공한다.아울러 영수증 발급기관이 연말정산 자료를 쉽게 낼 수 있도록 홈택스 내비게이션 안내를 도입했다.이는 자료제출 안내문을 바탕으로 작성 방법부터 제출 현황까지 진행 상황을 제공하는 서비스다.자체 연말정산 프로그램이 없는 회사와 근로자를 위한 연말정산 지원 서비스인 '편리한 연말정산 서비스'는 18일부터 개통한다. 총급여, 주민등록번호, 기납부세액 등 기초자료 등록은 지난 3일부터 가능해졌다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2023.01.05.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>한달 이자만 수십만원 차이…인터넷은행 금리는 왜 낮을까</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005400373?sid=101</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>카카오·케이뱅크 주담대 변동금리 4.775~6.48% 수준대형은행 최근 상단 8% 돌파, 대출이자 부담 큰 차이인원 적고 점포 없어 운영비 절감, 중개수수료도 없어[이데일리 이명철 기자] 연초부터 시중은행 주택담보대출 금리가 상단 8%대를 돌파하며 고금리 국면이 계속되고 있다. 대출을 받아야 하는데 높은 금리로 이자가 부담되는 사람들에게 인터넷은행이 돌파구가 될지 주목된다. 인터넷은행들은 상대적으로 저렴한 조달 비용을 바탕으로 대출금리가 낮은 편이다. 최근에는 주담대 영역을 늘리려고 준비하고 있어 대출 수요는 더욱 커질 전망이다.(사진=이미지투데이)4일 금융권에 따르면 인터넷은행의 주택담보대출 변동금리는 카카오뱅크 4.775~6.389%, 케이뱅크 5.42~6.48%로 조사됐다. 전날 5대 시중은행(KB국민·신한·하나·우리·NH농협)의 주담대 변동금리가 5.25~8.12%였던 점을 감안하면 상단 기준 2%포인트 가까이 차이난다.30년 만기로 3억원을 원리금균등 상환 방식으로 주담대 받았을 때 8.12%를 적용한 총대출 이자는 5억152만원이다. 반면 인터넷은행의 상단인 6.48%를 반영하면 3억8112만원으로 1억 2000만원 가량 부담이 줄어든다. 월 납입금액도 대출금리 8.12%는 223만원이지만 6.48%인 경우 189만원으로 30만원 이상 낮다.인터넷은행의 대출금리가 시중은행보다 저렴한 이유는 조달 비용이 저렴하기 때문이다. 대출금리는 기준금리에 따른 인상분 외에도 운영비 등의 조달 비용을 반영한 가산금리를 조정해 결정된다.시중의 대형은행은 인터넷은행에 비해 임직원 수가 많고 전국에 오프라인 점포가 있기 때문에 운영비 측면에서 불리할 수밖에 없다. 지난해 반기보고서를 기준으로 했을 때 KB국민은행의 직원은 1만4476명으로 1091명인 카카오뱅크의 13배가 넘는다. 국민은행은 국내 점포만 878개에 달하는 반면 카카오뱅크는 서울 영등포구에 고객센터 두곳을 운영할 뿐이다.2017년 출범한 인터넷은행은 조달비용 측면의 경쟁력을 바탕으로 처음 신용대출에 이어 주담대로 영역을 넓히고 있다. 신용대출의 경우 개인 소득 자료 등 확인해야 할 정보가 상대적으로 간단했기 때문에 온라인으로도 처리가 수월했다. 주담대는 인감도장이나 주민등록초본 등 갖춰야 할 서류가 많고 주택의 시세 등도 파악해야 하기 때문에 인터넷은행이 진출하기 어려웠다.하지만 2020년 케이뱅크가 처음 담보대출 상품을 내놓은 이후 카카오뱅크까지 주담대를 실시하고 있다. 정보기술(IT)의 발달로 비대면 인증이 활성화되는 등 온라인을 통한 주담대가 가능해진 것이다.카카오뱅크 관계자는 “상담부터 실행까지 비대면 프로세스를 구축해 비용을 절감하고 모집인 수수료나 중개사 제휴 수수료 비용도 없는 것이 특징”이라며 “지난해 9월 주담대 금리를 최대 0.85%포인트 인하하는 등 금리 인상기 고객 금융 비용 절감 노력도 하고 있다”고 전했다.인터넷은행에서도 앞으로 주담대는 주요 대출 상품이 될 가능성이 크다. 케이뱅크는 주담대 영역을 확장할 예정이고 토스뱅크도 주담대를 준비 중인 것으로 알려졌다.케이뱅크 관계자도 “담보대출을 처음 할 때만 해도 대환 위주로 시행을 했지만 지금은 시세가 명확하게 나오는 아파트 대상으로 주담대를 실시하고 있다”며 “앞으로 한단계 더 나아가 주택·빌라 등으로도 확장하는 방안을 고민 중”이라고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2023.01.10.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>총성없는 '페이 전쟁'…카카오 '독주' 네이버 '맹추격'</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004143499?sid=101</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>작년 네카토 충전금 6344억1년 만에 430억 이상 불어네이버, 제휴처 공격 확대로카카오와 두 자릿수 상승률토스만 유인책 없어 감소[서울경제] 빅테크사들에 보관된 선불전자지급수단(선불충전금) 규모가 지난해 6300억 원을 넘겼다. ‘페이 선두 주자’인 빅테크사들의 강세가 이어지면서다.10일 핀테크 업계에 따르면 카카오페이, 네이버파이낸셜, 비바리퍼블리카(토스) 등 빅테크 3사에 보관된 선불충전금은 지난해 말 기준 총 6344억 원으로 집계됐다. 3사 선불충전금은 1년 만에 430억 원 넘게 불어났다. e커머스 등 비금융 플랫폼사, 은행·카드사 등이 속속 ‘페이 전쟁’에 뛰어들며 경쟁이 심화되고 있지만 3사 체제의 성장세가 지속되는 모습이다.빅테크 3사의 개별 실적은 갈렸다. 카카오페이가 앞서 나가는 가운데 토스는 주춤한 상황이다. 최근 1년 새 카카오페이와 네이버파이낸셜의 선불충전금 규모는 모두 두 자릿수 상승률을 기록하며 증가했지만 토스 선불충전금만 유일하게 감소했다. 지난해 4분기 말 기준 토스 선불충전금은 약 922억 원으로, 선불충전금 규모가 1100억 원을 넘겼던 1년 전보다 20.4%(약 236억 원)나 감소했다. 토스 선불충전금 잔액은 2021년 3분기(약 1337억 원)를 기점으로 지난해 상반기까지 4개 분기 연속 줄기도 했다.토스의 경우 돈을 충전할 유인이 크지 않기 때문으로 풀이된다. 토스 관계자는 “돈을 충전해서 사용하는 서비스는 10대 청소년을 위한 ‘토스 틴즈’ 등밖에 없기 때문에 그 규모가 상대적으로 적다”고 설명했다. 토스는 지난해 7월부터 토스페이 결제 시 결제액이 충전금이 아닌 카드나 계좌에서 바로 빠져나가도록 정책을 바꿨다. 네이버쇼핑, 카카오선물하기·모빌리티·웹툰 등 계열사에서 각각 자체 결제 시스템을 주요 결제 수단으로 활용할 수 있는 네이버파이낸셜, 카카오페이와 달리 토스페이는 이 같은 결제 생태계를 갖추고 있지 않기도 하다.이 틈을 타 네이버파이낸셜이 카카오페이를 바짝 쫓고 있다. 지난해 1분기까지만 해도 늘 토스에 뒤처지던 네이버파이낸셜 선불충전금 잔액은 같은 해 2분기부터는 토스를 제쳤다. 2022년 4분기 기준 네이버파이낸셜 선불충전금 잔액은 전년 동기 대비 10.4%(약 95억 원) 증가한 약 1009억 원이었다.네이버파이낸셜의 페이가 온라인에 이어 오프라인 결제 기능 및 부가 서비스를 강화하고 나서면서다. 실제로 네이버파이낸셜의 지난해 3분기 오프라인 결제액은 총 8000억 원으로 전년 동기 대비 2배 증가했다. 전체 결제액(12조 4000억 원)에서 차지하는 비중은 아직 미미하지만 네이버파이낸셜은 가맹점 및 제휴처 확대 등을 통해 오프라인 결제 부문을 지속해서 강화해나갈 방침이다. 네이버파이낸셜의 경우 지난해 11월 하나은행과 함께 선불충전금에도 이자를 지급하는 ‘네이버페이 머니 하나 통장’을 출시하기도 했다. 통장에 넣어둔 돈에는 최대 연 4%(세전) 금리를 제공하고 이 예치금을 선불충전금으로 사용하면 최대 3% 포인트 적립 혜택을 주는 식이다. 앞서 금융위원회는 지난해 9월 이 서비스를 혁신금융서비스로 지정한 바 있다. 네이버파이낸셜 관계자는 “이용자들이 단순히 돈을 충전하는 데 그치지 않고 온·오프라인 내 사용도 활발하게 진행하고 있는 만큼 결제 편의성을 더 갖춰나갈 계획”이라고 말했다. 한편 결제 대비 송금 규모가 큰 카카오페이는 선불충전금 잔액 면에서 부동의 1위를 유지했다. 지난해 말 기준 카카오페이 선불충전금 잔액은 빅테크 3사 전체 잔액의 70%에 육박하는 4413억 원으로 전년 동기 대비 증가율은 14.9%에 달했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2023.01.12.</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>캐릭터 웹툰 만들고 중간·워치 요금제까지…알뜰폰 '남다른 경쟁'</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004144444?sid=105</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>[업계 차별화 마케팅 주목]사업자 76곳 난립···출혈경쟁 몰려KT엠모바일, 新 요금제 다각화세종텔레콤, 스노우맨 제작 등타사에 없는 서비스 개발에 집중[서울경제] 알뜰폰 이용자가 빠르게 늘면서 관련 업체들의 고객 확보 경쟁도 가열되고 있다. 알뜰폰 시장은 현재 사업자가 총 76개로 ‘난립’하는 상황이다. 따라서 대부분 업체가 적자 상태라는 점에서 부담스러운 가격 경쟁 대신 타사에는 없는 요금제나 서비스를 선보이며 소비자들을 공략하고 있다.12일 KT엠모바일은 스마트워치 전용 요금제 출시했다고 밝혔다. 월 7700원에 음성 50분, 문자 250건, 데이터 250MB를 제공한다. 워치 전용 요금제는 ‘KB리브엠’ ‘KT스카이라이프’만 내놓은 상태다. KT엠모바일 측은 “MZ세대 니즈를 반영해 ‘스마트워치+알뜰폰’ 요금제'를 출시했다”며 “앞으로도 상품 라인업 다각화에 힘쓸 예정”이라고 말했다. KT엠모바일은 지난 3일 알뜰폰 업계 최초로 20GB 데이터의 5G 중간요금제를 출시한 바 있다.다른 알뜰폰 브랜드들도 5G 중간요금제 출시를 저울질하고 있다. SK텔링크 관계자는 "SK텔레콤 망을 이용하는 사업체들이 1월 말에서 2월 초에 5G 중간요금제 출시를 준비 중"이라고 말했다. U+유모바일도 비슷한 시기에 100GB를 제공하는 5G 요금제를 새로 내놓을 계획이다.세종텔레콤 알뜰폰 브랜드 ‘스노우맨’은 동명의 캐릭터를 제작해 웹툰을 인스타그램에 게재하고 있다. 지난해 말에는 다이어리, 달력, 그립톡 등 스노우맨 굿즈 패키지 수천 개를 제작했다. 세종텔레콤 관계자는 “별도로 판매하지 않고 스노우맨을 알리기 위한 마케팅용으로 만들었다"며 "찾는 사람들이 많아 일찌감치 소진됐다”고 했다.이달 말에는 비바리퍼블리카가 알뜰폰 서비스 ‘토스모바일’을 선보인다. 토스모바일은 24시간 고객센터와 토스 앱을 활용한 데이터 사용량·요금 조회 등을 내세워 고객 확보에 나선다. 그간 알뜰폰 이용자들은 SK텔레콤·KT·LG유플러스 등 통신 3사와 달리 부족한 고객센터 인프라로 연결이 안 된다며 불편을 호소해왔다.이미 포화인 시장에 신규 사업자가 뛰어들고 여러 프로모션 경쟁이 붙자 알뜰폰 업계는 경계하고 있다. 전날 한국알뜰통신사업자협회는 규제 완화라는 이름으로 알뜰폰을 금융기관의 부수업무로 지정하려는 움직임에 결사 반대한다고 성명을 냈다. 2019년 KB국민은행이 출범한 알뜰폰 서비스 ‘KB리브엠'에 올해 ‘토스모바일’까지 생겨났고, 이들이 불공정 마케팅 경쟁을 주도하면 거대 금융기관과 달리 대다수 중소 사업자들은 희생양이 된다는 것이다. 업계 한 관계자는 “한 알뜰폰 업체가 데이터 프로모션을 수개월간 하며 고객을 끌어모으자 타 업체들이 출혈 경쟁을 멈추라며 항의한 적도 있다"고 말했다.중소 알뜰폰 업체들이 아무리 마케팅에 힘써도 결국 KT엠모바일·LG헬로비전(037560)·SK텔링크 등 통신3사 자회사의 벽을 넘지 못한다는 회의적인 시선도 있다. 국내 알뜰폰 시장 점유율(사물인터넷 회선 가입자 제외)은 통신 3사의 자회사 5곳이 전체의 50.4%를, 중소 알뜰폰 업체 45곳이 43.9%를 차지하고 있다.알뜰폰은 지난 2010년 9월 도입된 뒤 2015년 가입자 500만 명을 넘어섰고 2021년 1000만 명 시대를 열었다. 과학기술정보통신부에 따르면 알뜰폰 시장 점유율은 매달 증가해 지난해 11월 기준 16.44%를 기록했다. 가입자 수를 기준으로 보면 SK텔레콤 3069만명, KT 1757만명, LG유플러스 1596만명 등으로 하락 추세인 반면 알뜰폰 회선 가입자는 1264만명으로 증가세다.세종텔레콤 알뜰폰 브랜드 ‘스노우맨’ 캐릭터 웹툰. 사진=SNS 캡처세종텔레콤 알뜰폰 브랜드 ‘스노우맨’ 캐릭터 웹툰. 사진=SNS 캡처</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2023.01.01.</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>"술 금지 연찬회서 술자리, 핵인싸세요?"…권성동, 주현영 만났다</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004794583?sid=100</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>권성동, SNL '주 기자가 간다' 출연"보좌진 만류해도 최대한 요구 부응""솔직한 제 모습, 편하게 봐달라"배우 주현영(왼쪽), 권성동 국민의힘 의원. / 사진=쿠팡플레이 SNL코리아 유튜브 캡처쿠팡플레이 SNL코리아의 '주 기자가 간다' 코너에 출연한 권성동 국민의힘 의원이 지난해 불거진 이른바 '연찬회 술자리 논란' 등 송곳 질문에 진땀을 뺐다.지난해 12월 31일 방송된 쿠팡플레이 SNL코리아 '주 기자가 간다' 코너에는 권 의원이 출연했다. 이 자리에서 김아영 인턴기자는 권 의원에게 "술 반입이 금지됐던 연찬회 후, 기자들과 가지신 술자리 영상인데, 굉장히 '핵인싸'이신 것 같다"면서 연찬회 술자리 논란 관련 질문을 던졌다.사진=김동하 전 국민의힘 서울시당 부대변인 페이스북 캡처그러자 권 의원은 "해명을 좀 하자면, 공식 연찬회가 다 끝난 후 그 뒤풀이"라며 "연찬회가 종료된 이후 뒤풀이 장소였다. 연찬회는 술 반입이 금지됐다"고 해명했다. 권 의원은 이 질문에 당황하는 표정을 지으며 크게 웃어 보였다. 또 주현영 기자가 노래를 주문하자 짤막한 노래로 화답하기도 했다.또 8년 전 국회 국정감사장에서 휴대폰으로 비키니를 입은 플레이보이 모델 티파니 토스 사진을 보다가 언론 카메라에 포착된 일도 재소환됐다. 주 기자가 "티파니 토스의 어떤 점이 가장 끌리셨냐"고 묻자 권 의원은 "기사 검색하다가 우연히 그 화면이 나왔는데, 1~2초 봤다"며 " 그 여성이 어떤 여성인지 전혀 기억나지 않는다"고 답했다.사진=쿠팡플레이 SNL코리아 유튜브 캡처윤석열 대통령의 핵심 관계자를 줄여 부르는 '윤핵관'이라는 별명에 대해선 "듣기 거북하다"는 솔직한 입장을 밝혔다. 그는 "윤핵관이라는 별명을 만든 분은 좀 비아냥거리기 위해 만들었기 때문에, 남들이 우릴 공격할 때 윤핵관이라는 표현을 쓰는 거 자체는 듣기 조금 거북하다"고 했다. 그는 "권성동 국회의원이고 정치인 권성동이기 때문"이라고 그 이유를 설명했다.윤 대통령의 이름으로 전달된 연말 선물 가운데 국산이 아닌 외국산 농산물이 포함돼 빚어진 논란도 거론됐다. 두 선택지 가운데 하나를 선택하는 이른바 '밸런스 게임'에서 주 기자는 권 의원에게 "우리 농산물과 수입 농산물 중 더 받고 싶은 선물은 무엇이냐"고 물었다. 그러자 권 의원은 "당연히 우리 농산물"이라고 했다.이에 주 기자가 "그렇다면 수입 농산물을 연말 선물로 보내신 그분(윤 대통령)께 영상 편지 부탁드린다"고 하자 권 의원은 "수입 농산물을 선물로 보내신 분이 누구냐. 저는 그에 대한 정보가 전혀 없다"고 영상 편지를 이어 나가지 않았다.사진=쿠팡플레이 SNL코리아 유튜브 캡처한편, 권 의원은 이날 페이스북을 통해 SNL코리아 출연 소감을 밝혔다. 그는 "다른 분들처럼 저 역시 주 기자와 김 인턴기자의 날카로운 질문에 많이 당황했다"며 "이에 방어하기 어렵다고 판단하고, 가감 없이 있는 그대로 내려놓았다"고 했다.이어 "몇몇 장면에서는 보좌진이 팔로 'X자'를 만들며 만류했으나, 최대한 요구에 부응하고자 노력했다"며 "해당 코너 최고 스타인 홍준표 선배만큼 재밌을 수는 없겠지만, 솔직한 제 모습이니 편하게 봐주셨으면 좋겠다"고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2023.01.11.</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>오는 14일까지 '연말정산 간소화자료 일괄제공' 이용 신청해야</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002089612?sid=101</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>회사 신청시 근로자, 19일까지 홈택스에서 '동의' 눌러야연말정산 간소화 서비스, 15일 개통…홈택스 간편인증 확대[연합][헤럴드경제 =배문숙 기자]올해 연말정산에서 '간소화자료 일괄제공' 서비스를 이용하려는 회사는 오는 14일까지 연말정산 대상 근로자 명단(이름·주민등록번호)을 홈택스에 등록해야 한다.간소화자료 일괄제공 서비스는 홈택스에서 연말정산 간소화자료를 일일이 내려받아 회사에 제출하는 번거로움을 줄여주기 위해 국세청이 회사에 자료를 직접 제공하는 서비스다.국세청은 오는 19일까지 서비스 이용을 신청한 회사의 근로자는 홈택스에 접속해 제공자료 범위를 확인하고 '동의' 버튼을 눌러야 한다고 11일 안내했다.회사에 제공하고 싶지 않은 민감한 자료가 있다면 삭제하면 된다. 회사는 확인(동의) 절차를 완료한 근로자와 그 부양가족의 간소화자료를 21일부터 PDF 압축파일 형식으로 순차적으로 내려받을 수 있다.확인(동의) 절차를 완료하지 않은 근로자의 자료는 국세청이 제공하지 않는다. 간소화자료를 직접 보고 싶은 근로자는 예년처럼 연말정산 간소화 서비스에 접속해 자료를 확인하면 된다.국세청이 제공하는 간소화자료 이외에 기부금·월세 납부 자료 등 연말정산에 필요한 다른 서류가 있다면 추가로 회사에 제출해야 한다.시력 교정용 안경·콘택트렌즈 구입비용, 보청기·의료용구 비용, 학점인정(독학학위) 교육비 납입금액, 취학 전 아동의 학원·체육시설 교육비 납입금액, 장애인특수교육비 납입금액 등은 기관이 국세청에 자율적으로 제출하는 자료라 간소화자료에 포함되지 않을 수 있다.홈택스 연말정산 간소화 서비스는 15일 개통한다. 간소화자료 일괄제공 서비스를 이용하지 않는 회사의 근로자는 예년과 마찬가지로 간소화 서비스를 이용해 연말정산을 하면 된다.15일부터 간소화자료를 확인해 내려받을 수 있다. 영수증 발급기관이 15일 이후 추가하거나 수정한 내용을 반영한 최종 확정자료는 20일부터 제공된다.올해는 간소화 서비스 간편인증(민간인증서) 4종(토스, 하나은행, 농협, 뱅크샐러드)이 추가됐다.기존 7종(카카오톡, 통신사PASS, 삼성패스, 국민은행, 페이코, 네이버, 신한은행)에 새로 4종이 추가되면서 총 11종의 간편인증을 활용할 수 있게 됐다.보건복지부와 국가보훈처에서 수집한 장애인 증명자료도 간소화자료로 제공된다. 다만 항시 치료가 필요한 중증 환자는 증명자료를 간소화자료로 제공하지 않아 예전처럼 의료기관에서 발행하는 장애인 증명서를 제출해야 한다.월세를 신용카드로 납부한 경우 국세청이 카드사로부터 신용카드로 결제한 월세액 자료를 수집해 제공하는 간소화자료를 이용할 수 있다.자체 연말정산 프로그램이 없는 회사와 근로자를 위한 '편리한 연말정산 서비스'는 18일부터 개통한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2023.01.01.</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>[새해전망] 제4이통사 등장할까...출구 없는 망사용료법</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006551182?sid=105</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>중간요금제 압박 지속…토스도 알뜰폰 시장 진출이통3사, 경쟁력 확보 위해 올해도 '탈통신' 잰걸음23일 서울 용산의 휴대폰 매장 앞으로 한 시민이 지나가고 있다. 과학기술정보통신부가 이날 KT와 LG유플러스에 대한 5G 28㎓ 대역 주파수 할당 취소를 최종 확정했다.  2022.12.23/뉴스1 ⓒ News1 박세연 기자(서울=뉴스1) 정은지 이기범 기자 = 지난해 28㎓ 주파수 할당 취소에 따른 여파가 새해에도 지속될 예정이다. 이를 놓고 일각에서는 신규 사업자인 제4이동통신사가 등장할 수 있는 계기가 될 가능성을 제기하고 있다. 정부가 해당 주파수 대역에 대한 신규 사업자 진입을 추진하는 과정에서 적극적인 유인책을 쓸 것이라는 전망이다.'중간요금제' 압박도 이어진다. 데이터 제공 구간이 '어중간'한 요금제 대신 더 다양한 5G 요금제가 나와야 한다는 요구가 커지고 있는 탓이다. 또 가계 통신비 인하 요구에 맞물려 '토스'가 알뜰폰(MVNO) 시장에 진출할 예정이라 기존 통신 3사 중심의 시장에 균열이 생길지 여부에도 관심이 쏠리고 있다.통신 3사의 탈통신 기조는 더욱 확대될 것으로 보인다. 성장이 정체된 통신 사업에서 외연을 넓혀 '플랫폼' 기업으로의 전환에 속도를 낼 전망이다. 구글, 넷플릭스 등 글로벌 콘텐츠사업자(CP)와의 망 사용료 문제는 올해도 뚜렷한 출구를 찾지 못한 채 장기화될 것으로 보인다.◇초유의 주파수 할당 취소...제4이통사 등장 계기될까지난해 12월 과학기술정보통신부는 KT와 LG유플러스에 대한 5G 28㎓ 대역 주파수 할당 취소를 최종 확정했다. 국내에서 주파수 기간 만료 전 할당이 취소된 첫 사례다. SK텔레콤은 턱걸이로 주파수 할당 취소를 면했으며, 이용 기간 단축(6개월) 처분을 받았다.남은 건 신규 사업자 진입 여부다. 과기정통부는 취소된 2개 대역 중 1개 대역에 대해 신규 사업자 진입을 적극 추진할 계획이다. 구체적인 방안은 1월 중 발표할 계획이다.이를 놓고 업계에서는 다양한 예상이 나오고 있다. 기존 통신 3사도 투자에 난색을 표할 만큼 관련 생태계 활성화에 한계가 있기에 과기정통부가 강력한 유인책을 내놓지 않으면 안 되는 상황이기 때문이다.일각에서는 신규 이통사업자가 등장할 가능성도 제기하고 있다. 현재 28㎓ 대역 상용화를 위해서 6㎓ 이하 '앵커 주파수'(신호제어용 주파수)가 필요한데, 이를 제어용에 국한하지 않고 일반 이용자 대상 통신 서비스에 활용할 수 있도록 할 경우 제4이동통신사가 등장할 수 있는 근거가 될 수 있다.이에 대해 최우혁 과기정통부 전파정책국장은 "현재 기술로는 28㎓를 단독으로 쓰는 칩을 제조하진 않기 때문에 신호를 제어하는 부분에 대해서 앵커 주파수가 필수적이다"며 "1월까지 고민하고 있는 부분들이 주파수만이 아니라 다른 지원 부분들에 대해 조금 더 구체적이고 실효성 있는 방안을 찾고 있다"고 말했다.스페이스X의 위성통신서비스 '스타링크'가 올해 1분기 한국 진출을 선언한 점도 변수다. 스타링크가 진출할 경우 통신 3사 중심의 구도에 어떤 식으로든 영향을 미칠 수 있기 때문이다. 그러나 저궤도 위성통신서비스의 특성상 높은 가격과 느린 속도 탓에 국내 B2C 통신 시장에는 큰 영향력을 미치지 못할 것으로 보인다. 특히 국내에서는 위성 서비스가 메울 통신 커버리지의 빈틈도 거의 없다.한 업계 관계자는 "저궤도 서비스가 아직 검증되지 않았지만, 위협적 요소라 생각한다"면서도 "실제 우리나라 상황에서 어떻게 서비스될지 지켜야 봐야 한다. 글로벌과 달리 국내에서는 스타링크 서비스 수요가 많지 않을 거로 예상한다"고 말했다.딘 가필드(Dean Garfield) 넷플릭스 정책총괄 부사장이 4일 서울 종로구 JW메리어트 동대문스퀘어에서 열린 미디어 오픈 토크에서 취재진 질의에 답하고 있다. 2021.11.4/뉴스1 ⓒ News1 안은나 기자◇출구 없는 망사용료 문제…과기정통부 해결사 자처하나망 사용료(망 이용대가) 문제는 출구 없이 평행선을 달리고 있다.특히 유튜브, 넷플릭스 등 과도한 트래픽을 유발하는 사업자에게 망 이용대가 의무를 지도록 하는 망 사용료 법안은 '트위치 화질 제한 사태'를 기점으로 게이머들을 중심으로 반대 여론이 결집되면서 2년 연속 국회 문턱을 넘지 못했다.국회는 망 사용료 법 공청회를 열고 의견을 수렴한 후 법안을 처리할 예정이었지만, 여야 의원 모두 참석한 두 번째 공청회를 열기로 한 뒤로 기약이 없는 상태다. 기존에 법안을 냈던 의원들이 다른 상임위로 이동하고, 여론의 역풍이 부는 상황에서 관련 논의는 멈춘 상태다.이 같은 상황에서 과기정통부는 지난 12월29일 '디지털 플랫폼 발전 방안'을 발표하며 망 이용대가 문제에 대한 합리적 해결 방안을 마련하겠다고 예고했다.과기정통부는 망 이용대가는 네트워크의 지속적 발전과 콘텐츠 산업 활성화, 이용자 편익 등을 종합적으로 고려해야 하는 사안이라고 짚었다. 네트워크 이용에 대한 비용 부담 원칙과 계약 당사잔 간 협의 원칙을 준수해야 한다면서도 사업자 간 원활한 협의가 어려운 경우, 협의 조정 등을 통해 해결할 수 있는 방안을 강구하겠다는 입장이다.8일 오후 서울 강남구 토스본사에서 관계자들이 드나들고 있다.  2021.6.8/뉴스1 ⓒ News1 박세연 기자◇정부, 통신비 인하 의지…토스도 알뜰폰 뛰어든다과기정통부는 국민의 통신비 부담이 적어질 수 있도록 노력한다는 입장을 재확인했다. 이종호 장관은 최근 기자간담회에서 "어떤 형식으로든 국민의 통신비 부담이 적어질 수 있도록 정부에서 노력할 것"이라고 밝혔다. 앞서 통신3사는 기본데이터 제공량 20~30GB의 중간요금제를 출시했지만, 수요가 많은 40~100GB 구간 요금제에 대한 요구도 커지고 있어 새로운 중간요금제가 나올지에도 관심이 쏠린다. 이와 함께 정부가 알뜰폰 경쟁 활성화를 통한 통신비 인하 방침을 밝히면서 알뜰폰 시장에서의 경쟁이 점화될 것으로 보인다. 현재 알뜰폰 가입자는 약 1200만명으로 추산된다. 이중 KT엠모바일, LG헬로비전, SK텔링크 등 통신3사 자회사 5곳의 점유율이 전체의 절반 가량을 차지하고 있다. 이런 가운데 금융권에서 KB국민은행에 이어 비바리퍼블리카의 토스가 알뜰폰 시장 진출을 선언했다다. 지난 7월 머천드코리아를 인수한 토스는 연초 알뜰폰 요금제를 내놓을 것으로 관측된다. 박윤규 제2차관은 "알뜰폰 서비스가 보다 경쟁력을 갖고 시장에서 큰 역할을 할 수 있도록 안정적인 사업을 할 수 있는 제도적 여건을 과기정통부도 적극 추진 중"이라고 말했다. 이종호 과학기술정보통신부 장관이 11일 오후 서울 중구 대한상공회의소에서 열린 통신3사 CEO 간담회에 참석해 기념촬영을 하고 있다. 왼쪽부터 유영상 SK텔레콤 대표, 이종호 과학기술정보통신부 장관, 구현모 KT 대표, 황현식 LG유플러스 대표. (공동취재) 2022.7.11/뉴스1 ⓒ News1 임세영 기자◇올해도 '탈통신'이다…'제2의 우영우' 나올까통신 3사의 탈통신 기조는 올해에도 이어질 전망이다. 추가 성장 동력 확보를 위해서는 통신 이외 사업에서의 성과가 중요해졌기 때문이다. 'SKT 2.0' 비전을 제시하고 탈통신 행보를 가속화한 SK텔레콤은 기존 통신 사업 중심의 업을 △5G를 비롯한 유무선 통신 △콘텐츠 중심 미디어 △데이터센터·클라우드·AIoT를 포괄하는 엔터프라이즈 △구독·메타버스·AI 에이전트 등 3대 서비스 중심 아이버스(AIVERSE) △도심항공교통(UAM)·로봇·자율주행 등에 기반한 커넥티드 인텔리전스 등 5대 사업군으로 재편해 성장을 지속하겠다고 발표했다.그 중에서도 구독 서비스에서 성과를 낼 수 있을지에 관심이 쏠린다. 구독서비스인 T우주는 지난해 3500억원 수준이던 거래 금액을 오는 2025년 8조원 수준까지 끌어올린다는 목표를 세우고 제휴처 확대 및 대규모 프로모션을 진행 중이다. KT는 2020년 구현모 대표 취임 이후 줄곧 '탈통신'을 강조하며 '디지코'(DIGICO, 디지털플랫폼기업) 전환을 추진해왔다. 특히 올 3분기에는 드라마 '이상한 변호사 우영우'의 성공에 힘입어 콘텐츠 자회사 매출은 전년 동기 대비 24.7% 늘어난 3012억원을 기록했다. 올해에도 KT스튜디오지니를 중심으로 미디어 사업을 가속화할 전망이다. LG유플러스도 '유플러스 3.0' 전략에 따라 플랫폼 사업으로의 전환에 속도를 내고 있다. LG유플러스는 지난해 9월 라이프스타일, 놀이, 성장 케어, 웹3.0 등 4대 플랫폼을 중심으로 '유플러스 3.0' 시대를 열겠다는 전략을 발표했다. 또 키즈 플랫폼인 '아이들나라'를 필두로 온라인동영상서비스(OTT) 경쟁력을 가져가겠다는 구상이다. LG유플러스는 플랫폼 사업 매출이 올해부터 구체화될 것으로 내다봤다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
